--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>PKX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54581300</v>
+        <v>52137100</v>
       </c>
       <c r="E8" s="3">
-        <v>50950300</v>
+        <v>52632000</v>
       </c>
       <c r="F8" s="3">
-        <v>44590200</v>
+        <v>49130600</v>
       </c>
       <c r="G8" s="3">
-        <v>48881600</v>
+        <v>42997600</v>
       </c>
       <c r="H8" s="3">
-        <v>54397200</v>
+        <v>47135800</v>
       </c>
       <c r="I8" s="3">
-        <v>51883200</v>
+        <v>52454500</v>
       </c>
       <c r="J8" s="3">
+        <v>50030300</v>
+      </c>
+      <c r="K8" s="3">
         <v>53427500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>62044900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47884500</v>
+        <v>47074400</v>
       </c>
       <c r="E9" s="3">
-        <v>43931300</v>
+        <v>46174400</v>
       </c>
       <c r="F9" s="3">
-        <v>38970900</v>
+        <v>42362300</v>
       </c>
       <c r="G9" s="3">
-        <v>43392800</v>
+        <v>37579100</v>
       </c>
       <c r="H9" s="3">
-        <v>48271000</v>
+        <v>41843100</v>
       </c>
       <c r="I9" s="3">
-        <v>46127600</v>
+        <v>46547000</v>
       </c>
       <c r="J9" s="3">
+        <v>44480200</v>
+      </c>
+      <c r="K9" s="3">
         <v>47160000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53841500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6696800</v>
+        <v>5062800</v>
       </c>
       <c r="E10" s="3">
-        <v>7019000</v>
+        <v>6457600</v>
       </c>
       <c r="F10" s="3">
-        <v>5619200</v>
+        <v>6768300</v>
       </c>
       <c r="G10" s="3">
-        <v>5488800</v>
+        <v>5418500</v>
       </c>
       <c r="H10" s="3">
-        <v>6126200</v>
+        <v>5292700</v>
       </c>
       <c r="I10" s="3">
-        <v>5755600</v>
+        <v>5907400</v>
       </c>
       <c r="J10" s="3">
+        <v>5550100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6267500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8203400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>91000</v>
+        <v>89400</v>
       </c>
       <c r="E12" s="3">
-        <v>105700</v>
+        <v>87800</v>
       </c>
       <c r="F12" s="3">
-        <v>101300</v>
+        <v>101900</v>
       </c>
       <c r="G12" s="3">
-        <v>113800</v>
+        <v>97700</v>
       </c>
       <c r="H12" s="3">
-        <v>147200</v>
+        <v>109800</v>
       </c>
       <c r="I12" s="3">
-        <v>162000</v>
+        <v>141900</v>
       </c>
       <c r="J12" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K12" s="3">
         <v>161500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>191200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1179800</v>
+        <v>553500</v>
       </c>
       <c r="E14" s="3">
-        <v>291200</v>
+        <v>1137600</v>
       </c>
       <c r="F14" s="3">
-        <v>510000</v>
+        <v>280800</v>
       </c>
       <c r="G14" s="3">
-        <v>433900</v>
+        <v>491800</v>
       </c>
       <c r="H14" s="3">
-        <v>457900</v>
+        <v>418400</v>
       </c>
       <c r="I14" s="3">
-        <v>357900</v>
+        <v>441500</v>
       </c>
       <c r="J14" s="3">
+        <v>345100</v>
+      </c>
+      <c r="K14" s="3">
         <v>494200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>179500</v>
+        <v>197200</v>
       </c>
       <c r="E15" s="3">
-        <v>204600</v>
+        <v>173100</v>
       </c>
       <c r="F15" s="3">
-        <v>204100</v>
+        <v>197300</v>
       </c>
       <c r="G15" s="3">
-        <v>230200</v>
+        <v>196800</v>
       </c>
       <c r="H15" s="3">
-        <v>229500</v>
+        <v>221900</v>
       </c>
       <c r="I15" s="3">
-        <v>191900</v>
+        <v>221300</v>
       </c>
       <c r="J15" s="3">
+        <v>185100</v>
+      </c>
+      <c r="K15" s="3">
         <v>183700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>155500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>51105300</v>
+        <v>49556900</v>
       </c>
       <c r="E17" s="3">
-        <v>47359100</v>
+        <v>49280100</v>
       </c>
       <c r="F17" s="3">
-        <v>42710900</v>
+        <v>45667700</v>
       </c>
       <c r="G17" s="3">
-        <v>47291000</v>
+        <v>41185500</v>
       </c>
       <c r="H17" s="3">
-        <v>52147600</v>
+        <v>45602100</v>
       </c>
       <c r="I17" s="3">
-        <v>49731200</v>
+        <v>50285200</v>
       </c>
       <c r="J17" s="3">
+        <v>47955100</v>
+      </c>
+      <c r="K17" s="3">
         <v>50813200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57177600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3476000</v>
+        <v>2580200</v>
       </c>
       <c r="E18" s="3">
-        <v>3591200</v>
+        <v>3351900</v>
       </c>
       <c r="F18" s="3">
-        <v>1879200</v>
+        <v>3462900</v>
       </c>
       <c r="G18" s="3">
-        <v>1590500</v>
+        <v>1812100</v>
       </c>
       <c r="H18" s="3">
-        <v>2249600</v>
+        <v>1533700</v>
       </c>
       <c r="I18" s="3">
-        <v>2152000</v>
+        <v>2169300</v>
       </c>
       <c r="J18" s="3">
+        <v>2075100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2614300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4867300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>139500</v>
+        <v>505100</v>
       </c>
       <c r="E20" s="3">
-        <v>468400</v>
+        <v>134500</v>
       </c>
       <c r="F20" s="3">
-        <v>-122300</v>
+        <v>451700</v>
       </c>
       <c r="G20" s="3">
-        <v>-776100</v>
+        <v>-117900</v>
       </c>
       <c r="H20" s="3">
-        <v>-415500</v>
+        <v>-748400</v>
       </c>
       <c r="I20" s="3">
-        <v>28400</v>
+        <v>-400700</v>
       </c>
       <c r="J20" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K20" s="3">
         <v>947300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>146400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6392900</v>
+        <v>5888800</v>
       </c>
       <c r="E21" s="3">
-        <v>6862400</v>
+        <v>3489100</v>
       </c>
       <c r="F21" s="3">
-        <v>4488700</v>
+        <v>6561400</v>
       </c>
       <c r="G21" s="3">
-        <v>3549900</v>
+        <v>1696800</v>
       </c>
       <c r="H21" s="3">
-        <v>4586900</v>
+        <v>3456200</v>
       </c>
       <c r="I21" s="3">
-        <v>4463100</v>
+        <v>1771300</v>
       </c>
       <c r="J21" s="3">
+        <v>4705800</v>
+      </c>
+      <c r="K21" s="3">
         <v>5740700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7030700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>622700</v>
+        <v>612100</v>
       </c>
       <c r="E22" s="3">
-        <v>548600</v>
+        <v>600400</v>
       </c>
       <c r="F22" s="3">
-        <v>553300</v>
+        <v>529000</v>
       </c>
       <c r="G22" s="3">
-        <v>662600</v>
+        <v>533600</v>
       </c>
       <c r="H22" s="3">
-        <v>668300</v>
+        <v>638900</v>
       </c>
       <c r="I22" s="3">
-        <v>552500</v>
+        <v>644400</v>
       </c>
       <c r="J22" s="3">
+        <v>532700</v>
+      </c>
+      <c r="K22" s="3">
         <v>732000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>709500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2992800</v>
+        <v>2473200</v>
       </c>
       <c r="E23" s="3">
-        <v>3510900</v>
+        <v>2885900</v>
       </c>
       <c r="F23" s="3">
-        <v>1203600</v>
+        <v>3385600</v>
       </c>
       <c r="G23" s="3">
-        <v>151800</v>
+        <v>1160600</v>
       </c>
       <c r="H23" s="3">
-        <v>1165800</v>
+        <v>146400</v>
       </c>
       <c r="I23" s="3">
-        <v>1628000</v>
+        <v>1124200</v>
       </c>
       <c r="J23" s="3">
+        <v>1569800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2829500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4304200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1403400</v>
+        <v>867200</v>
       </c>
       <c r="E24" s="3">
-        <v>1013200</v>
+        <v>1353300</v>
       </c>
       <c r="F24" s="3">
-        <v>323100</v>
+        <v>977000</v>
       </c>
       <c r="G24" s="3">
-        <v>232600</v>
+        <v>311600</v>
       </c>
       <c r="H24" s="3">
-        <v>692000</v>
+        <v>224300</v>
       </c>
       <c r="I24" s="3">
-        <v>494800</v>
+        <v>667300</v>
       </c>
       <c r="J24" s="3">
+        <v>477100</v>
+      </c>
+      <c r="K24" s="3">
         <v>825600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>961300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1589300</v>
+        <v>1605900</v>
       </c>
       <c r="E26" s="3">
-        <v>2497700</v>
+        <v>1532600</v>
       </c>
       <c r="F26" s="3">
-        <v>880500</v>
+        <v>2408500</v>
       </c>
       <c r="G26" s="3">
-        <v>-80800</v>
+        <v>849000</v>
       </c>
       <c r="H26" s="3">
-        <v>473800</v>
+        <v>-77900</v>
       </c>
       <c r="I26" s="3">
-        <v>1133200</v>
+        <v>456900</v>
       </c>
       <c r="J26" s="3">
+        <v>1092700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2003900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3342900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="E27" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="F27" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="G27" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="H27" s="3">
-        <v>503700</v>
+        <v>119600</v>
       </c>
       <c r="I27" s="3">
-        <v>1136200</v>
+        <v>485700</v>
       </c>
       <c r="J27" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2068100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3283300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-139500</v>
+        <v>-505100</v>
       </c>
       <c r="E32" s="3">
-        <v>-468400</v>
+        <v>-134500</v>
       </c>
       <c r="F32" s="3">
-        <v>122300</v>
+        <v>-451700</v>
       </c>
       <c r="G32" s="3">
-        <v>776100</v>
+        <v>117900</v>
       </c>
       <c r="H32" s="3">
-        <v>415500</v>
+        <v>748400</v>
       </c>
       <c r="I32" s="3">
-        <v>-28400</v>
+        <v>400700</v>
       </c>
       <c r="J32" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-947300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-146400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="E33" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="F33" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="G33" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="H33" s="3">
-        <v>503700</v>
+        <v>119600</v>
       </c>
       <c r="I33" s="3">
-        <v>1136200</v>
+        <v>485700</v>
       </c>
       <c r="J33" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2068100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3283300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="E35" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="F35" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="G35" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="H35" s="3">
-        <v>503700</v>
+        <v>119600</v>
       </c>
       <c r="I35" s="3">
-        <v>1136200</v>
+        <v>485700</v>
       </c>
       <c r="J35" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2068100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3283300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2220800</v>
+        <v>2847000</v>
       </c>
       <c r="E41" s="3">
-        <v>2194500</v>
+        <v>2141500</v>
       </c>
       <c r="F41" s="3">
-        <v>2056000</v>
+        <v>2116100</v>
       </c>
       <c r="G41" s="3">
-        <v>4091000</v>
+        <v>1982600</v>
       </c>
       <c r="H41" s="3">
-        <v>3201400</v>
+        <v>3944800</v>
       </c>
       <c r="I41" s="3">
-        <v>7070400</v>
+        <v>3087100</v>
       </c>
       <c r="J41" s="3">
+        <v>6817900</v>
+      </c>
+      <c r="K41" s="3">
         <v>105000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6788100</v>
+        <v>7248300</v>
       </c>
       <c r="E42" s="3">
-        <v>5918500</v>
+        <v>6507400</v>
       </c>
       <c r="F42" s="3">
-        <v>4383200</v>
+        <v>5707200</v>
       </c>
       <c r="G42" s="3">
-        <v>3284700</v>
+        <v>4226700</v>
       </c>
       <c r="H42" s="3">
-        <v>1228900</v>
+        <v>3167400</v>
       </c>
       <c r="I42" s="3">
-        <v>2495400</v>
+        <v>1185000</v>
       </c>
       <c r="J42" s="3">
+        <v>2406200</v>
+      </c>
+      <c r="K42" s="3">
         <v>4017800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4226100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8913400</v>
+        <v>8671700</v>
       </c>
       <c r="E43" s="3">
-        <v>8835000</v>
+        <v>8683000</v>
       </c>
       <c r="F43" s="3">
-        <v>9474600</v>
+        <v>8606300</v>
       </c>
       <c r="G43" s="3">
-        <v>9424900</v>
+        <v>9212200</v>
       </c>
       <c r="H43" s="3">
-        <v>11424000</v>
+        <v>9160800</v>
       </c>
       <c r="I43" s="3">
-        <v>11228600</v>
+        <v>11063300</v>
       </c>
       <c r="J43" s="3">
+        <v>10883900</v>
+      </c>
+      <c r="K43" s="3">
         <v>12164100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13322600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>9659900</v>
+        <v>8845500</v>
       </c>
       <c r="E44" s="3">
-        <v>8358800</v>
+        <v>9314900</v>
       </c>
       <c r="F44" s="3">
-        <v>7603400</v>
+        <v>8060300</v>
       </c>
       <c r="G44" s="3">
-        <v>6909200</v>
+        <v>7331900</v>
       </c>
       <c r="H44" s="3">
-        <v>9385600</v>
+        <v>6662400</v>
       </c>
       <c r="I44" s="3">
-        <v>8526700</v>
+        <v>9050400</v>
       </c>
       <c r="J44" s="3">
+        <v>8222200</v>
+      </c>
+      <c r="K44" s="3">
         <v>8891100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11055300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>684600</v>
+        <v>609800</v>
       </c>
       <c r="E45" s="3">
-        <v>840100</v>
+        <v>610400</v>
       </c>
       <c r="F45" s="3">
-        <v>1098000</v>
+        <v>723300</v>
       </c>
       <c r="G45" s="3">
-        <v>802200</v>
+        <v>982700</v>
       </c>
       <c r="H45" s="3">
-        <v>2654800</v>
+        <v>701100</v>
       </c>
       <c r="I45" s="3">
-        <v>1126600</v>
+        <v>2512700</v>
       </c>
       <c r="J45" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1337500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1543300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>28266800</v>
+        <v>28222300</v>
       </c>
       <c r="E46" s="3">
-        <v>26147000</v>
+        <v>27257300</v>
       </c>
       <c r="F46" s="3">
-        <v>24615200</v>
+        <v>25213200</v>
       </c>
       <c r="G46" s="3">
-        <v>24511900</v>
+        <v>23736100</v>
       </c>
       <c r="H46" s="3">
-        <v>27894700</v>
+        <v>23636500</v>
       </c>
       <c r="I46" s="3">
-        <v>26912500</v>
+        <v>26898400</v>
       </c>
       <c r="J46" s="3">
+        <v>25951400</v>
+      </c>
+      <c r="K46" s="3">
         <v>26515500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30201200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5404800</v>
+        <v>5566400</v>
       </c>
       <c r="E47" s="3">
-        <v>5843200</v>
+        <v>5335000</v>
       </c>
       <c r="F47" s="3">
-        <v>6088400</v>
+        <v>5735100</v>
       </c>
       <c r="G47" s="3">
-        <v>5987300</v>
+        <v>5956800</v>
       </c>
       <c r="H47" s="3">
-        <v>6341400</v>
+        <v>5889000</v>
       </c>
       <c r="I47" s="3">
-        <v>7607300</v>
+        <v>6269300</v>
       </c>
       <c r="J47" s="3">
+        <v>7426800</v>
+      </c>
+      <c r="K47" s="3">
         <v>6536000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8160100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25995400</v>
+        <v>24951400</v>
       </c>
       <c r="E48" s="3">
-        <v>27676700</v>
+        <v>25067000</v>
       </c>
       <c r="F48" s="3">
-        <v>29306000</v>
+        <v>26688200</v>
       </c>
       <c r="G48" s="3">
-        <v>29910000</v>
+        <v>28259300</v>
       </c>
       <c r="H48" s="3">
-        <v>30489300</v>
+        <v>28841800</v>
       </c>
       <c r="I48" s="3">
-        <v>30395700</v>
+        <v>29400400</v>
       </c>
       <c r="J48" s="3">
+        <v>29310100</v>
+      </c>
+      <c r="K48" s="3">
         <v>27550000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72571100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4343500</v>
+        <v>3975900</v>
       </c>
       <c r="E49" s="3">
-        <v>4999900</v>
+        <v>4188400</v>
       </c>
       <c r="F49" s="3">
-        <v>5114500</v>
+        <v>4821300</v>
       </c>
       <c r="G49" s="3">
-        <v>5380800</v>
+        <v>4931900</v>
       </c>
       <c r="H49" s="3">
-        <v>5783400</v>
+        <v>5188700</v>
       </c>
       <c r="I49" s="3">
-        <v>4981100</v>
+        <v>5576800</v>
       </c>
       <c r="J49" s="3">
+        <v>4803200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4756400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4720400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1718000</v>
+        <v>1321600</v>
       </c>
       <c r="E52" s="3">
-        <v>1714100</v>
+        <v>1533400</v>
       </c>
       <c r="F52" s="3">
-        <v>1876700</v>
+        <v>1552300</v>
       </c>
       <c r="G52" s="3">
-        <v>1753200</v>
+        <v>1723900</v>
       </c>
       <c r="H52" s="3">
-        <v>1599900</v>
+        <v>1575100</v>
       </c>
       <c r="I52" s="3">
-        <v>1370000</v>
+        <v>1388300</v>
       </c>
       <c r="J52" s="3">
+        <v>1229800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1225400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1404100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>65728500</v>
+        <v>64037500</v>
       </c>
       <c r="E54" s="3">
-        <v>66381000</v>
+        <v>63381100</v>
       </c>
       <c r="F54" s="3">
-        <v>67000900</v>
+        <v>64010200</v>
       </c>
       <c r="G54" s="3">
-        <v>67543400</v>
+        <v>64608000</v>
       </c>
       <c r="H54" s="3">
-        <v>72108600</v>
+        <v>65131100</v>
       </c>
       <c r="I54" s="3">
-        <v>71266500</v>
+        <v>69533300</v>
       </c>
       <c r="J54" s="3">
+        <v>68721300</v>
+      </c>
+      <c r="K54" s="3">
         <v>66583300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70568000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3365200</v>
+        <v>2772600</v>
       </c>
       <c r="E57" s="3">
-        <v>2910700</v>
+        <v>3245000</v>
       </c>
       <c r="F57" s="3">
-        <v>3421600</v>
+        <v>2806800</v>
       </c>
       <c r="G57" s="3">
-        <v>2625300</v>
+        <v>3299400</v>
       </c>
       <c r="H57" s="3">
-        <v>3318700</v>
+        <v>2531500</v>
       </c>
       <c r="I57" s="3">
-        <v>3554300</v>
+        <v>3200100</v>
       </c>
       <c r="J57" s="3">
+        <v>3427400</v>
+      </c>
+      <c r="K57" s="3">
         <v>4306700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4901600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>8651800</v>
+        <v>7044900</v>
       </c>
       <c r="E58" s="3">
-        <v>9485500</v>
+        <v>8342800</v>
       </c>
       <c r="F58" s="3">
-        <v>8584200</v>
+        <v>9146700</v>
       </c>
       <c r="G58" s="3">
-        <v>10414200</v>
+        <v>8277700</v>
       </c>
       <c r="H58" s="3">
-        <v>10262600</v>
+        <v>10042300</v>
       </c>
       <c r="I58" s="3">
-        <v>9011400</v>
+        <v>9896100</v>
       </c>
       <c r="J58" s="3">
+        <v>8689600</v>
+      </c>
+      <c r="K58" s="3">
         <v>8827900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9712400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3890900</v>
+        <v>3404700</v>
       </c>
       <c r="E59" s="3">
-        <v>3518400</v>
+        <v>3752000</v>
       </c>
       <c r="F59" s="3">
-        <v>3883100</v>
+        <v>3392800</v>
       </c>
       <c r="G59" s="3">
-        <v>3870400</v>
+        <v>3744500</v>
       </c>
       <c r="H59" s="3">
-        <v>5213800</v>
+        <v>3732200</v>
       </c>
       <c r="I59" s="3">
-        <v>4534600</v>
+        <v>5027600</v>
       </c>
       <c r="J59" s="3">
+        <v>4372700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3476500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3030900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>15907900</v>
+        <v>13222200</v>
       </c>
       <c r="E60" s="3">
-        <v>15914700</v>
+        <v>15339800</v>
       </c>
       <c r="F60" s="3">
-        <v>15888900</v>
+        <v>15346300</v>
       </c>
       <c r="G60" s="3">
-        <v>16910000</v>
+        <v>15321500</v>
       </c>
       <c r="H60" s="3">
-        <v>18795000</v>
+        <v>16306000</v>
       </c>
       <c r="I60" s="3">
-        <v>17100300</v>
+        <v>18123800</v>
       </c>
       <c r="J60" s="3">
+        <v>16489600</v>
+      </c>
+      <c r="K60" s="3">
         <v>16611000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17644800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8403600</v>
+        <v>10060000</v>
       </c>
       <c r="E61" s="3">
-        <v>8286100</v>
+        <v>8103400</v>
       </c>
       <c r="F61" s="3">
-        <v>10584100</v>
+        <v>7990200</v>
       </c>
       <c r="G61" s="3">
-        <v>10805400</v>
+        <v>10206100</v>
       </c>
       <c r="H61" s="3">
-        <v>12816400</v>
+        <v>10419500</v>
       </c>
       <c r="I61" s="3">
-        <v>13080700</v>
+        <v>12358600</v>
       </c>
       <c r="J61" s="3">
+        <v>12613500</v>
+      </c>
+      <c r="K61" s="3">
         <v>12106200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14418200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2139000</v>
+        <v>2041700</v>
       </c>
       <c r="E62" s="3">
-        <v>2310500</v>
+        <v>2062600</v>
       </c>
       <c r="F62" s="3">
-        <v>2023700</v>
+        <v>2227900</v>
       </c>
       <c r="G62" s="3">
-        <v>1969000</v>
+        <v>1951400</v>
       </c>
       <c r="H62" s="3">
-        <v>2481000</v>
+        <v>1898600</v>
       </c>
       <c r="I62" s="3">
-        <v>2629800</v>
+        <v>2392400</v>
       </c>
       <c r="J62" s="3">
+        <v>2535800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2225500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1848000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>29296700</v>
+        <v>28015300</v>
       </c>
       <c r="E66" s="3">
-        <v>29645300</v>
+        <v>28250400</v>
       </c>
       <c r="F66" s="3">
-        <v>31407200</v>
+        <v>28586600</v>
       </c>
       <c r="G66" s="3">
-        <v>32905700</v>
+        <v>30285500</v>
       </c>
       <c r="H66" s="3">
-        <v>37200700</v>
+        <v>31730500</v>
       </c>
       <c r="I66" s="3">
-        <v>35979000</v>
+        <v>35872200</v>
       </c>
       <c r="J66" s="3">
+        <v>34694000</v>
+      </c>
+      <c r="K66" s="3">
         <v>33441800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36047200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>37141500</v>
+        <v>36514900</v>
       </c>
       <c r="E72" s="3">
-        <v>36167500</v>
+        <v>35815000</v>
       </c>
       <c r="F72" s="3">
-        <v>34586000</v>
+        <v>34875800</v>
       </c>
       <c r="G72" s="3">
-        <v>34020900</v>
+        <v>33350800</v>
       </c>
       <c r="H72" s="3">
-        <v>34387200</v>
+        <v>32805900</v>
       </c>
       <c r="I72" s="3">
-        <v>34485100</v>
+        <v>33159100</v>
       </c>
       <c r="J72" s="3">
+        <v>33253400</v>
+      </c>
+      <c r="K72" s="3">
         <v>33875600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34823700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>36431900</v>
+        <v>36022200</v>
       </c>
       <c r="E76" s="3">
-        <v>36735600</v>
+        <v>35130700</v>
       </c>
       <c r="F76" s="3">
-        <v>35593700</v>
+        <v>35423600</v>
       </c>
       <c r="G76" s="3">
-        <v>34637700</v>
+        <v>34322500</v>
       </c>
       <c r="H76" s="3">
-        <v>34907800</v>
+        <v>33400600</v>
       </c>
       <c r="I76" s="3">
-        <v>35287600</v>
+        <v>33661100</v>
       </c>
       <c r="J76" s="3">
+        <v>34027300</v>
+      </c>
+      <c r="K76" s="3">
         <v>33141500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34520700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="E81" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="F81" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="G81" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="H81" s="3">
-        <v>503700</v>
+        <v>119600</v>
       </c>
       <c r="I81" s="3">
-        <v>1136200</v>
+        <v>485700</v>
       </c>
       <c r="J81" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2068100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3283300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2744800</v>
+        <v>2803500</v>
       </c>
       <c r="E83" s="3">
-        <v>2769800</v>
+        <v>2646800</v>
       </c>
       <c r="F83" s="3">
-        <v>2699600</v>
+        <v>2670900</v>
       </c>
       <c r="G83" s="3">
-        <v>2703300</v>
+        <v>2603200</v>
       </c>
       <c r="H83" s="3">
-        <v>2720400</v>
+        <v>2606800</v>
       </c>
       <c r="I83" s="3">
-        <v>2255900</v>
+        <v>2623200</v>
       </c>
       <c r="J83" s="3">
+        <v>2175300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2153600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2039700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4934500</v>
+        <v>4913800</v>
       </c>
       <c r="E89" s="3">
-        <v>4660600</v>
+        <v>4758200</v>
       </c>
       <c r="F89" s="3">
-        <v>4436900</v>
+        <v>4494100</v>
       </c>
       <c r="G89" s="3">
-        <v>6405300</v>
+        <v>4278400</v>
       </c>
       <c r="H89" s="3">
-        <v>2875900</v>
+        <v>6176500</v>
       </c>
       <c r="I89" s="3">
-        <v>4080800</v>
+        <v>2773200</v>
       </c>
       <c r="J89" s="3">
+        <v>3935100</v>
+      </c>
+      <c r="K89" s="3">
         <v>6148300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1522400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1793900</v>
+        <v>-2040600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1921600</v>
+        <v>-1729800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1952300</v>
+        <v>-1852900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2150600</v>
+        <v>-1882500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2944700</v>
+        <v>-2073800</v>
       </c>
       <c r="I91" s="3">
-        <v>-5518500</v>
+        <v>-2839500</v>
       </c>
       <c r="J91" s="3">
+        <v>-5321400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5925800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5315100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2224300</v>
+        <v>-2983100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3207000</v>
+        <v>-2144900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3153900</v>
+        <v>-3092500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3809100</v>
+        <v>-3041200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3146000</v>
+        <v>-3673100</v>
       </c>
       <c r="I94" s="3">
-        <v>-7351400</v>
+        <v>-3033600</v>
       </c>
       <c r="J94" s="3">
+        <v>-7088900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5182000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4965200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-562500</v>
+        <v>-717600</v>
       </c>
       <c r="E96" s="3">
-        <v>-689300</v>
+        <v>-542500</v>
       </c>
       <c r="F96" s="3">
-        <v>-595500</v>
+        <v>-664600</v>
       </c>
       <c r="G96" s="3">
-        <v>-691000</v>
+        <v>-574300</v>
       </c>
       <c r="H96" s="3">
-        <v>-568700</v>
+        <v>-666300</v>
       </c>
       <c r="I96" s="3">
-        <v>-544800</v>
+        <v>-548400</v>
       </c>
       <c r="J96" s="3">
+        <v>-525300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-631600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-693800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-2683800</v>
+        <v>-1224900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1315000</v>
+        <v>-2588000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3318800</v>
+        <v>-1268100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1882900</v>
+        <v>-3200300</v>
       </c>
       <c r="H100" s="3">
-        <v>113500</v>
+        <v>-1815700</v>
       </c>
       <c r="I100" s="3">
-        <v>2967200</v>
+        <v>109400</v>
       </c>
       <c r="J100" s="3">
+        <v>2861200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-762400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4409900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3229,46 +3477,52 @@
       <c r="H101" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I101" s="3">
-        <v>-93000</v>
+      <c r="I101" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="J101" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-135200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26300</v>
+        <v>705800</v>
       </c>
       <c r="E102" s="3">
-        <v>138500</v>
+        <v>25400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2035800</v>
+        <v>133600</v>
       </c>
       <c r="G102" s="3">
-        <v>713200</v>
+        <v>-1963100</v>
       </c>
       <c r="H102" s="3">
-        <v>-156600</v>
+        <v>687700</v>
       </c>
       <c r="I102" s="3">
-        <v>-396400</v>
+        <v>-151000</v>
       </c>
       <c r="J102" s="3">
+        <v>-382300</v>
+      </c>
+      <c r="K102" s="3">
         <v>68700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>969900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52137100</v>
+        <v>54068200</v>
       </c>
       <c r="E8" s="3">
-        <v>52632000</v>
+        <v>54581300</v>
       </c>
       <c r="F8" s="3">
-        <v>49130600</v>
+        <v>50950300</v>
       </c>
       <c r="G8" s="3">
-        <v>42997600</v>
+        <v>44590200</v>
       </c>
       <c r="H8" s="3">
-        <v>47135800</v>
+        <v>48881600</v>
       </c>
       <c r="I8" s="3">
-        <v>52454500</v>
+        <v>54397200</v>
       </c>
       <c r="J8" s="3">
-        <v>50030300</v>
+        <v>51883200</v>
       </c>
       <c r="K8" s="3">
         <v>53427500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47074400</v>
+        <v>48817900</v>
       </c>
       <c r="E9" s="3">
-        <v>46174400</v>
+        <v>47884500</v>
       </c>
       <c r="F9" s="3">
-        <v>42362300</v>
+        <v>43931300</v>
       </c>
       <c r="G9" s="3">
-        <v>37579100</v>
+        <v>38970900</v>
       </c>
       <c r="H9" s="3">
-        <v>41843100</v>
+        <v>43392800</v>
       </c>
       <c r="I9" s="3">
-        <v>46547000</v>
+        <v>48271000</v>
       </c>
       <c r="J9" s="3">
-        <v>44480200</v>
+        <v>46127600</v>
       </c>
       <c r="K9" s="3">
         <v>47160000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5062800</v>
+        <v>5250300</v>
       </c>
       <c r="E10" s="3">
-        <v>6457600</v>
+        <v>6696800</v>
       </c>
       <c r="F10" s="3">
-        <v>6768300</v>
+        <v>7019000</v>
       </c>
       <c r="G10" s="3">
-        <v>5418500</v>
+        <v>5619200</v>
       </c>
       <c r="H10" s="3">
-        <v>5292700</v>
+        <v>5488800</v>
       </c>
       <c r="I10" s="3">
-        <v>5907400</v>
+        <v>6126200</v>
       </c>
       <c r="J10" s="3">
-        <v>5550100</v>
+        <v>5755600</v>
       </c>
       <c r="K10" s="3">
         <v>6267500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>89400</v>
+        <v>92700</v>
       </c>
       <c r="E12" s="3">
-        <v>87800</v>
+        <v>91000</v>
       </c>
       <c r="F12" s="3">
-        <v>101900</v>
+        <v>105700</v>
       </c>
       <c r="G12" s="3">
-        <v>97700</v>
+        <v>101300</v>
       </c>
       <c r="H12" s="3">
-        <v>109800</v>
+        <v>113800</v>
       </c>
       <c r="I12" s="3">
-        <v>141900</v>
+        <v>147200</v>
       </c>
       <c r="J12" s="3">
-        <v>156200</v>
+        <v>162000</v>
       </c>
       <c r="K12" s="3">
         <v>161500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>553500</v>
+        <v>574100</v>
       </c>
       <c r="E14" s="3">
-        <v>1137600</v>
+        <v>1179800</v>
       </c>
       <c r="F14" s="3">
-        <v>280800</v>
+        <v>291200</v>
       </c>
       <c r="G14" s="3">
-        <v>491800</v>
+        <v>510000</v>
       </c>
       <c r="H14" s="3">
-        <v>418400</v>
+        <v>433900</v>
       </c>
       <c r="I14" s="3">
-        <v>441500</v>
+        <v>457900</v>
       </c>
       <c r="J14" s="3">
-        <v>345100</v>
+        <v>357900</v>
       </c>
       <c r="K14" s="3">
         <v>494200</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>197200</v>
+        <v>204500</v>
       </c>
       <c r="E15" s="3">
-        <v>173100</v>
+        <v>179500</v>
       </c>
       <c r="F15" s="3">
-        <v>197300</v>
+        <v>204600</v>
       </c>
       <c r="G15" s="3">
-        <v>196800</v>
+        <v>204100</v>
       </c>
       <c r="H15" s="3">
-        <v>221900</v>
+        <v>230200</v>
       </c>
       <c r="I15" s="3">
-        <v>221300</v>
+        <v>229500</v>
       </c>
       <c r="J15" s="3">
-        <v>185100</v>
+        <v>191900</v>
       </c>
       <c r="K15" s="3">
         <v>183700</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>49556900</v>
+        <v>51392400</v>
       </c>
       <c r="E17" s="3">
-        <v>49280100</v>
+        <v>51105300</v>
       </c>
       <c r="F17" s="3">
-        <v>45667700</v>
+        <v>47359100</v>
       </c>
       <c r="G17" s="3">
-        <v>41185500</v>
+        <v>42710900</v>
       </c>
       <c r="H17" s="3">
-        <v>45602100</v>
+        <v>47291000</v>
       </c>
       <c r="I17" s="3">
-        <v>50285200</v>
+        <v>52147600</v>
       </c>
       <c r="J17" s="3">
-        <v>47955100</v>
+        <v>49731200</v>
       </c>
       <c r="K17" s="3">
         <v>50813200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2580200</v>
+        <v>2675800</v>
       </c>
       <c r="E18" s="3">
-        <v>3351900</v>
+        <v>3476000</v>
       </c>
       <c r="F18" s="3">
-        <v>3462900</v>
+        <v>3591200</v>
       </c>
       <c r="G18" s="3">
-        <v>1812100</v>
+        <v>1879200</v>
       </c>
       <c r="H18" s="3">
-        <v>1533700</v>
+        <v>1590500</v>
       </c>
       <c r="I18" s="3">
-        <v>2169300</v>
+        <v>2249600</v>
       </c>
       <c r="J18" s="3">
-        <v>2075100</v>
+        <v>2152000</v>
       </c>
       <c r="K18" s="3">
         <v>2614300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>505100</v>
+        <v>523800</v>
       </c>
       <c r="E20" s="3">
-        <v>134500</v>
+        <v>139500</v>
       </c>
       <c r="F20" s="3">
-        <v>451700</v>
+        <v>468400</v>
       </c>
       <c r="G20" s="3">
-        <v>-117900</v>
+        <v>-122300</v>
       </c>
       <c r="H20" s="3">
-        <v>-748400</v>
+        <v>-776100</v>
       </c>
       <c r="I20" s="3">
-        <v>-400700</v>
+        <v>-415500</v>
       </c>
       <c r="J20" s="3">
-        <v>27400</v>
+        <v>28400</v>
       </c>
       <c r="K20" s="3">
         <v>947300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5888800</v>
+        <v>6106900</v>
       </c>
       <c r="E21" s="3">
-        <v>3489100</v>
+        <v>6360300</v>
       </c>
       <c r="F21" s="3">
-        <v>6561400</v>
+        <v>6829400</v>
       </c>
       <c r="G21" s="3">
-        <v>1696800</v>
+        <v>4456600</v>
       </c>
       <c r="H21" s="3">
-        <v>3456200</v>
+        <v>3517700</v>
       </c>
       <c r="I21" s="3">
-        <v>1771300</v>
+        <v>4554500</v>
       </c>
       <c r="J21" s="3">
-        <v>4705800</v>
+        <v>4436300</v>
       </c>
       <c r="K21" s="3">
         <v>5740700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>612100</v>
+        <v>634800</v>
       </c>
       <c r="E22" s="3">
-        <v>600400</v>
+        <v>622700</v>
       </c>
       <c r="F22" s="3">
-        <v>529000</v>
+        <v>548600</v>
       </c>
       <c r="G22" s="3">
-        <v>533600</v>
+        <v>553300</v>
       </c>
       <c r="H22" s="3">
-        <v>638900</v>
+        <v>662600</v>
       </c>
       <c r="I22" s="3">
-        <v>644400</v>
+        <v>668300</v>
       </c>
       <c r="J22" s="3">
-        <v>532700</v>
+        <v>552500</v>
       </c>
       <c r="K22" s="3">
         <v>732000</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2473200</v>
+        <v>2564800</v>
       </c>
       <c r="E23" s="3">
-        <v>2885900</v>
+        <v>2992800</v>
       </c>
       <c r="F23" s="3">
-        <v>3385600</v>
+        <v>3510900</v>
       </c>
       <c r="G23" s="3">
-        <v>1160600</v>
+        <v>1203600</v>
       </c>
       <c r="H23" s="3">
-        <v>146400</v>
+        <v>151800</v>
       </c>
       <c r="I23" s="3">
-        <v>1124200</v>
+        <v>1165800</v>
       </c>
       <c r="J23" s="3">
-        <v>1569800</v>
+        <v>1628000</v>
       </c>
       <c r="K23" s="3">
         <v>2829500</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>867200</v>
+        <v>899300</v>
       </c>
       <c r="E24" s="3">
-        <v>1353300</v>
+        <v>1403400</v>
       </c>
       <c r="F24" s="3">
-        <v>977000</v>
+        <v>1013200</v>
       </c>
       <c r="G24" s="3">
-        <v>311600</v>
+        <v>323100</v>
       </c>
       <c r="H24" s="3">
-        <v>224300</v>
+        <v>232600</v>
       </c>
       <c r="I24" s="3">
-        <v>667300</v>
+        <v>692000</v>
       </c>
       <c r="J24" s="3">
-        <v>477100</v>
+        <v>494800</v>
       </c>
       <c r="K24" s="3">
         <v>825600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1605900</v>
+        <v>1665400</v>
       </c>
       <c r="E26" s="3">
-        <v>1532600</v>
+        <v>1589300</v>
       </c>
       <c r="F26" s="3">
-        <v>2408500</v>
+        <v>2497700</v>
       </c>
       <c r="G26" s="3">
-        <v>849000</v>
+        <v>880500</v>
       </c>
       <c r="H26" s="3">
-        <v>-77900</v>
+        <v>-80800</v>
       </c>
       <c r="I26" s="3">
-        <v>456900</v>
+        <v>473800</v>
       </c>
       <c r="J26" s="3">
-        <v>1092700</v>
+        <v>1133200</v>
       </c>
       <c r="K26" s="3">
         <v>2003900</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1481000</v>
+        <v>1535900</v>
       </c>
       <c r="E27" s="3">
-        <v>1355000</v>
+        <v>1405200</v>
       </c>
       <c r="F27" s="3">
-        <v>2233200</v>
+        <v>2315900</v>
       </c>
       <c r="G27" s="3">
-        <v>1077400</v>
+        <v>1117300</v>
       </c>
       <c r="H27" s="3">
-        <v>119600</v>
+        <v>124000</v>
       </c>
       <c r="I27" s="3">
-        <v>485700</v>
+        <v>503700</v>
       </c>
       <c r="J27" s="3">
-        <v>1095600</v>
+        <v>1136200</v>
       </c>
       <c r="K27" s="3">
         <v>2068100</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-505100</v>
+        <v>-523800</v>
       </c>
       <c r="E32" s="3">
-        <v>-134500</v>
+        <v>-139500</v>
       </c>
       <c r="F32" s="3">
-        <v>-451700</v>
+        <v>-468400</v>
       </c>
       <c r="G32" s="3">
-        <v>117900</v>
+        <v>122300</v>
       </c>
       <c r="H32" s="3">
-        <v>748400</v>
+        <v>776100</v>
       </c>
       <c r="I32" s="3">
-        <v>400700</v>
+        <v>415500</v>
       </c>
       <c r="J32" s="3">
-        <v>-27400</v>
+        <v>-28400</v>
       </c>
       <c r="K32" s="3">
         <v>-947300</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1481000</v>
+        <v>1535900</v>
       </c>
       <c r="E33" s="3">
-        <v>1355000</v>
+        <v>1405200</v>
       </c>
       <c r="F33" s="3">
-        <v>2233200</v>
+        <v>2315900</v>
       </c>
       <c r="G33" s="3">
-        <v>1077400</v>
+        <v>1117300</v>
       </c>
       <c r="H33" s="3">
-        <v>119600</v>
+        <v>124000</v>
       </c>
       <c r="I33" s="3">
-        <v>485700</v>
+        <v>503700</v>
       </c>
       <c r="J33" s="3">
-        <v>1095600</v>
+        <v>1136200</v>
       </c>
       <c r="K33" s="3">
         <v>2068100</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1481000</v>
+        <v>1535900</v>
       </c>
       <c r="E35" s="3">
-        <v>1355000</v>
+        <v>1405200</v>
       </c>
       <c r="F35" s="3">
-        <v>2233200</v>
+        <v>2315900</v>
       </c>
       <c r="G35" s="3">
-        <v>1077400</v>
+        <v>1117300</v>
       </c>
       <c r="H35" s="3">
-        <v>119600</v>
+        <v>124000</v>
       </c>
       <c r="I35" s="3">
-        <v>485700</v>
+        <v>503700</v>
       </c>
       <c r="J35" s="3">
-        <v>1095600</v>
+        <v>1136200</v>
       </c>
       <c r="K35" s="3">
         <v>2068100</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2847000</v>
+        <v>2952500</v>
       </c>
       <c r="E41" s="3">
-        <v>2141500</v>
+        <v>2220800</v>
       </c>
       <c r="F41" s="3">
-        <v>2116100</v>
+        <v>2194500</v>
       </c>
       <c r="G41" s="3">
-        <v>1982600</v>
+        <v>2056000</v>
       </c>
       <c r="H41" s="3">
-        <v>3944800</v>
+        <v>4091000</v>
       </c>
       <c r="I41" s="3">
-        <v>3087100</v>
+        <v>3201400</v>
       </c>
       <c r="J41" s="3">
-        <v>6817900</v>
+        <v>7070400</v>
       </c>
       <c r="K41" s="3">
         <v>105000</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7248300</v>
+        <v>7516700</v>
       </c>
       <c r="E42" s="3">
-        <v>6507400</v>
+        <v>6748400</v>
       </c>
       <c r="F42" s="3">
-        <v>5707200</v>
+        <v>5918500</v>
       </c>
       <c r="G42" s="3">
-        <v>4226700</v>
+        <v>4383200</v>
       </c>
       <c r="H42" s="3">
-        <v>3167400</v>
+        <v>3284700</v>
       </c>
       <c r="I42" s="3">
-        <v>1185000</v>
+        <v>1228900</v>
       </c>
       <c r="J42" s="3">
-        <v>2406200</v>
+        <v>2495400</v>
       </c>
       <c r="K42" s="3">
         <v>4017800</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8671700</v>
+        <v>8992900</v>
       </c>
       <c r="E43" s="3">
-        <v>8683000</v>
+        <v>9004600</v>
       </c>
       <c r="F43" s="3">
-        <v>8606300</v>
+        <v>8925000</v>
       </c>
       <c r="G43" s="3">
-        <v>9212200</v>
+        <v>9553400</v>
       </c>
       <c r="H43" s="3">
-        <v>9160800</v>
+        <v>9500000</v>
       </c>
       <c r="I43" s="3">
-        <v>11063300</v>
+        <v>11473000</v>
       </c>
       <c r="J43" s="3">
-        <v>10883900</v>
+        <v>11287000</v>
       </c>
       <c r="K43" s="3">
         <v>12164100</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>8845500</v>
+        <v>9173100</v>
       </c>
       <c r="E44" s="3">
-        <v>9314900</v>
+        <v>9659900</v>
       </c>
       <c r="F44" s="3">
-        <v>8060300</v>
+        <v>8358800</v>
       </c>
       <c r="G44" s="3">
-        <v>7331900</v>
+        <v>7603400</v>
       </c>
       <c r="H44" s="3">
-        <v>6662400</v>
+        <v>6909200</v>
       </c>
       <c r="I44" s="3">
-        <v>9050400</v>
+        <v>9385600</v>
       </c>
       <c r="J44" s="3">
-        <v>8222200</v>
+        <v>8526700</v>
       </c>
       <c r="K44" s="3">
         <v>8891100</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>609800</v>
+        <v>632400</v>
       </c>
       <c r="E45" s="3">
-        <v>610400</v>
+        <v>633000</v>
       </c>
       <c r="F45" s="3">
-        <v>723300</v>
+        <v>750100</v>
       </c>
       <c r="G45" s="3">
-        <v>982700</v>
+        <v>1019100</v>
       </c>
       <c r="H45" s="3">
-        <v>701100</v>
+        <v>727000</v>
       </c>
       <c r="I45" s="3">
-        <v>2512700</v>
+        <v>2605800</v>
       </c>
       <c r="J45" s="3">
-        <v>1030100</v>
+        <v>1068300</v>
       </c>
       <c r="K45" s="3">
         <v>1337500</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>28222300</v>
+        <v>29267600</v>
       </c>
       <c r="E46" s="3">
-        <v>27257300</v>
+        <v>28266800</v>
       </c>
       <c r="F46" s="3">
-        <v>25213200</v>
+        <v>26147000</v>
       </c>
       <c r="G46" s="3">
-        <v>23736100</v>
+        <v>24615200</v>
       </c>
       <c r="H46" s="3">
-        <v>23636500</v>
+        <v>24511900</v>
       </c>
       <c r="I46" s="3">
-        <v>26898400</v>
+        <v>27894700</v>
       </c>
       <c r="J46" s="3">
-        <v>25951400</v>
+        <v>26912500</v>
       </c>
       <c r="K46" s="3">
         <v>26515500</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5566400</v>
+        <v>5772500</v>
       </c>
       <c r="E47" s="3">
-        <v>5335000</v>
+        <v>5532600</v>
       </c>
       <c r="F47" s="3">
-        <v>5735100</v>
+        <v>5947500</v>
       </c>
       <c r="G47" s="3">
-        <v>5956800</v>
+        <v>6177500</v>
       </c>
       <c r="H47" s="3">
-        <v>5889000</v>
+        <v>6107100</v>
       </c>
       <c r="I47" s="3">
-        <v>6269300</v>
+        <v>6501500</v>
       </c>
       <c r="J47" s="3">
-        <v>7426800</v>
+        <v>7701900</v>
       </c>
       <c r="K47" s="3">
         <v>6536000</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>24951400</v>
+        <v>25875500</v>
       </c>
       <c r="E48" s="3">
-        <v>25067000</v>
+        <v>25995400</v>
       </c>
       <c r="F48" s="3">
-        <v>26688200</v>
+        <v>27676700</v>
       </c>
       <c r="G48" s="3">
-        <v>28259300</v>
+        <v>29306000</v>
       </c>
       <c r="H48" s="3">
-        <v>28841800</v>
+        <v>29910000</v>
       </c>
       <c r="I48" s="3">
-        <v>29400400</v>
+        <v>30489300</v>
       </c>
       <c r="J48" s="3">
-        <v>29310100</v>
+        <v>30395700</v>
       </c>
       <c r="K48" s="3">
         <v>27550000</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3975900</v>
+        <v>4123100</v>
       </c>
       <c r="E49" s="3">
-        <v>4188400</v>
+        <v>4343500</v>
       </c>
       <c r="F49" s="3">
-        <v>4821300</v>
+        <v>4999900</v>
       </c>
       <c r="G49" s="3">
-        <v>4931900</v>
+        <v>5114500</v>
       </c>
       <c r="H49" s="3">
-        <v>5188700</v>
+        <v>5380800</v>
       </c>
       <c r="I49" s="3">
-        <v>5576800</v>
+        <v>5783400</v>
       </c>
       <c r="J49" s="3">
-        <v>4803200</v>
+        <v>4981100</v>
       </c>
       <c r="K49" s="3">
         <v>4756400</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1321600</v>
+        <v>1370500</v>
       </c>
       <c r="E52" s="3">
-        <v>1533400</v>
+        <v>1590200</v>
       </c>
       <c r="F52" s="3">
-        <v>1552300</v>
+        <v>1609800</v>
       </c>
       <c r="G52" s="3">
-        <v>1723900</v>
+        <v>1787700</v>
       </c>
       <c r="H52" s="3">
-        <v>1575100</v>
+        <v>1633400</v>
       </c>
       <c r="I52" s="3">
-        <v>1388300</v>
+        <v>1439700</v>
       </c>
       <c r="J52" s="3">
-        <v>1229800</v>
+        <v>1275400</v>
       </c>
       <c r="K52" s="3">
         <v>1225400</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>64037500</v>
+        <v>66409300</v>
       </c>
       <c r="E54" s="3">
-        <v>63381100</v>
+        <v>65728500</v>
       </c>
       <c r="F54" s="3">
-        <v>64010200</v>
+        <v>66381000</v>
       </c>
       <c r="G54" s="3">
-        <v>64608000</v>
+        <v>67000900</v>
       </c>
       <c r="H54" s="3">
-        <v>65131100</v>
+        <v>67543400</v>
       </c>
       <c r="I54" s="3">
-        <v>69533300</v>
+        <v>72108600</v>
       </c>
       <c r="J54" s="3">
-        <v>68721300</v>
+        <v>71266500</v>
       </c>
       <c r="K54" s="3">
         <v>66583300</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2772600</v>
+        <v>2875300</v>
       </c>
       <c r="E57" s="3">
-        <v>3245000</v>
+        <v>3365200</v>
       </c>
       <c r="F57" s="3">
-        <v>2806800</v>
+        <v>2910700</v>
       </c>
       <c r="G57" s="3">
-        <v>3299400</v>
+        <v>3421600</v>
       </c>
       <c r="H57" s="3">
-        <v>2531500</v>
+        <v>2625300</v>
       </c>
       <c r="I57" s="3">
-        <v>3200100</v>
+        <v>3318700</v>
       </c>
       <c r="J57" s="3">
-        <v>3427400</v>
+        <v>3554300</v>
       </c>
       <c r="K57" s="3">
         <v>4306700</v>
@@ -2177,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7044900</v>
+        <v>7305800</v>
       </c>
       <c r="E58" s="3">
-        <v>8342800</v>
+        <v>8651800</v>
       </c>
       <c r="F58" s="3">
-        <v>9146700</v>
+        <v>9485500</v>
       </c>
       <c r="G58" s="3">
-        <v>8277700</v>
+        <v>8584200</v>
       </c>
       <c r="H58" s="3">
-        <v>10042300</v>
+        <v>10414200</v>
       </c>
       <c r="I58" s="3">
-        <v>9896100</v>
+        <v>10262600</v>
       </c>
       <c r="J58" s="3">
-        <v>8689600</v>
+        <v>9011400</v>
       </c>
       <c r="K58" s="3">
         <v>8827900</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3404700</v>
+        <v>3530800</v>
       </c>
       <c r="E59" s="3">
-        <v>3752000</v>
+        <v>3890900</v>
       </c>
       <c r="F59" s="3">
-        <v>3392800</v>
+        <v>3518400</v>
       </c>
       <c r="G59" s="3">
-        <v>3744500</v>
+        <v>3883100</v>
       </c>
       <c r="H59" s="3">
-        <v>3732200</v>
+        <v>3870400</v>
       </c>
       <c r="I59" s="3">
-        <v>5027600</v>
+        <v>5213800</v>
       </c>
       <c r="J59" s="3">
-        <v>4372700</v>
+        <v>4534600</v>
       </c>
       <c r="K59" s="3">
         <v>3476500</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13222200</v>
+        <v>13711900</v>
       </c>
       <c r="E60" s="3">
-        <v>15339800</v>
+        <v>15907900</v>
       </c>
       <c r="F60" s="3">
-        <v>15346300</v>
+        <v>15914700</v>
       </c>
       <c r="G60" s="3">
-        <v>15321500</v>
+        <v>15888900</v>
       </c>
       <c r="H60" s="3">
-        <v>16306000</v>
+        <v>16910000</v>
       </c>
       <c r="I60" s="3">
-        <v>18123800</v>
+        <v>18795000</v>
       </c>
       <c r="J60" s="3">
-        <v>16489600</v>
+        <v>17100300</v>
       </c>
       <c r="K60" s="3">
         <v>16611000</v>
@@ -2276,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10060000</v>
+        <v>10432500</v>
       </c>
       <c r="E61" s="3">
-        <v>8103400</v>
+        <v>8403600</v>
       </c>
       <c r="F61" s="3">
-        <v>7990200</v>
+        <v>8286100</v>
       </c>
       <c r="G61" s="3">
-        <v>10206100</v>
+        <v>10584100</v>
       </c>
       <c r="H61" s="3">
-        <v>10419500</v>
+        <v>10805400</v>
       </c>
       <c r="I61" s="3">
-        <v>12358600</v>
+        <v>12816400</v>
       </c>
       <c r="J61" s="3">
-        <v>12613500</v>
+        <v>13080700</v>
       </c>
       <c r="K61" s="3">
         <v>12106200</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2041700</v>
+        <v>2117300</v>
       </c>
       <c r="E62" s="3">
-        <v>2062600</v>
+        <v>2139000</v>
       </c>
       <c r="F62" s="3">
-        <v>2227900</v>
+        <v>2310500</v>
       </c>
       <c r="G62" s="3">
-        <v>1951400</v>
+        <v>2023700</v>
       </c>
       <c r="H62" s="3">
-        <v>1898600</v>
+        <v>1969000</v>
       </c>
       <c r="I62" s="3">
-        <v>2392400</v>
+        <v>2481000</v>
       </c>
       <c r="J62" s="3">
-        <v>2535800</v>
+        <v>2629800</v>
       </c>
       <c r="K62" s="3">
         <v>2225500</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>28015300</v>
+        <v>29052900</v>
       </c>
       <c r="E66" s="3">
-        <v>28250400</v>
+        <v>29296700</v>
       </c>
       <c r="F66" s="3">
-        <v>28586600</v>
+        <v>29645300</v>
       </c>
       <c r="G66" s="3">
-        <v>30285500</v>
+        <v>31407200</v>
       </c>
       <c r="H66" s="3">
-        <v>31730500</v>
+        <v>32905700</v>
       </c>
       <c r="I66" s="3">
-        <v>35872200</v>
+        <v>37200700</v>
       </c>
       <c r="J66" s="3">
-        <v>34694000</v>
+        <v>35979000</v>
       </c>
       <c r="K66" s="3">
         <v>33441800</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>36514900</v>
+        <v>37867300</v>
       </c>
       <c r="E72" s="3">
-        <v>35815000</v>
+        <v>37141500</v>
       </c>
       <c r="F72" s="3">
-        <v>34875800</v>
+        <v>36167500</v>
       </c>
       <c r="G72" s="3">
-        <v>33350800</v>
+        <v>34586000</v>
       </c>
       <c r="H72" s="3">
-        <v>32805900</v>
+        <v>34020900</v>
       </c>
       <c r="I72" s="3">
-        <v>33159100</v>
+        <v>34387200</v>
       </c>
       <c r="J72" s="3">
-        <v>33253400</v>
+        <v>34485100</v>
       </c>
       <c r="K72" s="3">
         <v>33875600</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>36022200</v>
+        <v>37356400</v>
       </c>
       <c r="E76" s="3">
-        <v>35130700</v>
+        <v>36431900</v>
       </c>
       <c r="F76" s="3">
-        <v>35423600</v>
+        <v>36735600</v>
       </c>
       <c r="G76" s="3">
-        <v>34322500</v>
+        <v>35593700</v>
       </c>
       <c r="H76" s="3">
-        <v>33400600</v>
+        <v>34637700</v>
       </c>
       <c r="I76" s="3">
-        <v>33661100</v>
+        <v>34907800</v>
       </c>
       <c r="J76" s="3">
-        <v>34027300</v>
+        <v>35287600</v>
       </c>
       <c r="K76" s="3">
         <v>33141500</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1481000</v>
+        <v>1535900</v>
       </c>
       <c r="E81" s="3">
-        <v>1355000</v>
+        <v>1405200</v>
       </c>
       <c r="F81" s="3">
-        <v>2233200</v>
+        <v>2315900</v>
       </c>
       <c r="G81" s="3">
-        <v>1077400</v>
+        <v>1117300</v>
       </c>
       <c r="H81" s="3">
-        <v>119600</v>
+        <v>124000</v>
       </c>
       <c r="I81" s="3">
-        <v>485700</v>
+        <v>503700</v>
       </c>
       <c r="J81" s="3">
-        <v>1095600</v>
+        <v>1136200</v>
       </c>
       <c r="K81" s="3">
         <v>2068100</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2803500</v>
+        <v>2907300</v>
       </c>
       <c r="E83" s="3">
-        <v>2646800</v>
+        <v>2744800</v>
       </c>
       <c r="F83" s="3">
-        <v>2670900</v>
+        <v>2769800</v>
       </c>
       <c r="G83" s="3">
-        <v>2603200</v>
+        <v>2699600</v>
       </c>
       <c r="H83" s="3">
-        <v>2606800</v>
+        <v>2703300</v>
       </c>
       <c r="I83" s="3">
-        <v>2623200</v>
+        <v>2720400</v>
       </c>
       <c r="J83" s="3">
-        <v>2175300</v>
+        <v>2255900</v>
       </c>
       <c r="K83" s="3">
         <v>2153600</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4913800</v>
+        <v>5095800</v>
       </c>
       <c r="E89" s="3">
-        <v>4758200</v>
+        <v>4934500</v>
       </c>
       <c r="F89" s="3">
-        <v>4494100</v>
+        <v>4660600</v>
       </c>
       <c r="G89" s="3">
-        <v>4278400</v>
+        <v>4436900</v>
       </c>
       <c r="H89" s="3">
-        <v>6176500</v>
+        <v>6405300</v>
       </c>
       <c r="I89" s="3">
-        <v>2773200</v>
+        <v>2875900</v>
       </c>
       <c r="J89" s="3">
-        <v>3935100</v>
+        <v>4080800</v>
       </c>
       <c r="K89" s="3">
         <v>6148300</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2040600</v>
+        <v>-2116100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1729800</v>
+        <v>-1793900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1852900</v>
+        <v>-1921600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1882500</v>
+        <v>-1952300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2073800</v>
+        <v>-2150600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2839500</v>
+        <v>-2944700</v>
       </c>
       <c r="J91" s="3">
-        <v>-5321400</v>
+        <v>-5518500</v>
       </c>
       <c r="K91" s="3">
         <v>-5925800</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2983100</v>
+        <v>-3093600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2144900</v>
+        <v>-2224300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3092500</v>
+        <v>-3207000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3041200</v>
+        <v>-3153900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3673100</v>
+        <v>-3809100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3033600</v>
+        <v>-3146000</v>
       </c>
       <c r="J94" s="3">
-        <v>-7088900</v>
+        <v>-7351400</v>
       </c>
       <c r="K94" s="3">
         <v>-5182000</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-717600</v>
+        <v>-744200</v>
       </c>
       <c r="E96" s="3">
-        <v>-542500</v>
+        <v>-562500</v>
       </c>
       <c r="F96" s="3">
-        <v>-664600</v>
+        <v>-689300</v>
       </c>
       <c r="G96" s="3">
-        <v>-574300</v>
+        <v>-595500</v>
       </c>
       <c r="H96" s="3">
-        <v>-666300</v>
+        <v>-691000</v>
       </c>
       <c r="I96" s="3">
-        <v>-548400</v>
+        <v>-568700</v>
       </c>
       <c r="J96" s="3">
-        <v>-525300</v>
+        <v>-544800</v>
       </c>
       <c r="K96" s="3">
         <v>-631600</v>
@@ -3430,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1224900</v>
+        <v>-1270200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2588000</v>
+        <v>-2683800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1268100</v>
+        <v>-1315000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3200300</v>
+        <v>-3318800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1815700</v>
+        <v>-1882900</v>
       </c>
       <c r="I100" s="3">
-        <v>109400</v>
+        <v>113500</v>
       </c>
       <c r="J100" s="3">
-        <v>2861200</v>
+        <v>2967200</v>
       </c>
       <c r="K100" s="3">
         <v>-762400</v>
@@ -3481,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="J101" s="3">
-        <v>-89700</v>
+        <v>-93000</v>
       </c>
       <c r="K101" s="3">
         <v>-135200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>705800</v>
+        <v>732000</v>
       </c>
       <c r="E102" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="F102" s="3">
-        <v>133600</v>
+        <v>138500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1963100</v>
+        <v>-2035800</v>
       </c>
       <c r="H102" s="3">
-        <v>687700</v>
+        <v>713200</v>
       </c>
       <c r="I102" s="3">
-        <v>-151000</v>
+        <v>-156600</v>
       </c>
       <c r="J102" s="3">
-        <v>-382300</v>
+        <v>-396400</v>
       </c>
       <c r="K102" s="3">
         <v>68700</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54068200</v>
+        <v>58573800</v>
       </c>
       <c r="E8" s="3">
-        <v>54581300</v>
+        <v>59129800</v>
       </c>
       <c r="F8" s="3">
-        <v>50950300</v>
+        <v>55196100</v>
       </c>
       <c r="G8" s="3">
-        <v>44590200</v>
+        <v>48306000</v>
       </c>
       <c r="H8" s="3">
-        <v>48881600</v>
+        <v>52955000</v>
       </c>
       <c r="I8" s="3">
-        <v>54397200</v>
+        <v>58930300</v>
       </c>
       <c r="J8" s="3">
-        <v>51883200</v>
+        <v>56206800</v>
       </c>
       <c r="K8" s="3">
         <v>53427500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48817900</v>
+        <v>52886000</v>
       </c>
       <c r="E9" s="3">
-        <v>47884500</v>
+        <v>51874900</v>
       </c>
       <c r="F9" s="3">
-        <v>43931300</v>
+        <v>47592300</v>
       </c>
       <c r="G9" s="3">
-        <v>38970900</v>
+        <v>42218500</v>
       </c>
       <c r="H9" s="3">
-        <v>43392800</v>
+        <v>47008900</v>
       </c>
       <c r="I9" s="3">
-        <v>48271000</v>
+        <v>52293600</v>
       </c>
       <c r="J9" s="3">
-        <v>46127600</v>
+        <v>49971600</v>
       </c>
       <c r="K9" s="3">
         <v>47160000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5250300</v>
+        <v>5687800</v>
       </c>
       <c r="E10" s="3">
-        <v>6696800</v>
+        <v>7254900</v>
       </c>
       <c r="F10" s="3">
-        <v>7019000</v>
+        <v>7603900</v>
       </c>
       <c r="G10" s="3">
-        <v>5619200</v>
+        <v>6087500</v>
       </c>
       <c r="H10" s="3">
-        <v>5488800</v>
+        <v>5946200</v>
       </c>
       <c r="I10" s="3">
-        <v>6126200</v>
+        <v>6636800</v>
       </c>
       <c r="J10" s="3">
-        <v>5755600</v>
+        <v>6235300</v>
       </c>
       <c r="K10" s="3">
         <v>6267500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>92700</v>
+        <v>100400</v>
       </c>
       <c r="E12" s="3">
-        <v>91000</v>
+        <v>98600</v>
       </c>
       <c r="F12" s="3">
-        <v>105700</v>
+        <v>114500</v>
       </c>
       <c r="G12" s="3">
-        <v>101300</v>
+        <v>109800</v>
       </c>
       <c r="H12" s="3">
-        <v>113800</v>
+        <v>123300</v>
       </c>
       <c r="I12" s="3">
-        <v>147200</v>
+        <v>159400</v>
       </c>
       <c r="J12" s="3">
-        <v>162000</v>
+        <v>175500</v>
       </c>
       <c r="K12" s="3">
         <v>161500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>574100</v>
+        <v>621900</v>
       </c>
       <c r="E14" s="3">
-        <v>1179800</v>
+        <v>1278100</v>
       </c>
       <c r="F14" s="3">
-        <v>291200</v>
+        <v>315400</v>
       </c>
       <c r="G14" s="3">
-        <v>510000</v>
+        <v>552500</v>
       </c>
       <c r="H14" s="3">
-        <v>433900</v>
+        <v>470100</v>
       </c>
       <c r="I14" s="3">
-        <v>457900</v>
+        <v>496100</v>
       </c>
       <c r="J14" s="3">
-        <v>357900</v>
+        <v>387800</v>
       </c>
       <c r="K14" s="3">
         <v>494200</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>204500</v>
+        <v>221600</v>
       </c>
       <c r="E15" s="3">
-        <v>179500</v>
+        <v>194500</v>
       </c>
       <c r="F15" s="3">
-        <v>204600</v>
+        <v>221700</v>
       </c>
       <c r="G15" s="3">
-        <v>204100</v>
+        <v>221100</v>
       </c>
       <c r="H15" s="3">
-        <v>230200</v>
+        <v>249300</v>
       </c>
       <c r="I15" s="3">
-        <v>229500</v>
+        <v>248600</v>
       </c>
       <c r="J15" s="3">
-        <v>191900</v>
+        <v>207900</v>
       </c>
       <c r="K15" s="3">
         <v>183700</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>51392400</v>
+        <v>55675100</v>
       </c>
       <c r="E17" s="3">
-        <v>51105300</v>
+        <v>55364100</v>
       </c>
       <c r="F17" s="3">
-        <v>47359100</v>
+        <v>51305700</v>
       </c>
       <c r="G17" s="3">
-        <v>42710900</v>
+        <v>46270200</v>
       </c>
       <c r="H17" s="3">
-        <v>47291000</v>
+        <v>51232000</v>
       </c>
       <c r="I17" s="3">
-        <v>52147600</v>
+        <v>56493200</v>
       </c>
       <c r="J17" s="3">
-        <v>49731200</v>
+        <v>53875500</v>
       </c>
       <c r="K17" s="3">
         <v>50813200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2675800</v>
+        <v>2898800</v>
       </c>
       <c r="E18" s="3">
-        <v>3476000</v>
+        <v>3765700</v>
       </c>
       <c r="F18" s="3">
-        <v>3591200</v>
+        <v>3890400</v>
       </c>
       <c r="G18" s="3">
-        <v>1879200</v>
+        <v>2035800</v>
       </c>
       <c r="H18" s="3">
-        <v>1590500</v>
+        <v>1723100</v>
       </c>
       <c r="I18" s="3">
-        <v>2249600</v>
+        <v>2437100</v>
       </c>
       <c r="J18" s="3">
-        <v>2152000</v>
+        <v>2331300</v>
       </c>
       <c r="K18" s="3">
         <v>2614300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>523800</v>
+        <v>567400</v>
       </c>
       <c r="E20" s="3">
-        <v>139500</v>
+        <v>151100</v>
       </c>
       <c r="F20" s="3">
-        <v>468400</v>
+        <v>507400</v>
       </c>
       <c r="G20" s="3">
-        <v>-122300</v>
+        <v>-132500</v>
       </c>
       <c r="H20" s="3">
-        <v>-776100</v>
+        <v>-840800</v>
       </c>
       <c r="I20" s="3">
-        <v>-415500</v>
+        <v>-450200</v>
       </c>
       <c r="J20" s="3">
-        <v>28400</v>
+        <v>30800</v>
       </c>
       <c r="K20" s="3">
         <v>947300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6106900</v>
+        <v>6581200</v>
       </c>
       <c r="E21" s="3">
-        <v>6360300</v>
+        <v>6857600</v>
       </c>
       <c r="F21" s="3">
-        <v>6829400</v>
+        <v>7365500</v>
       </c>
       <c r="G21" s="3">
-        <v>4456600</v>
+        <v>4795800</v>
       </c>
       <c r="H21" s="3">
-        <v>3517700</v>
+        <v>3778700</v>
       </c>
       <c r="I21" s="3">
-        <v>4554500</v>
+        <v>4901600</v>
       </c>
       <c r="J21" s="3">
-        <v>4436300</v>
+        <v>4779100</v>
       </c>
       <c r="K21" s="3">
         <v>5740700</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>634800</v>
+        <v>687700</v>
       </c>
       <c r="E22" s="3">
-        <v>622700</v>
+        <v>674600</v>
       </c>
       <c r="F22" s="3">
-        <v>548600</v>
+        <v>594300</v>
       </c>
       <c r="G22" s="3">
-        <v>553300</v>
+        <v>599400</v>
       </c>
       <c r="H22" s="3">
-        <v>662600</v>
+        <v>717800</v>
       </c>
       <c r="I22" s="3">
-        <v>668300</v>
+        <v>724000</v>
       </c>
       <c r="J22" s="3">
-        <v>552500</v>
+        <v>598500</v>
       </c>
       <c r="K22" s="3">
         <v>732000</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2564800</v>
+        <v>2778500</v>
       </c>
       <c r="E23" s="3">
-        <v>2992800</v>
+        <v>3242200</v>
       </c>
       <c r="F23" s="3">
-        <v>3510900</v>
+        <v>3803500</v>
       </c>
       <c r="G23" s="3">
-        <v>1203600</v>
+        <v>1303900</v>
       </c>
       <c r="H23" s="3">
-        <v>151800</v>
+        <v>164500</v>
       </c>
       <c r="I23" s="3">
-        <v>1165800</v>
+        <v>1263000</v>
       </c>
       <c r="J23" s="3">
-        <v>1628000</v>
+        <v>1763600</v>
       </c>
       <c r="K23" s="3">
         <v>2829500</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>899300</v>
+        <v>974300</v>
       </c>
       <c r="E24" s="3">
-        <v>1403400</v>
+        <v>1520400</v>
       </c>
       <c r="F24" s="3">
-        <v>1013200</v>
+        <v>1097700</v>
       </c>
       <c r="G24" s="3">
-        <v>323100</v>
+        <v>350100</v>
       </c>
       <c r="H24" s="3">
-        <v>232600</v>
+        <v>252000</v>
       </c>
       <c r="I24" s="3">
-        <v>692000</v>
+        <v>749700</v>
       </c>
       <c r="J24" s="3">
-        <v>494800</v>
+        <v>536000</v>
       </c>
       <c r="K24" s="3">
         <v>825600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1665400</v>
+        <v>1804200</v>
       </c>
       <c r="E26" s="3">
-        <v>1589300</v>
+        <v>1721800</v>
       </c>
       <c r="F26" s="3">
-        <v>2497700</v>
+        <v>2705900</v>
       </c>
       <c r="G26" s="3">
-        <v>880500</v>
+        <v>953800</v>
       </c>
       <c r="H26" s="3">
-        <v>-80800</v>
+        <v>-87500</v>
       </c>
       <c r="I26" s="3">
-        <v>473800</v>
+        <v>513300</v>
       </c>
       <c r="J26" s="3">
-        <v>1133200</v>
+        <v>1227600</v>
       </c>
       <c r="K26" s="3">
         <v>2003900</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1535900</v>
+        <v>1663900</v>
       </c>
       <c r="E27" s="3">
-        <v>1405200</v>
+        <v>1522300</v>
       </c>
       <c r="F27" s="3">
-        <v>2315900</v>
+        <v>2508900</v>
       </c>
       <c r="G27" s="3">
-        <v>1117300</v>
+        <v>1210400</v>
       </c>
       <c r="H27" s="3">
-        <v>124000</v>
+        <v>134300</v>
       </c>
       <c r="I27" s="3">
-        <v>503700</v>
+        <v>545700</v>
       </c>
       <c r="J27" s="3">
-        <v>1136200</v>
+        <v>1230800</v>
       </c>
       <c r="K27" s="3">
         <v>2068100</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-523800</v>
+        <v>-567400</v>
       </c>
       <c r="E32" s="3">
-        <v>-139500</v>
+        <v>-151100</v>
       </c>
       <c r="F32" s="3">
-        <v>-468400</v>
+        <v>-507400</v>
       </c>
       <c r="G32" s="3">
-        <v>122300</v>
+        <v>132500</v>
       </c>
       <c r="H32" s="3">
-        <v>776100</v>
+        <v>840800</v>
       </c>
       <c r="I32" s="3">
-        <v>415500</v>
+        <v>450200</v>
       </c>
       <c r="J32" s="3">
-        <v>-28400</v>
+        <v>-30800</v>
       </c>
       <c r="K32" s="3">
         <v>-947300</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1535900</v>
+        <v>1663900</v>
       </c>
       <c r="E33" s="3">
-        <v>1405200</v>
+        <v>1522300</v>
       </c>
       <c r="F33" s="3">
-        <v>2315900</v>
+        <v>2508900</v>
       </c>
       <c r="G33" s="3">
-        <v>1117300</v>
+        <v>1210400</v>
       </c>
       <c r="H33" s="3">
-        <v>124000</v>
+        <v>134300</v>
       </c>
       <c r="I33" s="3">
-        <v>503700</v>
+        <v>545700</v>
       </c>
       <c r="J33" s="3">
-        <v>1136200</v>
+        <v>1230800</v>
       </c>
       <c r="K33" s="3">
         <v>2068100</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1535900</v>
+        <v>1663900</v>
       </c>
       <c r="E35" s="3">
-        <v>1405200</v>
+        <v>1522300</v>
       </c>
       <c r="F35" s="3">
-        <v>2315900</v>
+        <v>2508900</v>
       </c>
       <c r="G35" s="3">
-        <v>1117300</v>
+        <v>1210400</v>
       </c>
       <c r="H35" s="3">
-        <v>124000</v>
+        <v>134300</v>
       </c>
       <c r="I35" s="3">
-        <v>503700</v>
+        <v>545700</v>
       </c>
       <c r="J35" s="3">
-        <v>1136200</v>
+        <v>1230800</v>
       </c>
       <c r="K35" s="3">
         <v>2068100</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2952500</v>
+        <v>3198500</v>
       </c>
       <c r="E41" s="3">
-        <v>2220800</v>
+        <v>2405900</v>
       </c>
       <c r="F41" s="3">
-        <v>2194500</v>
+        <v>2377400</v>
       </c>
       <c r="G41" s="3">
-        <v>2056000</v>
+        <v>2227300</v>
       </c>
       <c r="H41" s="3">
-        <v>4091000</v>
+        <v>4431900</v>
       </c>
       <c r="I41" s="3">
-        <v>3201400</v>
+        <v>3468200</v>
       </c>
       <c r="J41" s="3">
-        <v>7070400</v>
+        <v>7659600</v>
       </c>
       <c r="K41" s="3">
         <v>105000</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7516700</v>
+        <v>8143100</v>
       </c>
       <c r="E42" s="3">
-        <v>6748400</v>
+        <v>7310800</v>
       </c>
       <c r="F42" s="3">
-        <v>5918500</v>
+        <v>6411800</v>
       </c>
       <c r="G42" s="3">
-        <v>4383200</v>
+        <v>4748500</v>
       </c>
       <c r="H42" s="3">
-        <v>3284700</v>
+        <v>3558500</v>
       </c>
       <c r="I42" s="3">
-        <v>1228900</v>
+        <v>1331300</v>
       </c>
       <c r="J42" s="3">
-        <v>2495400</v>
+        <v>2703300</v>
       </c>
       <c r="K42" s="3">
         <v>4017800</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8992900</v>
+        <v>9742300</v>
       </c>
       <c r="E43" s="3">
-        <v>9004600</v>
+        <v>9755000</v>
       </c>
       <c r="F43" s="3">
-        <v>8925000</v>
+        <v>9668800</v>
       </c>
       <c r="G43" s="3">
-        <v>9553400</v>
+        <v>10349600</v>
       </c>
       <c r="H43" s="3">
-        <v>9500000</v>
+        <v>10291700</v>
       </c>
       <c r="I43" s="3">
-        <v>11473000</v>
+        <v>12429100</v>
       </c>
       <c r="J43" s="3">
-        <v>11287000</v>
+        <v>12227600</v>
       </c>
       <c r="K43" s="3">
         <v>12164100</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>9173100</v>
+        <v>9937500</v>
       </c>
       <c r="E44" s="3">
-        <v>9659900</v>
+        <v>10464900</v>
       </c>
       <c r="F44" s="3">
-        <v>8358800</v>
+        <v>9055400</v>
       </c>
       <c r="G44" s="3">
-        <v>7603400</v>
+        <v>8237100</v>
       </c>
       <c r="H44" s="3">
-        <v>6909200</v>
+        <v>7484900</v>
       </c>
       <c r="I44" s="3">
-        <v>9385600</v>
+        <v>10167700</v>
       </c>
       <c r="J44" s="3">
-        <v>8526700</v>
+        <v>9237300</v>
       </c>
       <c r="K44" s="3">
         <v>8891100</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>632400</v>
+        <v>685100</v>
       </c>
       <c r="E45" s="3">
-        <v>633000</v>
+        <v>685800</v>
       </c>
       <c r="F45" s="3">
-        <v>750100</v>
+        <v>812600</v>
       </c>
       <c r="G45" s="3">
-        <v>1019100</v>
+        <v>1104100</v>
       </c>
       <c r="H45" s="3">
-        <v>727000</v>
+        <v>787600</v>
       </c>
       <c r="I45" s="3">
-        <v>2605800</v>
+        <v>2822900</v>
       </c>
       <c r="J45" s="3">
-        <v>1068300</v>
+        <v>1157300</v>
       </c>
       <c r="K45" s="3">
         <v>1337500</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>29267600</v>
+        <v>31706600</v>
       </c>
       <c r="E46" s="3">
-        <v>28266800</v>
+        <v>30622400</v>
       </c>
       <c r="F46" s="3">
-        <v>26147000</v>
+        <v>28326000</v>
       </c>
       <c r="G46" s="3">
-        <v>24615200</v>
+        <v>26666500</v>
       </c>
       <c r="H46" s="3">
-        <v>24511900</v>
+        <v>26554600</v>
       </c>
       <c r="I46" s="3">
-        <v>27894700</v>
+        <v>30219200</v>
       </c>
       <c r="J46" s="3">
-        <v>26912500</v>
+        <v>29155200</v>
       </c>
       <c r="K46" s="3">
         <v>26515500</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5772500</v>
+        <v>6253600</v>
       </c>
       <c r="E47" s="3">
-        <v>5532600</v>
+        <v>5993700</v>
       </c>
       <c r="F47" s="3">
-        <v>5947500</v>
+        <v>6443100</v>
       </c>
       <c r="G47" s="3">
-        <v>6177500</v>
+        <v>6692200</v>
       </c>
       <c r="H47" s="3">
-        <v>6107100</v>
+        <v>6616100</v>
       </c>
       <c r="I47" s="3">
-        <v>6501500</v>
+        <v>7043300</v>
       </c>
       <c r="J47" s="3">
-        <v>7701900</v>
+        <v>8343700</v>
       </c>
       <c r="K47" s="3">
         <v>6536000</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25875500</v>
+        <v>28031800</v>
       </c>
       <c r="E48" s="3">
-        <v>25995400</v>
+        <v>28161700</v>
       </c>
       <c r="F48" s="3">
-        <v>27676700</v>
+        <v>29983100</v>
       </c>
       <c r="G48" s="3">
-        <v>29306000</v>
+        <v>31748100</v>
       </c>
       <c r="H48" s="3">
-        <v>29910000</v>
+        <v>32402500</v>
       </c>
       <c r="I48" s="3">
-        <v>30489300</v>
+        <v>33030100</v>
       </c>
       <c r="J48" s="3">
-        <v>30395700</v>
+        <v>32928700</v>
       </c>
       <c r="K48" s="3">
         <v>27550000</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4123100</v>
+        <v>4466700</v>
       </c>
       <c r="E49" s="3">
-        <v>4343500</v>
+        <v>4705500</v>
       </c>
       <c r="F49" s="3">
-        <v>4999900</v>
+        <v>5416600</v>
       </c>
       <c r="G49" s="3">
-        <v>5114500</v>
+        <v>5540700</v>
       </c>
       <c r="H49" s="3">
-        <v>5380800</v>
+        <v>5829200</v>
       </c>
       <c r="I49" s="3">
-        <v>5783400</v>
+        <v>6265300</v>
       </c>
       <c r="J49" s="3">
-        <v>4981100</v>
+        <v>5396200</v>
       </c>
       <c r="K49" s="3">
         <v>4756400</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1370500</v>
+        <v>1484700</v>
       </c>
       <c r="E52" s="3">
-        <v>1590200</v>
+        <v>1722700</v>
       </c>
       <c r="F52" s="3">
-        <v>1609800</v>
+        <v>1744000</v>
       </c>
       <c r="G52" s="3">
-        <v>1787700</v>
+        <v>1936700</v>
       </c>
       <c r="H52" s="3">
-        <v>1633400</v>
+        <v>1769600</v>
       </c>
       <c r="I52" s="3">
-        <v>1439700</v>
+        <v>1559700</v>
       </c>
       <c r="J52" s="3">
-        <v>1275400</v>
+        <v>1381700</v>
       </c>
       <c r="K52" s="3">
         <v>1225400</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>66409300</v>
+        <v>71943400</v>
       </c>
       <c r="E54" s="3">
-        <v>65728500</v>
+        <v>71205900</v>
       </c>
       <c r="F54" s="3">
-        <v>66381000</v>
+        <v>71912700</v>
       </c>
       <c r="G54" s="3">
-        <v>67000900</v>
+        <v>72584300</v>
       </c>
       <c r="H54" s="3">
-        <v>67543400</v>
+        <v>73172000</v>
       </c>
       <c r="I54" s="3">
-        <v>72108600</v>
+        <v>78117600</v>
       </c>
       <c r="J54" s="3">
-        <v>71266500</v>
+        <v>77205400</v>
       </c>
       <c r="K54" s="3">
         <v>66583300</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2875300</v>
+        <v>3114900</v>
       </c>
       <c r="E57" s="3">
-        <v>3365200</v>
+        <v>3645600</v>
       </c>
       <c r="F57" s="3">
-        <v>2910700</v>
+        <v>3153300</v>
       </c>
       <c r="G57" s="3">
-        <v>3421600</v>
+        <v>3706700</v>
       </c>
       <c r="H57" s="3">
-        <v>2625300</v>
+        <v>2844100</v>
       </c>
       <c r="I57" s="3">
-        <v>3318700</v>
+        <v>3595200</v>
       </c>
       <c r="J57" s="3">
-        <v>3554300</v>
+        <v>3850500</v>
       </c>
       <c r="K57" s="3">
         <v>4306700</v>
@@ -2177,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7305800</v>
+        <v>7914600</v>
       </c>
       <c r="E58" s="3">
-        <v>8651800</v>
+        <v>9372800</v>
       </c>
       <c r="F58" s="3">
-        <v>9485500</v>
+        <v>10276000</v>
       </c>
       <c r="G58" s="3">
-        <v>8584200</v>
+        <v>9299600</v>
       </c>
       <c r="H58" s="3">
-        <v>10414200</v>
+        <v>11282100</v>
       </c>
       <c r="I58" s="3">
-        <v>10262600</v>
+        <v>11117800</v>
       </c>
       <c r="J58" s="3">
-        <v>9011400</v>
+        <v>9762400</v>
       </c>
       <c r="K58" s="3">
         <v>8827900</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3530800</v>
+        <v>3825100</v>
       </c>
       <c r="E59" s="3">
-        <v>3890900</v>
+        <v>4215200</v>
       </c>
       <c r="F59" s="3">
-        <v>3518400</v>
+        <v>3811600</v>
       </c>
       <c r="G59" s="3">
-        <v>3883100</v>
+        <v>4206700</v>
       </c>
       <c r="H59" s="3">
-        <v>3870400</v>
+        <v>4193000</v>
       </c>
       <c r="I59" s="3">
-        <v>5213800</v>
+        <v>5648300</v>
       </c>
       <c r="J59" s="3">
-        <v>4534600</v>
+        <v>4912500</v>
       </c>
       <c r="K59" s="3">
         <v>3476500</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13711900</v>
+        <v>14854600</v>
       </c>
       <c r="E60" s="3">
-        <v>15907900</v>
+        <v>17233600</v>
       </c>
       <c r="F60" s="3">
-        <v>15914700</v>
+        <v>17240900</v>
       </c>
       <c r="G60" s="3">
-        <v>15888900</v>
+        <v>17213000</v>
       </c>
       <c r="H60" s="3">
-        <v>16910000</v>
+        <v>18319100</v>
       </c>
       <c r="I60" s="3">
-        <v>18795000</v>
+        <v>20361300</v>
       </c>
       <c r="J60" s="3">
-        <v>17100300</v>
+        <v>18525400</v>
       </c>
       <c r="K60" s="3">
         <v>16611000</v>
@@ -2276,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10432500</v>
+        <v>11301900</v>
       </c>
       <c r="E61" s="3">
-        <v>8403600</v>
+        <v>9103900</v>
       </c>
       <c r="F61" s="3">
-        <v>8286100</v>
+        <v>8976600</v>
       </c>
       <c r="G61" s="3">
-        <v>10584100</v>
+        <v>11466100</v>
       </c>
       <c r="H61" s="3">
-        <v>10805400</v>
+        <v>11705900</v>
       </c>
       <c r="I61" s="3">
-        <v>12816400</v>
+        <v>13884400</v>
       </c>
       <c r="J61" s="3">
-        <v>13080700</v>
+        <v>14170700</v>
       </c>
       <c r="K61" s="3">
         <v>12106200</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2117300</v>
+        <v>2293700</v>
       </c>
       <c r="E62" s="3">
-        <v>2139000</v>
+        <v>2317300</v>
       </c>
       <c r="F62" s="3">
-        <v>2310500</v>
+        <v>2503000</v>
       </c>
       <c r="G62" s="3">
-        <v>2023700</v>
+        <v>2192300</v>
       </c>
       <c r="H62" s="3">
-        <v>1969000</v>
+        <v>2133000</v>
       </c>
       <c r="I62" s="3">
-        <v>2481000</v>
+        <v>2687700</v>
       </c>
       <c r="J62" s="3">
-        <v>2629800</v>
+        <v>2848900</v>
       </c>
       <c r="K62" s="3">
         <v>2225500</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>29052900</v>
+        <v>31474000</v>
       </c>
       <c r="E66" s="3">
-        <v>29296700</v>
+        <v>31738100</v>
       </c>
       <c r="F66" s="3">
-        <v>29645300</v>
+        <v>32115800</v>
       </c>
       <c r="G66" s="3">
-        <v>31407200</v>
+        <v>34024500</v>
       </c>
       <c r="H66" s="3">
-        <v>32905700</v>
+        <v>35647800</v>
       </c>
       <c r="I66" s="3">
-        <v>37200700</v>
+        <v>40300800</v>
       </c>
       <c r="J66" s="3">
-        <v>35979000</v>
+        <v>38977200</v>
       </c>
       <c r="K66" s="3">
         <v>33441800</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>37867300</v>
+        <v>41022900</v>
       </c>
       <c r="E72" s="3">
-        <v>37141500</v>
+        <v>40236600</v>
       </c>
       <c r="F72" s="3">
-        <v>36167500</v>
+        <v>39181500</v>
       </c>
       <c r="G72" s="3">
-        <v>34586000</v>
+        <v>37468100</v>
       </c>
       <c r="H72" s="3">
-        <v>34020900</v>
+        <v>36856000</v>
       </c>
       <c r="I72" s="3">
-        <v>34387200</v>
+        <v>37252800</v>
       </c>
       <c r="J72" s="3">
-        <v>34485100</v>
+        <v>37358800</v>
       </c>
       <c r="K72" s="3">
         <v>33875600</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37356400</v>
+        <v>40469400</v>
       </c>
       <c r="E76" s="3">
-        <v>36431900</v>
+        <v>39467800</v>
       </c>
       <c r="F76" s="3">
-        <v>36735600</v>
+        <v>39796900</v>
       </c>
       <c r="G76" s="3">
-        <v>35593700</v>
+        <v>38559800</v>
       </c>
       <c r="H76" s="3">
-        <v>34637700</v>
+        <v>37524200</v>
       </c>
       <c r="I76" s="3">
-        <v>34907800</v>
+        <v>37816800</v>
       </c>
       <c r="J76" s="3">
-        <v>35287600</v>
+        <v>38228200</v>
       </c>
       <c r="K76" s="3">
         <v>33141500</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1535900</v>
+        <v>1663900</v>
       </c>
       <c r="E81" s="3">
-        <v>1405200</v>
+        <v>1522300</v>
       </c>
       <c r="F81" s="3">
-        <v>2315900</v>
+        <v>2508900</v>
       </c>
       <c r="G81" s="3">
-        <v>1117300</v>
+        <v>1210400</v>
       </c>
       <c r="H81" s="3">
-        <v>124000</v>
+        <v>134300</v>
       </c>
       <c r="I81" s="3">
-        <v>503700</v>
+        <v>545700</v>
       </c>
       <c r="J81" s="3">
-        <v>1136200</v>
+        <v>1230800</v>
       </c>
       <c r="K81" s="3">
         <v>2068100</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2907300</v>
+        <v>3149600</v>
       </c>
       <c r="E83" s="3">
-        <v>2744800</v>
+        <v>2973500</v>
       </c>
       <c r="F83" s="3">
-        <v>2769800</v>
+        <v>3000700</v>
       </c>
       <c r="G83" s="3">
-        <v>2699600</v>
+        <v>2924600</v>
       </c>
       <c r="H83" s="3">
-        <v>2703300</v>
+        <v>2928600</v>
       </c>
       <c r="I83" s="3">
-        <v>2720400</v>
+        <v>2947100</v>
       </c>
       <c r="J83" s="3">
-        <v>2255900</v>
+        <v>2443900</v>
       </c>
       <c r="K83" s="3">
         <v>2153600</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5095800</v>
+        <v>5520400</v>
       </c>
       <c r="E89" s="3">
-        <v>4934500</v>
+        <v>5345700</v>
       </c>
       <c r="F89" s="3">
-        <v>4660600</v>
+        <v>5049000</v>
       </c>
       <c r="G89" s="3">
-        <v>4436900</v>
+        <v>4806600</v>
       </c>
       <c r="H89" s="3">
-        <v>6405300</v>
+        <v>6939000</v>
       </c>
       <c r="I89" s="3">
-        <v>2875900</v>
+        <v>3115500</v>
       </c>
       <c r="J89" s="3">
-        <v>4080800</v>
+        <v>4420900</v>
       </c>
       <c r="K89" s="3">
         <v>6148300</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2116100</v>
+        <v>-2292500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1793900</v>
+        <v>-1943400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1921600</v>
+        <v>-2081700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1952300</v>
+        <v>-2114900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2150600</v>
+        <v>-2329800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2944700</v>
+        <v>-3190000</v>
       </c>
       <c r="J91" s="3">
-        <v>-5518500</v>
+        <v>-5978300</v>
       </c>
       <c r="K91" s="3">
         <v>-5925800</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3093600</v>
+        <v>-3351400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2224300</v>
+        <v>-2409700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3207000</v>
+        <v>-3474300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3153900</v>
+        <v>-3416700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3809100</v>
+        <v>-4126600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3146000</v>
+        <v>-3408100</v>
       </c>
       <c r="J94" s="3">
-        <v>-7351400</v>
+        <v>-7964000</v>
       </c>
       <c r="K94" s="3">
         <v>-5182000</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-744200</v>
+        <v>-806200</v>
       </c>
       <c r="E96" s="3">
-        <v>-562500</v>
+        <v>-609400</v>
       </c>
       <c r="F96" s="3">
-        <v>-689300</v>
+        <v>-746700</v>
       </c>
       <c r="G96" s="3">
-        <v>-595500</v>
+        <v>-645200</v>
       </c>
       <c r="H96" s="3">
-        <v>-691000</v>
+        <v>-748500</v>
       </c>
       <c r="I96" s="3">
-        <v>-568700</v>
+        <v>-616100</v>
       </c>
       <c r="J96" s="3">
-        <v>-544800</v>
+        <v>-590200</v>
       </c>
       <c r="K96" s="3">
         <v>-631600</v>
@@ -3430,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1270200</v>
+        <v>-1376100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2683800</v>
+        <v>-2907500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1315000</v>
+        <v>-1424600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3318800</v>
+        <v>-3595400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1882900</v>
+        <v>-2039900</v>
       </c>
       <c r="I100" s="3">
-        <v>113500</v>
+        <v>123000</v>
       </c>
       <c r="J100" s="3">
-        <v>2967200</v>
+        <v>3214400</v>
       </c>
       <c r="K100" s="3">
         <v>-762400</v>
@@ -3481,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="J101" s="3">
-        <v>-93000</v>
+        <v>-100800</v>
       </c>
       <c r="K101" s="3">
         <v>-135200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>732000</v>
+        <v>793000</v>
       </c>
       <c r="E102" s="3">
-        <v>26300</v>
+        <v>28500</v>
       </c>
       <c r="F102" s="3">
-        <v>138500</v>
+        <v>150100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2035800</v>
+        <v>-2205400</v>
       </c>
       <c r="H102" s="3">
-        <v>713200</v>
+        <v>772600</v>
       </c>
       <c r="I102" s="3">
-        <v>-156600</v>
+        <v>-169600</v>
       </c>
       <c r="J102" s="3">
-        <v>-396400</v>
+        <v>-429500</v>
       </c>
       <c r="K102" s="3">
         <v>68700</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>PKX</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t xml:space="preserve">Effect Of Exchange Rate Changes </t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
@@ -656,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +662,165 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58573800</v>
+        <v>50857700</v>
       </c>
       <c r="E8" s="3">
-        <v>59129800</v>
+        <v>56642800</v>
       </c>
       <c r="F8" s="3">
-        <v>55196100</v>
+        <v>57180400</v>
       </c>
       <c r="G8" s="3">
-        <v>48306000</v>
+        <v>53376500</v>
       </c>
       <c r="H8" s="3">
-        <v>52955000</v>
+        <v>46713500</v>
       </c>
       <c r="I8" s="3">
-        <v>58930300</v>
+        <v>51209300</v>
       </c>
       <c r="J8" s="3">
+        <v>56987600</v>
+      </c>
+      <c r="K8" s="3">
         <v>56206800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53427500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>62044900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52886000</v>
+        <v>46703700</v>
       </c>
       <c r="E9" s="3">
-        <v>51874900</v>
+        <v>51142500</v>
       </c>
       <c r="F9" s="3">
-        <v>47592300</v>
+        <v>50164700</v>
       </c>
       <c r="G9" s="3">
-        <v>42218500</v>
+        <v>46023300</v>
       </c>
       <c r="H9" s="3">
-        <v>47008900</v>
+        <v>40826700</v>
       </c>
       <c r="I9" s="3">
-        <v>52293600</v>
+        <v>45459100</v>
       </c>
       <c r="J9" s="3">
+        <v>50569600</v>
+      </c>
+      <c r="K9" s="3">
         <v>49971600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47160000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53841500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5687800</v>
+        <v>4154000</v>
       </c>
       <c r="E10" s="3">
-        <v>7254900</v>
+        <v>5500300</v>
       </c>
       <c r="F10" s="3">
-        <v>7603900</v>
+        <v>7015700</v>
       </c>
       <c r="G10" s="3">
-        <v>6087500</v>
+        <v>7353200</v>
       </c>
       <c r="H10" s="3">
-        <v>5946200</v>
+        <v>5886800</v>
       </c>
       <c r="I10" s="3">
-        <v>6636800</v>
+        <v>5750100</v>
       </c>
       <c r="J10" s="3">
+        <v>6418000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6235300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6267500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8203400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +834,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100400</v>
+        <v>102300</v>
       </c>
       <c r="E12" s="3">
-        <v>98600</v>
+        <v>97100</v>
       </c>
       <c r="F12" s="3">
-        <v>114500</v>
+        <v>95300</v>
       </c>
       <c r="G12" s="3">
-        <v>109800</v>
+        <v>110700</v>
       </c>
       <c r="H12" s="3">
-        <v>123300</v>
+        <v>106100</v>
       </c>
       <c r="I12" s="3">
-        <v>159400</v>
+        <v>119200</v>
       </c>
       <c r="J12" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K12" s="3">
         <v>175500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>161500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>191200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +903,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>621900</v>
+        <v>137000</v>
       </c>
       <c r="E14" s="3">
-        <v>1278100</v>
+        <v>601400</v>
       </c>
       <c r="F14" s="3">
-        <v>315400</v>
+        <v>1236000</v>
       </c>
       <c r="G14" s="3">
-        <v>552500</v>
+        <v>305000</v>
       </c>
       <c r="H14" s="3">
-        <v>470100</v>
+        <v>534300</v>
       </c>
       <c r="I14" s="3">
-        <v>496100</v>
+        <v>454600</v>
       </c>
       <c r="J14" s="3">
+        <v>479700</v>
+      </c>
+      <c r="K14" s="3">
         <v>387800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>494200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>221600</v>
+        <v>230300</v>
       </c>
       <c r="E15" s="3">
-        <v>194500</v>
+        <v>214300</v>
       </c>
       <c r="F15" s="3">
-        <v>221700</v>
+        <v>188000</v>
       </c>
       <c r="G15" s="3">
-        <v>221100</v>
+        <v>214300</v>
       </c>
       <c r="H15" s="3">
-        <v>249300</v>
+        <v>213800</v>
       </c>
       <c r="I15" s="3">
-        <v>248600</v>
+        <v>241100</v>
       </c>
       <c r="J15" s="3">
+        <v>240400</v>
+      </c>
+      <c r="K15" s="3">
         <v>207900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>183700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>155500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +991,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>55675100</v>
+        <v>48880000</v>
       </c>
       <c r="E17" s="3">
-        <v>55364100</v>
+        <v>53839600</v>
       </c>
       <c r="F17" s="3">
-        <v>51305700</v>
+        <v>53538900</v>
       </c>
       <c r="G17" s="3">
-        <v>46270200</v>
+        <v>49614300</v>
       </c>
       <c r="H17" s="3">
-        <v>51232000</v>
+        <v>44744800</v>
       </c>
       <c r="I17" s="3">
-        <v>56493200</v>
+        <v>49543000</v>
       </c>
       <c r="J17" s="3">
+        <v>54630800</v>
+      </c>
+      <c r="K17" s="3">
         <v>53875500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50813200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57177600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2898800</v>
+        <v>1977700</v>
       </c>
       <c r="E18" s="3">
-        <v>3765700</v>
+        <v>2803200</v>
       </c>
       <c r="F18" s="3">
-        <v>3890400</v>
+        <v>3641500</v>
       </c>
       <c r="G18" s="3">
-        <v>2035800</v>
+        <v>3762200</v>
       </c>
       <c r="H18" s="3">
-        <v>1723100</v>
+        <v>1968700</v>
       </c>
       <c r="I18" s="3">
-        <v>2437100</v>
+        <v>1666300</v>
       </c>
       <c r="J18" s="3">
+        <v>2356800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2331300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2614300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4867300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1079,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>567400</v>
+        <v>366500</v>
       </c>
       <c r="E20" s="3">
-        <v>151100</v>
+        <v>548700</v>
       </c>
       <c r="F20" s="3">
-        <v>507400</v>
+        <v>146100</v>
       </c>
       <c r="G20" s="3">
-        <v>-132500</v>
+        <v>490700</v>
       </c>
       <c r="H20" s="3">
-        <v>-840800</v>
+        <v>-128100</v>
       </c>
       <c r="I20" s="3">
-        <v>-450200</v>
+        <v>-813100</v>
       </c>
       <c r="J20" s="3">
+        <v>-435300</v>
+      </c>
+      <c r="K20" s="3">
         <v>30800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>947300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>146400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6581200</v>
+        <v>5531300</v>
       </c>
       <c r="E21" s="3">
-        <v>6857600</v>
+        <v>6397700</v>
       </c>
       <c r="F21" s="3">
-        <v>7365500</v>
+        <v>6663100</v>
       </c>
       <c r="G21" s="3">
-        <v>4795800</v>
+        <v>7154600</v>
       </c>
       <c r="H21" s="3">
-        <v>3778700</v>
+        <v>4668800</v>
       </c>
       <c r="I21" s="3">
-        <v>4901600</v>
+        <v>3685200</v>
       </c>
       <c r="J21" s="3">
+        <v>4771400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4779100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5740700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7030700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>687700</v>
+        <v>562100</v>
       </c>
       <c r="E22" s="3">
-        <v>674600</v>
+        <v>665000</v>
       </c>
       <c r="F22" s="3">
-        <v>594300</v>
+        <v>652300</v>
       </c>
       <c r="G22" s="3">
-        <v>599400</v>
+        <v>574700</v>
       </c>
       <c r="H22" s="3">
-        <v>717800</v>
+        <v>579700</v>
       </c>
       <c r="I22" s="3">
-        <v>724000</v>
+        <v>694100</v>
       </c>
       <c r="J22" s="3">
+        <v>700100</v>
+      </c>
+      <c r="K22" s="3">
         <v>598500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>732000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>709500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2778500</v>
+        <v>1782100</v>
       </c>
       <c r="E23" s="3">
-        <v>3242200</v>
+        <v>2686900</v>
       </c>
       <c r="F23" s="3">
-        <v>3803500</v>
+        <v>3135300</v>
       </c>
       <c r="G23" s="3">
-        <v>1303900</v>
+        <v>3678100</v>
       </c>
       <c r="H23" s="3">
-        <v>164500</v>
+        <v>1260900</v>
       </c>
       <c r="I23" s="3">
-        <v>1263000</v>
+        <v>159100</v>
       </c>
       <c r="J23" s="3">
+        <v>1221300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1763600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2829500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4304200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>974300</v>
+        <v>208500</v>
       </c>
       <c r="E24" s="3">
-        <v>1520400</v>
+        <v>942200</v>
       </c>
       <c r="F24" s="3">
-        <v>1097700</v>
+        <v>1470300</v>
       </c>
       <c r="G24" s="3">
-        <v>350100</v>
+        <v>1061500</v>
       </c>
       <c r="H24" s="3">
-        <v>252000</v>
+        <v>338500</v>
       </c>
       <c r="I24" s="3">
-        <v>749700</v>
+        <v>243700</v>
       </c>
       <c r="J24" s="3">
+        <v>725000</v>
+      </c>
+      <c r="K24" s="3">
         <v>536000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>825600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>961300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1292,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1804200</v>
+        <v>1573600</v>
       </c>
       <c r="E26" s="3">
-        <v>1721800</v>
+        <v>1744700</v>
       </c>
       <c r="F26" s="3">
-        <v>2705900</v>
+        <v>1665000</v>
       </c>
       <c r="G26" s="3">
-        <v>953800</v>
+        <v>2616700</v>
       </c>
       <c r="H26" s="3">
-        <v>-87500</v>
+        <v>922400</v>
       </c>
       <c r="I26" s="3">
-        <v>513300</v>
+        <v>-84600</v>
       </c>
       <c r="J26" s="3">
+        <v>496400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1227600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2003900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3342900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1663900</v>
+        <v>1404000</v>
       </c>
       <c r="E27" s="3">
-        <v>1522300</v>
+        <v>1609000</v>
       </c>
       <c r="F27" s="3">
-        <v>2508900</v>
+        <v>1472100</v>
       </c>
       <c r="G27" s="3">
-        <v>1210400</v>
+        <v>2426200</v>
       </c>
       <c r="H27" s="3">
-        <v>134300</v>
+        <v>1170500</v>
       </c>
       <c r="I27" s="3">
-        <v>545700</v>
+        <v>129900</v>
       </c>
       <c r="J27" s="3">
+        <v>527700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1230800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2068100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3283300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1400,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1436,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1472,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1508,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-567400</v>
+        <v>-366500</v>
       </c>
       <c r="E32" s="3">
-        <v>-151100</v>
+        <v>-548700</v>
       </c>
       <c r="F32" s="3">
-        <v>-507400</v>
+        <v>-146100</v>
       </c>
       <c r="G32" s="3">
-        <v>132500</v>
+        <v>-490700</v>
       </c>
       <c r="H32" s="3">
-        <v>840800</v>
+        <v>128100</v>
       </c>
       <c r="I32" s="3">
-        <v>450200</v>
+        <v>813100</v>
       </c>
       <c r="J32" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-30800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-947300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-146400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1663900</v>
+        <v>1404000</v>
       </c>
       <c r="E33" s="3">
-        <v>1522300</v>
+        <v>1609000</v>
       </c>
       <c r="F33" s="3">
-        <v>2508900</v>
+        <v>1472100</v>
       </c>
       <c r="G33" s="3">
-        <v>1210400</v>
+        <v>2426200</v>
       </c>
       <c r="H33" s="3">
-        <v>134300</v>
+        <v>1170500</v>
       </c>
       <c r="I33" s="3">
-        <v>545700</v>
+        <v>129900</v>
       </c>
       <c r="J33" s="3">
+        <v>527700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1230800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2068100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3283300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1616,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1663900</v>
+        <v>1404000</v>
       </c>
       <c r="E35" s="3">
-        <v>1522300</v>
+        <v>1609000</v>
       </c>
       <c r="F35" s="3">
-        <v>2508900</v>
+        <v>1472100</v>
       </c>
       <c r="G35" s="3">
-        <v>1210400</v>
+        <v>2426200</v>
       </c>
       <c r="H35" s="3">
-        <v>134300</v>
+        <v>1170500</v>
       </c>
       <c r="I35" s="3">
-        <v>545700</v>
+        <v>129900</v>
       </c>
       <c r="J35" s="3">
+        <v>527700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1230800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2068100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3283300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1712,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,305 +1728,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3198500</v>
+        <v>4184100</v>
       </c>
       <c r="E41" s="3">
-        <v>2405900</v>
+        <v>3093100</v>
       </c>
       <c r="F41" s="3">
-        <v>2377400</v>
+        <v>2326600</v>
       </c>
       <c r="G41" s="3">
-        <v>2227300</v>
+        <v>2299000</v>
       </c>
       <c r="H41" s="3">
-        <v>4431900</v>
+        <v>2153900</v>
       </c>
       <c r="I41" s="3">
-        <v>3468200</v>
+        <v>4285800</v>
       </c>
       <c r="J41" s="3">
+        <v>3353900</v>
+      </c>
+      <c r="K41" s="3">
         <v>7659600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>8143100</v>
+        <v>10216700</v>
       </c>
       <c r="E42" s="3">
-        <v>7310800</v>
+        <v>7874700</v>
       </c>
       <c r="F42" s="3">
-        <v>6411800</v>
+        <v>7069800</v>
       </c>
       <c r="G42" s="3">
-        <v>4748500</v>
+        <v>6200400</v>
       </c>
       <c r="H42" s="3">
-        <v>3558500</v>
+        <v>4591900</v>
       </c>
       <c r="I42" s="3">
-        <v>1331300</v>
+        <v>3441100</v>
       </c>
       <c r="J42" s="3">
+        <v>1287400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2703300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4017800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4226100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9742300</v>
+        <v>8504600</v>
       </c>
       <c r="E43" s="3">
-        <v>9755000</v>
+        <v>9421100</v>
       </c>
       <c r="F43" s="3">
-        <v>9668800</v>
+        <v>9433400</v>
       </c>
       <c r="G43" s="3">
-        <v>10349600</v>
+        <v>9350000</v>
       </c>
       <c r="H43" s="3">
-        <v>10291700</v>
+        <v>10008400</v>
       </c>
       <c r="I43" s="3">
-        <v>12429100</v>
+        <v>9952400</v>
       </c>
       <c r="J43" s="3">
+        <v>12019300</v>
+      </c>
+      <c r="K43" s="3">
         <v>12227600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12164100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13322600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>9937500</v>
+        <v>7965600</v>
       </c>
       <c r="E44" s="3">
-        <v>10464900</v>
+        <v>9609900</v>
       </c>
       <c r="F44" s="3">
-        <v>9055400</v>
+        <v>10119900</v>
       </c>
       <c r="G44" s="3">
-        <v>8237100</v>
+        <v>8756800</v>
       </c>
       <c r="H44" s="3">
-        <v>7484900</v>
+        <v>7965500</v>
       </c>
       <c r="I44" s="3">
-        <v>10167700</v>
+        <v>7238200</v>
       </c>
       <c r="J44" s="3">
+        <v>9832500</v>
+      </c>
+      <c r="K44" s="3">
         <v>9237300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8891100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11055300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>685100</v>
+        <v>660100</v>
       </c>
       <c r="E45" s="3">
-        <v>685800</v>
+        <v>662500</v>
       </c>
       <c r="F45" s="3">
-        <v>812600</v>
+        <v>663200</v>
       </c>
       <c r="G45" s="3">
-        <v>1104100</v>
+        <v>785800</v>
       </c>
       <c r="H45" s="3">
-        <v>787600</v>
+        <v>1067700</v>
       </c>
       <c r="I45" s="3">
-        <v>2822900</v>
+        <v>761700</v>
       </c>
       <c r="J45" s="3">
+        <v>2729900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1157300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1337500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1543300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>31706600</v>
+        <v>31531100</v>
       </c>
       <c r="E46" s="3">
-        <v>30622400</v>
+        <v>30661300</v>
       </c>
       <c r="F46" s="3">
-        <v>28326000</v>
+        <v>29612900</v>
       </c>
       <c r="G46" s="3">
-        <v>26666500</v>
+        <v>27392100</v>
       </c>
       <c r="H46" s="3">
-        <v>26554600</v>
+        <v>25787400</v>
       </c>
       <c r="I46" s="3">
-        <v>30219200</v>
+        <v>25679200</v>
       </c>
       <c r="J46" s="3">
+        <v>29223000</v>
+      </c>
+      <c r="K46" s="3">
         <v>29155200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26515500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30201200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>6253600</v>
+        <v>5897700</v>
       </c>
       <c r="E47" s="3">
-        <v>5993700</v>
+        <v>6047400</v>
       </c>
       <c r="F47" s="3">
-        <v>6443100</v>
+        <v>5796100</v>
       </c>
       <c r="G47" s="3">
-        <v>6692200</v>
+        <v>6230700</v>
       </c>
       <c r="H47" s="3">
-        <v>6616100</v>
+        <v>6471600</v>
       </c>
       <c r="I47" s="3">
-        <v>7043300</v>
+        <v>6397900</v>
       </c>
       <c r="J47" s="3">
+        <v>6811100</v>
+      </c>
+      <c r="K47" s="3">
         <v>8343700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6536000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8160100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>28031800</v>
+        <v>26747500</v>
       </c>
       <c r="E48" s="3">
-        <v>28161700</v>
+        <v>27107700</v>
       </c>
       <c r="F48" s="3">
-        <v>29983100</v>
+        <v>27233300</v>
       </c>
       <c r="G48" s="3">
-        <v>31748100</v>
+        <v>28994600</v>
       </c>
       <c r="H48" s="3">
-        <v>32402500</v>
+        <v>30701500</v>
       </c>
       <c r="I48" s="3">
-        <v>33030100</v>
+        <v>31334300</v>
       </c>
       <c r="J48" s="3">
+        <v>31941200</v>
+      </c>
+      <c r="K48" s="3">
         <v>32928700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27550000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72571100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4466700</v>
+        <v>3915500</v>
       </c>
       <c r="E49" s="3">
-        <v>4705500</v>
+        <v>4319500</v>
       </c>
       <c r="F49" s="3">
-        <v>5416600</v>
+        <v>4550300</v>
       </c>
       <c r="G49" s="3">
-        <v>5540700</v>
+        <v>5238000</v>
       </c>
       <c r="H49" s="3">
-        <v>5829200</v>
+        <v>5358100</v>
       </c>
       <c r="I49" s="3">
-        <v>6265300</v>
+        <v>5637100</v>
       </c>
       <c r="J49" s="3">
+        <v>6058800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5396200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4756400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4720400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,9 +2085,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2008,42 +2121,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1484700</v>
+        <v>1504700</v>
       </c>
       <c r="E52" s="3">
-        <v>1722700</v>
+        <v>1435800</v>
       </c>
       <c r="F52" s="3">
-        <v>1744000</v>
+        <v>1665900</v>
       </c>
       <c r="G52" s="3">
-        <v>1936700</v>
+        <v>1686500</v>
       </c>
       <c r="H52" s="3">
-        <v>1769600</v>
+        <v>1872900</v>
       </c>
       <c r="I52" s="3">
-        <v>1559700</v>
+        <v>1711200</v>
       </c>
       <c r="J52" s="3">
+        <v>1508300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1381700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1225400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1404100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2074,42 +2193,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>71943400</v>
+        <v>69596500</v>
       </c>
       <c r="E54" s="3">
-        <v>71205900</v>
+        <v>69571600</v>
       </c>
       <c r="F54" s="3">
-        <v>71912700</v>
+        <v>68858500</v>
       </c>
       <c r="G54" s="3">
-        <v>72584300</v>
+        <v>69542000</v>
       </c>
       <c r="H54" s="3">
-        <v>73172000</v>
+        <v>70191400</v>
       </c>
       <c r="I54" s="3">
-        <v>78117600</v>
+        <v>70759700</v>
       </c>
       <c r="J54" s="3">
+        <v>75542300</v>
+      </c>
+      <c r="K54" s="3">
         <v>77205400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66583300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70568000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2123,8 +2248,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2138,206 +2264,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3114900</v>
+        <v>3304900</v>
       </c>
       <c r="E57" s="3">
-        <v>3645600</v>
+        <v>3012200</v>
       </c>
       <c r="F57" s="3">
-        <v>3153300</v>
+        <v>3525400</v>
       </c>
       <c r="G57" s="3">
-        <v>3706700</v>
+        <v>3049300</v>
       </c>
       <c r="H57" s="3">
-        <v>2844100</v>
+        <v>3584500</v>
       </c>
       <c r="I57" s="3">
-        <v>3595200</v>
+        <v>2750300</v>
       </c>
       <c r="J57" s="3">
+        <v>3476700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3850500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4306700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4901600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7914600</v>
+        <v>7851400</v>
       </c>
       <c r="E58" s="3">
-        <v>9372800</v>
+        <v>7653700</v>
       </c>
       <c r="F58" s="3">
-        <v>10276000</v>
+        <v>9063800</v>
       </c>
       <c r="G58" s="3">
-        <v>9299600</v>
+        <v>9937200</v>
       </c>
       <c r="H58" s="3">
-        <v>11282100</v>
+        <v>8993000</v>
       </c>
       <c r="I58" s="3">
-        <v>11117800</v>
+        <v>10910200</v>
       </c>
       <c r="J58" s="3">
+        <v>10751300</v>
+      </c>
+      <c r="K58" s="3">
         <v>9762400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8827900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9712400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3825100</v>
+        <v>3676100</v>
       </c>
       <c r="E59" s="3">
-        <v>4215200</v>
+        <v>3699000</v>
       </c>
       <c r="F59" s="3">
-        <v>3811600</v>
+        <v>4076200</v>
       </c>
       <c r="G59" s="3">
-        <v>4206700</v>
+        <v>3686000</v>
       </c>
       <c r="H59" s="3">
-        <v>4193000</v>
+        <v>4068000</v>
       </c>
       <c r="I59" s="3">
-        <v>5648300</v>
+        <v>4054700</v>
       </c>
       <c r="J59" s="3">
+        <v>5462100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4912500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3476500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3030900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>14854600</v>
+        <v>14832400</v>
       </c>
       <c r="E60" s="3">
-        <v>17233600</v>
+        <v>14364800</v>
       </c>
       <c r="F60" s="3">
-        <v>17240900</v>
+        <v>16665400</v>
       </c>
       <c r="G60" s="3">
-        <v>17213000</v>
+        <v>16672500</v>
       </c>
       <c r="H60" s="3">
-        <v>18319100</v>
+        <v>16645500</v>
       </c>
       <c r="I60" s="3">
-        <v>20361300</v>
+        <v>17715200</v>
       </c>
       <c r="J60" s="3">
+        <v>19690000</v>
+      </c>
+      <c r="K60" s="3">
         <v>18525400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16611000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17644800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>11301900</v>
+        <v>10837400</v>
       </c>
       <c r="E61" s="3">
-        <v>9103900</v>
+        <v>10929300</v>
       </c>
       <c r="F61" s="3">
-        <v>8976600</v>
+        <v>8803700</v>
       </c>
       <c r="G61" s="3">
-        <v>11466100</v>
+        <v>8680700</v>
       </c>
       <c r="H61" s="3">
-        <v>11705900</v>
+        <v>11088100</v>
       </c>
       <c r="I61" s="3">
-        <v>13884400</v>
+        <v>11320000</v>
       </c>
       <c r="J61" s="3">
+        <v>13426700</v>
+      </c>
+      <c r="K61" s="3">
         <v>14170700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12106200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14418200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2293700</v>
+        <v>1973100</v>
       </c>
       <c r="E62" s="3">
-        <v>2317300</v>
+        <v>2218100</v>
       </c>
       <c r="F62" s="3">
-        <v>2503000</v>
+        <v>2240900</v>
       </c>
       <c r="G62" s="3">
-        <v>2192300</v>
+        <v>2420500</v>
       </c>
       <c r="H62" s="3">
-        <v>2133000</v>
+        <v>2120000</v>
       </c>
       <c r="I62" s="3">
-        <v>2687700</v>
+        <v>2062700</v>
       </c>
       <c r="J62" s="3">
+        <v>2599100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2848900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2225500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1848000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2368,9 +2513,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2549,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2434,42 +2585,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>31474000</v>
+        <v>30584900</v>
       </c>
       <c r="E66" s="3">
-        <v>31738100</v>
+        <v>30436400</v>
       </c>
       <c r="F66" s="3">
-        <v>32115800</v>
+        <v>30691800</v>
       </c>
       <c r="G66" s="3">
-        <v>34024500</v>
+        <v>31057000</v>
       </c>
       <c r="H66" s="3">
-        <v>35647800</v>
+        <v>32902800</v>
       </c>
       <c r="I66" s="3">
-        <v>40300800</v>
+        <v>34472600</v>
       </c>
       <c r="J66" s="3">
+        <v>38972200</v>
+      </c>
+      <c r="K66" s="3">
         <v>38977200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33441800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36047200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2483,8 +2640,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2515,9 +2673,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2548,9 +2709,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2581,9 +2745,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2614,42 +2781,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>41022900</v>
+        <v>40578100</v>
       </c>
       <c r="E72" s="3">
-        <v>40236600</v>
+        <v>39670500</v>
       </c>
       <c r="F72" s="3">
-        <v>39181500</v>
+        <v>38910100</v>
       </c>
       <c r="G72" s="3">
-        <v>37468100</v>
+        <v>37889800</v>
       </c>
       <c r="H72" s="3">
-        <v>36856000</v>
+        <v>36232900</v>
       </c>
       <c r="I72" s="3">
-        <v>37252800</v>
+        <v>35640900</v>
       </c>
       <c r="J72" s="3">
+        <v>36024700</v>
+      </c>
+      <c r="K72" s="3">
         <v>37358800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33875600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34823700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2680,9 +2853,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2713,9 +2889,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2746,42 +2925,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>40469400</v>
+        <v>39011600</v>
       </c>
       <c r="E76" s="3">
-        <v>39467800</v>
+        <v>39135200</v>
       </c>
       <c r="F76" s="3">
-        <v>39796900</v>
+        <v>38166700</v>
       </c>
       <c r="G76" s="3">
-        <v>38559800</v>
+        <v>38484900</v>
       </c>
       <c r="H76" s="3">
-        <v>37524200</v>
+        <v>37288600</v>
       </c>
       <c r="I76" s="3">
-        <v>37816800</v>
+        <v>36287100</v>
       </c>
       <c r="J76" s="3">
+        <v>36570100</v>
+      </c>
+      <c r="K76" s="3">
         <v>38228200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33141500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34520700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2812,80 +2997,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1663900</v>
+        <v>1404000</v>
       </c>
       <c r="E81" s="3">
-        <v>1522300</v>
+        <v>1609000</v>
       </c>
       <c r="F81" s="3">
-        <v>2508900</v>
+        <v>1472100</v>
       </c>
       <c r="G81" s="3">
-        <v>1210400</v>
+        <v>2426200</v>
       </c>
       <c r="H81" s="3">
-        <v>134300</v>
+        <v>1170500</v>
       </c>
       <c r="I81" s="3">
-        <v>545700</v>
+        <v>129900</v>
       </c>
       <c r="J81" s="3">
+        <v>527700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1230800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2068100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3283300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2899,41 +3093,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3149600</v>
+        <v>3187100</v>
       </c>
       <c r="E83" s="3">
-        <v>2973500</v>
+        <v>3045800</v>
       </c>
       <c r="F83" s="3">
-        <v>3000700</v>
+        <v>2875500</v>
       </c>
       <c r="G83" s="3">
-        <v>2924600</v>
+        <v>2901700</v>
       </c>
       <c r="H83" s="3">
-        <v>2928600</v>
+        <v>2828200</v>
       </c>
       <c r="I83" s="3">
-        <v>2947100</v>
+        <v>2832100</v>
       </c>
       <c r="J83" s="3">
+        <v>2849900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2443900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2153600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2039700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2964,9 +3162,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2997,9 +3198,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3030,9 +3234,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3063,9 +3270,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3096,42 +3306,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5520400</v>
+        <v>7559600</v>
       </c>
       <c r="E89" s="3">
-        <v>5345700</v>
+        <v>5338400</v>
       </c>
       <c r="F89" s="3">
-        <v>5049000</v>
+        <v>5169400</v>
       </c>
       <c r="G89" s="3">
-        <v>4806600</v>
+        <v>4882500</v>
       </c>
       <c r="H89" s="3">
-        <v>6939000</v>
+        <v>4648200</v>
       </c>
       <c r="I89" s="3">
-        <v>3115500</v>
+        <v>6710300</v>
       </c>
       <c r="J89" s="3">
+        <v>3012800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4420900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6148300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1522400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3145,41 +3361,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2292500</v>
+        <v>-2813300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1943400</v>
+        <v>-2216900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2081700</v>
+        <v>-1879300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2114900</v>
+        <v>-2013100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2329800</v>
+        <v>-2045200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3190000</v>
+        <v>-2253000</v>
       </c>
       <c r="J91" s="3">
+        <v>-3084900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5978300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5925800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5315100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3210,9 +3430,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3243,42 +3466,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3351400</v>
+        <v>-5508200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2409700</v>
+        <v>-3240900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3474300</v>
+        <v>-2330200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3416700</v>
+        <v>-3359700</v>
       </c>
       <c r="H94" s="3">
-        <v>-4126600</v>
+        <v>-3304100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3408100</v>
+        <v>-3990500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3295800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7964000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5182000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4965200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,41 +3521,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-806200</v>
+        <v>-580000</v>
       </c>
       <c r="E96" s="3">
-        <v>-609400</v>
+        <v>-779600</v>
       </c>
       <c r="F96" s="3">
-        <v>-746700</v>
+        <v>-589300</v>
       </c>
       <c r="G96" s="3">
-        <v>-645200</v>
+        <v>-722100</v>
       </c>
       <c r="H96" s="3">
-        <v>-748500</v>
+        <v>-623900</v>
       </c>
       <c r="I96" s="3">
-        <v>-616100</v>
+        <v>-723900</v>
       </c>
       <c r="J96" s="3">
+        <v>-595800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-590200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-631600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-693800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3357,9 +3590,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3390,9 +3626,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3423,106 +3662,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1376100</v>
+        <v>-960000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2907500</v>
+        <v>-1330700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1424600</v>
+        <v>-2811600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3595400</v>
+        <v>-1377700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2039900</v>
+        <v>-3476900</v>
       </c>
       <c r="I100" s="3">
-        <v>123000</v>
+        <v>-1972600</v>
       </c>
       <c r="J100" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K100" s="3">
         <v>3214400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-762400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4409900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-135200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C102" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D102" s="3">
-        <v>793000</v>
+        <v>1091500</v>
       </c>
       <c r="E102" s="3">
-        <v>28500</v>
+        <v>766800</v>
       </c>
       <c r="F102" s="3">
-        <v>150100</v>
+        <v>27600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2205400</v>
+        <v>145100</v>
       </c>
       <c r="H102" s="3">
-        <v>772600</v>
+        <v>-2132700</v>
       </c>
       <c r="I102" s="3">
-        <v>-169600</v>
+        <v>747200</v>
       </c>
       <c r="J102" s="3">
+        <v>-164100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-429500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>969900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50857700</v>
+        <v>51435600</v>
       </c>
       <c r="E8" s="3">
-        <v>56642800</v>
+        <v>57286500</v>
       </c>
       <c r="F8" s="3">
-        <v>57180400</v>
+        <v>57830200</v>
       </c>
       <c r="G8" s="3">
-        <v>53376500</v>
+        <v>53983000</v>
       </c>
       <c r="H8" s="3">
-        <v>46713500</v>
+        <v>47244300</v>
       </c>
       <c r="I8" s="3">
-        <v>51209300</v>
+        <v>51791200</v>
       </c>
       <c r="J8" s="3">
-        <v>56987600</v>
+        <v>57635200</v>
       </c>
       <c r="K8" s="3">
         <v>56206800</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46703700</v>
+        <v>47234400</v>
       </c>
       <c r="E9" s="3">
-        <v>51142500</v>
+        <v>51723700</v>
       </c>
       <c r="F9" s="3">
-        <v>50164700</v>
+        <v>50734800</v>
       </c>
       <c r="G9" s="3">
-        <v>46023300</v>
+        <v>46546300</v>
       </c>
       <c r="H9" s="3">
-        <v>40826700</v>
+        <v>41290600</v>
       </c>
       <c r="I9" s="3">
-        <v>45459100</v>
+        <v>45975700</v>
       </c>
       <c r="J9" s="3">
-        <v>50569600</v>
+        <v>51144300</v>
       </c>
       <c r="K9" s="3">
         <v>49971600</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4154000</v>
+        <v>4201200</v>
       </c>
       <c r="E10" s="3">
-        <v>5500300</v>
+        <v>5562800</v>
       </c>
       <c r="F10" s="3">
-        <v>7015700</v>
+        <v>7095400</v>
       </c>
       <c r="G10" s="3">
-        <v>7353200</v>
+        <v>7436800</v>
       </c>
       <c r="H10" s="3">
-        <v>5886800</v>
+        <v>5953700</v>
       </c>
       <c r="I10" s="3">
-        <v>5750100</v>
+        <v>5815500</v>
       </c>
       <c r="J10" s="3">
-        <v>6418000</v>
+        <v>6490900</v>
       </c>
       <c r="K10" s="3">
         <v>6235300</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>102300</v>
+        <v>103500</v>
       </c>
       <c r="E12" s="3">
-        <v>97100</v>
+        <v>98200</v>
       </c>
       <c r="F12" s="3">
-        <v>95300</v>
+        <v>96400</v>
       </c>
       <c r="G12" s="3">
-        <v>110700</v>
+        <v>112000</v>
       </c>
       <c r="H12" s="3">
-        <v>106100</v>
+        <v>107300</v>
       </c>
       <c r="I12" s="3">
-        <v>119200</v>
+        <v>120600</v>
       </c>
       <c r="J12" s="3">
-        <v>154200</v>
+        <v>155900</v>
       </c>
       <c r="K12" s="3">
         <v>175500</v>
@@ -913,25 +913,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>137000</v>
+        <v>138500</v>
       </c>
       <c r="E14" s="3">
-        <v>601400</v>
+        <v>608200</v>
       </c>
       <c r="F14" s="3">
-        <v>1236000</v>
+        <v>1250000</v>
       </c>
       <c r="G14" s="3">
-        <v>305000</v>
+        <v>308500</v>
       </c>
       <c r="H14" s="3">
-        <v>534300</v>
+        <v>540400</v>
       </c>
       <c r="I14" s="3">
-        <v>454600</v>
+        <v>459700</v>
       </c>
       <c r="J14" s="3">
-        <v>479700</v>
+        <v>485200</v>
       </c>
       <c r="K14" s="3">
         <v>387800</v>
@@ -949,25 +949,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>230300</v>
+        <v>232900</v>
       </c>
       <c r="E15" s="3">
-        <v>214300</v>
+        <v>216700</v>
       </c>
       <c r="F15" s="3">
-        <v>188000</v>
+        <v>190200</v>
       </c>
       <c r="G15" s="3">
-        <v>214300</v>
+        <v>216800</v>
       </c>
       <c r="H15" s="3">
-        <v>213800</v>
+        <v>216300</v>
       </c>
       <c r="I15" s="3">
-        <v>241100</v>
+        <v>243900</v>
       </c>
       <c r="J15" s="3">
-        <v>240400</v>
+        <v>243200</v>
       </c>
       <c r="K15" s="3">
         <v>207900</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>48880000</v>
+        <v>49435400</v>
       </c>
       <c r="E17" s="3">
-        <v>53839600</v>
+        <v>54451400</v>
       </c>
       <c r="F17" s="3">
-        <v>53538900</v>
+        <v>54147300</v>
       </c>
       <c r="G17" s="3">
-        <v>49614300</v>
+        <v>50178100</v>
       </c>
       <c r="H17" s="3">
-        <v>44744800</v>
+        <v>45253200</v>
       </c>
       <c r="I17" s="3">
-        <v>49543000</v>
+        <v>50106000</v>
       </c>
       <c r="J17" s="3">
-        <v>54630800</v>
+        <v>55251600</v>
       </c>
       <c r="K17" s="3">
         <v>53875500</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1977700</v>
+        <v>2000200</v>
       </c>
       <c r="E18" s="3">
-        <v>2803200</v>
+        <v>2835100</v>
       </c>
       <c r="F18" s="3">
-        <v>3641500</v>
+        <v>3682900</v>
       </c>
       <c r="G18" s="3">
-        <v>3762200</v>
+        <v>3804900</v>
       </c>
       <c r="H18" s="3">
-        <v>1968700</v>
+        <v>1991100</v>
       </c>
       <c r="I18" s="3">
-        <v>1666300</v>
+        <v>1685200</v>
       </c>
       <c r="J18" s="3">
-        <v>2356800</v>
+        <v>2383600</v>
       </c>
       <c r="K18" s="3">
         <v>2331300</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>366500</v>
+        <v>370700</v>
       </c>
       <c r="E20" s="3">
-        <v>548700</v>
+        <v>554900</v>
       </c>
       <c r="F20" s="3">
-        <v>146100</v>
+        <v>147800</v>
       </c>
       <c r="G20" s="3">
-        <v>490700</v>
+        <v>496300</v>
       </c>
       <c r="H20" s="3">
-        <v>-128100</v>
+        <v>-129600</v>
       </c>
       <c r="I20" s="3">
-        <v>-813100</v>
+        <v>-822300</v>
       </c>
       <c r="J20" s="3">
-        <v>-435300</v>
+        <v>-440300</v>
       </c>
       <c r="K20" s="3">
         <v>30800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5531300</v>
+        <v>5594200</v>
       </c>
       <c r="E21" s="3">
-        <v>6397700</v>
+        <v>6470400</v>
       </c>
       <c r="F21" s="3">
-        <v>6663100</v>
+        <v>6738900</v>
       </c>
       <c r="G21" s="3">
-        <v>7154600</v>
+        <v>7235900</v>
       </c>
       <c r="H21" s="3">
-        <v>4668800</v>
+        <v>4721800</v>
       </c>
       <c r="I21" s="3">
-        <v>3685200</v>
+        <v>3727100</v>
       </c>
       <c r="J21" s="3">
-        <v>4771400</v>
+        <v>4825600</v>
       </c>
       <c r="K21" s="3">
         <v>4779100</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>562100</v>
+        <v>568500</v>
       </c>
       <c r="E22" s="3">
-        <v>665000</v>
+        <v>672600</v>
       </c>
       <c r="F22" s="3">
-        <v>652300</v>
+        <v>659800</v>
       </c>
       <c r="G22" s="3">
-        <v>574700</v>
+        <v>581300</v>
       </c>
       <c r="H22" s="3">
-        <v>579700</v>
+        <v>586300</v>
       </c>
       <c r="I22" s="3">
-        <v>694100</v>
+        <v>702000</v>
       </c>
       <c r="J22" s="3">
-        <v>700100</v>
+        <v>708100</v>
       </c>
       <c r="K22" s="3">
         <v>598500</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1782100</v>
+        <v>1802300</v>
       </c>
       <c r="E23" s="3">
-        <v>2686900</v>
+        <v>2717400</v>
       </c>
       <c r="F23" s="3">
-        <v>3135300</v>
+        <v>3170900</v>
       </c>
       <c r="G23" s="3">
-        <v>3678100</v>
+        <v>3719900</v>
       </c>
       <c r="H23" s="3">
-        <v>1260900</v>
+        <v>1275200</v>
       </c>
       <c r="I23" s="3">
-        <v>159100</v>
+        <v>160900</v>
       </c>
       <c r="J23" s="3">
-        <v>1221300</v>
+        <v>1235200</v>
       </c>
       <c r="K23" s="3">
         <v>1763600</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>208500</v>
+        <v>210900</v>
       </c>
       <c r="E24" s="3">
-        <v>942200</v>
+        <v>952900</v>
       </c>
       <c r="F24" s="3">
-        <v>1470300</v>
+        <v>1487000</v>
       </c>
       <c r="G24" s="3">
-        <v>1061500</v>
+        <v>1073500</v>
       </c>
       <c r="H24" s="3">
-        <v>338500</v>
+        <v>342400</v>
       </c>
       <c r="I24" s="3">
-        <v>243700</v>
+        <v>246500</v>
       </c>
       <c r="J24" s="3">
-        <v>725000</v>
+        <v>733200</v>
       </c>
       <c r="K24" s="3">
         <v>536000</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1573600</v>
+        <v>1591500</v>
       </c>
       <c r="E26" s="3">
-        <v>1744700</v>
+        <v>1764500</v>
       </c>
       <c r="F26" s="3">
-        <v>1665000</v>
+        <v>1683900</v>
       </c>
       <c r="G26" s="3">
-        <v>2616700</v>
+        <v>2646400</v>
       </c>
       <c r="H26" s="3">
-        <v>922400</v>
+        <v>932900</v>
       </c>
       <c r="I26" s="3">
-        <v>-84600</v>
+        <v>-85600</v>
       </c>
       <c r="J26" s="3">
-        <v>496400</v>
+        <v>502000</v>
       </c>
       <c r="K26" s="3">
         <v>1227600</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1404000</v>
+        <v>1420000</v>
       </c>
       <c r="E27" s="3">
-        <v>1609000</v>
+        <v>1627300</v>
       </c>
       <c r="F27" s="3">
-        <v>1472100</v>
+        <v>1488900</v>
       </c>
       <c r="G27" s="3">
-        <v>2426200</v>
+        <v>2453800</v>
       </c>
       <c r="H27" s="3">
-        <v>1170500</v>
+        <v>1183800</v>
       </c>
       <c r="I27" s="3">
-        <v>129900</v>
+        <v>131400</v>
       </c>
       <c r="J27" s="3">
-        <v>527700</v>
+        <v>533700</v>
       </c>
       <c r="K27" s="3">
         <v>1230800</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-366500</v>
+        <v>-370700</v>
       </c>
       <c r="E32" s="3">
-        <v>-548700</v>
+        <v>-554900</v>
       </c>
       <c r="F32" s="3">
-        <v>-146100</v>
+        <v>-147800</v>
       </c>
       <c r="G32" s="3">
-        <v>-490700</v>
+        <v>-496300</v>
       </c>
       <c r="H32" s="3">
-        <v>128100</v>
+        <v>129600</v>
       </c>
       <c r="I32" s="3">
-        <v>813100</v>
+        <v>822300</v>
       </c>
       <c r="J32" s="3">
-        <v>435300</v>
+        <v>440300</v>
       </c>
       <c r="K32" s="3">
         <v>-30800</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1404000</v>
+        <v>1420000</v>
       </c>
       <c r="E33" s="3">
-        <v>1609000</v>
+        <v>1627300</v>
       </c>
       <c r="F33" s="3">
-        <v>1472100</v>
+        <v>1488900</v>
       </c>
       <c r="G33" s="3">
-        <v>2426200</v>
+        <v>2453800</v>
       </c>
       <c r="H33" s="3">
-        <v>1170500</v>
+        <v>1183800</v>
       </c>
       <c r="I33" s="3">
-        <v>129900</v>
+        <v>131400</v>
       </c>
       <c r="J33" s="3">
-        <v>527700</v>
+        <v>533700</v>
       </c>
       <c r="K33" s="3">
         <v>1230800</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1404000</v>
+        <v>1420000</v>
       </c>
       <c r="E35" s="3">
-        <v>1609000</v>
+        <v>1627300</v>
       </c>
       <c r="F35" s="3">
-        <v>1472100</v>
+        <v>1488900</v>
       </c>
       <c r="G35" s="3">
-        <v>2426200</v>
+        <v>2453800</v>
       </c>
       <c r="H35" s="3">
-        <v>1170500</v>
+        <v>1183800</v>
       </c>
       <c r="I35" s="3">
-        <v>129900</v>
+        <v>131400</v>
       </c>
       <c r="J35" s="3">
-        <v>527700</v>
+        <v>533700</v>
       </c>
       <c r="K35" s="3">
         <v>1230800</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4184100</v>
+        <v>4231600</v>
       </c>
       <c r="E41" s="3">
-        <v>3093100</v>
+        <v>3128200</v>
       </c>
       <c r="F41" s="3">
-        <v>2326600</v>
+        <v>2353000</v>
       </c>
       <c r="G41" s="3">
-        <v>2299000</v>
+        <v>2325200</v>
       </c>
       <c r="H41" s="3">
-        <v>2153900</v>
+        <v>2178400</v>
       </c>
       <c r="I41" s="3">
-        <v>4285800</v>
+        <v>4334500</v>
       </c>
       <c r="J41" s="3">
-        <v>3353900</v>
+        <v>3392000</v>
       </c>
       <c r="K41" s="3">
         <v>7659600</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10216700</v>
+        <v>10332800</v>
       </c>
       <c r="E42" s="3">
-        <v>7874700</v>
+        <v>7964200</v>
       </c>
       <c r="F42" s="3">
-        <v>7069800</v>
+        <v>7150100</v>
       </c>
       <c r="G42" s="3">
-        <v>6200400</v>
+        <v>6270800</v>
       </c>
       <c r="H42" s="3">
-        <v>4591900</v>
+        <v>4644100</v>
       </c>
       <c r="I42" s="3">
-        <v>3441100</v>
+        <v>3480200</v>
       </c>
       <c r="J42" s="3">
-        <v>1287400</v>
+        <v>1302000</v>
       </c>
       <c r="K42" s="3">
         <v>2703300</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8504600</v>
+        <v>8601300</v>
       </c>
       <c r="E43" s="3">
-        <v>9421100</v>
+        <v>9528200</v>
       </c>
       <c r="F43" s="3">
-        <v>9433400</v>
+        <v>9540600</v>
       </c>
       <c r="G43" s="3">
-        <v>9350000</v>
+        <v>9456300</v>
       </c>
       <c r="H43" s="3">
-        <v>10008400</v>
+        <v>10122100</v>
       </c>
       <c r="I43" s="3">
-        <v>9952400</v>
+        <v>10065500</v>
       </c>
       <c r="J43" s="3">
-        <v>12019300</v>
+        <v>12155900</v>
       </c>
       <c r="K43" s="3">
         <v>12227600</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7965600</v>
+        <v>8056100</v>
       </c>
       <c r="E44" s="3">
-        <v>9609900</v>
+        <v>9719100</v>
       </c>
       <c r="F44" s="3">
-        <v>10119900</v>
+        <v>10234900</v>
       </c>
       <c r="G44" s="3">
-        <v>8756800</v>
+        <v>8856300</v>
       </c>
       <c r="H44" s="3">
-        <v>7965500</v>
+        <v>8056000</v>
       </c>
       <c r="I44" s="3">
-        <v>7238200</v>
+        <v>7320400</v>
       </c>
       <c r="J44" s="3">
-        <v>9832500</v>
+        <v>9944300</v>
       </c>
       <c r="K44" s="3">
         <v>9237300</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>660100</v>
+        <v>667600</v>
       </c>
       <c r="E45" s="3">
-        <v>662500</v>
+        <v>670100</v>
       </c>
       <c r="F45" s="3">
-        <v>663200</v>
+        <v>670700</v>
       </c>
       <c r="G45" s="3">
-        <v>785800</v>
+        <v>794800</v>
       </c>
       <c r="H45" s="3">
-        <v>1067700</v>
+        <v>1079800</v>
       </c>
       <c r="I45" s="3">
-        <v>761700</v>
+        <v>770300</v>
       </c>
       <c r="J45" s="3">
-        <v>2729900</v>
+        <v>2760900</v>
       </c>
       <c r="K45" s="3">
         <v>1157300</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>31531100</v>
+        <v>31889400</v>
       </c>
       <c r="E46" s="3">
-        <v>30661300</v>
+        <v>31009700</v>
       </c>
       <c r="F46" s="3">
-        <v>29612900</v>
+        <v>29949400</v>
       </c>
       <c r="G46" s="3">
-        <v>27392100</v>
+        <v>27703400</v>
       </c>
       <c r="H46" s="3">
-        <v>25787400</v>
+        <v>26080400</v>
       </c>
       <c r="I46" s="3">
-        <v>25679200</v>
+        <v>25971000</v>
       </c>
       <c r="J46" s="3">
-        <v>29223000</v>
+        <v>29555100</v>
       </c>
       <c r="K46" s="3">
         <v>29155200</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5897700</v>
+        <v>5964700</v>
       </c>
       <c r="E47" s="3">
-        <v>6047400</v>
+        <v>6116100</v>
       </c>
       <c r="F47" s="3">
-        <v>5796100</v>
+        <v>5862000</v>
       </c>
       <c r="G47" s="3">
-        <v>6230700</v>
+        <v>6301500</v>
       </c>
       <c r="H47" s="3">
-        <v>6471600</v>
+        <v>6545200</v>
       </c>
       <c r="I47" s="3">
-        <v>6397900</v>
+        <v>6470600</v>
       </c>
       <c r="J47" s="3">
-        <v>6811100</v>
+        <v>6888500</v>
       </c>
       <c r="K47" s="3">
         <v>8343700</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26747500</v>
+        <v>27051500</v>
       </c>
       <c r="E48" s="3">
-        <v>27107700</v>
+        <v>27415700</v>
       </c>
       <c r="F48" s="3">
-        <v>27233300</v>
+        <v>27542700</v>
       </c>
       <c r="G48" s="3">
-        <v>28994600</v>
+        <v>29324100</v>
       </c>
       <c r="H48" s="3">
-        <v>30701500</v>
+        <v>31050400</v>
       </c>
       <c r="I48" s="3">
-        <v>31334300</v>
+        <v>31690400</v>
       </c>
       <c r="J48" s="3">
-        <v>31941200</v>
+        <v>32304100</v>
       </c>
       <c r="K48" s="3">
         <v>32928700</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3915500</v>
+        <v>3960000</v>
       </c>
       <c r="E49" s="3">
-        <v>4319500</v>
+        <v>4368500</v>
       </c>
       <c r="F49" s="3">
-        <v>4550300</v>
+        <v>4602000</v>
       </c>
       <c r="G49" s="3">
-        <v>5238000</v>
+        <v>5297500</v>
       </c>
       <c r="H49" s="3">
-        <v>5358100</v>
+        <v>5419000</v>
       </c>
       <c r="I49" s="3">
-        <v>5637100</v>
+        <v>5701100</v>
       </c>
       <c r="J49" s="3">
-        <v>6058800</v>
+        <v>6127600</v>
       </c>
       <c r="K49" s="3">
         <v>5396200</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1504700</v>
+        <v>1521800</v>
       </c>
       <c r="E52" s="3">
-        <v>1435800</v>
+        <v>1452100</v>
       </c>
       <c r="F52" s="3">
-        <v>1665900</v>
+        <v>1684800</v>
       </c>
       <c r="G52" s="3">
-        <v>1686500</v>
+        <v>1705700</v>
       </c>
       <c r="H52" s="3">
-        <v>1872900</v>
+        <v>1894100</v>
       </c>
       <c r="I52" s="3">
-        <v>1711200</v>
+        <v>1730700</v>
       </c>
       <c r="J52" s="3">
-        <v>1508300</v>
+        <v>1525400</v>
       </c>
       <c r="K52" s="3">
         <v>1381700</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>69596500</v>
+        <v>70387400</v>
       </c>
       <c r="E54" s="3">
-        <v>69571600</v>
+        <v>70362200</v>
       </c>
       <c r="F54" s="3">
-        <v>68858500</v>
+        <v>69641000</v>
       </c>
       <c r="G54" s="3">
-        <v>69542000</v>
+        <v>70332200</v>
       </c>
       <c r="H54" s="3">
-        <v>70191400</v>
+        <v>70989100</v>
       </c>
       <c r="I54" s="3">
-        <v>70759700</v>
+        <v>71563800</v>
       </c>
       <c r="J54" s="3">
-        <v>75542300</v>
+        <v>76400800</v>
       </c>
       <c r="K54" s="3">
         <v>77205400</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3304900</v>
+        <v>3342400</v>
       </c>
       <c r="E57" s="3">
-        <v>3012200</v>
+        <v>3046400</v>
       </c>
       <c r="F57" s="3">
-        <v>3525400</v>
+        <v>3565500</v>
       </c>
       <c r="G57" s="3">
-        <v>3049300</v>
+        <v>3084000</v>
       </c>
       <c r="H57" s="3">
-        <v>3584500</v>
+        <v>3625200</v>
       </c>
       <c r="I57" s="3">
-        <v>2750300</v>
+        <v>2781600</v>
       </c>
       <c r="J57" s="3">
-        <v>3476700</v>
+        <v>3516200</v>
       </c>
       <c r="K57" s="3">
         <v>3850500</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7851400</v>
+        <v>7940600</v>
       </c>
       <c r="E58" s="3">
-        <v>7653700</v>
+        <v>7740700</v>
       </c>
       <c r="F58" s="3">
-        <v>9063800</v>
+        <v>9166800</v>
       </c>
       <c r="G58" s="3">
-        <v>9937200</v>
+        <v>10050100</v>
       </c>
       <c r="H58" s="3">
-        <v>8993000</v>
+        <v>9095200</v>
       </c>
       <c r="I58" s="3">
-        <v>10910200</v>
+        <v>11034100</v>
       </c>
       <c r="J58" s="3">
-        <v>10751300</v>
+        <v>10873500</v>
       </c>
       <c r="K58" s="3">
         <v>9762400</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3676100</v>
+        <v>3717900</v>
       </c>
       <c r="E59" s="3">
-        <v>3699000</v>
+        <v>3741000</v>
       </c>
       <c r="F59" s="3">
-        <v>4076200</v>
+        <v>4122600</v>
       </c>
       <c r="G59" s="3">
-        <v>3686000</v>
+        <v>3727800</v>
       </c>
       <c r="H59" s="3">
-        <v>4068000</v>
+        <v>4114300</v>
       </c>
       <c r="I59" s="3">
-        <v>4054700</v>
+        <v>4100800</v>
       </c>
       <c r="J59" s="3">
-        <v>5462100</v>
+        <v>5524100</v>
       </c>
       <c r="K59" s="3">
         <v>4912500</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>14832400</v>
+        <v>15000900</v>
       </c>
       <c r="E60" s="3">
-        <v>14364800</v>
+        <v>14528100</v>
       </c>
       <c r="F60" s="3">
-        <v>16665400</v>
+        <v>16854800</v>
       </c>
       <c r="G60" s="3">
-        <v>16672500</v>
+        <v>16862000</v>
       </c>
       <c r="H60" s="3">
-        <v>16645500</v>
+        <v>16834700</v>
       </c>
       <c r="I60" s="3">
-        <v>17715200</v>
+        <v>17916500</v>
       </c>
       <c r="J60" s="3">
-        <v>19690000</v>
+        <v>19913800</v>
       </c>
       <c r="K60" s="3">
         <v>18525400</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10837400</v>
+        <v>10960500</v>
       </c>
       <c r="E61" s="3">
-        <v>10929300</v>
+        <v>11053500</v>
       </c>
       <c r="F61" s="3">
-        <v>8803700</v>
+        <v>8903800</v>
       </c>
       <c r="G61" s="3">
-        <v>8680700</v>
+        <v>8779300</v>
       </c>
       <c r="H61" s="3">
-        <v>11088100</v>
+        <v>11214100</v>
       </c>
       <c r="I61" s="3">
-        <v>11320000</v>
+        <v>11448600</v>
       </c>
       <c r="J61" s="3">
-        <v>13426700</v>
+        <v>13579300</v>
       </c>
       <c r="K61" s="3">
         <v>14170700</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1973100</v>
+        <v>1995600</v>
       </c>
       <c r="E62" s="3">
-        <v>2218100</v>
+        <v>2243300</v>
       </c>
       <c r="F62" s="3">
-        <v>2240900</v>
+        <v>2266400</v>
       </c>
       <c r="G62" s="3">
-        <v>2420500</v>
+        <v>2448000</v>
       </c>
       <c r="H62" s="3">
-        <v>2120000</v>
+        <v>2144100</v>
       </c>
       <c r="I62" s="3">
-        <v>2062700</v>
+        <v>2086200</v>
       </c>
       <c r="J62" s="3">
-        <v>2599100</v>
+        <v>2628700</v>
       </c>
       <c r="K62" s="3">
         <v>2848900</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>30584900</v>
+        <v>30932500</v>
       </c>
       <c r="E66" s="3">
-        <v>30436400</v>
+        <v>30782200</v>
       </c>
       <c r="F66" s="3">
-        <v>30691800</v>
+        <v>31040500</v>
       </c>
       <c r="G66" s="3">
-        <v>31057000</v>
+        <v>31410000</v>
       </c>
       <c r="H66" s="3">
-        <v>32902800</v>
+        <v>33276700</v>
       </c>
       <c r="I66" s="3">
-        <v>34472600</v>
+        <v>34864300</v>
       </c>
       <c r="J66" s="3">
-        <v>38972200</v>
+        <v>39415100</v>
       </c>
       <c r="K66" s="3">
         <v>38977200</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>40578100</v>
+        <v>41039200</v>
       </c>
       <c r="E72" s="3">
-        <v>39670500</v>
+        <v>40121300</v>
       </c>
       <c r="F72" s="3">
-        <v>38910100</v>
+        <v>39352300</v>
       </c>
       <c r="G72" s="3">
-        <v>37889800</v>
+        <v>38320400</v>
       </c>
       <c r="H72" s="3">
-        <v>36232900</v>
+        <v>36644700</v>
       </c>
       <c r="I72" s="3">
-        <v>35640900</v>
+        <v>36045900</v>
       </c>
       <c r="J72" s="3">
-        <v>36024700</v>
+        <v>36434100</v>
       </c>
       <c r="K72" s="3">
         <v>37358800</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>39011600</v>
+        <v>39454900</v>
       </c>
       <c r="E76" s="3">
-        <v>39135200</v>
+        <v>39580000</v>
       </c>
       <c r="F76" s="3">
-        <v>38166700</v>
+        <v>38600400</v>
       </c>
       <c r="G76" s="3">
-        <v>38484900</v>
+        <v>38922300</v>
       </c>
       <c r="H76" s="3">
-        <v>37288600</v>
+        <v>37712400</v>
       </c>
       <c r="I76" s="3">
-        <v>36287100</v>
+        <v>36699500</v>
       </c>
       <c r="J76" s="3">
-        <v>36570100</v>
+        <v>36985700</v>
       </c>
       <c r="K76" s="3">
         <v>38228200</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1404000</v>
+        <v>1420000</v>
       </c>
       <c r="E81" s="3">
-        <v>1609000</v>
+        <v>1627300</v>
       </c>
       <c r="F81" s="3">
-        <v>1472100</v>
+        <v>1488900</v>
       </c>
       <c r="G81" s="3">
-        <v>2426200</v>
+        <v>2453800</v>
       </c>
       <c r="H81" s="3">
-        <v>1170500</v>
+        <v>1183800</v>
       </c>
       <c r="I81" s="3">
-        <v>129900</v>
+        <v>131400</v>
       </c>
       <c r="J81" s="3">
-        <v>527700</v>
+        <v>533700</v>
       </c>
       <c r="K81" s="3">
         <v>1230800</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3187100</v>
+        <v>3223300</v>
       </c>
       <c r="E83" s="3">
-        <v>3045800</v>
+        <v>3080400</v>
       </c>
       <c r="F83" s="3">
-        <v>2875500</v>
+        <v>2908200</v>
       </c>
       <c r="G83" s="3">
-        <v>2901700</v>
+        <v>2934700</v>
       </c>
       <c r="H83" s="3">
-        <v>2828200</v>
+        <v>2860300</v>
       </c>
       <c r="I83" s="3">
-        <v>2832100</v>
+        <v>2864200</v>
       </c>
       <c r="J83" s="3">
-        <v>2849900</v>
+        <v>2882300</v>
       </c>
       <c r="K83" s="3">
         <v>2443900</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>7559600</v>
+        <v>7645500</v>
       </c>
       <c r="E89" s="3">
-        <v>5338400</v>
+        <v>5399100</v>
       </c>
       <c r="F89" s="3">
-        <v>5169400</v>
+        <v>5228200</v>
       </c>
       <c r="G89" s="3">
-        <v>4882500</v>
+        <v>4938000</v>
       </c>
       <c r="H89" s="3">
-        <v>4648200</v>
+        <v>4701000</v>
       </c>
       <c r="I89" s="3">
-        <v>6710300</v>
+        <v>6786500</v>
       </c>
       <c r="J89" s="3">
-        <v>3012800</v>
+        <v>3047000</v>
       </c>
       <c r="K89" s="3">
         <v>4420900</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2813300</v>
+        <v>-2845300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2216900</v>
+        <v>-2242100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1879300</v>
+        <v>-1900600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2013100</v>
+        <v>-2035900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2045200</v>
+        <v>-2068500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2253000</v>
+        <v>-2278600</v>
       </c>
       <c r="J91" s="3">
-        <v>-3084900</v>
+        <v>-3119900</v>
       </c>
       <c r="K91" s="3">
         <v>-5978300</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-5508200</v>
+        <v>-5570700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3240900</v>
+        <v>-3277700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2330200</v>
+        <v>-2356700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3359700</v>
+        <v>-3397900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3304100</v>
+        <v>-3341600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3990500</v>
+        <v>-4035900</v>
       </c>
       <c r="J94" s="3">
-        <v>-3295800</v>
+        <v>-3333200</v>
       </c>
       <c r="K94" s="3">
         <v>-7964000</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-580000</v>
+        <v>-586600</v>
       </c>
       <c r="E96" s="3">
-        <v>-779600</v>
+        <v>-788500</v>
       </c>
       <c r="F96" s="3">
-        <v>-589300</v>
+        <v>-596000</v>
       </c>
       <c r="G96" s="3">
-        <v>-722100</v>
+        <v>-730300</v>
       </c>
       <c r="H96" s="3">
-        <v>-623900</v>
+        <v>-631000</v>
       </c>
       <c r="I96" s="3">
-        <v>-723900</v>
+        <v>-732100</v>
       </c>
       <c r="J96" s="3">
-        <v>-595800</v>
+        <v>-602500</v>
       </c>
       <c r="K96" s="3">
         <v>-590200</v>
@@ -3672,25 +3672,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-960000</v>
+        <v>-970900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1330700</v>
+        <v>-1345800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2811600</v>
+        <v>-2843600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1377700</v>
+        <v>-1393300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3476900</v>
+        <v>-3516400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1972600</v>
+        <v>-1995000</v>
       </c>
       <c r="J100" s="3">
-        <v>118900</v>
+        <v>120200</v>
       </c>
       <c r="K100" s="3">
         <v>3214400</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1091500</v>
+        <v>1103900</v>
       </c>
       <c r="E102" s="3">
-        <v>766800</v>
+        <v>775500</v>
       </c>
       <c r="F102" s="3">
-        <v>27600</v>
+        <v>27900</v>
       </c>
       <c r="G102" s="3">
-        <v>145100</v>
+        <v>146800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2132700</v>
+        <v>-2157000</v>
       </c>
       <c r="I102" s="3">
-        <v>747200</v>
+        <v>755700</v>
       </c>
       <c r="J102" s="3">
-        <v>-164100</v>
+        <v>-165900</v>
       </c>
       <c r="K102" s="3">
         <v>-429500</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51435600</v>
+        <v>49123900</v>
       </c>
       <c r="E8" s="3">
-        <v>57286500</v>
+        <v>54711800</v>
       </c>
       <c r="F8" s="3">
-        <v>57830200</v>
+        <v>55231100</v>
       </c>
       <c r="G8" s="3">
-        <v>53983000</v>
+        <v>51556800</v>
       </c>
       <c r="H8" s="3">
-        <v>47244300</v>
+        <v>45121000</v>
       </c>
       <c r="I8" s="3">
-        <v>51791200</v>
+        <v>49463500</v>
       </c>
       <c r="J8" s="3">
-        <v>57635200</v>
+        <v>55044800</v>
       </c>
       <c r="K8" s="3">
         <v>56206800</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47234400</v>
+        <v>45111500</v>
       </c>
       <c r="E9" s="3">
-        <v>51723700</v>
+        <v>49399000</v>
       </c>
       <c r="F9" s="3">
-        <v>50734800</v>
+        <v>48454600</v>
       </c>
       <c r="G9" s="3">
-        <v>46546300</v>
+        <v>44454300</v>
       </c>
       <c r="H9" s="3">
-        <v>41290600</v>
+        <v>39434900</v>
       </c>
       <c r="I9" s="3">
-        <v>45975700</v>
+        <v>43909400</v>
       </c>
       <c r="J9" s="3">
-        <v>51144300</v>
+        <v>48845700</v>
       </c>
       <c r="K9" s="3">
         <v>49971600</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4201200</v>
+        <v>4012300</v>
       </c>
       <c r="E10" s="3">
-        <v>5562800</v>
+        <v>5312800</v>
       </c>
       <c r="F10" s="3">
-        <v>7095400</v>
+        <v>6776500</v>
       </c>
       <c r="G10" s="3">
-        <v>7436800</v>
+        <v>7102500</v>
       </c>
       <c r="H10" s="3">
-        <v>5953700</v>
+        <v>5686100</v>
       </c>
       <c r="I10" s="3">
-        <v>5815500</v>
+        <v>5554100</v>
       </c>
       <c r="J10" s="3">
-        <v>6490900</v>
+        <v>6199200</v>
       </c>
       <c r="K10" s="3">
         <v>6235300</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>103500</v>
+        <v>98800</v>
       </c>
       <c r="E12" s="3">
-        <v>98200</v>
+        <v>93800</v>
       </c>
       <c r="F12" s="3">
-        <v>96400</v>
+        <v>92100</v>
       </c>
       <c r="G12" s="3">
-        <v>112000</v>
+        <v>106900</v>
       </c>
       <c r="H12" s="3">
-        <v>107300</v>
+        <v>102500</v>
       </c>
       <c r="I12" s="3">
-        <v>120600</v>
+        <v>115200</v>
       </c>
       <c r="J12" s="3">
-        <v>155900</v>
+        <v>148900</v>
       </c>
       <c r="K12" s="3">
         <v>175500</v>
@@ -913,25 +913,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>138500</v>
+        <v>132300</v>
       </c>
       <c r="E14" s="3">
-        <v>608200</v>
+        <v>580900</v>
       </c>
       <c r="F14" s="3">
-        <v>1250000</v>
+        <v>1193800</v>
       </c>
       <c r="G14" s="3">
-        <v>308500</v>
+        <v>294600</v>
       </c>
       <c r="H14" s="3">
-        <v>540400</v>
+        <v>516100</v>
       </c>
       <c r="I14" s="3">
-        <v>459700</v>
+        <v>439100</v>
       </c>
       <c r="J14" s="3">
-        <v>485200</v>
+        <v>463400</v>
       </c>
       <c r="K14" s="3">
         <v>387800</v>
@@ -949,25 +949,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>222500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>207000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>181600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>207000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>206600</v>
+      </c>
+      <c r="I15" s="3">
         <v>232900</v>
       </c>
-      <c r="E15" s="3">
-        <v>216700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>190200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>216800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>216300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>243900</v>
-      </c>
       <c r="J15" s="3">
-        <v>243200</v>
+        <v>232200</v>
       </c>
       <c r="K15" s="3">
         <v>207900</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>49435400</v>
+        <v>47213600</v>
       </c>
       <c r="E17" s="3">
-        <v>54451400</v>
+        <v>52004200</v>
       </c>
       <c r="F17" s="3">
-        <v>54147300</v>
+        <v>51713700</v>
       </c>
       <c r="G17" s="3">
-        <v>50178100</v>
+        <v>47922900</v>
       </c>
       <c r="H17" s="3">
-        <v>45253200</v>
+        <v>43219400</v>
       </c>
       <c r="I17" s="3">
-        <v>50106000</v>
+        <v>47854000</v>
       </c>
       <c r="J17" s="3">
-        <v>55251600</v>
+        <v>52768400</v>
       </c>
       <c r="K17" s="3">
         <v>53875500</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2000200</v>
+        <v>1910300</v>
       </c>
       <c r="E18" s="3">
-        <v>2835100</v>
+        <v>2707600</v>
       </c>
       <c r="F18" s="3">
-        <v>3682900</v>
+        <v>3517400</v>
       </c>
       <c r="G18" s="3">
-        <v>3804900</v>
+        <v>3633900</v>
       </c>
       <c r="H18" s="3">
-        <v>1991100</v>
+        <v>1901600</v>
       </c>
       <c r="I18" s="3">
-        <v>1685200</v>
+        <v>1609500</v>
       </c>
       <c r="J18" s="3">
-        <v>2383600</v>
+        <v>2276400</v>
       </c>
       <c r="K18" s="3">
         <v>2331300</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>370700</v>
+        <v>354000</v>
       </c>
       <c r="E20" s="3">
-        <v>554900</v>
+        <v>530000</v>
       </c>
       <c r="F20" s="3">
-        <v>147800</v>
+        <v>141100</v>
       </c>
       <c r="G20" s="3">
-        <v>496300</v>
+        <v>474000</v>
       </c>
       <c r="H20" s="3">
-        <v>-129600</v>
+        <v>-123800</v>
       </c>
       <c r="I20" s="3">
-        <v>-822300</v>
+        <v>-785400</v>
       </c>
       <c r="J20" s="3">
-        <v>-440300</v>
+        <v>-420500</v>
       </c>
       <c r="K20" s="3">
         <v>30800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5594200</v>
+        <v>5342800</v>
       </c>
       <c r="E21" s="3">
-        <v>6470400</v>
+        <v>6179600</v>
       </c>
       <c r="F21" s="3">
-        <v>6738900</v>
+        <v>6436000</v>
       </c>
       <c r="G21" s="3">
-        <v>7235900</v>
+        <v>6910700</v>
       </c>
       <c r="H21" s="3">
-        <v>4721800</v>
+        <v>4509600</v>
       </c>
       <c r="I21" s="3">
-        <v>3727100</v>
+        <v>3559600</v>
       </c>
       <c r="J21" s="3">
-        <v>4825600</v>
+        <v>4608700</v>
       </c>
       <c r="K21" s="3">
         <v>4779100</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>568500</v>
+        <v>543000</v>
       </c>
       <c r="E22" s="3">
-        <v>672600</v>
+        <v>642400</v>
       </c>
       <c r="F22" s="3">
-        <v>659800</v>
+        <v>630100</v>
       </c>
       <c r="G22" s="3">
-        <v>581300</v>
+        <v>555100</v>
       </c>
       <c r="H22" s="3">
-        <v>586300</v>
+        <v>559900</v>
       </c>
       <c r="I22" s="3">
-        <v>702000</v>
+        <v>670500</v>
       </c>
       <c r="J22" s="3">
-        <v>708100</v>
+        <v>676200</v>
       </c>
       <c r="K22" s="3">
         <v>598500</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1802300</v>
+        <v>1721300</v>
       </c>
       <c r="E23" s="3">
-        <v>2717400</v>
+        <v>2595300</v>
       </c>
       <c r="F23" s="3">
-        <v>3170900</v>
+        <v>3028400</v>
       </c>
       <c r="G23" s="3">
-        <v>3719900</v>
+        <v>3552700</v>
       </c>
       <c r="H23" s="3">
-        <v>1275200</v>
+        <v>1217900</v>
       </c>
       <c r="I23" s="3">
-        <v>160900</v>
+        <v>153600</v>
       </c>
       <c r="J23" s="3">
-        <v>1235200</v>
+        <v>1179700</v>
       </c>
       <c r="K23" s="3">
         <v>1763600</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>210900</v>
+        <v>201400</v>
       </c>
       <c r="E24" s="3">
-        <v>952900</v>
+        <v>910000</v>
       </c>
       <c r="F24" s="3">
-        <v>1487000</v>
+        <v>1420100</v>
       </c>
       <c r="G24" s="3">
-        <v>1073500</v>
+        <v>1025300</v>
       </c>
       <c r="H24" s="3">
-        <v>342400</v>
+        <v>327000</v>
       </c>
       <c r="I24" s="3">
-        <v>246500</v>
+        <v>235400</v>
       </c>
       <c r="J24" s="3">
-        <v>733200</v>
+        <v>700300</v>
       </c>
       <c r="K24" s="3">
         <v>536000</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1591500</v>
+        <v>1519900</v>
       </c>
       <c r="E26" s="3">
-        <v>1764500</v>
+        <v>1685200</v>
       </c>
       <c r="F26" s="3">
-        <v>1683900</v>
+        <v>1608300</v>
       </c>
       <c r="G26" s="3">
-        <v>2646400</v>
+        <v>2527400</v>
       </c>
       <c r="H26" s="3">
-        <v>932900</v>
+        <v>890900</v>
       </c>
       <c r="I26" s="3">
-        <v>-85600</v>
+        <v>-81800</v>
       </c>
       <c r="J26" s="3">
-        <v>502000</v>
+        <v>479400</v>
       </c>
       <c r="K26" s="3">
         <v>1227600</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1420000</v>
+        <v>1356100</v>
       </c>
       <c r="E27" s="3">
-        <v>1627300</v>
+        <v>1554200</v>
       </c>
       <c r="F27" s="3">
-        <v>1488900</v>
+        <v>1422000</v>
       </c>
       <c r="G27" s="3">
-        <v>2453800</v>
+        <v>2343500</v>
       </c>
       <c r="H27" s="3">
-        <v>1183800</v>
+        <v>1130600</v>
       </c>
       <c r="I27" s="3">
-        <v>131400</v>
+        <v>125500</v>
       </c>
       <c r="J27" s="3">
-        <v>533700</v>
+        <v>509700</v>
       </c>
       <c r="K27" s="3">
         <v>1230800</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-370700</v>
+        <v>-354000</v>
       </c>
       <c r="E32" s="3">
-        <v>-554900</v>
+        <v>-530000</v>
       </c>
       <c r="F32" s="3">
-        <v>-147800</v>
+        <v>-141100</v>
       </c>
       <c r="G32" s="3">
-        <v>-496300</v>
+        <v>-474000</v>
       </c>
       <c r="H32" s="3">
-        <v>129600</v>
+        <v>123800</v>
       </c>
       <c r="I32" s="3">
-        <v>822300</v>
+        <v>785400</v>
       </c>
       <c r="J32" s="3">
-        <v>440300</v>
+        <v>420500</v>
       </c>
       <c r="K32" s="3">
         <v>-30800</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1420000</v>
+        <v>1356100</v>
       </c>
       <c r="E33" s="3">
-        <v>1627300</v>
+        <v>1554200</v>
       </c>
       <c r="F33" s="3">
-        <v>1488900</v>
+        <v>1422000</v>
       </c>
       <c r="G33" s="3">
-        <v>2453800</v>
+        <v>2343500</v>
       </c>
       <c r="H33" s="3">
-        <v>1183800</v>
+        <v>1130600</v>
       </c>
       <c r="I33" s="3">
-        <v>131400</v>
+        <v>125500</v>
       </c>
       <c r="J33" s="3">
-        <v>533700</v>
+        <v>509700</v>
       </c>
       <c r="K33" s="3">
         <v>1230800</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1420000</v>
+        <v>1356100</v>
       </c>
       <c r="E35" s="3">
-        <v>1627300</v>
+        <v>1554200</v>
       </c>
       <c r="F35" s="3">
-        <v>1488900</v>
+        <v>1422000</v>
       </c>
       <c r="G35" s="3">
-        <v>2453800</v>
+        <v>2343500</v>
       </c>
       <c r="H35" s="3">
-        <v>1183800</v>
+        <v>1130600</v>
       </c>
       <c r="I35" s="3">
-        <v>131400</v>
+        <v>125500</v>
       </c>
       <c r="J35" s="3">
-        <v>533700</v>
+        <v>509700</v>
       </c>
       <c r="K35" s="3">
         <v>1230800</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4231600</v>
+        <v>4041400</v>
       </c>
       <c r="E41" s="3">
-        <v>3128200</v>
+        <v>2987600</v>
       </c>
       <c r="F41" s="3">
-        <v>2353000</v>
+        <v>2247300</v>
       </c>
       <c r="G41" s="3">
-        <v>2325200</v>
+        <v>2220700</v>
       </c>
       <c r="H41" s="3">
-        <v>2178400</v>
+        <v>2080500</v>
       </c>
       <c r="I41" s="3">
-        <v>4334500</v>
+        <v>4139700</v>
       </c>
       <c r="J41" s="3">
-        <v>3392000</v>
+        <v>3239500</v>
       </c>
       <c r="K41" s="3">
         <v>7659600</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10332800</v>
+        <v>9868400</v>
       </c>
       <c r="E42" s="3">
-        <v>7964200</v>
+        <v>7606200</v>
       </c>
       <c r="F42" s="3">
-        <v>7150100</v>
+        <v>6828700</v>
       </c>
       <c r="G42" s="3">
-        <v>6270800</v>
+        <v>5989000</v>
       </c>
       <c r="H42" s="3">
-        <v>4644100</v>
+        <v>4435400</v>
       </c>
       <c r="I42" s="3">
-        <v>3480200</v>
+        <v>3323800</v>
       </c>
       <c r="J42" s="3">
-        <v>1302000</v>
+        <v>1243500</v>
       </c>
       <c r="K42" s="3">
         <v>2703300</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8601300</v>
+        <v>8214700</v>
       </c>
       <c r="E43" s="3">
-        <v>9528200</v>
+        <v>9099900</v>
       </c>
       <c r="F43" s="3">
-        <v>9540600</v>
+        <v>9111800</v>
       </c>
       <c r="G43" s="3">
-        <v>9456300</v>
+        <v>9031300</v>
       </c>
       <c r="H43" s="3">
-        <v>10122100</v>
+        <v>9667200</v>
       </c>
       <c r="I43" s="3">
-        <v>10065500</v>
+        <v>9613100</v>
       </c>
       <c r="J43" s="3">
-        <v>12155900</v>
+        <v>11609600</v>
       </c>
       <c r="K43" s="3">
         <v>12227600</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>8056100</v>
+        <v>7694000</v>
       </c>
       <c r="E44" s="3">
-        <v>9719100</v>
+        <v>9282300</v>
       </c>
       <c r="F44" s="3">
-        <v>10234900</v>
+        <v>9774900</v>
       </c>
       <c r="G44" s="3">
-        <v>8856300</v>
+        <v>8458300</v>
       </c>
       <c r="H44" s="3">
-        <v>8056000</v>
+        <v>7694000</v>
       </c>
       <c r="I44" s="3">
-        <v>7320400</v>
+        <v>6991400</v>
       </c>
       <c r="J44" s="3">
-        <v>9944300</v>
+        <v>9497300</v>
       </c>
       <c r="K44" s="3">
         <v>9237300</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>667600</v>
+        <v>637600</v>
       </c>
       <c r="E45" s="3">
-        <v>670100</v>
+        <v>639900</v>
       </c>
       <c r="F45" s="3">
-        <v>670700</v>
+        <v>640600</v>
       </c>
       <c r="G45" s="3">
-        <v>794800</v>
+        <v>759100</v>
       </c>
       <c r="H45" s="3">
-        <v>1079800</v>
+        <v>1031300</v>
       </c>
       <c r="I45" s="3">
-        <v>770300</v>
+        <v>735700</v>
       </c>
       <c r="J45" s="3">
-        <v>2760900</v>
+        <v>2636800</v>
       </c>
       <c r="K45" s="3">
         <v>1157300</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>31889400</v>
+        <v>30456200</v>
       </c>
       <c r="E46" s="3">
-        <v>31009700</v>
+        <v>29616000</v>
       </c>
       <c r="F46" s="3">
-        <v>29949400</v>
+        <v>28603400</v>
       </c>
       <c r="G46" s="3">
-        <v>27703400</v>
+        <v>26458300</v>
       </c>
       <c r="H46" s="3">
-        <v>26080400</v>
+        <v>24908300</v>
       </c>
       <c r="I46" s="3">
-        <v>25971000</v>
+        <v>24803800</v>
       </c>
       <c r="J46" s="3">
-        <v>29555100</v>
+        <v>28226700</v>
       </c>
       <c r="K46" s="3">
         <v>29155200</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5964700</v>
+        <v>5696600</v>
       </c>
       <c r="E47" s="3">
-        <v>6116100</v>
+        <v>5841300</v>
       </c>
       <c r="F47" s="3">
-        <v>5862000</v>
+        <v>5598500</v>
       </c>
       <c r="G47" s="3">
-        <v>6301500</v>
+        <v>6018300</v>
       </c>
       <c r="H47" s="3">
-        <v>6545200</v>
+        <v>6251000</v>
       </c>
       <c r="I47" s="3">
-        <v>6470600</v>
+        <v>6179800</v>
       </c>
       <c r="J47" s="3">
-        <v>6888500</v>
+        <v>6578900</v>
       </c>
       <c r="K47" s="3">
         <v>8343700</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>27051500</v>
+        <v>25835700</v>
       </c>
       <c r="E48" s="3">
-        <v>27415700</v>
+        <v>26183600</v>
       </c>
       <c r="F48" s="3">
-        <v>27542700</v>
+        <v>26304900</v>
       </c>
       <c r="G48" s="3">
-        <v>29324100</v>
+        <v>28006200</v>
       </c>
       <c r="H48" s="3">
-        <v>31050400</v>
+        <v>29654900</v>
       </c>
       <c r="I48" s="3">
-        <v>31690400</v>
+        <v>30266100</v>
       </c>
       <c r="J48" s="3">
-        <v>32304100</v>
+        <v>30852300</v>
       </c>
       <c r="K48" s="3">
         <v>32928700</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3960000</v>
+        <v>3782000</v>
       </c>
       <c r="E49" s="3">
-        <v>4368500</v>
+        <v>4172200</v>
       </c>
       <c r="F49" s="3">
-        <v>4602000</v>
+        <v>4395200</v>
       </c>
       <c r="G49" s="3">
-        <v>5297500</v>
+        <v>5059400</v>
       </c>
       <c r="H49" s="3">
-        <v>5419000</v>
+        <v>5175400</v>
       </c>
       <c r="I49" s="3">
-        <v>5701100</v>
+        <v>5444900</v>
       </c>
       <c r="J49" s="3">
-        <v>6127600</v>
+        <v>5852200</v>
       </c>
       <c r="K49" s="3">
         <v>5396200</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1521800</v>
+        <v>1453400</v>
       </c>
       <c r="E52" s="3">
-        <v>1452100</v>
+        <v>1386800</v>
       </c>
       <c r="F52" s="3">
-        <v>1684800</v>
+        <v>1609100</v>
       </c>
       <c r="G52" s="3">
-        <v>1705700</v>
+        <v>1629000</v>
       </c>
       <c r="H52" s="3">
-        <v>1894100</v>
+        <v>1809000</v>
       </c>
       <c r="I52" s="3">
-        <v>1730700</v>
+        <v>1652900</v>
       </c>
       <c r="J52" s="3">
-        <v>1525400</v>
+        <v>1456900</v>
       </c>
       <c r="K52" s="3">
         <v>1381700</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>70387400</v>
+        <v>67223900</v>
       </c>
       <c r="E54" s="3">
-        <v>70362200</v>
+        <v>67199900</v>
       </c>
       <c r="F54" s="3">
-        <v>69641000</v>
+        <v>66511000</v>
       </c>
       <c r="G54" s="3">
-        <v>70332200</v>
+        <v>67171200</v>
       </c>
       <c r="H54" s="3">
-        <v>70989100</v>
+        <v>67798500</v>
       </c>
       <c r="I54" s="3">
-        <v>71563800</v>
+        <v>68347400</v>
       </c>
       <c r="J54" s="3">
-        <v>76400800</v>
+        <v>72967000</v>
       </c>
       <c r="K54" s="3">
         <v>77205400</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3342400</v>
+        <v>3192200</v>
       </c>
       <c r="E57" s="3">
-        <v>3046400</v>
+        <v>2909500</v>
       </c>
       <c r="F57" s="3">
-        <v>3565500</v>
+        <v>3405200</v>
       </c>
       <c r="G57" s="3">
-        <v>3084000</v>
+        <v>2945400</v>
       </c>
       <c r="H57" s="3">
-        <v>3625200</v>
+        <v>3462300</v>
       </c>
       <c r="I57" s="3">
-        <v>2781600</v>
+        <v>2656500</v>
       </c>
       <c r="J57" s="3">
-        <v>3516200</v>
+        <v>3358200</v>
       </c>
       <c r="K57" s="3">
         <v>3850500</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7940600</v>
+        <v>7583800</v>
       </c>
       <c r="E58" s="3">
-        <v>7740700</v>
+        <v>7392800</v>
       </c>
       <c r="F58" s="3">
-        <v>9166800</v>
+        <v>8754800</v>
       </c>
       <c r="G58" s="3">
-        <v>10050100</v>
+        <v>9598400</v>
       </c>
       <c r="H58" s="3">
-        <v>9095200</v>
+        <v>8686400</v>
       </c>
       <c r="I58" s="3">
-        <v>11034100</v>
+        <v>10538200</v>
       </c>
       <c r="J58" s="3">
-        <v>10873500</v>
+        <v>10384800</v>
       </c>
       <c r="K58" s="3">
         <v>9762400</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3717900</v>
+        <v>3550800</v>
       </c>
       <c r="E59" s="3">
-        <v>3741000</v>
+        <v>3572900</v>
       </c>
       <c r="F59" s="3">
-        <v>4122600</v>
+        <v>3937300</v>
       </c>
       <c r="G59" s="3">
-        <v>3727800</v>
+        <v>3560300</v>
       </c>
       <c r="H59" s="3">
-        <v>4114300</v>
+        <v>3929400</v>
       </c>
       <c r="I59" s="3">
-        <v>4100800</v>
+        <v>3916500</v>
       </c>
       <c r="J59" s="3">
-        <v>5524100</v>
+        <v>5275800</v>
       </c>
       <c r="K59" s="3">
         <v>4912500</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>15000900</v>
+        <v>14326700</v>
       </c>
       <c r="E60" s="3">
-        <v>14528100</v>
+        <v>13875100</v>
       </c>
       <c r="F60" s="3">
-        <v>16854800</v>
+        <v>16097300</v>
       </c>
       <c r="G60" s="3">
-        <v>16862000</v>
+        <v>16104100</v>
       </c>
       <c r="H60" s="3">
-        <v>16834700</v>
+        <v>16078100</v>
       </c>
       <c r="I60" s="3">
-        <v>17916500</v>
+        <v>17111300</v>
       </c>
       <c r="J60" s="3">
-        <v>19913800</v>
+        <v>19018800</v>
       </c>
       <c r="K60" s="3">
         <v>18525400</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10960500</v>
+        <v>10467900</v>
       </c>
       <c r="E61" s="3">
-        <v>11053500</v>
+        <v>10556700</v>
       </c>
       <c r="F61" s="3">
-        <v>8903800</v>
+        <v>8503600</v>
       </c>
       <c r="G61" s="3">
-        <v>8779300</v>
+        <v>8384700</v>
       </c>
       <c r="H61" s="3">
-        <v>11214100</v>
+        <v>10710100</v>
       </c>
       <c r="I61" s="3">
-        <v>11448600</v>
+        <v>10934100</v>
       </c>
       <c r="J61" s="3">
-        <v>13579300</v>
+        <v>12968900</v>
       </c>
       <c r="K61" s="3">
         <v>14170700</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1995600</v>
+        <v>1905900</v>
       </c>
       <c r="E62" s="3">
-        <v>2243300</v>
+        <v>2142500</v>
       </c>
       <c r="F62" s="3">
-        <v>2266400</v>
+        <v>2164500</v>
       </c>
       <c r="G62" s="3">
-        <v>2448000</v>
+        <v>2338000</v>
       </c>
       <c r="H62" s="3">
-        <v>2144100</v>
+        <v>2047800</v>
       </c>
       <c r="I62" s="3">
-        <v>2086200</v>
+        <v>1992400</v>
       </c>
       <c r="J62" s="3">
-        <v>2628700</v>
+        <v>2510500</v>
       </c>
       <c r="K62" s="3">
         <v>2848900</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>30932500</v>
+        <v>29542300</v>
       </c>
       <c r="E66" s="3">
-        <v>30782200</v>
+        <v>29398800</v>
       </c>
       <c r="F66" s="3">
-        <v>31040500</v>
+        <v>29645500</v>
       </c>
       <c r="G66" s="3">
-        <v>31410000</v>
+        <v>29998300</v>
       </c>
       <c r="H66" s="3">
-        <v>33276700</v>
+        <v>31781100</v>
       </c>
       <c r="I66" s="3">
-        <v>34864300</v>
+        <v>33297400</v>
       </c>
       <c r="J66" s="3">
-        <v>39415100</v>
+        <v>37643600</v>
       </c>
       <c r="K66" s="3">
         <v>38977200</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>41039200</v>
+        <v>39194700</v>
       </c>
       <c r="E72" s="3">
-        <v>40121300</v>
+        <v>38318100</v>
       </c>
       <c r="F72" s="3">
-        <v>39352300</v>
+        <v>37583600</v>
       </c>
       <c r="G72" s="3">
-        <v>38320400</v>
+        <v>36598100</v>
       </c>
       <c r="H72" s="3">
-        <v>36644700</v>
+        <v>34997700</v>
       </c>
       <c r="I72" s="3">
-        <v>36045900</v>
+        <v>34425900</v>
       </c>
       <c r="J72" s="3">
-        <v>36434100</v>
+        <v>34796600</v>
       </c>
       <c r="K72" s="3">
         <v>37358800</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>39454900</v>
+        <v>37681600</v>
       </c>
       <c r="E76" s="3">
-        <v>39580000</v>
+        <v>37801100</v>
       </c>
       <c r="F76" s="3">
-        <v>38600400</v>
+        <v>36865600</v>
       </c>
       <c r="G76" s="3">
-        <v>38922300</v>
+        <v>37172900</v>
       </c>
       <c r="H76" s="3">
-        <v>37712400</v>
+        <v>36017400</v>
       </c>
       <c r="I76" s="3">
-        <v>36699500</v>
+        <v>35050000</v>
       </c>
       <c r="J76" s="3">
-        <v>36985700</v>
+        <v>35323400</v>
       </c>
       <c r="K76" s="3">
         <v>38228200</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1420000</v>
+        <v>1356100</v>
       </c>
       <c r="E81" s="3">
-        <v>1627300</v>
+        <v>1554200</v>
       </c>
       <c r="F81" s="3">
-        <v>1488900</v>
+        <v>1422000</v>
       </c>
       <c r="G81" s="3">
-        <v>2453800</v>
+        <v>2343500</v>
       </c>
       <c r="H81" s="3">
-        <v>1183800</v>
+        <v>1130600</v>
       </c>
       <c r="I81" s="3">
-        <v>131400</v>
+        <v>125500</v>
       </c>
       <c r="J81" s="3">
-        <v>533700</v>
+        <v>509700</v>
       </c>
       <c r="K81" s="3">
         <v>1230800</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3223300</v>
+        <v>3078500</v>
       </c>
       <c r="E83" s="3">
-        <v>3080400</v>
+        <v>2941900</v>
       </c>
       <c r="F83" s="3">
-        <v>2908200</v>
+        <v>2777500</v>
       </c>
       <c r="G83" s="3">
-        <v>2934700</v>
+        <v>2802800</v>
       </c>
       <c r="H83" s="3">
-        <v>2860300</v>
+        <v>2731800</v>
       </c>
       <c r="I83" s="3">
-        <v>2864200</v>
+        <v>2735500</v>
       </c>
       <c r="J83" s="3">
-        <v>2882300</v>
+        <v>2752800</v>
       </c>
       <c r="K83" s="3">
         <v>2443900</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>7645500</v>
+        <v>7301900</v>
       </c>
       <c r="E89" s="3">
-        <v>5399100</v>
+        <v>5156500</v>
       </c>
       <c r="F89" s="3">
-        <v>5228200</v>
+        <v>4993200</v>
       </c>
       <c r="G89" s="3">
-        <v>4938000</v>
+        <v>4716100</v>
       </c>
       <c r="H89" s="3">
-        <v>4701000</v>
+        <v>4489700</v>
       </c>
       <c r="I89" s="3">
-        <v>6786500</v>
+        <v>6481500</v>
       </c>
       <c r="J89" s="3">
-        <v>3047000</v>
+        <v>2910100</v>
       </c>
       <c r="K89" s="3">
         <v>4420900</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2845300</v>
+        <v>-2717400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2242100</v>
+        <v>-2141300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1900600</v>
+        <v>-1815200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2035900</v>
+        <v>-1944400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2068500</v>
+        <v>-1975500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2278600</v>
+        <v>-2176200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3119900</v>
+        <v>-2979700</v>
       </c>
       <c r="K91" s="3">
         <v>-5978300</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-5570700</v>
+        <v>-5320400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3277700</v>
+        <v>-3130400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2356700</v>
+        <v>-2250800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3397900</v>
+        <v>-3245200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3341600</v>
+        <v>-3191400</v>
       </c>
       <c r="I94" s="3">
-        <v>-4035900</v>
+        <v>-3854500</v>
       </c>
       <c r="J94" s="3">
-        <v>-3333200</v>
+        <v>-3183400</v>
       </c>
       <c r="K94" s="3">
         <v>-7964000</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-586600</v>
+        <v>-560300</v>
       </c>
       <c r="E96" s="3">
-        <v>-788500</v>
+        <v>-753100</v>
       </c>
       <c r="F96" s="3">
-        <v>-596000</v>
+        <v>-569200</v>
       </c>
       <c r="G96" s="3">
-        <v>-730300</v>
+        <v>-697500</v>
       </c>
       <c r="H96" s="3">
-        <v>-631000</v>
+        <v>-602600</v>
       </c>
       <c r="I96" s="3">
-        <v>-732100</v>
+        <v>-699200</v>
       </c>
       <c r="J96" s="3">
-        <v>-602500</v>
+        <v>-575500</v>
       </c>
       <c r="K96" s="3">
         <v>-590200</v>
@@ -3672,25 +3672,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-970900</v>
+        <v>-927200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1345800</v>
+        <v>-1285400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2843600</v>
+        <v>-2715800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1393300</v>
+        <v>-1330700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3516400</v>
+        <v>-3358300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1995000</v>
+        <v>-1905400</v>
       </c>
       <c r="J100" s="3">
-        <v>120200</v>
+        <v>114800</v>
       </c>
       <c r="K100" s="3">
         <v>3214400</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1103900</v>
+        <v>1054300</v>
       </c>
       <c r="E102" s="3">
-        <v>775500</v>
+        <v>740700</v>
       </c>
       <c r="F102" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="G102" s="3">
-        <v>146800</v>
+        <v>140200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2157000</v>
+        <v>-2060000</v>
       </c>
       <c r="I102" s="3">
-        <v>755700</v>
+        <v>721700</v>
       </c>
       <c r="J102" s="3">
-        <v>-165900</v>
+        <v>-158500</v>
       </c>
       <c r="K102" s="3">
         <v>-429500</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49123900</v>
+        <v>48545900</v>
       </c>
       <c r="E8" s="3">
-        <v>54711800</v>
+        <v>54068200</v>
       </c>
       <c r="F8" s="3">
-        <v>55231100</v>
+        <v>54581300</v>
       </c>
       <c r="G8" s="3">
-        <v>51556800</v>
+        <v>50950300</v>
       </c>
       <c r="H8" s="3">
-        <v>45121000</v>
+        <v>44590200</v>
       </c>
       <c r="I8" s="3">
-        <v>49463500</v>
+        <v>48881600</v>
       </c>
       <c r="J8" s="3">
-        <v>55044800</v>
+        <v>54397200</v>
       </c>
       <c r="K8" s="3">
         <v>56206800</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45111500</v>
+        <v>44580800</v>
       </c>
       <c r="E9" s="3">
-        <v>49399000</v>
+        <v>48817900</v>
       </c>
       <c r="F9" s="3">
-        <v>48454600</v>
+        <v>47884500</v>
       </c>
       <c r="G9" s="3">
-        <v>44454300</v>
+        <v>43931300</v>
       </c>
       <c r="H9" s="3">
-        <v>39434900</v>
+        <v>38970900</v>
       </c>
       <c r="I9" s="3">
-        <v>43909400</v>
+        <v>43392800</v>
       </c>
       <c r="J9" s="3">
-        <v>48845700</v>
+        <v>48271000</v>
       </c>
       <c r="K9" s="3">
         <v>49971600</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4012300</v>
+        <v>3965100</v>
       </c>
       <c r="E10" s="3">
-        <v>5312800</v>
+        <v>5250300</v>
       </c>
       <c r="F10" s="3">
-        <v>6776500</v>
+        <v>6696800</v>
       </c>
       <c r="G10" s="3">
-        <v>7102500</v>
+        <v>7019000</v>
       </c>
       <c r="H10" s="3">
-        <v>5686100</v>
+        <v>5619200</v>
       </c>
       <c r="I10" s="3">
-        <v>5554100</v>
+        <v>5488800</v>
       </c>
       <c r="J10" s="3">
-        <v>6199200</v>
+        <v>6126200</v>
       </c>
       <c r="K10" s="3">
         <v>6235300</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>98800</v>
+        <v>97700</v>
       </c>
       <c r="E12" s="3">
-        <v>93800</v>
+        <v>92700</v>
       </c>
       <c r="F12" s="3">
-        <v>92100</v>
+        <v>91000</v>
       </c>
       <c r="G12" s="3">
-        <v>106900</v>
+        <v>105700</v>
       </c>
       <c r="H12" s="3">
-        <v>102500</v>
+        <v>101300</v>
       </c>
       <c r="I12" s="3">
-        <v>115200</v>
+        <v>113800</v>
       </c>
       <c r="J12" s="3">
-        <v>148900</v>
+        <v>147200</v>
       </c>
       <c r="K12" s="3">
         <v>175500</v>
@@ -913,25 +913,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>132300</v>
+        <v>130700</v>
       </c>
       <c r="E14" s="3">
-        <v>580900</v>
+        <v>574100</v>
       </c>
       <c r="F14" s="3">
-        <v>1193800</v>
+        <v>1179800</v>
       </c>
       <c r="G14" s="3">
-        <v>294600</v>
+        <v>291200</v>
       </c>
       <c r="H14" s="3">
-        <v>516100</v>
+        <v>510000</v>
       </c>
       <c r="I14" s="3">
-        <v>439100</v>
+        <v>433900</v>
       </c>
       <c r="J14" s="3">
-        <v>463400</v>
+        <v>457900</v>
       </c>
       <c r="K14" s="3">
         <v>387800</v>
@@ -949,25 +949,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>222500</v>
+        <v>219900</v>
       </c>
       <c r="E15" s="3">
-        <v>207000</v>
+        <v>204500</v>
       </c>
       <c r="F15" s="3">
-        <v>181600</v>
+        <v>179500</v>
       </c>
       <c r="G15" s="3">
-        <v>207000</v>
+        <v>204600</v>
       </c>
       <c r="H15" s="3">
-        <v>206600</v>
+        <v>204100</v>
       </c>
       <c r="I15" s="3">
-        <v>232900</v>
+        <v>230200</v>
       </c>
       <c r="J15" s="3">
-        <v>232200</v>
+        <v>229500</v>
       </c>
       <c r="K15" s="3">
         <v>207900</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>47213600</v>
+        <v>46658100</v>
       </c>
       <c r="E17" s="3">
-        <v>52004200</v>
+        <v>51392400</v>
       </c>
       <c r="F17" s="3">
-        <v>51713700</v>
+        <v>51105300</v>
       </c>
       <c r="G17" s="3">
-        <v>47922900</v>
+        <v>47359100</v>
       </c>
       <c r="H17" s="3">
-        <v>43219400</v>
+        <v>42710900</v>
       </c>
       <c r="I17" s="3">
-        <v>47854000</v>
+        <v>47291000</v>
       </c>
       <c r="J17" s="3">
-        <v>52768400</v>
+        <v>52147600</v>
       </c>
       <c r="K17" s="3">
         <v>53875500</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1910300</v>
+        <v>1887800</v>
       </c>
       <c r="E18" s="3">
-        <v>2707600</v>
+        <v>2675800</v>
       </c>
       <c r="F18" s="3">
-        <v>3517400</v>
+        <v>3476000</v>
       </c>
       <c r="G18" s="3">
-        <v>3633900</v>
+        <v>3591200</v>
       </c>
       <c r="H18" s="3">
-        <v>1901600</v>
+        <v>1879200</v>
       </c>
       <c r="I18" s="3">
-        <v>1609500</v>
+        <v>1590500</v>
       </c>
       <c r="J18" s="3">
-        <v>2276400</v>
+        <v>2249600</v>
       </c>
       <c r="K18" s="3">
         <v>2331300</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>354000</v>
+        <v>349900</v>
       </c>
       <c r="E20" s="3">
-        <v>530000</v>
+        <v>523800</v>
       </c>
       <c r="F20" s="3">
-        <v>141100</v>
+        <v>139500</v>
       </c>
       <c r="G20" s="3">
-        <v>474000</v>
+        <v>468400</v>
       </c>
       <c r="H20" s="3">
-        <v>-123800</v>
+        <v>-122300</v>
       </c>
       <c r="I20" s="3">
-        <v>-785400</v>
+        <v>-776100</v>
       </c>
       <c r="J20" s="3">
-        <v>-420500</v>
+        <v>-415500</v>
       </c>
       <c r="K20" s="3">
         <v>30800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5342800</v>
+        <v>5279900</v>
       </c>
       <c r="E21" s="3">
-        <v>6179600</v>
+        <v>6106900</v>
       </c>
       <c r="F21" s="3">
-        <v>6436000</v>
+        <v>6360300</v>
       </c>
       <c r="G21" s="3">
-        <v>6910700</v>
+        <v>6829400</v>
       </c>
       <c r="H21" s="3">
-        <v>4509600</v>
+        <v>4456600</v>
       </c>
       <c r="I21" s="3">
-        <v>3559600</v>
+        <v>3517700</v>
       </c>
       <c r="J21" s="3">
-        <v>4608700</v>
+        <v>4554500</v>
       </c>
       <c r="K21" s="3">
         <v>4779100</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>543000</v>
+        <v>536600</v>
       </c>
       <c r="E22" s="3">
-        <v>642400</v>
+        <v>634800</v>
       </c>
       <c r="F22" s="3">
-        <v>630100</v>
+        <v>622700</v>
       </c>
       <c r="G22" s="3">
-        <v>555100</v>
+        <v>548600</v>
       </c>
       <c r="H22" s="3">
-        <v>559900</v>
+        <v>553300</v>
       </c>
       <c r="I22" s="3">
-        <v>670500</v>
+        <v>662600</v>
       </c>
       <c r="J22" s="3">
-        <v>676200</v>
+        <v>668300</v>
       </c>
       <c r="K22" s="3">
         <v>598500</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1721300</v>
+        <v>1701100</v>
       </c>
       <c r="E23" s="3">
-        <v>2595300</v>
+        <v>2564800</v>
       </c>
       <c r="F23" s="3">
-        <v>3028400</v>
+        <v>2992800</v>
       </c>
       <c r="G23" s="3">
-        <v>3552700</v>
+        <v>3510900</v>
       </c>
       <c r="H23" s="3">
-        <v>1217900</v>
+        <v>1203600</v>
       </c>
       <c r="I23" s="3">
-        <v>153600</v>
+        <v>151800</v>
       </c>
       <c r="J23" s="3">
-        <v>1179700</v>
+        <v>1165800</v>
       </c>
       <c r="K23" s="3">
         <v>1763600</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>201400</v>
+        <v>199000</v>
       </c>
       <c r="E24" s="3">
-        <v>910000</v>
+        <v>899300</v>
       </c>
       <c r="F24" s="3">
-        <v>1420100</v>
+        <v>1403400</v>
       </c>
       <c r="G24" s="3">
-        <v>1025300</v>
+        <v>1013200</v>
       </c>
       <c r="H24" s="3">
-        <v>327000</v>
+        <v>323100</v>
       </c>
       <c r="I24" s="3">
-        <v>235400</v>
+        <v>232600</v>
       </c>
       <c r="J24" s="3">
-        <v>700300</v>
+        <v>692000</v>
       </c>
       <c r="K24" s="3">
         <v>536000</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1519900</v>
+        <v>1502000</v>
       </c>
       <c r="E26" s="3">
-        <v>1685200</v>
+        <v>1665400</v>
       </c>
       <c r="F26" s="3">
-        <v>1608300</v>
+        <v>1589300</v>
       </c>
       <c r="G26" s="3">
-        <v>2527400</v>
+        <v>2497700</v>
       </c>
       <c r="H26" s="3">
-        <v>890900</v>
+        <v>880500</v>
       </c>
       <c r="I26" s="3">
-        <v>-81800</v>
+        <v>-80800</v>
       </c>
       <c r="J26" s="3">
-        <v>479400</v>
+        <v>473800</v>
       </c>
       <c r="K26" s="3">
         <v>1227600</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1356100</v>
+        <v>1340200</v>
       </c>
       <c r="E27" s="3">
-        <v>1554200</v>
+        <v>1535900</v>
       </c>
       <c r="F27" s="3">
-        <v>1422000</v>
+        <v>1405200</v>
       </c>
       <c r="G27" s="3">
-        <v>2343500</v>
+        <v>2315900</v>
       </c>
       <c r="H27" s="3">
-        <v>1130600</v>
+        <v>1117300</v>
       </c>
       <c r="I27" s="3">
-        <v>125500</v>
+        <v>124000</v>
       </c>
       <c r="J27" s="3">
-        <v>509700</v>
+        <v>503700</v>
       </c>
       <c r="K27" s="3">
         <v>1230800</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-354000</v>
+        <v>-349900</v>
       </c>
       <c r="E32" s="3">
-        <v>-530000</v>
+        <v>-523800</v>
       </c>
       <c r="F32" s="3">
-        <v>-141100</v>
+        <v>-139500</v>
       </c>
       <c r="G32" s="3">
-        <v>-474000</v>
+        <v>-468400</v>
       </c>
       <c r="H32" s="3">
-        <v>123800</v>
+        <v>122300</v>
       </c>
       <c r="I32" s="3">
-        <v>785400</v>
+        <v>776100</v>
       </c>
       <c r="J32" s="3">
-        <v>420500</v>
+        <v>415500</v>
       </c>
       <c r="K32" s="3">
         <v>-30800</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1356100</v>
+        <v>1340200</v>
       </c>
       <c r="E33" s="3">
-        <v>1554200</v>
+        <v>1535900</v>
       </c>
       <c r="F33" s="3">
-        <v>1422000</v>
+        <v>1405200</v>
       </c>
       <c r="G33" s="3">
-        <v>2343500</v>
+        <v>2315900</v>
       </c>
       <c r="H33" s="3">
-        <v>1130600</v>
+        <v>1117300</v>
       </c>
       <c r="I33" s="3">
-        <v>125500</v>
+        <v>124000</v>
       </c>
       <c r="J33" s="3">
-        <v>509700</v>
+        <v>503700</v>
       </c>
       <c r="K33" s="3">
         <v>1230800</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1356100</v>
+        <v>1340200</v>
       </c>
       <c r="E35" s="3">
-        <v>1554200</v>
+        <v>1535900</v>
       </c>
       <c r="F35" s="3">
-        <v>1422000</v>
+        <v>1405200</v>
       </c>
       <c r="G35" s="3">
-        <v>2343500</v>
+        <v>2315900</v>
       </c>
       <c r="H35" s="3">
-        <v>1130600</v>
+        <v>1117300</v>
       </c>
       <c r="I35" s="3">
-        <v>125500</v>
+        <v>124000</v>
       </c>
       <c r="J35" s="3">
-        <v>509700</v>
+        <v>503700</v>
       </c>
       <c r="K35" s="3">
         <v>1230800</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4041400</v>
+        <v>3993900</v>
       </c>
       <c r="E41" s="3">
-        <v>2987600</v>
+        <v>2952500</v>
       </c>
       <c r="F41" s="3">
-        <v>2247300</v>
+        <v>2220800</v>
       </c>
       <c r="G41" s="3">
-        <v>2220700</v>
+        <v>2194500</v>
       </c>
       <c r="H41" s="3">
-        <v>2080500</v>
+        <v>2056000</v>
       </c>
       <c r="I41" s="3">
-        <v>4139700</v>
+        <v>4091000</v>
       </c>
       <c r="J41" s="3">
-        <v>3239500</v>
+        <v>3201400</v>
       </c>
       <c r="K41" s="3">
         <v>7659600</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>9868400</v>
+        <v>9752300</v>
       </c>
       <c r="E42" s="3">
-        <v>7606200</v>
+        <v>7516700</v>
       </c>
       <c r="F42" s="3">
-        <v>6828700</v>
+        <v>6748400</v>
       </c>
       <c r="G42" s="3">
-        <v>5989000</v>
+        <v>5918500</v>
       </c>
       <c r="H42" s="3">
-        <v>4435400</v>
+        <v>4383200</v>
       </c>
       <c r="I42" s="3">
-        <v>3323800</v>
+        <v>3284700</v>
       </c>
       <c r="J42" s="3">
-        <v>1243500</v>
+        <v>1228900</v>
       </c>
       <c r="K42" s="3">
         <v>2703300</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8214700</v>
+        <v>8118000</v>
       </c>
       <c r="E43" s="3">
-        <v>9099900</v>
+        <v>8992900</v>
       </c>
       <c r="F43" s="3">
-        <v>9111800</v>
+        <v>9004600</v>
       </c>
       <c r="G43" s="3">
-        <v>9031300</v>
+        <v>8925000</v>
       </c>
       <c r="H43" s="3">
-        <v>9667200</v>
+        <v>9553400</v>
       </c>
       <c r="I43" s="3">
-        <v>9613100</v>
+        <v>9500000</v>
       </c>
       <c r="J43" s="3">
-        <v>11609600</v>
+        <v>11473000</v>
       </c>
       <c r="K43" s="3">
         <v>12227600</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7694000</v>
+        <v>7603500</v>
       </c>
       <c r="E44" s="3">
-        <v>9282300</v>
+        <v>9173100</v>
       </c>
       <c r="F44" s="3">
-        <v>9774900</v>
+        <v>9659900</v>
       </c>
       <c r="G44" s="3">
-        <v>8458300</v>
+        <v>8358800</v>
       </c>
       <c r="H44" s="3">
-        <v>7694000</v>
+        <v>7603400</v>
       </c>
       <c r="I44" s="3">
-        <v>6991400</v>
+        <v>6909200</v>
       </c>
       <c r="J44" s="3">
-        <v>9497300</v>
+        <v>9385600</v>
       </c>
       <c r="K44" s="3">
         <v>9237300</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>637600</v>
+        <v>630100</v>
       </c>
       <c r="E45" s="3">
-        <v>639900</v>
+        <v>632400</v>
       </c>
       <c r="F45" s="3">
-        <v>640600</v>
+        <v>633000</v>
       </c>
       <c r="G45" s="3">
-        <v>759100</v>
+        <v>750100</v>
       </c>
       <c r="H45" s="3">
-        <v>1031300</v>
+        <v>1019100</v>
       </c>
       <c r="I45" s="3">
-        <v>735700</v>
+        <v>727000</v>
       </c>
       <c r="J45" s="3">
-        <v>2636800</v>
+        <v>2605800</v>
       </c>
       <c r="K45" s="3">
         <v>1157300</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>30456200</v>
+        <v>30097900</v>
       </c>
       <c r="E46" s="3">
-        <v>29616000</v>
+        <v>29267600</v>
       </c>
       <c r="F46" s="3">
-        <v>28603400</v>
+        <v>28266800</v>
       </c>
       <c r="G46" s="3">
-        <v>26458300</v>
+        <v>26147000</v>
       </c>
       <c r="H46" s="3">
-        <v>24908300</v>
+        <v>24615200</v>
       </c>
       <c r="I46" s="3">
-        <v>24803800</v>
+        <v>24511900</v>
       </c>
       <c r="J46" s="3">
-        <v>28226700</v>
+        <v>27894700</v>
       </c>
       <c r="K46" s="3">
         <v>29155200</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5696600</v>
+        <v>5629600</v>
       </c>
       <c r="E47" s="3">
-        <v>5841300</v>
+        <v>5772500</v>
       </c>
       <c r="F47" s="3">
-        <v>5598500</v>
+        <v>5532600</v>
       </c>
       <c r="G47" s="3">
-        <v>6018300</v>
+        <v>5947500</v>
       </c>
       <c r="H47" s="3">
-        <v>6251000</v>
+        <v>6177500</v>
       </c>
       <c r="I47" s="3">
-        <v>6179800</v>
+        <v>6107100</v>
       </c>
       <c r="J47" s="3">
-        <v>6578900</v>
+        <v>6501500</v>
       </c>
       <c r="K47" s="3">
         <v>8343700</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25835700</v>
+        <v>25531700</v>
       </c>
       <c r="E48" s="3">
-        <v>26183600</v>
+        <v>25875500</v>
       </c>
       <c r="F48" s="3">
-        <v>26304900</v>
+        <v>25995400</v>
       </c>
       <c r="G48" s="3">
-        <v>28006200</v>
+        <v>27676700</v>
       </c>
       <c r="H48" s="3">
-        <v>29654900</v>
+        <v>29306000</v>
       </c>
       <c r="I48" s="3">
-        <v>30266100</v>
+        <v>29910000</v>
       </c>
       <c r="J48" s="3">
-        <v>30852300</v>
+        <v>30489300</v>
       </c>
       <c r="K48" s="3">
         <v>32928700</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3782000</v>
+        <v>3737500</v>
       </c>
       <c r="E49" s="3">
-        <v>4172200</v>
+        <v>4123100</v>
       </c>
       <c r="F49" s="3">
-        <v>4395200</v>
+        <v>4343500</v>
       </c>
       <c r="G49" s="3">
-        <v>5059400</v>
+        <v>4999900</v>
       </c>
       <c r="H49" s="3">
-        <v>5175400</v>
+        <v>5114500</v>
       </c>
       <c r="I49" s="3">
-        <v>5444900</v>
+        <v>5380800</v>
       </c>
       <c r="J49" s="3">
-        <v>5852200</v>
+        <v>5783400</v>
       </c>
       <c r="K49" s="3">
         <v>5396200</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1453400</v>
+        <v>1436300</v>
       </c>
       <c r="E52" s="3">
-        <v>1386800</v>
+        <v>1370500</v>
       </c>
       <c r="F52" s="3">
-        <v>1609100</v>
+        <v>1590200</v>
       </c>
       <c r="G52" s="3">
-        <v>1629000</v>
+        <v>1609800</v>
       </c>
       <c r="H52" s="3">
-        <v>1809000</v>
+        <v>1787700</v>
       </c>
       <c r="I52" s="3">
-        <v>1652900</v>
+        <v>1633400</v>
       </c>
       <c r="J52" s="3">
-        <v>1456900</v>
+        <v>1439700</v>
       </c>
       <c r="K52" s="3">
         <v>1381700</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>67223900</v>
+        <v>66433100</v>
       </c>
       <c r="E54" s="3">
-        <v>67199900</v>
+        <v>66409300</v>
       </c>
       <c r="F54" s="3">
-        <v>66511000</v>
+        <v>65728500</v>
       </c>
       <c r="G54" s="3">
-        <v>67171200</v>
+        <v>66381000</v>
       </c>
       <c r="H54" s="3">
-        <v>67798500</v>
+        <v>67000900</v>
       </c>
       <c r="I54" s="3">
-        <v>68347400</v>
+        <v>67543400</v>
       </c>
       <c r="J54" s="3">
-        <v>72967000</v>
+        <v>72108600</v>
       </c>
       <c r="K54" s="3">
         <v>77205400</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3192200</v>
+        <v>3154600</v>
       </c>
       <c r="E57" s="3">
-        <v>2909500</v>
+        <v>2875300</v>
       </c>
       <c r="F57" s="3">
-        <v>3405200</v>
+        <v>3365200</v>
       </c>
       <c r="G57" s="3">
-        <v>2945400</v>
+        <v>2910700</v>
       </c>
       <c r="H57" s="3">
-        <v>3462300</v>
+        <v>3421600</v>
       </c>
       <c r="I57" s="3">
-        <v>2656500</v>
+        <v>2625300</v>
       </c>
       <c r="J57" s="3">
-        <v>3358200</v>
+        <v>3318700</v>
       </c>
       <c r="K57" s="3">
         <v>3850500</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7583800</v>
+        <v>7494500</v>
       </c>
       <c r="E58" s="3">
-        <v>7392800</v>
+        <v>7305800</v>
       </c>
       <c r="F58" s="3">
-        <v>8754800</v>
+        <v>8651800</v>
       </c>
       <c r="G58" s="3">
-        <v>9598400</v>
+        <v>9485500</v>
       </c>
       <c r="H58" s="3">
-        <v>8686400</v>
+        <v>8584200</v>
       </c>
       <c r="I58" s="3">
-        <v>10538200</v>
+        <v>10414200</v>
       </c>
       <c r="J58" s="3">
-        <v>10384800</v>
+        <v>10262600</v>
       </c>
       <c r="K58" s="3">
         <v>9762400</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3550800</v>
+        <v>3509000</v>
       </c>
       <c r="E59" s="3">
-        <v>3572900</v>
+        <v>3530800</v>
       </c>
       <c r="F59" s="3">
-        <v>3937300</v>
+        <v>3890900</v>
       </c>
       <c r="G59" s="3">
-        <v>3560300</v>
+        <v>3518400</v>
       </c>
       <c r="H59" s="3">
-        <v>3929400</v>
+        <v>3883100</v>
       </c>
       <c r="I59" s="3">
-        <v>3916500</v>
+        <v>3870400</v>
       </c>
       <c r="J59" s="3">
-        <v>5275800</v>
+        <v>5213800</v>
       </c>
       <c r="K59" s="3">
         <v>4912500</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>14326700</v>
+        <v>14158200</v>
       </c>
       <c r="E60" s="3">
-        <v>13875100</v>
+        <v>13711900</v>
       </c>
       <c r="F60" s="3">
-        <v>16097300</v>
+        <v>15907900</v>
       </c>
       <c r="G60" s="3">
-        <v>16104100</v>
+        <v>15914700</v>
       </c>
       <c r="H60" s="3">
-        <v>16078100</v>
+        <v>15888900</v>
       </c>
       <c r="I60" s="3">
-        <v>17111300</v>
+        <v>16910000</v>
       </c>
       <c r="J60" s="3">
-        <v>19018800</v>
+        <v>18795000</v>
       </c>
       <c r="K60" s="3">
         <v>18525400</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10467900</v>
+        <v>10344800</v>
       </c>
       <c r="E61" s="3">
-        <v>10556700</v>
+        <v>10432500</v>
       </c>
       <c r="F61" s="3">
-        <v>8503600</v>
+        <v>8403600</v>
       </c>
       <c r="G61" s="3">
-        <v>8384700</v>
+        <v>8286100</v>
       </c>
       <c r="H61" s="3">
-        <v>10710100</v>
+        <v>10584100</v>
       </c>
       <c r="I61" s="3">
-        <v>10934100</v>
+        <v>10805400</v>
       </c>
       <c r="J61" s="3">
-        <v>12968900</v>
+        <v>12816400</v>
       </c>
       <c r="K61" s="3">
         <v>14170700</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1905900</v>
+        <v>1883500</v>
       </c>
       <c r="E62" s="3">
-        <v>2142500</v>
+        <v>2117300</v>
       </c>
       <c r="F62" s="3">
-        <v>2164500</v>
+        <v>2139000</v>
       </c>
       <c r="G62" s="3">
-        <v>2338000</v>
+        <v>2310500</v>
       </c>
       <c r="H62" s="3">
-        <v>2047800</v>
+        <v>2023700</v>
       </c>
       <c r="I62" s="3">
-        <v>1992400</v>
+        <v>1969000</v>
       </c>
       <c r="J62" s="3">
-        <v>2510500</v>
+        <v>2481000</v>
       </c>
       <c r="K62" s="3">
         <v>2848900</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>29542300</v>
+        <v>29194700</v>
       </c>
       <c r="E66" s="3">
-        <v>29398800</v>
+        <v>29052900</v>
       </c>
       <c r="F66" s="3">
-        <v>29645500</v>
+        <v>29296700</v>
       </c>
       <c r="G66" s="3">
-        <v>29998300</v>
+        <v>29645300</v>
       </c>
       <c r="H66" s="3">
-        <v>31781100</v>
+        <v>31407200</v>
       </c>
       <c r="I66" s="3">
-        <v>33297400</v>
+        <v>32905700</v>
       </c>
       <c r="J66" s="3">
-        <v>37643600</v>
+        <v>37200700</v>
       </c>
       <c r="K66" s="3">
         <v>38977200</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>39194700</v>
+        <v>38733600</v>
       </c>
       <c r="E72" s="3">
-        <v>38318100</v>
+        <v>37867300</v>
       </c>
       <c r="F72" s="3">
-        <v>37583600</v>
+        <v>37141500</v>
       </c>
       <c r="G72" s="3">
-        <v>36598100</v>
+        <v>36167500</v>
       </c>
       <c r="H72" s="3">
-        <v>34997700</v>
+        <v>34586000</v>
       </c>
       <c r="I72" s="3">
-        <v>34425900</v>
+        <v>34020900</v>
       </c>
       <c r="J72" s="3">
-        <v>34796600</v>
+        <v>34387200</v>
       </c>
       <c r="K72" s="3">
         <v>37358800</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37681600</v>
+        <v>37238300</v>
       </c>
       <c r="E76" s="3">
-        <v>37801100</v>
+        <v>37356400</v>
       </c>
       <c r="F76" s="3">
-        <v>36865600</v>
+        <v>36431900</v>
       </c>
       <c r="G76" s="3">
-        <v>37172900</v>
+        <v>36735600</v>
       </c>
       <c r="H76" s="3">
-        <v>36017400</v>
+        <v>35593700</v>
       </c>
       <c r="I76" s="3">
-        <v>35050000</v>
+        <v>34637700</v>
       </c>
       <c r="J76" s="3">
-        <v>35323400</v>
+        <v>34907800</v>
       </c>
       <c r="K76" s="3">
         <v>38228200</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1356100</v>
+        <v>1340200</v>
       </c>
       <c r="E81" s="3">
-        <v>1554200</v>
+        <v>1535900</v>
       </c>
       <c r="F81" s="3">
-        <v>1422000</v>
+        <v>1405200</v>
       </c>
       <c r="G81" s="3">
-        <v>2343500</v>
+        <v>2315900</v>
       </c>
       <c r="H81" s="3">
-        <v>1130600</v>
+        <v>1117300</v>
       </c>
       <c r="I81" s="3">
-        <v>125500</v>
+        <v>124000</v>
       </c>
       <c r="J81" s="3">
-        <v>509700</v>
+        <v>503700</v>
       </c>
       <c r="K81" s="3">
         <v>1230800</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3078500</v>
+        <v>3042300</v>
       </c>
       <c r="E83" s="3">
-        <v>2941900</v>
+        <v>2907300</v>
       </c>
       <c r="F83" s="3">
-        <v>2777500</v>
+        <v>2744800</v>
       </c>
       <c r="G83" s="3">
-        <v>2802800</v>
+        <v>2769800</v>
       </c>
       <c r="H83" s="3">
-        <v>2731800</v>
+        <v>2699600</v>
       </c>
       <c r="I83" s="3">
-        <v>2735500</v>
+        <v>2703300</v>
       </c>
       <c r="J83" s="3">
-        <v>2752800</v>
+        <v>2720400</v>
       </c>
       <c r="K83" s="3">
         <v>2443900</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>7301900</v>
+        <v>7216000</v>
       </c>
       <c r="E89" s="3">
-        <v>5156500</v>
+        <v>5095800</v>
       </c>
       <c r="F89" s="3">
-        <v>4993200</v>
+        <v>4934500</v>
       </c>
       <c r="G89" s="3">
-        <v>4716100</v>
+        <v>4660600</v>
       </c>
       <c r="H89" s="3">
-        <v>4489700</v>
+        <v>4436900</v>
       </c>
       <c r="I89" s="3">
-        <v>6481500</v>
+        <v>6405300</v>
       </c>
       <c r="J89" s="3">
-        <v>2910100</v>
+        <v>2875900</v>
       </c>
       <c r="K89" s="3">
         <v>4420900</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2717400</v>
+        <v>-2685400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2141300</v>
+        <v>-2116100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1815200</v>
+        <v>-1793900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1944400</v>
+        <v>-1921600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1975500</v>
+        <v>-1952300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2176200</v>
+        <v>-2150600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2979700</v>
+        <v>-2944700</v>
       </c>
       <c r="K91" s="3">
         <v>-5978300</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-5320400</v>
+        <v>-5257800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3130400</v>
+        <v>-3093600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2250800</v>
+        <v>-2224300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3245200</v>
+        <v>-3207000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3191400</v>
+        <v>-3153900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3854500</v>
+        <v>-3809100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3183400</v>
+        <v>-3146000</v>
       </c>
       <c r="K94" s="3">
         <v>-7964000</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-560300</v>
+        <v>-553700</v>
       </c>
       <c r="E96" s="3">
-        <v>-753100</v>
+        <v>-744200</v>
       </c>
       <c r="F96" s="3">
-        <v>-569200</v>
+        <v>-562500</v>
       </c>
       <c r="G96" s="3">
-        <v>-697500</v>
+        <v>-689300</v>
       </c>
       <c r="H96" s="3">
-        <v>-602600</v>
+        <v>-595500</v>
       </c>
       <c r="I96" s="3">
-        <v>-699200</v>
+        <v>-691000</v>
       </c>
       <c r="J96" s="3">
-        <v>-575500</v>
+        <v>-568700</v>
       </c>
       <c r="K96" s="3">
         <v>-590200</v>
@@ -3672,25 +3672,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-927200</v>
+        <v>-916300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1285400</v>
+        <v>-1270200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2715800</v>
+        <v>-2683800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1330700</v>
+        <v>-1315000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3358300</v>
+        <v>-3318800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1905400</v>
+        <v>-1882900</v>
       </c>
       <c r="J100" s="3">
-        <v>114800</v>
+        <v>113500</v>
       </c>
       <c r="K100" s="3">
         <v>3214400</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1054300</v>
+        <v>1041900</v>
       </c>
       <c r="E102" s="3">
-        <v>740700</v>
+        <v>732000</v>
       </c>
       <c r="F102" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="G102" s="3">
-        <v>140200</v>
+        <v>138500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2060000</v>
+        <v>-2035800</v>
       </c>
       <c r="I102" s="3">
-        <v>721700</v>
+        <v>713200</v>
       </c>
       <c r="J102" s="3">
-        <v>-158500</v>
+        <v>-156600</v>
       </c>
       <c r="K102" s="3">
         <v>-429500</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,165 +662,177 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48545900</v>
+        <v>61829200</v>
       </c>
       <c r="E8" s="3">
-        <v>54068200</v>
+        <v>46812200</v>
       </c>
       <c r="F8" s="3">
-        <v>54581300</v>
+        <v>52137100</v>
       </c>
       <c r="G8" s="3">
-        <v>50950300</v>
+        <v>52632000</v>
       </c>
       <c r="H8" s="3">
-        <v>44590200</v>
+        <v>49130600</v>
       </c>
       <c r="I8" s="3">
-        <v>48881600</v>
+        <v>42997600</v>
       </c>
       <c r="J8" s="3">
+        <v>47135800</v>
+      </c>
+      <c r="K8" s="3">
         <v>54397200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56206800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53427500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62044900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>44580800</v>
+        <v>52205500</v>
       </c>
       <c r="E9" s="3">
-        <v>48817900</v>
+        <v>42988600</v>
       </c>
       <c r="F9" s="3">
-        <v>47884500</v>
+        <v>47074400</v>
       </c>
       <c r="G9" s="3">
-        <v>43931300</v>
+        <v>46174400</v>
       </c>
       <c r="H9" s="3">
-        <v>38970900</v>
+        <v>42362300</v>
       </c>
       <c r="I9" s="3">
-        <v>43392800</v>
+        <v>37579100</v>
       </c>
       <c r="J9" s="3">
+        <v>41843100</v>
+      </c>
+      <c r="K9" s="3">
         <v>48271000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49971600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47160000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53841500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3965100</v>
+        <v>9623700</v>
       </c>
       <c r="E10" s="3">
-        <v>5250300</v>
+        <v>3823500</v>
       </c>
       <c r="F10" s="3">
-        <v>6696800</v>
+        <v>5062800</v>
       </c>
       <c r="G10" s="3">
-        <v>7019000</v>
+        <v>6457600</v>
       </c>
       <c r="H10" s="3">
-        <v>5619200</v>
+        <v>6768300</v>
       </c>
       <c r="I10" s="3">
-        <v>5488800</v>
+        <v>5418500</v>
       </c>
       <c r="J10" s="3">
+        <v>5292700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6126200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6235300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6267500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8203400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,44 +847,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>94200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>89400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>87800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>101900</v>
+      </c>
+      <c r="I12" s="3">
         <v>97700</v>
       </c>
-      <c r="E12" s="3">
-        <v>92700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>91000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>101300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>113800</v>
-      </c>
       <c r="J12" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K12" s="3">
         <v>147200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>175500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>161500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>191200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,81 +922,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>130700</v>
+        <v>374800</v>
       </c>
       <c r="E14" s="3">
-        <v>574100</v>
+        <v>126100</v>
       </c>
       <c r="F14" s="3">
-        <v>1179800</v>
+        <v>553500</v>
       </c>
       <c r="G14" s="3">
-        <v>291200</v>
+        <v>1137600</v>
       </c>
       <c r="H14" s="3">
-        <v>510000</v>
+        <v>280800</v>
       </c>
       <c r="I14" s="3">
-        <v>433900</v>
+        <v>491800</v>
       </c>
       <c r="J14" s="3">
+        <v>418400</v>
+      </c>
+      <c r="K14" s="3">
         <v>457900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>387800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>494200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>219900</v>
+        <v>187300</v>
       </c>
       <c r="E15" s="3">
-        <v>204500</v>
+        <v>212000</v>
       </c>
       <c r="F15" s="3">
-        <v>179500</v>
+        <v>197200</v>
       </c>
       <c r="G15" s="3">
-        <v>204600</v>
+        <v>173100</v>
       </c>
       <c r="H15" s="3">
-        <v>204100</v>
+        <v>197300</v>
       </c>
       <c r="I15" s="3">
-        <v>230200</v>
+        <v>196800</v>
       </c>
       <c r="J15" s="3">
+        <v>221900</v>
+      </c>
+      <c r="K15" s="3">
         <v>229500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>207900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>183700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>155500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,80 +1017,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>46658100</v>
+        <v>54721200</v>
       </c>
       <c r="E17" s="3">
-        <v>51392400</v>
+        <v>44991800</v>
       </c>
       <c r="F17" s="3">
-        <v>51105300</v>
+        <v>49556900</v>
       </c>
       <c r="G17" s="3">
-        <v>47359100</v>
+        <v>49280100</v>
       </c>
       <c r="H17" s="3">
-        <v>42710900</v>
+        <v>45667700</v>
       </c>
       <c r="I17" s="3">
-        <v>47291000</v>
+        <v>41185500</v>
       </c>
       <c r="J17" s="3">
+        <v>45602100</v>
+      </c>
+      <c r="K17" s="3">
         <v>52147600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53875500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50813200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57177600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1887800</v>
+        <v>7108000</v>
       </c>
       <c r="E18" s="3">
-        <v>2675800</v>
+        <v>1820400</v>
       </c>
       <c r="F18" s="3">
-        <v>3476000</v>
+        <v>2580200</v>
       </c>
       <c r="G18" s="3">
-        <v>3591200</v>
+        <v>3351900</v>
       </c>
       <c r="H18" s="3">
-        <v>1879200</v>
+        <v>3462900</v>
       </c>
       <c r="I18" s="3">
-        <v>1590500</v>
+        <v>1812100</v>
       </c>
       <c r="J18" s="3">
+        <v>1533700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2249600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2331300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2614300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4867300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1080,188 +1112,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>349900</v>
+        <v>875300</v>
       </c>
       <c r="E20" s="3">
-        <v>523800</v>
+        <v>337400</v>
       </c>
       <c r="F20" s="3">
-        <v>139500</v>
+        <v>505100</v>
       </c>
       <c r="G20" s="3">
-        <v>468400</v>
+        <v>134500</v>
       </c>
       <c r="H20" s="3">
-        <v>-122300</v>
+        <v>451700</v>
       </c>
       <c r="I20" s="3">
-        <v>-776100</v>
+        <v>-117900</v>
       </c>
       <c r="J20" s="3">
+        <v>-748400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-415500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>947300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>146400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5279900</v>
+        <v>10918400</v>
       </c>
       <c r="E21" s="3">
-        <v>6106900</v>
+        <v>5127600</v>
       </c>
       <c r="F21" s="3">
-        <v>6360300</v>
+        <v>5923400</v>
       </c>
       <c r="G21" s="3">
-        <v>6829400</v>
+        <v>6165800</v>
       </c>
       <c r="H21" s="3">
-        <v>4456600</v>
+        <v>6618500</v>
       </c>
       <c r="I21" s="3">
-        <v>3517700</v>
+        <v>4329500</v>
       </c>
       <c r="J21" s="3">
+        <v>3424300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4554500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4779100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5740700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7030700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>536600</v>
+        <v>356300</v>
       </c>
       <c r="E22" s="3">
-        <v>634800</v>
+        <v>517400</v>
       </c>
       <c r="F22" s="3">
-        <v>622700</v>
+        <v>612100</v>
       </c>
       <c r="G22" s="3">
-        <v>548600</v>
+        <v>600400</v>
       </c>
       <c r="H22" s="3">
-        <v>553300</v>
+        <v>529000</v>
       </c>
       <c r="I22" s="3">
-        <v>662600</v>
+        <v>533600</v>
       </c>
       <c r="J22" s="3">
+        <v>638900</v>
+      </c>
+      <c r="K22" s="3">
         <v>668300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>598500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>732000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>709500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1701100</v>
+        <v>7627000</v>
       </c>
       <c r="E23" s="3">
-        <v>2564800</v>
+        <v>1640300</v>
       </c>
       <c r="F23" s="3">
-        <v>2992800</v>
+        <v>2473200</v>
       </c>
       <c r="G23" s="3">
-        <v>3510900</v>
+        <v>2885900</v>
       </c>
       <c r="H23" s="3">
-        <v>1203600</v>
+        <v>3385600</v>
       </c>
       <c r="I23" s="3">
-        <v>151800</v>
+        <v>1160600</v>
       </c>
       <c r="J23" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1165800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1763600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2829500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4304200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>199000</v>
+        <v>1798300</v>
       </c>
       <c r="E24" s="3">
-        <v>899300</v>
+        <v>191900</v>
       </c>
       <c r="F24" s="3">
-        <v>1403400</v>
+        <v>867200</v>
       </c>
       <c r="G24" s="3">
-        <v>1013200</v>
+        <v>1353300</v>
       </c>
       <c r="H24" s="3">
-        <v>323100</v>
+        <v>977000</v>
       </c>
       <c r="I24" s="3">
-        <v>232600</v>
+        <v>311600</v>
       </c>
       <c r="J24" s="3">
+        <v>224300</v>
+      </c>
+      <c r="K24" s="3">
         <v>692000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>536000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>825600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>961300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,81 +1343,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1502000</v>
+        <v>5828700</v>
       </c>
       <c r="E26" s="3">
-        <v>1665400</v>
+        <v>1448400</v>
       </c>
       <c r="F26" s="3">
-        <v>1589300</v>
+        <v>1605900</v>
       </c>
       <c r="G26" s="3">
-        <v>2497700</v>
+        <v>1532600</v>
       </c>
       <c r="H26" s="3">
-        <v>880500</v>
+        <v>2408500</v>
       </c>
       <c r="I26" s="3">
-        <v>-80800</v>
+        <v>849000</v>
       </c>
       <c r="J26" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="K26" s="3">
         <v>473800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1227600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2003900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3342900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1340200</v>
+        <v>5354600</v>
       </c>
       <c r="E27" s="3">
-        <v>1535900</v>
+        <v>1292300</v>
       </c>
       <c r="F27" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="G27" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="H27" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="I27" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="J27" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K27" s="3">
         <v>503700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1230800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2068100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3283300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1403,9 +1460,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1439,9 +1499,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,9 +1538,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1511,81 +1577,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-349900</v>
+        <v>-875300</v>
       </c>
       <c r="E32" s="3">
-        <v>-523800</v>
+        <v>-337400</v>
       </c>
       <c r="F32" s="3">
-        <v>-139500</v>
+        <v>-505100</v>
       </c>
       <c r="G32" s="3">
-        <v>-468400</v>
+        <v>-134500</v>
       </c>
       <c r="H32" s="3">
-        <v>122300</v>
+        <v>-451700</v>
       </c>
       <c r="I32" s="3">
-        <v>776100</v>
+        <v>117900</v>
       </c>
       <c r="J32" s="3">
+        <v>748400</v>
+      </c>
+      <c r="K32" s="3">
         <v>415500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-947300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-146400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1340200</v>
+        <v>5354600</v>
       </c>
       <c r="E33" s="3">
-        <v>1535900</v>
+        <v>1292300</v>
       </c>
       <c r="F33" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="G33" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="H33" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="I33" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="J33" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K33" s="3">
         <v>503700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1230800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2068100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3283300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1619,86 +1694,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1340200</v>
+        <v>5354600</v>
       </c>
       <c r="E35" s="3">
-        <v>1535900</v>
+        <v>1292300</v>
       </c>
       <c r="F35" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="G35" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="H35" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="I35" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="J35" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K35" s="3">
         <v>503700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1230800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2068100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3283300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1713,8 +1797,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,332 +1814,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3993900</v>
+        <v>3867900</v>
       </c>
       <c r="E41" s="3">
-        <v>2952500</v>
+        <v>3851300</v>
       </c>
       <c r="F41" s="3">
-        <v>2220800</v>
+        <v>2847000</v>
       </c>
       <c r="G41" s="3">
-        <v>2194500</v>
+        <v>2141500</v>
       </c>
       <c r="H41" s="3">
-        <v>2056000</v>
+        <v>2116100</v>
       </c>
       <c r="I41" s="3">
-        <v>4091000</v>
+        <v>1982600</v>
       </c>
       <c r="J41" s="3">
+        <v>3944800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3201400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7659600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>9752300</v>
+        <v>10838700</v>
       </c>
       <c r="E42" s="3">
-        <v>7516700</v>
+        <v>9404000</v>
       </c>
       <c r="F42" s="3">
-        <v>6748400</v>
+        <v>7248300</v>
       </c>
       <c r="G42" s="3">
-        <v>5918500</v>
+        <v>6507400</v>
       </c>
       <c r="H42" s="3">
-        <v>4383200</v>
+        <v>5707200</v>
       </c>
       <c r="I42" s="3">
-        <v>3284700</v>
+        <v>4226700</v>
       </c>
       <c r="J42" s="3">
+        <v>3167400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1228900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2703300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4017800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4226100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8118000</v>
+        <v>9873800</v>
       </c>
       <c r="E43" s="3">
-        <v>8992900</v>
+        <v>7828100</v>
       </c>
       <c r="F43" s="3">
-        <v>9004600</v>
+        <v>8671700</v>
       </c>
       <c r="G43" s="3">
-        <v>8925000</v>
+        <v>8683000</v>
       </c>
       <c r="H43" s="3">
-        <v>9553400</v>
+        <v>8606300</v>
       </c>
       <c r="I43" s="3">
-        <v>9500000</v>
+        <v>9212200</v>
       </c>
       <c r="J43" s="3">
+        <v>9160800</v>
+      </c>
+      <c r="K43" s="3">
         <v>11473000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12227600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12164100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13322600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>7603500</v>
+        <v>12324200</v>
       </c>
       <c r="E44" s="3">
-        <v>9173100</v>
+        <v>7332000</v>
       </c>
       <c r="F44" s="3">
-        <v>9659900</v>
+        <v>8845500</v>
       </c>
       <c r="G44" s="3">
-        <v>8358800</v>
+        <v>9314900</v>
       </c>
       <c r="H44" s="3">
-        <v>7603400</v>
+        <v>8060300</v>
       </c>
       <c r="I44" s="3">
-        <v>6909200</v>
+        <v>7331900</v>
       </c>
       <c r="J44" s="3">
+        <v>6662400</v>
+      </c>
+      <c r="K44" s="3">
         <v>9385600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9237300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8891100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11055300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>630100</v>
+        <v>858900</v>
       </c>
       <c r="E45" s="3">
-        <v>632400</v>
+        <v>607600</v>
       </c>
       <c r="F45" s="3">
-        <v>633000</v>
+        <v>609800</v>
       </c>
       <c r="G45" s="3">
-        <v>750100</v>
+        <v>610400</v>
       </c>
       <c r="H45" s="3">
-        <v>1019100</v>
+        <v>723300</v>
       </c>
       <c r="I45" s="3">
-        <v>727000</v>
+        <v>982700</v>
       </c>
       <c r="J45" s="3">
+        <v>701100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2605800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1157300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1337500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1543300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>30097900</v>
+        <v>37763500</v>
       </c>
       <c r="E46" s="3">
-        <v>29267600</v>
+        <v>29023000</v>
       </c>
       <c r="F46" s="3">
-        <v>28266800</v>
+        <v>28222300</v>
       </c>
       <c r="G46" s="3">
-        <v>26147000</v>
+        <v>27257300</v>
       </c>
       <c r="H46" s="3">
-        <v>24615200</v>
+        <v>25213200</v>
       </c>
       <c r="I46" s="3">
-        <v>24511900</v>
+        <v>23736100</v>
       </c>
       <c r="J46" s="3">
+        <v>23636500</v>
+      </c>
+      <c r="K46" s="3">
         <v>27894700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29155200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26515500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30201200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5629600</v>
+        <v>6423400</v>
       </c>
       <c r="E47" s="3">
-        <v>5772500</v>
+        <v>5428500</v>
       </c>
       <c r="F47" s="3">
-        <v>5532600</v>
+        <v>5566400</v>
       </c>
       <c r="G47" s="3">
-        <v>5947500</v>
+        <v>5335000</v>
       </c>
       <c r="H47" s="3">
-        <v>6177500</v>
+        <v>5735100</v>
       </c>
       <c r="I47" s="3">
-        <v>6107100</v>
+        <v>5956800</v>
       </c>
       <c r="J47" s="3">
+        <v>5889000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6501500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8343700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6536000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8160100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25531700</v>
+        <v>24853000</v>
       </c>
       <c r="E48" s="3">
-        <v>25875500</v>
+        <v>24619900</v>
       </c>
       <c r="F48" s="3">
-        <v>25995400</v>
+        <v>24951400</v>
       </c>
       <c r="G48" s="3">
-        <v>27676700</v>
+        <v>25067000</v>
       </c>
       <c r="H48" s="3">
-        <v>29306000</v>
+        <v>26688200</v>
       </c>
       <c r="I48" s="3">
-        <v>29910000</v>
+        <v>28259300</v>
       </c>
       <c r="J48" s="3">
+        <v>28841800</v>
+      </c>
+      <c r="K48" s="3">
         <v>30489300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32928700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27550000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72571100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3737500</v>
+        <v>3374700</v>
       </c>
       <c r="E49" s="3">
-        <v>4123100</v>
+        <v>3604000</v>
       </c>
       <c r="F49" s="3">
-        <v>4343500</v>
+        <v>3975900</v>
       </c>
       <c r="G49" s="3">
-        <v>4999900</v>
+        <v>4188400</v>
       </c>
       <c r="H49" s="3">
-        <v>5114500</v>
+        <v>4821300</v>
       </c>
       <c r="I49" s="3">
-        <v>5380800</v>
+        <v>4931900</v>
       </c>
       <c r="J49" s="3">
+        <v>5188700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5783400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5396200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4756400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4720400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,9 +2201,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2124,45 +2240,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1436300</v>
+        <v>1677300</v>
       </c>
       <c r="E52" s="3">
-        <v>1370500</v>
+        <v>1385000</v>
       </c>
       <c r="F52" s="3">
-        <v>1590200</v>
+        <v>1321600</v>
       </c>
       <c r="G52" s="3">
-        <v>1609800</v>
+        <v>1533400</v>
       </c>
       <c r="H52" s="3">
-        <v>1787700</v>
+        <v>1552300</v>
       </c>
       <c r="I52" s="3">
-        <v>1633400</v>
+        <v>1723900</v>
       </c>
       <c r="J52" s="3">
+        <v>1575100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1439700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1381700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1225400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1404100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2196,45 +2318,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>66433100</v>
+        <v>74092000</v>
       </c>
       <c r="E54" s="3">
-        <v>66409300</v>
+        <v>64060400</v>
       </c>
       <c r="F54" s="3">
-        <v>65728500</v>
+        <v>64037500</v>
       </c>
       <c r="G54" s="3">
-        <v>66381000</v>
+        <v>63381100</v>
       </c>
       <c r="H54" s="3">
-        <v>67000900</v>
+        <v>64010200</v>
       </c>
       <c r="I54" s="3">
-        <v>67543400</v>
+        <v>64608000</v>
       </c>
       <c r="J54" s="3">
+        <v>65131100</v>
+      </c>
+      <c r="K54" s="3">
         <v>72108600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77205400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66583300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70568000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2249,8 +2377,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2265,224 +2394,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3154600</v>
+        <v>4429200</v>
       </c>
       <c r="E57" s="3">
-        <v>2875300</v>
+        <v>3042000</v>
       </c>
       <c r="F57" s="3">
-        <v>3365200</v>
+        <v>2772600</v>
       </c>
       <c r="G57" s="3">
-        <v>2910700</v>
+        <v>3245000</v>
       </c>
       <c r="H57" s="3">
-        <v>3421600</v>
+        <v>2806800</v>
       </c>
       <c r="I57" s="3">
-        <v>2625300</v>
+        <v>3299400</v>
       </c>
       <c r="J57" s="3">
+        <v>2531500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3318700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3850500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4306700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4901600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7494500</v>
+        <v>7299600</v>
       </c>
       <c r="E58" s="3">
-        <v>7305800</v>
+        <v>7226900</v>
       </c>
       <c r="F58" s="3">
-        <v>8651800</v>
+        <v>7044900</v>
       </c>
       <c r="G58" s="3">
-        <v>9485500</v>
+        <v>8342800</v>
       </c>
       <c r="H58" s="3">
-        <v>8584200</v>
+        <v>9146700</v>
       </c>
       <c r="I58" s="3">
-        <v>10414200</v>
+        <v>8277700</v>
       </c>
       <c r="J58" s="3">
+        <v>10042300</v>
+      </c>
+      <c r="K58" s="3">
         <v>10262600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9762400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8827900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9712400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3509000</v>
+        <v>5348900</v>
       </c>
       <c r="E59" s="3">
-        <v>3530800</v>
+        <v>3383700</v>
       </c>
       <c r="F59" s="3">
-        <v>3890900</v>
+        <v>3404700</v>
       </c>
       <c r="G59" s="3">
-        <v>3518400</v>
+        <v>3752000</v>
       </c>
       <c r="H59" s="3">
-        <v>3883100</v>
+        <v>3392800</v>
       </c>
       <c r="I59" s="3">
-        <v>3870400</v>
+        <v>3744500</v>
       </c>
       <c r="J59" s="3">
+        <v>3732200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5213800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4912500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3476500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3030900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>14158200</v>
+        <v>17077700</v>
       </c>
       <c r="E60" s="3">
-        <v>13711900</v>
+        <v>13652500</v>
       </c>
       <c r="F60" s="3">
-        <v>15907900</v>
+        <v>13222200</v>
       </c>
       <c r="G60" s="3">
-        <v>15914700</v>
+        <v>15339800</v>
       </c>
       <c r="H60" s="3">
-        <v>15888900</v>
+        <v>15346300</v>
       </c>
       <c r="I60" s="3">
-        <v>16910000</v>
+        <v>15321500</v>
       </c>
       <c r="J60" s="3">
+        <v>16306000</v>
+      </c>
+      <c r="K60" s="3">
         <v>18795000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18525400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16611000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17644800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10344800</v>
+        <v>10941000</v>
       </c>
       <c r="E61" s="3">
-        <v>10432500</v>
+        <v>9975300</v>
       </c>
       <c r="F61" s="3">
-        <v>8403600</v>
+        <v>10060000</v>
       </c>
       <c r="G61" s="3">
-        <v>8286100</v>
+        <v>8103400</v>
       </c>
       <c r="H61" s="3">
-        <v>10584100</v>
+        <v>7990200</v>
       </c>
       <c r="I61" s="3">
-        <v>10805400</v>
+        <v>10206100</v>
       </c>
       <c r="J61" s="3">
+        <v>10419500</v>
+      </c>
+      <c r="K61" s="3">
         <v>12816400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14170700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12106200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14418200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1883500</v>
+        <v>1681300</v>
       </c>
       <c r="E62" s="3">
-        <v>2117300</v>
+        <v>1816200</v>
       </c>
       <c r="F62" s="3">
-        <v>2139000</v>
+        <v>2041700</v>
       </c>
       <c r="G62" s="3">
-        <v>2310500</v>
+        <v>2062600</v>
       </c>
       <c r="H62" s="3">
-        <v>2023700</v>
+        <v>2227900</v>
       </c>
       <c r="I62" s="3">
-        <v>1969000</v>
+        <v>1951400</v>
       </c>
       <c r="J62" s="3">
+        <v>1898600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2481000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2848900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2225500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1848000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2516,9 +2664,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2552,9 +2703,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,45 +2742,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>29194700</v>
+        <v>33245800</v>
       </c>
       <c r="E66" s="3">
-        <v>29052900</v>
+        <v>28152100</v>
       </c>
       <c r="F66" s="3">
-        <v>29296700</v>
+        <v>28015300</v>
       </c>
       <c r="G66" s="3">
-        <v>29645300</v>
+        <v>28250400</v>
       </c>
       <c r="H66" s="3">
-        <v>31407200</v>
+        <v>28586600</v>
       </c>
       <c r="I66" s="3">
-        <v>32905700</v>
+        <v>30285500</v>
       </c>
       <c r="J66" s="3">
+        <v>31730500</v>
+      </c>
+      <c r="K66" s="3">
         <v>37200700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38977200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33441800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36047200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2641,8 +2801,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2676,9 +2837,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2712,9 +2876,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2748,9 +2915,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2784,45 +2954,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>38733600</v>
+        <v>41741600</v>
       </c>
       <c r="E72" s="3">
-        <v>37867300</v>
+        <v>37350300</v>
       </c>
       <c r="F72" s="3">
-        <v>37141500</v>
+        <v>36514900</v>
       </c>
       <c r="G72" s="3">
-        <v>36167500</v>
+        <v>35815000</v>
       </c>
       <c r="H72" s="3">
-        <v>34586000</v>
+        <v>34875800</v>
       </c>
       <c r="I72" s="3">
-        <v>34020900</v>
+        <v>33350800</v>
       </c>
       <c r="J72" s="3">
+        <v>32805900</v>
+      </c>
+      <c r="K72" s="3">
         <v>34387200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37358800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33875600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34823700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2856,9 +3032,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2892,9 +3071,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2928,45 +3110,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37238300</v>
+        <v>40846200</v>
       </c>
       <c r="E76" s="3">
-        <v>37356400</v>
+        <v>35908400</v>
       </c>
       <c r="F76" s="3">
-        <v>36431900</v>
+        <v>36022200</v>
       </c>
       <c r="G76" s="3">
-        <v>36735600</v>
+        <v>35130700</v>
       </c>
       <c r="H76" s="3">
-        <v>35593700</v>
+        <v>35423600</v>
       </c>
       <c r="I76" s="3">
-        <v>34637700</v>
+        <v>34322500</v>
       </c>
       <c r="J76" s="3">
+        <v>33400600</v>
+      </c>
+      <c r="K76" s="3">
         <v>34907800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38228200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33141500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34520700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3000,86 +3188,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1340200</v>
+        <v>5354600</v>
       </c>
       <c r="E81" s="3">
-        <v>1535900</v>
+        <v>1292300</v>
       </c>
       <c r="F81" s="3">
-        <v>1405200</v>
+        <v>1481000</v>
       </c>
       <c r="G81" s="3">
-        <v>2315900</v>
+        <v>1355000</v>
       </c>
       <c r="H81" s="3">
-        <v>1117300</v>
+        <v>2233200</v>
       </c>
       <c r="I81" s="3">
-        <v>124000</v>
+        <v>1077400</v>
       </c>
       <c r="J81" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K81" s="3">
         <v>503700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1230800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2068100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3283300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3094,44 +3291,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3042300</v>
+        <v>2899400</v>
       </c>
       <c r="E83" s="3">
-        <v>2907300</v>
+        <v>2933600</v>
       </c>
       <c r="F83" s="3">
-        <v>2744800</v>
+        <v>2803500</v>
       </c>
       <c r="G83" s="3">
-        <v>2769800</v>
+        <v>2646800</v>
       </c>
       <c r="H83" s="3">
-        <v>2699600</v>
+        <v>2670900</v>
       </c>
       <c r="I83" s="3">
-        <v>2703300</v>
+        <v>2603200</v>
       </c>
       <c r="J83" s="3">
+        <v>2606800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2720400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2443900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2153600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2039700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3165,9 +3366,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3201,9 +3405,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3237,9 +3444,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3273,9 +3483,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3309,45 +3522,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>7216000</v>
+        <v>5161600</v>
       </c>
       <c r="E89" s="3">
-        <v>5095800</v>
+        <v>6958300</v>
       </c>
       <c r="F89" s="3">
-        <v>4934500</v>
+        <v>4913800</v>
       </c>
       <c r="G89" s="3">
-        <v>4660600</v>
+        <v>4758200</v>
       </c>
       <c r="H89" s="3">
-        <v>4436900</v>
+        <v>4494100</v>
       </c>
       <c r="I89" s="3">
-        <v>6405300</v>
+        <v>4278400</v>
       </c>
       <c r="J89" s="3">
+        <v>6176500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2875900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4420900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6148300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1522400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3362,44 +3581,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2685400</v>
+        <v>-2494600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2116100</v>
+        <v>-2589500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1793900</v>
+        <v>-2040600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1921600</v>
+        <v>-1729800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1952300</v>
+        <v>-1852900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2150600</v>
+        <v>-1882500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2073800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2944700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5978300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5925800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5315100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3433,9 +3656,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3469,45 +3695,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-5257800</v>
+        <v>-4522600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3093600</v>
+        <v>-5070000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2224300</v>
+        <v>-2983100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3207000</v>
+        <v>-2144900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3153900</v>
+        <v>-3092500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3809100</v>
+        <v>-3041200</v>
       </c>
       <c r="J94" s="3">
+        <v>-3673100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3146000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7964000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5182000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4965200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3522,44 +3754,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-553700</v>
+        <v>-1061800</v>
       </c>
       <c r="E96" s="3">
-        <v>-744200</v>
+        <v>-533900</v>
       </c>
       <c r="F96" s="3">
-        <v>-562500</v>
+        <v>-717600</v>
       </c>
       <c r="G96" s="3">
-        <v>-689300</v>
+        <v>-542500</v>
       </c>
       <c r="H96" s="3">
-        <v>-595500</v>
+        <v>-664600</v>
       </c>
       <c r="I96" s="3">
-        <v>-691000</v>
+        <v>-574300</v>
       </c>
       <c r="J96" s="3">
+        <v>-666300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-568700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-590200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-631600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-693800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3593,9 +3829,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3629,9 +3868,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3665,45 +3907,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-916300</v>
+        <v>-622600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1270200</v>
+        <v>-883600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2683800</v>
+        <v>-1224900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1315000</v>
+        <v>-2588000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3318800</v>
+        <v>-1268100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1882900</v>
+        <v>-3200300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1815700</v>
+      </c>
+      <c r="K100" s="3">
         <v>113500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3214400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-762400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4409900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3729,51 +3977,57 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-135200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1041900</v>
+        <v>16300</v>
       </c>
       <c r="E102" s="3">
-        <v>732000</v>
+        <v>1004700</v>
       </c>
       <c r="F102" s="3">
-        <v>26300</v>
+        <v>705800</v>
       </c>
       <c r="G102" s="3">
-        <v>138500</v>
+        <v>25400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2035800</v>
+        <v>133600</v>
       </c>
       <c r="I102" s="3">
-        <v>713200</v>
+        <v>-1963100</v>
       </c>
       <c r="J102" s="3">
+        <v>687700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-156600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-429500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>969900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61829200</v>
+        <v>58775900</v>
       </c>
       <c r="E8" s="3">
-        <v>46812200</v>
+        <v>44500500</v>
       </c>
       <c r="F8" s="3">
-        <v>52137100</v>
+        <v>49562500</v>
       </c>
       <c r="G8" s="3">
-        <v>52632000</v>
+        <v>50032900</v>
       </c>
       <c r="H8" s="3">
-        <v>49130600</v>
+        <v>46704400</v>
       </c>
       <c r="I8" s="3">
-        <v>42997600</v>
+        <v>40874300</v>
       </c>
       <c r="J8" s="3">
-        <v>47135800</v>
+        <v>44808100</v>
       </c>
       <c r="K8" s="3">
         <v>54397200</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52205500</v>
+        <v>49627400</v>
       </c>
       <c r="E9" s="3">
-        <v>42988600</v>
+        <v>40865700</v>
       </c>
       <c r="F9" s="3">
-        <v>47074400</v>
+        <v>44749700</v>
       </c>
       <c r="G9" s="3">
-        <v>46174400</v>
+        <v>43894200</v>
       </c>
       <c r="H9" s="3">
-        <v>42362300</v>
+        <v>40270400</v>
       </c>
       <c r="I9" s="3">
-        <v>37579100</v>
+        <v>35723400</v>
       </c>
       <c r="J9" s="3">
-        <v>41843100</v>
+        <v>39776700</v>
       </c>
       <c r="K9" s="3">
         <v>48271000</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9623700</v>
+        <v>9148500</v>
       </c>
       <c r="E10" s="3">
-        <v>3823500</v>
+        <v>3634700</v>
       </c>
       <c r="F10" s="3">
-        <v>5062800</v>
+        <v>4812800</v>
       </c>
       <c r="G10" s="3">
-        <v>6457600</v>
+        <v>6138700</v>
       </c>
       <c r="H10" s="3">
-        <v>6768300</v>
+        <v>6434100</v>
       </c>
       <c r="I10" s="3">
-        <v>5418500</v>
+        <v>5151000</v>
       </c>
       <c r="J10" s="3">
-        <v>5292700</v>
+        <v>5031400</v>
       </c>
       <c r="K10" s="3">
         <v>6126200</v>
@@ -854,25 +854,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>99700</v>
+        <v>94800</v>
       </c>
       <c r="E12" s="3">
-        <v>94200</v>
+        <v>89500</v>
       </c>
       <c r="F12" s="3">
-        <v>89400</v>
+        <v>84900</v>
       </c>
       <c r="G12" s="3">
-        <v>87800</v>
+        <v>83400</v>
       </c>
       <c r="H12" s="3">
-        <v>101900</v>
+        <v>96900</v>
       </c>
       <c r="I12" s="3">
-        <v>97700</v>
+        <v>92900</v>
       </c>
       <c r="J12" s="3">
-        <v>109800</v>
+        <v>104300</v>
       </c>
       <c r="K12" s="3">
         <v>147200</v>
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>374800</v>
+        <v>356300</v>
       </c>
       <c r="E14" s="3">
-        <v>126100</v>
+        <v>119800</v>
       </c>
       <c r="F14" s="3">
-        <v>553500</v>
+        <v>526200</v>
       </c>
       <c r="G14" s="3">
-        <v>1137600</v>
+        <v>1081500</v>
       </c>
       <c r="H14" s="3">
-        <v>280800</v>
+        <v>266900</v>
       </c>
       <c r="I14" s="3">
-        <v>491800</v>
+        <v>467500</v>
       </c>
       <c r="J14" s="3">
-        <v>418400</v>
+        <v>397700</v>
       </c>
       <c r="K14" s="3">
         <v>457900</v>
@@ -971,25 +971,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>187300</v>
+        <v>178100</v>
       </c>
       <c r="E15" s="3">
-        <v>212000</v>
+        <v>201500</v>
       </c>
       <c r="F15" s="3">
-        <v>197200</v>
+        <v>187500</v>
       </c>
       <c r="G15" s="3">
-        <v>173100</v>
+        <v>164500</v>
       </c>
       <c r="H15" s="3">
-        <v>197300</v>
+        <v>187600</v>
       </c>
       <c r="I15" s="3">
-        <v>196800</v>
+        <v>187100</v>
       </c>
       <c r="J15" s="3">
-        <v>221900</v>
+        <v>211000</v>
       </c>
       <c r="K15" s="3">
         <v>229500</v>
@@ -1024,25 +1024,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>54721200</v>
+        <v>52018900</v>
       </c>
       <c r="E17" s="3">
-        <v>44991800</v>
+        <v>42770000</v>
       </c>
       <c r="F17" s="3">
-        <v>49556900</v>
+        <v>47109700</v>
       </c>
       <c r="G17" s="3">
-        <v>49280100</v>
+        <v>46846600</v>
       </c>
       <c r="H17" s="3">
-        <v>45667700</v>
+        <v>43412500</v>
       </c>
       <c r="I17" s="3">
-        <v>41185500</v>
+        <v>39151700</v>
       </c>
       <c r="J17" s="3">
-        <v>45602100</v>
+        <v>43350100</v>
       </c>
       <c r="K17" s="3">
         <v>52147600</v>
@@ -1063,25 +1063,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7108000</v>
+        <v>6757000</v>
       </c>
       <c r="E18" s="3">
-        <v>1820400</v>
+        <v>1730500</v>
       </c>
       <c r="F18" s="3">
-        <v>2580200</v>
+        <v>2452800</v>
       </c>
       <c r="G18" s="3">
-        <v>3351900</v>
+        <v>3186300</v>
       </c>
       <c r="H18" s="3">
-        <v>3462900</v>
+        <v>3291900</v>
       </c>
       <c r="I18" s="3">
-        <v>1812100</v>
+        <v>1722600</v>
       </c>
       <c r="J18" s="3">
-        <v>1533700</v>
+        <v>1458000</v>
       </c>
       <c r="K18" s="3">
         <v>2249600</v>
@@ -1119,25 +1119,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>875300</v>
+        <v>832000</v>
       </c>
       <c r="E20" s="3">
-        <v>337400</v>
+        <v>320700</v>
       </c>
       <c r="F20" s="3">
-        <v>505100</v>
+        <v>480100</v>
       </c>
       <c r="G20" s="3">
-        <v>134500</v>
+        <v>127800</v>
       </c>
       <c r="H20" s="3">
-        <v>451700</v>
+        <v>429400</v>
       </c>
       <c r="I20" s="3">
-        <v>-117900</v>
+        <v>-112100</v>
       </c>
       <c r="J20" s="3">
-        <v>-748400</v>
+        <v>-711500</v>
       </c>
       <c r="K20" s="3">
         <v>-415500</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10918400</v>
+        <v>10381000</v>
       </c>
       <c r="E21" s="3">
-        <v>5127600</v>
+        <v>4876100</v>
       </c>
       <c r="F21" s="3">
-        <v>5923400</v>
+        <v>5632600</v>
       </c>
       <c r="G21" s="3">
-        <v>6165800</v>
+        <v>5862900</v>
       </c>
       <c r="H21" s="3">
-        <v>6618500</v>
+        <v>6293200</v>
       </c>
       <c r="I21" s="3">
-        <v>4329500</v>
+        <v>4117300</v>
       </c>
       <c r="J21" s="3">
-        <v>3424300</v>
+        <v>3256800</v>
       </c>
       <c r="K21" s="3">
         <v>4554500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>356300</v>
+        <v>338700</v>
       </c>
       <c r="E22" s="3">
-        <v>517400</v>
+        <v>491900</v>
       </c>
       <c r="F22" s="3">
-        <v>612100</v>
+        <v>581900</v>
       </c>
       <c r="G22" s="3">
-        <v>600400</v>
+        <v>570800</v>
       </c>
       <c r="H22" s="3">
-        <v>529000</v>
+        <v>502900</v>
       </c>
       <c r="I22" s="3">
-        <v>533600</v>
+        <v>507200</v>
       </c>
       <c r="J22" s="3">
-        <v>638900</v>
+        <v>607400</v>
       </c>
       <c r="K22" s="3">
         <v>668300</v>
@@ -1236,25 +1236,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7627000</v>
+        <v>7250400</v>
       </c>
       <c r="E23" s="3">
-        <v>1640300</v>
+        <v>1559300</v>
       </c>
       <c r="F23" s="3">
-        <v>2473200</v>
+        <v>2351000</v>
       </c>
       <c r="G23" s="3">
-        <v>2885900</v>
+        <v>2743400</v>
       </c>
       <c r="H23" s="3">
-        <v>3385600</v>
+        <v>3218400</v>
       </c>
       <c r="I23" s="3">
-        <v>1160600</v>
+        <v>1103300</v>
       </c>
       <c r="J23" s="3">
-        <v>146400</v>
+        <v>139200</v>
       </c>
       <c r="K23" s="3">
         <v>1165800</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1798300</v>
+        <v>1709500</v>
       </c>
       <c r="E24" s="3">
-        <v>191900</v>
+        <v>182400</v>
       </c>
       <c r="F24" s="3">
-        <v>867200</v>
+        <v>824400</v>
       </c>
       <c r="G24" s="3">
-        <v>1353300</v>
+        <v>1286500</v>
       </c>
       <c r="H24" s="3">
-        <v>977000</v>
+        <v>928800</v>
       </c>
       <c r="I24" s="3">
-        <v>311600</v>
+        <v>296200</v>
       </c>
       <c r="J24" s="3">
-        <v>224300</v>
+        <v>213200</v>
       </c>
       <c r="K24" s="3">
         <v>692000</v>
@@ -1353,25 +1353,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5828700</v>
+        <v>5540800</v>
       </c>
       <c r="E26" s="3">
-        <v>1448400</v>
+        <v>1376900</v>
       </c>
       <c r="F26" s="3">
-        <v>1605900</v>
+        <v>1526600</v>
       </c>
       <c r="G26" s="3">
-        <v>1532600</v>
+        <v>1456900</v>
       </c>
       <c r="H26" s="3">
-        <v>2408500</v>
+        <v>2289600</v>
       </c>
       <c r="I26" s="3">
-        <v>849000</v>
+        <v>807100</v>
       </c>
       <c r="J26" s="3">
-        <v>-77900</v>
+        <v>-74100</v>
       </c>
       <c r="K26" s="3">
         <v>473800</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5354600</v>
+        <v>5090100</v>
       </c>
       <c r="E27" s="3">
-        <v>1292300</v>
+        <v>1228500</v>
       </c>
       <c r="F27" s="3">
-        <v>1481000</v>
+        <v>1407900</v>
       </c>
       <c r="G27" s="3">
-        <v>1355000</v>
+        <v>1288100</v>
       </c>
       <c r="H27" s="3">
-        <v>2233200</v>
+        <v>2122900</v>
       </c>
       <c r="I27" s="3">
-        <v>1077400</v>
+        <v>1024200</v>
       </c>
       <c r="J27" s="3">
-        <v>119600</v>
+        <v>113700</v>
       </c>
       <c r="K27" s="3">
         <v>503700</v>
@@ -1587,25 +1587,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-875300</v>
+        <v>-832000</v>
       </c>
       <c r="E32" s="3">
-        <v>-337400</v>
+        <v>-320700</v>
       </c>
       <c r="F32" s="3">
-        <v>-505100</v>
+        <v>-480100</v>
       </c>
       <c r="G32" s="3">
-        <v>-134500</v>
+        <v>-127800</v>
       </c>
       <c r="H32" s="3">
-        <v>-451700</v>
+        <v>-429400</v>
       </c>
       <c r="I32" s="3">
-        <v>117900</v>
+        <v>112100</v>
       </c>
       <c r="J32" s="3">
-        <v>748400</v>
+        <v>711500</v>
       </c>
       <c r="K32" s="3">
         <v>415500</v>
@@ -1626,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5354600</v>
+        <v>5090100</v>
       </c>
       <c r="E33" s="3">
-        <v>1292300</v>
+        <v>1228500</v>
       </c>
       <c r="F33" s="3">
-        <v>1481000</v>
+        <v>1407900</v>
       </c>
       <c r="G33" s="3">
-        <v>1355000</v>
+        <v>1288100</v>
       </c>
       <c r="H33" s="3">
-        <v>2233200</v>
+        <v>2122900</v>
       </c>
       <c r="I33" s="3">
-        <v>1077400</v>
+        <v>1024200</v>
       </c>
       <c r="J33" s="3">
-        <v>119600</v>
+        <v>113700</v>
       </c>
       <c r="K33" s="3">
         <v>503700</v>
@@ -1704,25 +1704,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5354600</v>
+        <v>5090100</v>
       </c>
       <c r="E35" s="3">
-        <v>1292300</v>
+        <v>1228500</v>
       </c>
       <c r="F35" s="3">
-        <v>1481000</v>
+        <v>1407900</v>
       </c>
       <c r="G35" s="3">
-        <v>1355000</v>
+        <v>1288100</v>
       </c>
       <c r="H35" s="3">
-        <v>2233200</v>
+        <v>2122900</v>
       </c>
       <c r="I35" s="3">
-        <v>1077400</v>
+        <v>1024200</v>
       </c>
       <c r="J35" s="3">
-        <v>119600</v>
+        <v>113700</v>
       </c>
       <c r="K35" s="3">
         <v>503700</v>
@@ -1821,25 +1821,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3867900</v>
+        <v>3676900</v>
       </c>
       <c r="E41" s="3">
-        <v>3851300</v>
+        <v>3661100</v>
       </c>
       <c r="F41" s="3">
-        <v>2847000</v>
+        <v>2706500</v>
       </c>
       <c r="G41" s="3">
-        <v>2141500</v>
+        <v>2035800</v>
       </c>
       <c r="H41" s="3">
-        <v>2116100</v>
+        <v>2011600</v>
       </c>
       <c r="I41" s="3">
-        <v>1982600</v>
+        <v>1884700</v>
       </c>
       <c r="J41" s="3">
-        <v>3944800</v>
+        <v>3750000</v>
       </c>
       <c r="K41" s="3">
         <v>3201400</v>
@@ -1860,25 +1860,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10838700</v>
+        <v>10303500</v>
       </c>
       <c r="E42" s="3">
-        <v>9404000</v>
+        <v>8939600</v>
       </c>
       <c r="F42" s="3">
-        <v>7248300</v>
+        <v>6890400</v>
       </c>
       <c r="G42" s="3">
-        <v>6507400</v>
+        <v>6186000</v>
       </c>
       <c r="H42" s="3">
-        <v>5707200</v>
+        <v>5425300</v>
       </c>
       <c r="I42" s="3">
-        <v>4226700</v>
+        <v>4017900</v>
       </c>
       <c r="J42" s="3">
-        <v>3167400</v>
+        <v>3011000</v>
       </c>
       <c r="K42" s="3">
         <v>1228900</v>
@@ -1899,25 +1899,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9873800</v>
+        <v>9386200</v>
       </c>
       <c r="E43" s="3">
-        <v>7828100</v>
+        <v>7441500</v>
       </c>
       <c r="F43" s="3">
-        <v>8671700</v>
+        <v>8243500</v>
       </c>
       <c r="G43" s="3">
-        <v>8683000</v>
+        <v>8254200</v>
       </c>
       <c r="H43" s="3">
-        <v>8606300</v>
+        <v>8181300</v>
       </c>
       <c r="I43" s="3">
-        <v>9212200</v>
+        <v>8757300</v>
       </c>
       <c r="J43" s="3">
-        <v>9160800</v>
+        <v>8708400</v>
       </c>
       <c r="K43" s="3">
         <v>11473000</v>
@@ -1938,25 +1938,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>12324200</v>
+        <v>11715600</v>
       </c>
       <c r="E44" s="3">
-        <v>7332000</v>
+        <v>6969900</v>
       </c>
       <c r="F44" s="3">
-        <v>8845500</v>
+        <v>8408600</v>
       </c>
       <c r="G44" s="3">
-        <v>9314900</v>
+        <v>8854900</v>
       </c>
       <c r="H44" s="3">
-        <v>8060300</v>
+        <v>7662200</v>
       </c>
       <c r="I44" s="3">
-        <v>7331900</v>
+        <v>6969800</v>
       </c>
       <c r="J44" s="3">
-        <v>6662400</v>
+        <v>6333400</v>
       </c>
       <c r="K44" s="3">
         <v>9385600</v>
@@ -1977,25 +1977,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>858900</v>
+        <v>816500</v>
       </c>
       <c r="E45" s="3">
-        <v>607600</v>
+        <v>577600</v>
       </c>
       <c r="F45" s="3">
-        <v>609800</v>
+        <v>579700</v>
       </c>
       <c r="G45" s="3">
-        <v>610400</v>
+        <v>580300</v>
       </c>
       <c r="H45" s="3">
-        <v>723300</v>
+        <v>687600</v>
       </c>
       <c r="I45" s="3">
-        <v>982700</v>
+        <v>934200</v>
       </c>
       <c r="J45" s="3">
-        <v>701100</v>
+        <v>666500</v>
       </c>
       <c r="K45" s="3">
         <v>2605800</v>
@@ -2016,25 +2016,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>37763500</v>
+        <v>35898700</v>
       </c>
       <c r="E46" s="3">
-        <v>29023000</v>
+        <v>27589700</v>
       </c>
       <c r="F46" s="3">
-        <v>28222300</v>
+        <v>26828600</v>
       </c>
       <c r="G46" s="3">
-        <v>27257300</v>
+        <v>25911300</v>
       </c>
       <c r="H46" s="3">
-        <v>25213200</v>
+        <v>23968100</v>
       </c>
       <c r="I46" s="3">
-        <v>23736100</v>
+        <v>22564000</v>
       </c>
       <c r="J46" s="3">
-        <v>23636500</v>
+        <v>22469300</v>
       </c>
       <c r="K46" s="3">
         <v>27894700</v>
@@ -2055,25 +2055,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>6423400</v>
+        <v>6106200</v>
       </c>
       <c r="E47" s="3">
-        <v>5428500</v>
+        <v>5160500</v>
       </c>
       <c r="F47" s="3">
-        <v>5566400</v>
+        <v>5291500</v>
       </c>
       <c r="G47" s="3">
-        <v>5335000</v>
+        <v>5071600</v>
       </c>
       <c r="H47" s="3">
-        <v>5735100</v>
+        <v>5451900</v>
       </c>
       <c r="I47" s="3">
-        <v>5956800</v>
+        <v>5662700</v>
       </c>
       <c r="J47" s="3">
-        <v>5889000</v>
+        <v>5598200</v>
       </c>
       <c r="K47" s="3">
         <v>6501500</v>
@@ -2094,25 +2094,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>24853000</v>
+        <v>23625700</v>
       </c>
       <c r="E48" s="3">
-        <v>24619900</v>
+        <v>23404100</v>
       </c>
       <c r="F48" s="3">
-        <v>24951400</v>
+        <v>23719200</v>
       </c>
       <c r="G48" s="3">
-        <v>25067000</v>
+        <v>23829100</v>
       </c>
       <c r="H48" s="3">
-        <v>26688200</v>
+        <v>25370300</v>
       </c>
       <c r="I48" s="3">
-        <v>28259300</v>
+        <v>26863800</v>
       </c>
       <c r="J48" s="3">
-        <v>28841800</v>
+        <v>27417500</v>
       </c>
       <c r="K48" s="3">
         <v>30489300</v>
@@ -2133,25 +2133,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3374700</v>
+        <v>3208100</v>
       </c>
       <c r="E49" s="3">
-        <v>3604000</v>
+        <v>3426100</v>
       </c>
       <c r="F49" s="3">
-        <v>3975900</v>
+        <v>3779500</v>
       </c>
       <c r="G49" s="3">
-        <v>4188400</v>
+        <v>3981500</v>
       </c>
       <c r="H49" s="3">
-        <v>4821300</v>
+        <v>4583200</v>
       </c>
       <c r="I49" s="3">
-        <v>4931900</v>
+        <v>4688300</v>
       </c>
       <c r="J49" s="3">
-        <v>5188700</v>
+        <v>4932400</v>
       </c>
       <c r="K49" s="3">
         <v>5783400</v>
@@ -2250,25 +2250,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1677300</v>
+        <v>1594500</v>
       </c>
       <c r="E52" s="3">
-        <v>1385000</v>
+        <v>1316600</v>
       </c>
       <c r="F52" s="3">
-        <v>1321600</v>
+        <v>1256300</v>
       </c>
       <c r="G52" s="3">
-        <v>1533400</v>
+        <v>1457700</v>
       </c>
       <c r="H52" s="3">
-        <v>1552300</v>
+        <v>1475700</v>
       </c>
       <c r="I52" s="3">
-        <v>1723900</v>
+        <v>1638800</v>
       </c>
       <c r="J52" s="3">
-        <v>1575100</v>
+        <v>1497300</v>
       </c>
       <c r="K52" s="3">
         <v>1439700</v>
@@ -2328,25 +2328,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>74092000</v>
+        <v>70433100</v>
       </c>
       <c r="E54" s="3">
-        <v>64060400</v>
+        <v>60897000</v>
       </c>
       <c r="F54" s="3">
-        <v>64037500</v>
+        <v>60875200</v>
       </c>
       <c r="G54" s="3">
-        <v>63381100</v>
+        <v>60251200</v>
       </c>
       <c r="H54" s="3">
-        <v>64010200</v>
+        <v>60849200</v>
       </c>
       <c r="I54" s="3">
-        <v>64608000</v>
+        <v>61417500</v>
       </c>
       <c r="J54" s="3">
-        <v>65131100</v>
+        <v>61914700</v>
       </c>
       <c r="K54" s="3">
         <v>72108600</v>
@@ -2401,25 +2401,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>4429200</v>
+        <v>4210500</v>
       </c>
       <c r="E57" s="3">
-        <v>3042000</v>
+        <v>2891700</v>
       </c>
       <c r="F57" s="3">
-        <v>2772600</v>
+        <v>2635700</v>
       </c>
       <c r="G57" s="3">
-        <v>3245000</v>
+        <v>3084700</v>
       </c>
       <c r="H57" s="3">
-        <v>2806800</v>
+        <v>2668200</v>
       </c>
       <c r="I57" s="3">
-        <v>3299400</v>
+        <v>3136400</v>
       </c>
       <c r="J57" s="3">
-        <v>2531500</v>
+        <v>2406500</v>
       </c>
       <c r="K57" s="3">
         <v>3318700</v>
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7299600</v>
+        <v>6939100</v>
       </c>
       <c r="E58" s="3">
-        <v>7226900</v>
+        <v>6870000</v>
       </c>
       <c r="F58" s="3">
-        <v>7044900</v>
+        <v>6697000</v>
       </c>
       <c r="G58" s="3">
-        <v>8342800</v>
+        <v>7930800</v>
       </c>
       <c r="H58" s="3">
-        <v>9146700</v>
+        <v>8695100</v>
       </c>
       <c r="I58" s="3">
-        <v>8277700</v>
+        <v>7868900</v>
       </c>
       <c r="J58" s="3">
-        <v>10042300</v>
+        <v>9546400</v>
       </c>
       <c r="K58" s="3">
         <v>10262600</v>
@@ -2479,25 +2479,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5348900</v>
+        <v>5084800</v>
       </c>
       <c r="E59" s="3">
-        <v>3383700</v>
+        <v>3216600</v>
       </c>
       <c r="F59" s="3">
-        <v>3404700</v>
+        <v>3236600</v>
       </c>
       <c r="G59" s="3">
-        <v>3752000</v>
+        <v>3566700</v>
       </c>
       <c r="H59" s="3">
-        <v>3392800</v>
+        <v>3225200</v>
       </c>
       <c r="I59" s="3">
-        <v>3744500</v>
+        <v>3559500</v>
       </c>
       <c r="J59" s="3">
-        <v>3732200</v>
+        <v>3547900</v>
       </c>
       <c r="K59" s="3">
         <v>5213800</v>
@@ -2518,25 +2518,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>17077700</v>
+        <v>16234400</v>
       </c>
       <c r="E60" s="3">
-        <v>13652500</v>
+        <v>12978300</v>
       </c>
       <c r="F60" s="3">
-        <v>13222200</v>
+        <v>12569200</v>
       </c>
       <c r="G60" s="3">
-        <v>15339800</v>
+        <v>14582200</v>
       </c>
       <c r="H60" s="3">
-        <v>15346300</v>
+        <v>14588400</v>
       </c>
       <c r="I60" s="3">
-        <v>15321500</v>
+        <v>14564900</v>
       </c>
       <c r="J60" s="3">
-        <v>16306000</v>
+        <v>15500800</v>
       </c>
       <c r="K60" s="3">
         <v>18795000</v>
@@ -2557,25 +2557,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10941000</v>
+        <v>10400700</v>
       </c>
       <c r="E61" s="3">
-        <v>9975300</v>
+        <v>9482700</v>
       </c>
       <c r="F61" s="3">
-        <v>10060000</v>
+        <v>9563200</v>
       </c>
       <c r="G61" s="3">
-        <v>8103400</v>
+        <v>7703300</v>
       </c>
       <c r="H61" s="3">
-        <v>7990200</v>
+        <v>7595600</v>
       </c>
       <c r="I61" s="3">
-        <v>10206100</v>
+        <v>9702100</v>
       </c>
       <c r="J61" s="3">
-        <v>10419500</v>
+        <v>9905000</v>
       </c>
       <c r="K61" s="3">
         <v>12816400</v>
@@ -2596,25 +2596,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1681300</v>
+        <v>1598300</v>
       </c>
       <c r="E62" s="3">
-        <v>1816200</v>
+        <v>1726500</v>
       </c>
       <c r="F62" s="3">
-        <v>2041700</v>
+        <v>1940800</v>
       </c>
       <c r="G62" s="3">
-        <v>2062600</v>
+        <v>1960800</v>
       </c>
       <c r="H62" s="3">
-        <v>2227900</v>
+        <v>2117900</v>
       </c>
       <c r="I62" s="3">
-        <v>1951400</v>
+        <v>1855000</v>
       </c>
       <c r="J62" s="3">
-        <v>1898600</v>
+        <v>1804900</v>
       </c>
       <c r="K62" s="3">
         <v>2481000</v>
@@ -2752,25 +2752,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>33245800</v>
+        <v>31604100</v>
       </c>
       <c r="E66" s="3">
-        <v>28152100</v>
+        <v>26761800</v>
       </c>
       <c r="F66" s="3">
-        <v>28015300</v>
+        <v>26631800</v>
       </c>
       <c r="G66" s="3">
-        <v>28250400</v>
+        <v>26855300</v>
       </c>
       <c r="H66" s="3">
-        <v>28586600</v>
+        <v>27174900</v>
       </c>
       <c r="I66" s="3">
-        <v>30285500</v>
+        <v>28790000</v>
       </c>
       <c r="J66" s="3">
-        <v>31730500</v>
+        <v>30163500</v>
       </c>
       <c r="K66" s="3">
         <v>37200700</v>
@@ -2964,25 +2964,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>41741600</v>
+        <v>39680300</v>
       </c>
       <c r="E72" s="3">
-        <v>37350300</v>
+        <v>35505800</v>
       </c>
       <c r="F72" s="3">
-        <v>36514900</v>
+        <v>34711700</v>
       </c>
       <c r="G72" s="3">
-        <v>35815000</v>
+        <v>34046300</v>
       </c>
       <c r="H72" s="3">
-        <v>34875800</v>
+        <v>33153600</v>
       </c>
       <c r="I72" s="3">
-        <v>33350800</v>
+        <v>31703800</v>
       </c>
       <c r="J72" s="3">
-        <v>32805900</v>
+        <v>31185800</v>
       </c>
       <c r="K72" s="3">
         <v>34387200</v>
@@ -3120,25 +3120,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>40846200</v>
+        <v>38829100</v>
       </c>
       <c r="E76" s="3">
-        <v>35908400</v>
+        <v>34135100</v>
       </c>
       <c r="F76" s="3">
-        <v>36022200</v>
+        <v>34243300</v>
       </c>
       <c r="G76" s="3">
-        <v>35130700</v>
+        <v>33395900</v>
       </c>
       <c r="H76" s="3">
-        <v>35423600</v>
+        <v>33674300</v>
       </c>
       <c r="I76" s="3">
-        <v>34322500</v>
+        <v>32627500</v>
       </c>
       <c r="J76" s="3">
-        <v>33400600</v>
+        <v>31751200</v>
       </c>
       <c r="K76" s="3">
         <v>34907800</v>
@@ -3242,25 +3242,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5354600</v>
+        <v>5090100</v>
       </c>
       <c r="E81" s="3">
-        <v>1292300</v>
+        <v>1228500</v>
       </c>
       <c r="F81" s="3">
-        <v>1481000</v>
+        <v>1407900</v>
       </c>
       <c r="G81" s="3">
-        <v>1355000</v>
+        <v>1288100</v>
       </c>
       <c r="H81" s="3">
-        <v>2233200</v>
+        <v>2122900</v>
       </c>
       <c r="I81" s="3">
-        <v>1077400</v>
+        <v>1024200</v>
       </c>
       <c r="J81" s="3">
-        <v>119600</v>
+        <v>113700</v>
       </c>
       <c r="K81" s="3">
         <v>503700</v>
@@ -3298,25 +3298,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2899400</v>
+        <v>2756200</v>
       </c>
       <c r="E83" s="3">
-        <v>2933600</v>
+        <v>2788700</v>
       </c>
       <c r="F83" s="3">
-        <v>2803500</v>
+        <v>2665100</v>
       </c>
       <c r="G83" s="3">
-        <v>2646800</v>
+        <v>2516100</v>
       </c>
       <c r="H83" s="3">
-        <v>2670900</v>
+        <v>2539000</v>
       </c>
       <c r="I83" s="3">
-        <v>2603200</v>
+        <v>2474700</v>
       </c>
       <c r="J83" s="3">
-        <v>2606800</v>
+        <v>2478000</v>
       </c>
       <c r="K83" s="3">
         <v>2720400</v>
@@ -3532,25 +3532,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5161600</v>
+        <v>4906700</v>
       </c>
       <c r="E89" s="3">
-        <v>6958300</v>
+        <v>6614700</v>
       </c>
       <c r="F89" s="3">
-        <v>4913800</v>
+        <v>4671100</v>
       </c>
       <c r="G89" s="3">
-        <v>4758200</v>
+        <v>4523300</v>
       </c>
       <c r="H89" s="3">
-        <v>4494100</v>
+        <v>4272200</v>
       </c>
       <c r="I89" s="3">
-        <v>4278400</v>
+        <v>4067200</v>
       </c>
       <c r="J89" s="3">
-        <v>6176500</v>
+        <v>5871500</v>
       </c>
       <c r="K89" s="3">
         <v>2875900</v>
@@ -3588,25 +3588,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2494600</v>
+        <v>-2371400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2589500</v>
+        <v>-2461600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2040600</v>
+        <v>-1939800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1729800</v>
+        <v>-1644400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1852900</v>
+        <v>-1761400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1882500</v>
+        <v>-1789600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2073800</v>
+        <v>-1971400</v>
       </c>
       <c r="K91" s="3">
         <v>-2944700</v>
@@ -3705,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-4522600</v>
+        <v>-4299300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5070000</v>
+        <v>-4819600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2983100</v>
+        <v>-2835800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2144900</v>
+        <v>-2038900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3092500</v>
+        <v>-2939800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3041200</v>
+        <v>-2891100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3673100</v>
+        <v>-3491700</v>
       </c>
       <c r="K94" s="3">
         <v>-3146000</v>
@@ -3761,25 +3761,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1061800</v>
+        <v>-1009400</v>
       </c>
       <c r="E96" s="3">
-        <v>-533900</v>
+        <v>-507500</v>
       </c>
       <c r="F96" s="3">
-        <v>-717600</v>
+        <v>-682200</v>
       </c>
       <c r="G96" s="3">
-        <v>-542500</v>
+        <v>-515700</v>
       </c>
       <c r="H96" s="3">
-        <v>-664600</v>
+        <v>-631800</v>
       </c>
       <c r="I96" s="3">
-        <v>-574300</v>
+        <v>-545900</v>
       </c>
       <c r="J96" s="3">
-        <v>-666300</v>
+        <v>-633400</v>
       </c>
       <c r="K96" s="3">
         <v>-568700</v>
@@ -3917,25 +3917,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-622600</v>
+        <v>-591900</v>
       </c>
       <c r="E100" s="3">
-        <v>-883600</v>
+        <v>-840000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1224900</v>
+        <v>-1164400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2588000</v>
+        <v>-2460200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1268100</v>
+        <v>-1205500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3200300</v>
+        <v>-3042200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1815700</v>
+        <v>-1726000</v>
       </c>
       <c r="K100" s="3">
         <v>113500</v>
@@ -3995,25 +3995,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="E102" s="3">
-        <v>1004700</v>
+        <v>955100</v>
       </c>
       <c r="F102" s="3">
-        <v>705800</v>
+        <v>671000</v>
       </c>
       <c r="G102" s="3">
-        <v>25400</v>
+        <v>24100</v>
       </c>
       <c r="H102" s="3">
-        <v>133600</v>
+        <v>127000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1963100</v>
+        <v>-1866100</v>
       </c>
       <c r="J102" s="3">
-        <v>687700</v>
+        <v>653800</v>
       </c>
       <c r="K102" s="3">
         <v>-156600</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58775900</v>
+        <v>57249300</v>
       </c>
       <c r="E8" s="3">
-        <v>44500500</v>
+        <v>43344600</v>
       </c>
       <c r="F8" s="3">
-        <v>49562500</v>
+        <v>48275100</v>
       </c>
       <c r="G8" s="3">
-        <v>50032900</v>
+        <v>48733300</v>
       </c>
       <c r="H8" s="3">
-        <v>46704400</v>
+        <v>45491300</v>
       </c>
       <c r="I8" s="3">
-        <v>40874300</v>
+        <v>39812600</v>
       </c>
       <c r="J8" s="3">
-        <v>44808100</v>
+        <v>43644300</v>
       </c>
       <c r="K8" s="3">
         <v>54397200</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49627400</v>
+        <v>48338400</v>
       </c>
       <c r="E9" s="3">
-        <v>40865700</v>
+        <v>39804300</v>
       </c>
       <c r="F9" s="3">
-        <v>44749700</v>
+        <v>43587400</v>
       </c>
       <c r="G9" s="3">
-        <v>43894200</v>
+        <v>42754000</v>
       </c>
       <c r="H9" s="3">
-        <v>40270400</v>
+        <v>39224400</v>
       </c>
       <c r="I9" s="3">
-        <v>35723400</v>
+        <v>34795500</v>
       </c>
       <c r="J9" s="3">
-        <v>39776700</v>
+        <v>38743600</v>
       </c>
       <c r="K9" s="3">
         <v>48271000</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9148500</v>
+        <v>8910800</v>
       </c>
       <c r="E10" s="3">
-        <v>3634700</v>
+        <v>3540300</v>
       </c>
       <c r="F10" s="3">
-        <v>4812800</v>
+        <v>4687800</v>
       </c>
       <c r="G10" s="3">
-        <v>6138700</v>
+        <v>5979300</v>
       </c>
       <c r="H10" s="3">
-        <v>6434100</v>
+        <v>6266900</v>
       </c>
       <c r="I10" s="3">
-        <v>5151000</v>
+        <v>5017200</v>
       </c>
       <c r="J10" s="3">
-        <v>5031400</v>
+        <v>4900700</v>
       </c>
       <c r="K10" s="3">
         <v>6126200</v>
@@ -854,25 +854,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>94800</v>
+        <v>92300</v>
       </c>
       <c r="E12" s="3">
-        <v>89500</v>
+        <v>87200</v>
       </c>
       <c r="F12" s="3">
-        <v>84900</v>
+        <v>82700</v>
       </c>
       <c r="G12" s="3">
-        <v>83400</v>
+        <v>81300</v>
       </c>
       <c r="H12" s="3">
-        <v>96900</v>
+        <v>94300</v>
       </c>
       <c r="I12" s="3">
-        <v>92900</v>
+        <v>90500</v>
       </c>
       <c r="J12" s="3">
-        <v>104300</v>
+        <v>101600</v>
       </c>
       <c r="K12" s="3">
         <v>147200</v>
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>356300</v>
+        <v>347100</v>
       </c>
       <c r="E14" s="3">
-        <v>119800</v>
+        <v>116700</v>
       </c>
       <c r="F14" s="3">
-        <v>526200</v>
+        <v>512500</v>
       </c>
       <c r="G14" s="3">
-        <v>1081500</v>
+        <v>1053400</v>
       </c>
       <c r="H14" s="3">
-        <v>266900</v>
+        <v>260000</v>
       </c>
       <c r="I14" s="3">
-        <v>467500</v>
+        <v>455400</v>
       </c>
       <c r="J14" s="3">
-        <v>397700</v>
+        <v>387400</v>
       </c>
       <c r="K14" s="3">
         <v>457900</v>
@@ -971,25 +971,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>178100</v>
+        <v>173500</v>
       </c>
       <c r="E15" s="3">
-        <v>201500</v>
+        <v>196300</v>
       </c>
       <c r="F15" s="3">
-        <v>187500</v>
+        <v>182600</v>
       </c>
       <c r="G15" s="3">
-        <v>164500</v>
+        <v>160300</v>
       </c>
       <c r="H15" s="3">
-        <v>187600</v>
+        <v>182700</v>
       </c>
       <c r="I15" s="3">
-        <v>187100</v>
+        <v>182300</v>
       </c>
       <c r="J15" s="3">
-        <v>211000</v>
+        <v>205500</v>
       </c>
       <c r="K15" s="3">
         <v>229500</v>
@@ -1024,25 +1024,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>52018900</v>
+        <v>50667800</v>
       </c>
       <c r="E17" s="3">
-        <v>42770000</v>
+        <v>41659100</v>
       </c>
       <c r="F17" s="3">
-        <v>47109700</v>
+        <v>45886000</v>
       </c>
       <c r="G17" s="3">
-        <v>46846600</v>
+        <v>45629800</v>
       </c>
       <c r="H17" s="3">
-        <v>43412500</v>
+        <v>42284900</v>
       </c>
       <c r="I17" s="3">
-        <v>39151700</v>
+        <v>38134700</v>
       </c>
       <c r="J17" s="3">
-        <v>43350100</v>
+        <v>42224100</v>
       </c>
       <c r="K17" s="3">
         <v>52147600</v>
@@ -1063,25 +1063,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6757000</v>
+        <v>6581500</v>
       </c>
       <c r="E18" s="3">
-        <v>1730500</v>
+        <v>1685500</v>
       </c>
       <c r="F18" s="3">
-        <v>2452800</v>
+        <v>2389100</v>
       </c>
       <c r="G18" s="3">
-        <v>3186300</v>
+        <v>3103600</v>
       </c>
       <c r="H18" s="3">
-        <v>3291900</v>
+        <v>3206400</v>
       </c>
       <c r="I18" s="3">
-        <v>1722600</v>
+        <v>1677900</v>
       </c>
       <c r="J18" s="3">
-        <v>1458000</v>
+        <v>1420100</v>
       </c>
       <c r="K18" s="3">
         <v>2249600</v>
@@ -1119,25 +1119,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>832000</v>
+        <v>810400</v>
       </c>
       <c r="E20" s="3">
-        <v>320700</v>
+        <v>312400</v>
       </c>
       <c r="F20" s="3">
-        <v>480100</v>
+        <v>467600</v>
       </c>
       <c r="G20" s="3">
-        <v>127800</v>
+        <v>124500</v>
       </c>
       <c r="H20" s="3">
-        <v>429400</v>
+        <v>418200</v>
       </c>
       <c r="I20" s="3">
-        <v>-112100</v>
+        <v>-109200</v>
       </c>
       <c r="J20" s="3">
-        <v>-711500</v>
+        <v>-693000</v>
       </c>
       <c r="K20" s="3">
         <v>-415500</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10381000</v>
+        <v>10076500</v>
       </c>
       <c r="E21" s="3">
-        <v>4876100</v>
+        <v>4714200</v>
       </c>
       <c r="F21" s="3">
-        <v>5632600</v>
+        <v>5452600</v>
       </c>
       <c r="G21" s="3">
-        <v>5862900</v>
+        <v>5678800</v>
       </c>
       <c r="H21" s="3">
-        <v>6293200</v>
+        <v>6097700</v>
       </c>
       <c r="I21" s="3">
-        <v>4117300</v>
+        <v>3979100</v>
       </c>
       <c r="J21" s="3">
-        <v>3256800</v>
+        <v>3140800</v>
       </c>
       <c r="K21" s="3">
         <v>4554500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>338700</v>
+        <v>329900</v>
       </c>
       <c r="E22" s="3">
-        <v>491900</v>
+        <v>479100</v>
       </c>
       <c r="F22" s="3">
-        <v>581900</v>
+        <v>566800</v>
       </c>
       <c r="G22" s="3">
-        <v>570800</v>
+        <v>556000</v>
       </c>
       <c r="H22" s="3">
-        <v>502900</v>
+        <v>489800</v>
       </c>
       <c r="I22" s="3">
-        <v>507200</v>
+        <v>494000</v>
       </c>
       <c r="J22" s="3">
-        <v>607400</v>
+        <v>591600</v>
       </c>
       <c r="K22" s="3">
         <v>668300</v>
@@ -1236,25 +1236,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7250400</v>
+        <v>7062100</v>
       </c>
       <c r="E23" s="3">
-        <v>1559300</v>
+        <v>1518800</v>
       </c>
       <c r="F23" s="3">
-        <v>2351000</v>
+        <v>2290000</v>
       </c>
       <c r="G23" s="3">
-        <v>2743400</v>
+        <v>2672100</v>
       </c>
       <c r="H23" s="3">
-        <v>3218400</v>
+        <v>3134800</v>
       </c>
       <c r="I23" s="3">
-        <v>1103300</v>
+        <v>1074600</v>
       </c>
       <c r="J23" s="3">
-        <v>139200</v>
+        <v>135600</v>
       </c>
       <c r="K23" s="3">
         <v>1165800</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1709500</v>
+        <v>1665100</v>
       </c>
       <c r="E24" s="3">
-        <v>182400</v>
+        <v>177700</v>
       </c>
       <c r="F24" s="3">
-        <v>824400</v>
+        <v>803000</v>
       </c>
       <c r="G24" s="3">
-        <v>1286500</v>
+        <v>1253100</v>
       </c>
       <c r="H24" s="3">
-        <v>928800</v>
+        <v>904700</v>
       </c>
       <c r="I24" s="3">
-        <v>296200</v>
+        <v>288500</v>
       </c>
       <c r="J24" s="3">
-        <v>213200</v>
+        <v>207700</v>
       </c>
       <c r="K24" s="3">
         <v>692000</v>
@@ -1353,25 +1353,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5540800</v>
+        <v>5396900</v>
       </c>
       <c r="E26" s="3">
-        <v>1376900</v>
+        <v>1341100</v>
       </c>
       <c r="F26" s="3">
-        <v>1526600</v>
+        <v>1487000</v>
       </c>
       <c r="G26" s="3">
-        <v>1456900</v>
+        <v>1419000</v>
       </c>
       <c r="H26" s="3">
-        <v>2289600</v>
+        <v>2230100</v>
       </c>
       <c r="I26" s="3">
-        <v>807100</v>
+        <v>786100</v>
       </c>
       <c r="J26" s="3">
-        <v>-74100</v>
+        <v>-72100</v>
       </c>
       <c r="K26" s="3">
         <v>473800</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5090100</v>
+        <v>4957900</v>
       </c>
       <c r="E27" s="3">
-        <v>1228500</v>
+        <v>1196600</v>
       </c>
       <c r="F27" s="3">
-        <v>1407900</v>
+        <v>1371300</v>
       </c>
       <c r="G27" s="3">
-        <v>1288100</v>
+        <v>1254700</v>
       </c>
       <c r="H27" s="3">
-        <v>2122900</v>
+        <v>2067800</v>
       </c>
       <c r="I27" s="3">
-        <v>1024200</v>
+        <v>997600</v>
       </c>
       <c r="J27" s="3">
-        <v>113700</v>
+        <v>110700</v>
       </c>
       <c r="K27" s="3">
         <v>503700</v>
@@ -1587,25 +1587,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-832000</v>
+        <v>-810400</v>
       </c>
       <c r="E32" s="3">
-        <v>-320700</v>
+        <v>-312400</v>
       </c>
       <c r="F32" s="3">
-        <v>-480100</v>
+        <v>-467600</v>
       </c>
       <c r="G32" s="3">
-        <v>-127800</v>
+        <v>-124500</v>
       </c>
       <c r="H32" s="3">
-        <v>-429400</v>
+        <v>-418200</v>
       </c>
       <c r="I32" s="3">
-        <v>112100</v>
+        <v>109200</v>
       </c>
       <c r="J32" s="3">
-        <v>711500</v>
+        <v>693000</v>
       </c>
       <c r="K32" s="3">
         <v>415500</v>
@@ -1626,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>5090100</v>
+        <v>4957900</v>
       </c>
       <c r="E33" s="3">
-        <v>1228500</v>
+        <v>1196600</v>
       </c>
       <c r="F33" s="3">
-        <v>1407900</v>
+        <v>1371300</v>
       </c>
       <c r="G33" s="3">
-        <v>1288100</v>
+        <v>1254700</v>
       </c>
       <c r="H33" s="3">
-        <v>2122900</v>
+        <v>2067800</v>
       </c>
       <c r="I33" s="3">
-        <v>1024200</v>
+        <v>997600</v>
       </c>
       <c r="J33" s="3">
-        <v>113700</v>
+        <v>110700</v>
       </c>
       <c r="K33" s="3">
         <v>503700</v>
@@ -1704,25 +1704,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>5090100</v>
+        <v>4957900</v>
       </c>
       <c r="E35" s="3">
-        <v>1228500</v>
+        <v>1196600</v>
       </c>
       <c r="F35" s="3">
-        <v>1407900</v>
+        <v>1371300</v>
       </c>
       <c r="G35" s="3">
-        <v>1288100</v>
+        <v>1254700</v>
       </c>
       <c r="H35" s="3">
-        <v>2122900</v>
+        <v>2067800</v>
       </c>
       <c r="I35" s="3">
-        <v>1024200</v>
+        <v>997600</v>
       </c>
       <c r="J35" s="3">
-        <v>113700</v>
+        <v>110700</v>
       </c>
       <c r="K35" s="3">
         <v>503700</v>
@@ -1821,25 +1821,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3676900</v>
+        <v>3581400</v>
       </c>
       <c r="E41" s="3">
-        <v>3661100</v>
+        <v>3566000</v>
       </c>
       <c r="F41" s="3">
-        <v>2706500</v>
+        <v>2636200</v>
       </c>
       <c r="G41" s="3">
-        <v>2035800</v>
+        <v>1982900</v>
       </c>
       <c r="H41" s="3">
-        <v>2011600</v>
+        <v>1959400</v>
       </c>
       <c r="I41" s="3">
-        <v>1884700</v>
+        <v>1835700</v>
       </c>
       <c r="J41" s="3">
-        <v>3750000</v>
+        <v>3652600</v>
       </c>
       <c r="K41" s="3">
         <v>3201400</v>
@@ -1860,25 +1860,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10303500</v>
+        <v>10035900</v>
       </c>
       <c r="E42" s="3">
-        <v>8939600</v>
+        <v>8707400</v>
       </c>
       <c r="F42" s="3">
-        <v>6890400</v>
+        <v>6711400</v>
       </c>
       <c r="G42" s="3">
-        <v>6186000</v>
+        <v>6025400</v>
       </c>
       <c r="H42" s="3">
-        <v>5425300</v>
+        <v>5284400</v>
       </c>
       <c r="I42" s="3">
-        <v>4017900</v>
+        <v>3913600</v>
       </c>
       <c r="J42" s="3">
-        <v>3011000</v>
+        <v>2932800</v>
       </c>
       <c r="K42" s="3">
         <v>1228900</v>
@@ -1899,25 +1899,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9386200</v>
+        <v>9142400</v>
       </c>
       <c r="E43" s="3">
-        <v>7441500</v>
+        <v>7248300</v>
       </c>
       <c r="F43" s="3">
-        <v>8243500</v>
+        <v>8029300</v>
       </c>
       <c r="G43" s="3">
-        <v>8254200</v>
+        <v>8039800</v>
       </c>
       <c r="H43" s="3">
-        <v>8181300</v>
+        <v>7968800</v>
       </c>
       <c r="I43" s="3">
-        <v>8757300</v>
+        <v>8529900</v>
       </c>
       <c r="J43" s="3">
-        <v>8708400</v>
+        <v>8482200</v>
       </c>
       <c r="K43" s="3">
         <v>11473000</v>
@@ -1938,25 +1938,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11715600</v>
+        <v>11411300</v>
       </c>
       <c r="E44" s="3">
-        <v>6969900</v>
+        <v>6788800</v>
       </c>
       <c r="F44" s="3">
-        <v>8408600</v>
+        <v>8190200</v>
       </c>
       <c r="G44" s="3">
-        <v>8854900</v>
+        <v>8624900</v>
       </c>
       <c r="H44" s="3">
-        <v>7662200</v>
+        <v>7463200</v>
       </c>
       <c r="I44" s="3">
-        <v>6969800</v>
+        <v>6788800</v>
       </c>
       <c r="J44" s="3">
-        <v>6333400</v>
+        <v>6168900</v>
       </c>
       <c r="K44" s="3">
         <v>9385600</v>
@@ -1977,25 +1977,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>816500</v>
+        <v>795300</v>
       </c>
       <c r="E45" s="3">
-        <v>577600</v>
+        <v>562600</v>
       </c>
       <c r="F45" s="3">
-        <v>579700</v>
+        <v>564700</v>
       </c>
       <c r="G45" s="3">
-        <v>580300</v>
+        <v>565200</v>
       </c>
       <c r="H45" s="3">
-        <v>687600</v>
+        <v>669800</v>
       </c>
       <c r="I45" s="3">
-        <v>934200</v>
+        <v>909900</v>
       </c>
       <c r="J45" s="3">
-        <v>666500</v>
+        <v>649100</v>
       </c>
       <c r="K45" s="3">
         <v>2605800</v>
@@ -2016,25 +2016,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>35898700</v>
+        <v>34966200</v>
       </c>
       <c r="E46" s="3">
-        <v>27589700</v>
+        <v>26873100</v>
       </c>
       <c r="F46" s="3">
-        <v>26828600</v>
+        <v>26131800</v>
       </c>
       <c r="G46" s="3">
-        <v>25911300</v>
+        <v>25238300</v>
       </c>
       <c r="H46" s="3">
-        <v>23968100</v>
+        <v>23345600</v>
       </c>
       <c r="I46" s="3">
-        <v>22564000</v>
+        <v>21977900</v>
       </c>
       <c r="J46" s="3">
-        <v>22469300</v>
+        <v>21885700</v>
       </c>
       <c r="K46" s="3">
         <v>27894700</v>
@@ -2055,25 +2055,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>6106200</v>
+        <v>5947600</v>
       </c>
       <c r="E47" s="3">
-        <v>5160500</v>
+        <v>5026400</v>
       </c>
       <c r="F47" s="3">
-        <v>5291500</v>
+        <v>5154100</v>
       </c>
       <c r="G47" s="3">
-        <v>5071600</v>
+        <v>4939900</v>
       </c>
       <c r="H47" s="3">
-        <v>5451900</v>
+        <v>5310300</v>
       </c>
       <c r="I47" s="3">
-        <v>5662700</v>
+        <v>5515600</v>
       </c>
       <c r="J47" s="3">
-        <v>5598200</v>
+        <v>5452800</v>
       </c>
       <c r="K47" s="3">
         <v>6501500</v>
@@ -2094,25 +2094,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>23625700</v>
+        <v>23012100</v>
       </c>
       <c r="E48" s="3">
-        <v>23404100</v>
+        <v>22796200</v>
       </c>
       <c r="F48" s="3">
-        <v>23719200</v>
+        <v>23103200</v>
       </c>
       <c r="G48" s="3">
-        <v>23829100</v>
+        <v>23210200</v>
       </c>
       <c r="H48" s="3">
-        <v>25370300</v>
+        <v>24711300</v>
       </c>
       <c r="I48" s="3">
-        <v>26863800</v>
+        <v>26166000</v>
       </c>
       <c r="J48" s="3">
-        <v>27417500</v>
+        <v>26705400</v>
       </c>
       <c r="K48" s="3">
         <v>30489300</v>
@@ -2133,25 +2133,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3208100</v>
+        <v>3124700</v>
       </c>
       <c r="E49" s="3">
-        <v>3426100</v>
+        <v>3337100</v>
       </c>
       <c r="F49" s="3">
-        <v>3779500</v>
+        <v>3681400</v>
       </c>
       <c r="G49" s="3">
-        <v>3981500</v>
+        <v>3878100</v>
       </c>
       <c r="H49" s="3">
-        <v>4583200</v>
+        <v>4464200</v>
       </c>
       <c r="I49" s="3">
-        <v>4688300</v>
+        <v>4566500</v>
       </c>
       <c r="J49" s="3">
-        <v>4932400</v>
+        <v>4804300</v>
       </c>
       <c r="K49" s="3">
         <v>5783400</v>
@@ -2250,25 +2250,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1594500</v>
+        <v>1553100</v>
       </c>
       <c r="E52" s="3">
-        <v>1316600</v>
+        <v>1282400</v>
       </c>
       <c r="F52" s="3">
-        <v>1256300</v>
+        <v>1223700</v>
       </c>
       <c r="G52" s="3">
-        <v>1457700</v>
+        <v>1419800</v>
       </c>
       <c r="H52" s="3">
-        <v>1475700</v>
+        <v>1437300</v>
       </c>
       <c r="I52" s="3">
-        <v>1638800</v>
+        <v>1596200</v>
       </c>
       <c r="J52" s="3">
-        <v>1497300</v>
+        <v>1458400</v>
       </c>
       <c r="K52" s="3">
         <v>1439700</v>
@@ -2328,25 +2328,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>70433100</v>
+        <v>68603700</v>
       </c>
       <c r="E54" s="3">
-        <v>60897000</v>
+        <v>59315200</v>
       </c>
       <c r="F54" s="3">
-        <v>60875200</v>
+        <v>59294000</v>
       </c>
       <c r="G54" s="3">
-        <v>60251200</v>
+        <v>58686200</v>
       </c>
       <c r="H54" s="3">
-        <v>60849200</v>
+        <v>59268700</v>
       </c>
       <c r="I54" s="3">
-        <v>61417500</v>
+        <v>59822200</v>
       </c>
       <c r="J54" s="3">
-        <v>61914700</v>
+        <v>60306600</v>
       </c>
       <c r="K54" s="3">
         <v>72108600</v>
@@ -2401,25 +2401,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>4210500</v>
+        <v>4101100</v>
       </c>
       <c r="E57" s="3">
-        <v>2891700</v>
+        <v>2816600</v>
       </c>
       <c r="F57" s="3">
-        <v>2635700</v>
+        <v>2567200</v>
       </c>
       <c r="G57" s="3">
-        <v>3084700</v>
+        <v>3004600</v>
       </c>
       <c r="H57" s="3">
-        <v>2668200</v>
+        <v>2598900</v>
       </c>
       <c r="I57" s="3">
-        <v>3136400</v>
+        <v>3055000</v>
       </c>
       <c r="J57" s="3">
-        <v>2406500</v>
+        <v>2344000</v>
       </c>
       <c r="K57" s="3">
         <v>3318700</v>
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6939100</v>
+        <v>6758900</v>
       </c>
       <c r="E58" s="3">
-        <v>6870000</v>
+        <v>6691600</v>
       </c>
       <c r="F58" s="3">
-        <v>6697000</v>
+        <v>6523000</v>
       </c>
       <c r="G58" s="3">
-        <v>7930800</v>
+        <v>7724800</v>
       </c>
       <c r="H58" s="3">
-        <v>8695100</v>
+        <v>8469200</v>
       </c>
       <c r="I58" s="3">
-        <v>7868900</v>
+        <v>7664500</v>
       </c>
       <c r="J58" s="3">
-        <v>9546400</v>
+        <v>9298400</v>
       </c>
       <c r="K58" s="3">
         <v>10262600</v>
@@ -2479,25 +2479,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5084800</v>
+        <v>4952700</v>
       </c>
       <c r="E59" s="3">
-        <v>3216600</v>
+        <v>3133000</v>
       </c>
       <c r="F59" s="3">
-        <v>3236600</v>
+        <v>3152500</v>
       </c>
       <c r="G59" s="3">
-        <v>3566700</v>
+        <v>3474100</v>
       </c>
       <c r="H59" s="3">
-        <v>3225200</v>
+        <v>3141400</v>
       </c>
       <c r="I59" s="3">
-        <v>3559500</v>
+        <v>3467100</v>
       </c>
       <c r="J59" s="3">
-        <v>3547900</v>
+        <v>3455800</v>
       </c>
       <c r="K59" s="3">
         <v>5213800</v>
@@ -2518,25 +2518,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>16234400</v>
+        <v>15812700</v>
       </c>
       <c r="E60" s="3">
-        <v>12978300</v>
+        <v>12641200</v>
       </c>
       <c r="F60" s="3">
-        <v>12569200</v>
+        <v>12242800</v>
       </c>
       <c r="G60" s="3">
-        <v>14582200</v>
+        <v>14203500</v>
       </c>
       <c r="H60" s="3">
-        <v>14588400</v>
+        <v>14209500</v>
       </c>
       <c r="I60" s="3">
-        <v>14564900</v>
+        <v>14186500</v>
       </c>
       <c r="J60" s="3">
-        <v>15500800</v>
+        <v>15098200</v>
       </c>
       <c r="K60" s="3">
         <v>18795000</v>
@@ -2557,25 +2557,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10400700</v>
+        <v>10130500</v>
       </c>
       <c r="E61" s="3">
-        <v>9482700</v>
+        <v>9236400</v>
       </c>
       <c r="F61" s="3">
-        <v>9563200</v>
+        <v>9314800</v>
       </c>
       <c r="G61" s="3">
-        <v>7703300</v>
+        <v>7503200</v>
       </c>
       <c r="H61" s="3">
-        <v>7595600</v>
+        <v>7398300</v>
       </c>
       <c r="I61" s="3">
-        <v>9702100</v>
+        <v>9450100</v>
       </c>
       <c r="J61" s="3">
-        <v>9905000</v>
+        <v>9647700</v>
       </c>
       <c r="K61" s="3">
         <v>12816400</v>
@@ -2596,25 +2596,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1598300</v>
+        <v>1556700</v>
       </c>
       <c r="E62" s="3">
-        <v>1726500</v>
+        <v>1681700</v>
       </c>
       <c r="F62" s="3">
-        <v>1940800</v>
+        <v>1890400</v>
       </c>
       <c r="G62" s="3">
-        <v>1960800</v>
+        <v>1909900</v>
       </c>
       <c r="H62" s="3">
-        <v>2117900</v>
+        <v>2062900</v>
       </c>
       <c r="I62" s="3">
-        <v>1855000</v>
+        <v>1806800</v>
       </c>
       <c r="J62" s="3">
-        <v>1804900</v>
+        <v>1758000</v>
       </c>
       <c r="K62" s="3">
         <v>2481000</v>
@@ -2752,25 +2752,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>31604100</v>
+        <v>30783200</v>
       </c>
       <c r="E66" s="3">
-        <v>26761800</v>
+        <v>26066700</v>
       </c>
       <c r="F66" s="3">
-        <v>26631800</v>
+        <v>25940100</v>
       </c>
       <c r="G66" s="3">
-        <v>26855300</v>
+        <v>26157800</v>
       </c>
       <c r="H66" s="3">
-        <v>27174900</v>
+        <v>26469100</v>
       </c>
       <c r="I66" s="3">
-        <v>28790000</v>
+        <v>28042200</v>
       </c>
       <c r="J66" s="3">
-        <v>30163500</v>
+        <v>29380100</v>
       </c>
       <c r="K66" s="3">
         <v>37200700</v>
@@ -2964,25 +2964,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>39680300</v>
+        <v>38649700</v>
       </c>
       <c r="E72" s="3">
-        <v>35505800</v>
+        <v>34583600</v>
       </c>
       <c r="F72" s="3">
-        <v>34711700</v>
+        <v>33810100</v>
       </c>
       <c r="G72" s="3">
-        <v>34046300</v>
+        <v>33162000</v>
       </c>
       <c r="H72" s="3">
-        <v>33153600</v>
+        <v>32292500</v>
       </c>
       <c r="I72" s="3">
-        <v>31703800</v>
+        <v>30880300</v>
       </c>
       <c r="J72" s="3">
-        <v>31185800</v>
+        <v>30375800</v>
       </c>
       <c r="K72" s="3">
         <v>34387200</v>
@@ -3120,25 +3120,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>38829100</v>
+        <v>37820500</v>
       </c>
       <c r="E76" s="3">
-        <v>34135100</v>
+        <v>33248500</v>
       </c>
       <c r="F76" s="3">
-        <v>34243300</v>
+        <v>33353900</v>
       </c>
       <c r="G76" s="3">
-        <v>33395900</v>
+        <v>32528400</v>
       </c>
       <c r="H76" s="3">
-        <v>33674300</v>
+        <v>32799700</v>
       </c>
       <c r="I76" s="3">
-        <v>32627500</v>
+        <v>31780100</v>
       </c>
       <c r="J76" s="3">
-        <v>31751200</v>
+        <v>30926500</v>
       </c>
       <c r="K76" s="3">
         <v>34907800</v>
@@ -3242,25 +3242,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>5090100</v>
+        <v>4957900</v>
       </c>
       <c r="E81" s="3">
-        <v>1228500</v>
+        <v>1196600</v>
       </c>
       <c r="F81" s="3">
-        <v>1407900</v>
+        <v>1371300</v>
       </c>
       <c r="G81" s="3">
-        <v>1288100</v>
+        <v>1254700</v>
       </c>
       <c r="H81" s="3">
-        <v>2122900</v>
+        <v>2067800</v>
       </c>
       <c r="I81" s="3">
-        <v>1024200</v>
+        <v>997600</v>
       </c>
       <c r="J81" s="3">
-        <v>113700</v>
+        <v>110700</v>
       </c>
       <c r="K81" s="3">
         <v>503700</v>
@@ -3298,25 +3298,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2756200</v>
+        <v>2684600</v>
       </c>
       <c r="E83" s="3">
-        <v>2788700</v>
+        <v>2716300</v>
       </c>
       <c r="F83" s="3">
-        <v>2665100</v>
+        <v>2595800</v>
       </c>
       <c r="G83" s="3">
-        <v>2516100</v>
+        <v>2450700</v>
       </c>
       <c r="H83" s="3">
-        <v>2539000</v>
+        <v>2473100</v>
       </c>
       <c r="I83" s="3">
-        <v>2474700</v>
+        <v>2410400</v>
       </c>
       <c r="J83" s="3">
-        <v>2478000</v>
+        <v>2413700</v>
       </c>
       <c r="K83" s="3">
         <v>2720400</v>
@@ -3532,25 +3532,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4906700</v>
+        <v>4779200</v>
       </c>
       <c r="E89" s="3">
-        <v>6614700</v>
+        <v>6442800</v>
       </c>
       <c r="F89" s="3">
-        <v>4671100</v>
+        <v>4549800</v>
       </c>
       <c r="G89" s="3">
-        <v>4523300</v>
+        <v>4405800</v>
       </c>
       <c r="H89" s="3">
-        <v>4272200</v>
+        <v>4161200</v>
       </c>
       <c r="I89" s="3">
-        <v>4067200</v>
+        <v>3961500</v>
       </c>
       <c r="J89" s="3">
-        <v>5871500</v>
+        <v>5719000</v>
       </c>
       <c r="K89" s="3">
         <v>2875900</v>
@@ -3588,25 +3588,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2371400</v>
+        <v>-2309800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2461600</v>
+        <v>-2397700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1939800</v>
+        <v>-1889400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1644400</v>
+        <v>-1601700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1761400</v>
+        <v>-1715700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1789600</v>
+        <v>-1743100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1971400</v>
+        <v>-1920200</v>
       </c>
       <c r="K91" s="3">
         <v>-2944700</v>
@@ -3705,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-4299300</v>
+        <v>-4187600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4819600</v>
+        <v>-4694400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2835800</v>
+        <v>-2762100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2038900</v>
+        <v>-1986000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2939800</v>
+        <v>-2863400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2891100</v>
+        <v>-2816000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3491700</v>
+        <v>-3401000</v>
       </c>
       <c r="K94" s="3">
         <v>-3146000</v>
@@ -3761,25 +3761,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1009400</v>
+        <v>-983200</v>
       </c>
       <c r="E96" s="3">
-        <v>-507500</v>
+        <v>-494400</v>
       </c>
       <c r="F96" s="3">
-        <v>-682200</v>
+        <v>-664500</v>
       </c>
       <c r="G96" s="3">
-        <v>-515700</v>
+        <v>-502300</v>
       </c>
       <c r="H96" s="3">
-        <v>-631800</v>
+        <v>-615400</v>
       </c>
       <c r="I96" s="3">
-        <v>-545900</v>
+        <v>-531700</v>
       </c>
       <c r="J96" s="3">
-        <v>-633400</v>
+        <v>-616900</v>
       </c>
       <c r="K96" s="3">
         <v>-568700</v>
@@ -3917,25 +3917,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-591900</v>
+        <v>-576500</v>
       </c>
       <c r="E100" s="3">
-        <v>-840000</v>
+        <v>-818200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1164400</v>
+        <v>-1134100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2460200</v>
+        <v>-2396300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1205500</v>
+        <v>-1174100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3042200</v>
+        <v>-2963200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1726000</v>
+        <v>-1681200</v>
       </c>
       <c r="K100" s="3">
         <v>113500</v>
@@ -3995,25 +3995,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="E102" s="3">
-        <v>955100</v>
+        <v>930200</v>
       </c>
       <c r="F102" s="3">
-        <v>671000</v>
+        <v>653500</v>
       </c>
       <c r="G102" s="3">
-        <v>24100</v>
+        <v>23500</v>
       </c>
       <c r="H102" s="3">
-        <v>127000</v>
+        <v>123700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1866100</v>
+        <v>-1817700</v>
       </c>
       <c r="J102" s="3">
-        <v>653800</v>
+        <v>636800</v>
       </c>
       <c r="K102" s="3">
         <v>-156600</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57249300</v>
+        <v>56485900</v>
       </c>
       <c r="E8" s="3">
-        <v>43344600</v>
+        <v>42766700</v>
       </c>
       <c r="F8" s="3">
-        <v>48275100</v>
+        <v>47631500</v>
       </c>
       <c r="G8" s="3">
-        <v>48733300</v>
+        <v>48083600</v>
       </c>
       <c r="H8" s="3">
-        <v>45491300</v>
+        <v>44884800</v>
       </c>
       <c r="I8" s="3">
-        <v>39812600</v>
+        <v>39281800</v>
       </c>
       <c r="J8" s="3">
-        <v>43644300</v>
+        <v>43062300</v>
       </c>
       <c r="K8" s="3">
         <v>54397200</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48338400</v>
+        <v>47693900</v>
       </c>
       <c r="E9" s="3">
-        <v>39804300</v>
+        <v>39273600</v>
       </c>
       <c r="F9" s="3">
-        <v>43587400</v>
+        <v>43006200</v>
       </c>
       <c r="G9" s="3">
-        <v>42754000</v>
+        <v>42184000</v>
       </c>
       <c r="H9" s="3">
-        <v>39224400</v>
+        <v>38701400</v>
       </c>
       <c r="I9" s="3">
-        <v>34795500</v>
+        <v>34331500</v>
       </c>
       <c r="J9" s="3">
-        <v>38743600</v>
+        <v>38227000</v>
       </c>
       <c r="K9" s="3">
         <v>48271000</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8910800</v>
+        <v>8792000</v>
       </c>
       <c r="E10" s="3">
-        <v>3540300</v>
+        <v>3493100</v>
       </c>
       <c r="F10" s="3">
-        <v>4687800</v>
+        <v>4625300</v>
       </c>
       <c r="G10" s="3">
-        <v>5979300</v>
+        <v>5899600</v>
       </c>
       <c r="H10" s="3">
-        <v>6266900</v>
+        <v>6183400</v>
       </c>
       <c r="I10" s="3">
-        <v>5017200</v>
+        <v>4950300</v>
       </c>
       <c r="J10" s="3">
-        <v>4900700</v>
+        <v>4835300</v>
       </c>
       <c r="K10" s="3">
         <v>6126200</v>
@@ -854,25 +854,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>92300</v>
+        <v>91100</v>
       </c>
       <c r="E12" s="3">
-        <v>87200</v>
+        <v>86000</v>
       </c>
       <c r="F12" s="3">
-        <v>82700</v>
+        <v>81600</v>
       </c>
       <c r="G12" s="3">
-        <v>81300</v>
+        <v>80200</v>
       </c>
       <c r="H12" s="3">
-        <v>94300</v>
+        <v>93100</v>
       </c>
       <c r="I12" s="3">
-        <v>90500</v>
+        <v>89200</v>
       </c>
       <c r="J12" s="3">
-        <v>101600</v>
+        <v>100300</v>
       </c>
       <c r="K12" s="3">
         <v>147200</v>
@@ -932,25 +932,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>347100</v>
+        <v>342400</v>
       </c>
       <c r="E14" s="3">
-        <v>116700</v>
+        <v>115200</v>
       </c>
       <c r="F14" s="3">
-        <v>512500</v>
+        <v>505700</v>
       </c>
       <c r="G14" s="3">
-        <v>1053400</v>
+        <v>1039300</v>
       </c>
       <c r="H14" s="3">
-        <v>260000</v>
+        <v>256500</v>
       </c>
       <c r="I14" s="3">
-        <v>455400</v>
+        <v>449300</v>
       </c>
       <c r="J14" s="3">
-        <v>387400</v>
+        <v>382200</v>
       </c>
       <c r="K14" s="3">
         <v>457900</v>
@@ -971,25 +971,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>173500</v>
+        <v>171100</v>
       </c>
       <c r="E15" s="3">
-        <v>196300</v>
+        <v>193700</v>
       </c>
       <c r="F15" s="3">
-        <v>182600</v>
+        <v>180200</v>
       </c>
       <c r="G15" s="3">
-        <v>160300</v>
+        <v>158100</v>
       </c>
       <c r="H15" s="3">
-        <v>182700</v>
+        <v>180200</v>
       </c>
       <c r="I15" s="3">
-        <v>182300</v>
+        <v>179800</v>
       </c>
       <c r="J15" s="3">
-        <v>205500</v>
+        <v>202800</v>
       </c>
       <c r="K15" s="3">
         <v>229500</v>
@@ -1024,25 +1024,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>50667800</v>
+        <v>49992200</v>
       </c>
       <c r="E17" s="3">
-        <v>41659100</v>
+        <v>41103600</v>
       </c>
       <c r="F17" s="3">
-        <v>45886000</v>
+        <v>45274200</v>
       </c>
       <c r="G17" s="3">
-        <v>45629800</v>
+        <v>45021400</v>
       </c>
       <c r="H17" s="3">
-        <v>42284900</v>
+        <v>41721100</v>
       </c>
       <c r="I17" s="3">
-        <v>38134700</v>
+        <v>37626300</v>
       </c>
       <c r="J17" s="3">
-        <v>42224100</v>
+        <v>41661200</v>
       </c>
       <c r="K17" s="3">
         <v>52147600</v>
@@ -1063,25 +1063,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6581500</v>
+        <v>6493800</v>
       </c>
       <c r="E18" s="3">
-        <v>1685500</v>
+        <v>1663100</v>
       </c>
       <c r="F18" s="3">
-        <v>2389100</v>
+        <v>2357200</v>
       </c>
       <c r="G18" s="3">
-        <v>3103600</v>
+        <v>3062200</v>
       </c>
       <c r="H18" s="3">
-        <v>3206400</v>
+        <v>3163600</v>
       </c>
       <c r="I18" s="3">
-        <v>1677900</v>
+        <v>1655500</v>
       </c>
       <c r="J18" s="3">
-        <v>1420100</v>
+        <v>1401200</v>
       </c>
       <c r="K18" s="3">
         <v>2249600</v>
@@ -1119,25 +1119,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>810400</v>
+        <v>799600</v>
       </c>
       <c r="E20" s="3">
-        <v>312400</v>
+        <v>308200</v>
       </c>
       <c r="F20" s="3">
-        <v>467600</v>
+        <v>461400</v>
       </c>
       <c r="G20" s="3">
-        <v>124500</v>
+        <v>122900</v>
       </c>
       <c r="H20" s="3">
-        <v>418200</v>
+        <v>412600</v>
       </c>
       <c r="I20" s="3">
-        <v>-109200</v>
+        <v>-107700</v>
       </c>
       <c r="J20" s="3">
-        <v>-693000</v>
+        <v>-683700</v>
       </c>
       <c r="K20" s="3">
         <v>-415500</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10076500</v>
+        <v>9906400</v>
       </c>
       <c r="E21" s="3">
-        <v>4714200</v>
+        <v>4615100</v>
       </c>
       <c r="F21" s="3">
-        <v>5452600</v>
+        <v>5345300</v>
       </c>
       <c r="G21" s="3">
-        <v>5678800</v>
+        <v>5570400</v>
       </c>
       <c r="H21" s="3">
-        <v>6097700</v>
+        <v>5983400</v>
       </c>
       <c r="I21" s="3">
-        <v>3979100</v>
+        <v>3893900</v>
       </c>
       <c r="J21" s="3">
-        <v>3140800</v>
+        <v>3066800</v>
       </c>
       <c r="K21" s="3">
         <v>4554500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>329900</v>
+        <v>325500</v>
       </c>
       <c r="E22" s="3">
-        <v>479100</v>
+        <v>472700</v>
       </c>
       <c r="F22" s="3">
-        <v>566800</v>
+        <v>559200</v>
       </c>
       <c r="G22" s="3">
-        <v>556000</v>
+        <v>548600</v>
       </c>
       <c r="H22" s="3">
-        <v>489800</v>
+        <v>483300</v>
       </c>
       <c r="I22" s="3">
-        <v>494000</v>
+        <v>487500</v>
       </c>
       <c r="J22" s="3">
-        <v>591600</v>
+        <v>583700</v>
       </c>
       <c r="K22" s="3">
         <v>668300</v>
@@ -1236,25 +1236,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7062100</v>
+        <v>6967900</v>
       </c>
       <c r="E23" s="3">
-        <v>1518800</v>
+        <v>1498600</v>
       </c>
       <c r="F23" s="3">
-        <v>2290000</v>
+        <v>2259400</v>
       </c>
       <c r="G23" s="3">
-        <v>2672100</v>
+        <v>2636500</v>
       </c>
       <c r="H23" s="3">
-        <v>3134800</v>
+        <v>3093000</v>
       </c>
       <c r="I23" s="3">
-        <v>1074600</v>
+        <v>1060300</v>
       </c>
       <c r="J23" s="3">
-        <v>135600</v>
+        <v>133800</v>
       </c>
       <c r="K23" s="3">
         <v>1165800</v>
@@ -1275,25 +1275,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1665100</v>
+        <v>1642900</v>
       </c>
       <c r="E24" s="3">
-        <v>177700</v>
+        <v>175300</v>
       </c>
       <c r="F24" s="3">
-        <v>803000</v>
+        <v>792300</v>
       </c>
       <c r="G24" s="3">
-        <v>1253100</v>
+        <v>1236400</v>
       </c>
       <c r="H24" s="3">
-        <v>904700</v>
+        <v>892600</v>
       </c>
       <c r="I24" s="3">
-        <v>288500</v>
+        <v>284700</v>
       </c>
       <c r="J24" s="3">
-        <v>207700</v>
+        <v>204900</v>
       </c>
       <c r="K24" s="3">
         <v>692000</v>
@@ -1353,25 +1353,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5396900</v>
+        <v>5325000</v>
       </c>
       <c r="E26" s="3">
-        <v>1341100</v>
+        <v>1323200</v>
       </c>
       <c r="F26" s="3">
-        <v>1487000</v>
+        <v>1467200</v>
       </c>
       <c r="G26" s="3">
-        <v>1419000</v>
+        <v>1400100</v>
       </c>
       <c r="H26" s="3">
-        <v>2230100</v>
+        <v>2200400</v>
       </c>
       <c r="I26" s="3">
-        <v>786100</v>
+        <v>775600</v>
       </c>
       <c r="J26" s="3">
-        <v>-72100</v>
+        <v>-71200</v>
       </c>
       <c r="K26" s="3">
         <v>473800</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4957900</v>
+        <v>4891800</v>
       </c>
       <c r="E27" s="3">
-        <v>1196600</v>
+        <v>1180600</v>
       </c>
       <c r="F27" s="3">
-        <v>1371300</v>
+        <v>1353000</v>
       </c>
       <c r="G27" s="3">
-        <v>1254700</v>
+        <v>1237900</v>
       </c>
       <c r="H27" s="3">
-        <v>2067800</v>
+        <v>2040200</v>
       </c>
       <c r="I27" s="3">
-        <v>997600</v>
+        <v>984300</v>
       </c>
       <c r="J27" s="3">
-        <v>110700</v>
+        <v>109200</v>
       </c>
       <c r="K27" s="3">
         <v>503700</v>
@@ -1587,25 +1587,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-810400</v>
+        <v>-799600</v>
       </c>
       <c r="E32" s="3">
-        <v>-312400</v>
+        <v>-308200</v>
       </c>
       <c r="F32" s="3">
-        <v>-467600</v>
+        <v>-461400</v>
       </c>
       <c r="G32" s="3">
-        <v>-124500</v>
+        <v>-122900</v>
       </c>
       <c r="H32" s="3">
-        <v>-418200</v>
+        <v>-412600</v>
       </c>
       <c r="I32" s="3">
-        <v>109200</v>
+        <v>107700</v>
       </c>
       <c r="J32" s="3">
-        <v>693000</v>
+        <v>683700</v>
       </c>
       <c r="K32" s="3">
         <v>415500</v>
@@ -1626,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4957900</v>
+        <v>4891800</v>
       </c>
       <c r="E33" s="3">
-        <v>1196600</v>
+        <v>1180600</v>
       </c>
       <c r="F33" s="3">
-        <v>1371300</v>
+        <v>1353000</v>
       </c>
       <c r="G33" s="3">
-        <v>1254700</v>
+        <v>1237900</v>
       </c>
       <c r="H33" s="3">
-        <v>2067800</v>
+        <v>2040200</v>
       </c>
       <c r="I33" s="3">
-        <v>997600</v>
+        <v>984300</v>
       </c>
       <c r="J33" s="3">
-        <v>110700</v>
+        <v>109200</v>
       </c>
       <c r="K33" s="3">
         <v>503700</v>
@@ -1704,25 +1704,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4957900</v>
+        <v>4891800</v>
       </c>
       <c r="E35" s="3">
-        <v>1196600</v>
+        <v>1180600</v>
       </c>
       <c r="F35" s="3">
-        <v>1371300</v>
+        <v>1353000</v>
       </c>
       <c r="G35" s="3">
-        <v>1254700</v>
+        <v>1237900</v>
       </c>
       <c r="H35" s="3">
-        <v>2067800</v>
+        <v>2040200</v>
       </c>
       <c r="I35" s="3">
-        <v>997600</v>
+        <v>984300</v>
       </c>
       <c r="J35" s="3">
-        <v>110700</v>
+        <v>109200</v>
       </c>
       <c r="K35" s="3">
         <v>503700</v>
@@ -1821,25 +1821,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3581400</v>
+        <v>3533600</v>
       </c>
       <c r="E41" s="3">
-        <v>3566000</v>
+        <v>3518400</v>
       </c>
       <c r="F41" s="3">
-        <v>2636200</v>
+        <v>2601000</v>
       </c>
       <c r="G41" s="3">
-        <v>1982900</v>
+        <v>1956500</v>
       </c>
       <c r="H41" s="3">
-        <v>1959400</v>
+        <v>1933300</v>
       </c>
       <c r="I41" s="3">
-        <v>1835700</v>
+        <v>1811200</v>
       </c>
       <c r="J41" s="3">
-        <v>3652600</v>
+        <v>3603900</v>
       </c>
       <c r="K41" s="3">
         <v>3201400</v>
@@ -1860,25 +1860,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>10035900</v>
+        <v>9902100</v>
       </c>
       <c r="E42" s="3">
-        <v>8707400</v>
+        <v>8591300</v>
       </c>
       <c r="F42" s="3">
-        <v>6711400</v>
+        <v>6621900</v>
       </c>
       <c r="G42" s="3">
-        <v>6025400</v>
+        <v>5945000</v>
       </c>
       <c r="H42" s="3">
-        <v>5284400</v>
+        <v>5214000</v>
       </c>
       <c r="I42" s="3">
-        <v>3913600</v>
+        <v>3861400</v>
       </c>
       <c r="J42" s="3">
-        <v>2932800</v>
+        <v>2893700</v>
       </c>
       <c r="K42" s="3">
         <v>1228900</v>
@@ -1899,25 +1899,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9142400</v>
+        <v>9020500</v>
       </c>
       <c r="E43" s="3">
-        <v>7248300</v>
+        <v>7151600</v>
       </c>
       <c r="F43" s="3">
-        <v>8029300</v>
+        <v>7922300</v>
       </c>
       <c r="G43" s="3">
-        <v>8039800</v>
+        <v>7932600</v>
       </c>
       <c r="H43" s="3">
-        <v>7968800</v>
+        <v>7862500</v>
       </c>
       <c r="I43" s="3">
-        <v>8529900</v>
+        <v>8416100</v>
       </c>
       <c r="J43" s="3">
-        <v>8482200</v>
+        <v>8369100</v>
       </c>
       <c r="K43" s="3">
         <v>11473000</v>
@@ -1938,25 +1938,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11411300</v>
+        <v>11259200</v>
       </c>
       <c r="E44" s="3">
-        <v>6788800</v>
+        <v>6698300</v>
       </c>
       <c r="F44" s="3">
-        <v>8190200</v>
+        <v>8081000</v>
       </c>
       <c r="G44" s="3">
-        <v>8624900</v>
+        <v>8509900</v>
       </c>
       <c r="H44" s="3">
-        <v>7463200</v>
+        <v>7363700</v>
       </c>
       <c r="I44" s="3">
-        <v>6788800</v>
+        <v>6698300</v>
       </c>
       <c r="J44" s="3">
-        <v>6168900</v>
+        <v>6086700</v>
       </c>
       <c r="K44" s="3">
         <v>9385600</v>
@@ -1977,25 +1977,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>795300</v>
+        <v>784700</v>
       </c>
       <c r="E45" s="3">
-        <v>562600</v>
+        <v>555100</v>
       </c>
       <c r="F45" s="3">
-        <v>564700</v>
+        <v>557100</v>
       </c>
       <c r="G45" s="3">
-        <v>565200</v>
+        <v>557700</v>
       </c>
       <c r="H45" s="3">
-        <v>669800</v>
+        <v>660800</v>
       </c>
       <c r="I45" s="3">
-        <v>909900</v>
+        <v>897800</v>
       </c>
       <c r="J45" s="3">
-        <v>649100</v>
+        <v>640500</v>
       </c>
       <c r="K45" s="3">
         <v>2605800</v>
@@ -2016,25 +2016,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>34966200</v>
+        <v>34500000</v>
       </c>
       <c r="E46" s="3">
-        <v>26873100</v>
+        <v>26514800</v>
       </c>
       <c r="F46" s="3">
-        <v>26131800</v>
+        <v>25783400</v>
       </c>
       <c r="G46" s="3">
-        <v>25238300</v>
+        <v>24901700</v>
       </c>
       <c r="H46" s="3">
-        <v>23345600</v>
+        <v>23034300</v>
       </c>
       <c r="I46" s="3">
-        <v>21977900</v>
+        <v>21684800</v>
       </c>
       <c r="J46" s="3">
-        <v>21885700</v>
+        <v>21593900</v>
       </c>
       <c r="K46" s="3">
         <v>27894700</v>
@@ -2055,25 +2055,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5947600</v>
+        <v>5868300</v>
       </c>
       <c r="E47" s="3">
-        <v>5026400</v>
+        <v>4959400</v>
       </c>
       <c r="F47" s="3">
-        <v>5154100</v>
+        <v>5085300</v>
       </c>
       <c r="G47" s="3">
-        <v>4939900</v>
+        <v>4874000</v>
       </c>
       <c r="H47" s="3">
-        <v>5310300</v>
+        <v>5239500</v>
       </c>
       <c r="I47" s="3">
-        <v>5515600</v>
+        <v>5442000</v>
       </c>
       <c r="J47" s="3">
-        <v>5452800</v>
+        <v>5380100</v>
       </c>
       <c r="K47" s="3">
         <v>6501500</v>
@@ -2094,25 +2094,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>23012100</v>
+        <v>22705300</v>
       </c>
       <c r="E48" s="3">
-        <v>22796200</v>
+        <v>22492200</v>
       </c>
       <c r="F48" s="3">
-        <v>23103200</v>
+        <v>22795100</v>
       </c>
       <c r="G48" s="3">
-        <v>23210200</v>
+        <v>22900700</v>
       </c>
       <c r="H48" s="3">
-        <v>24711300</v>
+        <v>24381900</v>
       </c>
       <c r="I48" s="3">
-        <v>26166000</v>
+        <v>25817200</v>
       </c>
       <c r="J48" s="3">
-        <v>26705400</v>
+        <v>26349300</v>
       </c>
       <c r="K48" s="3">
         <v>30489300</v>
@@ -2133,25 +2133,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3124700</v>
+        <v>3083100</v>
       </c>
       <c r="E49" s="3">
-        <v>3337100</v>
+        <v>3292600</v>
       </c>
       <c r="F49" s="3">
-        <v>3681400</v>
+        <v>3632300</v>
       </c>
       <c r="G49" s="3">
-        <v>3878100</v>
+        <v>3826400</v>
       </c>
       <c r="H49" s="3">
-        <v>4464200</v>
+        <v>4404700</v>
       </c>
       <c r="I49" s="3">
-        <v>4566500</v>
+        <v>4505700</v>
       </c>
       <c r="J49" s="3">
-        <v>4804300</v>
+        <v>4740300</v>
       </c>
       <c r="K49" s="3">
         <v>5783400</v>
@@ -2250,25 +2250,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1553100</v>
+        <v>1532400</v>
       </c>
       <c r="E52" s="3">
-        <v>1282400</v>
+        <v>1265300</v>
       </c>
       <c r="F52" s="3">
-        <v>1223700</v>
+        <v>1207300</v>
       </c>
       <c r="G52" s="3">
-        <v>1419800</v>
+        <v>1400900</v>
       </c>
       <c r="H52" s="3">
-        <v>1437300</v>
+        <v>1418200</v>
       </c>
       <c r="I52" s="3">
-        <v>1596200</v>
+        <v>1574900</v>
       </c>
       <c r="J52" s="3">
-        <v>1458400</v>
+        <v>1439000</v>
       </c>
       <c r="K52" s="3">
         <v>1439700</v>
@@ -2328,25 +2328,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>68603700</v>
+        <v>67689000</v>
       </c>
       <c r="E54" s="3">
-        <v>59315200</v>
+        <v>58524400</v>
       </c>
       <c r="F54" s="3">
-        <v>59294000</v>
+        <v>58503400</v>
       </c>
       <c r="G54" s="3">
-        <v>58686200</v>
+        <v>57903700</v>
       </c>
       <c r="H54" s="3">
-        <v>59268700</v>
+        <v>58478500</v>
       </c>
       <c r="I54" s="3">
-        <v>59822200</v>
+        <v>59024600</v>
       </c>
       <c r="J54" s="3">
-        <v>60306600</v>
+        <v>59502500</v>
       </c>
       <c r="K54" s="3">
         <v>72108600</v>
@@ -2401,25 +2401,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>4101100</v>
+        <v>4046400</v>
       </c>
       <c r="E57" s="3">
-        <v>2816600</v>
+        <v>2779100</v>
       </c>
       <c r="F57" s="3">
-        <v>2567200</v>
+        <v>2533000</v>
       </c>
       <c r="G57" s="3">
-        <v>3004600</v>
+        <v>2964500</v>
       </c>
       <c r="H57" s="3">
-        <v>2598900</v>
+        <v>2564200</v>
       </c>
       <c r="I57" s="3">
-        <v>3055000</v>
+        <v>3014200</v>
       </c>
       <c r="J57" s="3">
-        <v>2344000</v>
+        <v>2312800</v>
       </c>
       <c r="K57" s="3">
         <v>3318700</v>
@@ -2440,25 +2440,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6758900</v>
+        <v>6668800</v>
       </c>
       <c r="E58" s="3">
-        <v>6691600</v>
+        <v>6602300</v>
       </c>
       <c r="F58" s="3">
-        <v>6523000</v>
+        <v>6436100</v>
       </c>
       <c r="G58" s="3">
-        <v>7724800</v>
+        <v>7621800</v>
       </c>
       <c r="H58" s="3">
-        <v>8469200</v>
+        <v>8356300</v>
       </c>
       <c r="I58" s="3">
-        <v>7664500</v>
+        <v>7562300</v>
       </c>
       <c r="J58" s="3">
-        <v>9298400</v>
+        <v>9174500</v>
       </c>
       <c r="K58" s="3">
         <v>10262600</v>
@@ -2479,25 +2479,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4952700</v>
+        <v>4886700</v>
       </c>
       <c r="E59" s="3">
-        <v>3133000</v>
+        <v>3091300</v>
       </c>
       <c r="F59" s="3">
-        <v>3152500</v>
+        <v>3110500</v>
       </c>
       <c r="G59" s="3">
-        <v>3474100</v>
+        <v>3427700</v>
       </c>
       <c r="H59" s="3">
-        <v>3141400</v>
+        <v>3099600</v>
       </c>
       <c r="I59" s="3">
-        <v>3467100</v>
+        <v>3420900</v>
       </c>
       <c r="J59" s="3">
-        <v>3455800</v>
+        <v>3409700</v>
       </c>
       <c r="K59" s="3">
         <v>5213800</v>
@@ -2518,25 +2518,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>15812700</v>
+        <v>15601900</v>
       </c>
       <c r="E60" s="3">
-        <v>12641200</v>
+        <v>12472700</v>
       </c>
       <c r="F60" s="3">
-        <v>12242800</v>
+        <v>12079500</v>
       </c>
       <c r="G60" s="3">
-        <v>14203500</v>
+        <v>14014100</v>
       </c>
       <c r="H60" s="3">
-        <v>14209500</v>
+        <v>14020100</v>
       </c>
       <c r="I60" s="3">
-        <v>14186500</v>
+        <v>13997400</v>
       </c>
       <c r="J60" s="3">
-        <v>15098200</v>
+        <v>14896900</v>
       </c>
       <c r="K60" s="3">
         <v>18795000</v>
@@ -2557,25 +2557,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>10130500</v>
+        <v>9995500</v>
       </c>
       <c r="E61" s="3">
-        <v>9236400</v>
+        <v>9113300</v>
       </c>
       <c r="F61" s="3">
-        <v>9314800</v>
+        <v>9190600</v>
       </c>
       <c r="G61" s="3">
-        <v>7503200</v>
+        <v>7403100</v>
       </c>
       <c r="H61" s="3">
-        <v>7398300</v>
+        <v>7299700</v>
       </c>
       <c r="I61" s="3">
-        <v>9450100</v>
+        <v>9324100</v>
       </c>
       <c r="J61" s="3">
-        <v>9647700</v>
+        <v>9519100</v>
       </c>
       <c r="K61" s="3">
         <v>12816400</v>
@@ -2596,25 +2596,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1556700</v>
+        <v>1536000</v>
       </c>
       <c r="E62" s="3">
-        <v>1681700</v>
+        <v>1659200</v>
       </c>
       <c r="F62" s="3">
-        <v>1890400</v>
+        <v>1865200</v>
       </c>
       <c r="G62" s="3">
-        <v>1909900</v>
+        <v>1884400</v>
       </c>
       <c r="H62" s="3">
-        <v>2062900</v>
+        <v>2035400</v>
       </c>
       <c r="I62" s="3">
-        <v>1806800</v>
+        <v>1782800</v>
       </c>
       <c r="J62" s="3">
-        <v>1758000</v>
+        <v>1734600</v>
       </c>
       <c r="K62" s="3">
         <v>2481000</v>
@@ -2752,25 +2752,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>30783200</v>
+        <v>30372800</v>
       </c>
       <c r="E66" s="3">
-        <v>26066700</v>
+        <v>25719200</v>
       </c>
       <c r="F66" s="3">
-        <v>25940100</v>
+        <v>25594200</v>
       </c>
       <c r="G66" s="3">
-        <v>26157800</v>
+        <v>25809000</v>
       </c>
       <c r="H66" s="3">
-        <v>26469100</v>
+        <v>26116100</v>
       </c>
       <c r="I66" s="3">
-        <v>28042200</v>
+        <v>27668300</v>
       </c>
       <c r="J66" s="3">
-        <v>29380100</v>
+        <v>28988300</v>
       </c>
       <c r="K66" s="3">
         <v>37200700</v>
@@ -2964,25 +2964,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>38649700</v>
+        <v>38134300</v>
       </c>
       <c r="E72" s="3">
-        <v>34583600</v>
+        <v>34122500</v>
       </c>
       <c r="F72" s="3">
-        <v>33810100</v>
+        <v>33359300</v>
       </c>
       <c r="G72" s="3">
-        <v>33162000</v>
+        <v>32719900</v>
       </c>
       <c r="H72" s="3">
-        <v>32292500</v>
+        <v>31861900</v>
       </c>
       <c r="I72" s="3">
-        <v>30880300</v>
+        <v>30468600</v>
       </c>
       <c r="J72" s="3">
-        <v>30375800</v>
+        <v>29970800</v>
       </c>
       <c r="K72" s="3">
         <v>34387200</v>
@@ -3120,25 +3120,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37820500</v>
+        <v>37316200</v>
       </c>
       <c r="E76" s="3">
-        <v>33248500</v>
+        <v>32805200</v>
       </c>
       <c r="F76" s="3">
-        <v>33353900</v>
+        <v>32909200</v>
       </c>
       <c r="G76" s="3">
-        <v>32528400</v>
+        <v>32094700</v>
       </c>
       <c r="H76" s="3">
-        <v>32799700</v>
+        <v>32362300</v>
       </c>
       <c r="I76" s="3">
-        <v>31780100</v>
+        <v>31356300</v>
       </c>
       <c r="J76" s="3">
-        <v>30926500</v>
+        <v>30514200</v>
       </c>
       <c r="K76" s="3">
         <v>34907800</v>
@@ -3242,25 +3242,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4957900</v>
+        <v>4891800</v>
       </c>
       <c r="E81" s="3">
-        <v>1196600</v>
+        <v>1180600</v>
       </c>
       <c r="F81" s="3">
-        <v>1371300</v>
+        <v>1353000</v>
       </c>
       <c r="G81" s="3">
-        <v>1254700</v>
+        <v>1237900</v>
       </c>
       <c r="H81" s="3">
-        <v>2067800</v>
+        <v>2040200</v>
       </c>
       <c r="I81" s="3">
-        <v>997600</v>
+        <v>984300</v>
       </c>
       <c r="J81" s="3">
-        <v>110700</v>
+        <v>109200</v>
       </c>
       <c r="K81" s="3">
         <v>503700</v>
@@ -3298,25 +3298,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2684600</v>
+        <v>2648800</v>
       </c>
       <c r="E83" s="3">
-        <v>2716300</v>
+        <v>2680100</v>
       </c>
       <c r="F83" s="3">
-        <v>2595800</v>
+        <v>2561200</v>
       </c>
       <c r="G83" s="3">
-        <v>2450700</v>
+        <v>2418000</v>
       </c>
       <c r="H83" s="3">
-        <v>2473100</v>
+        <v>2440100</v>
       </c>
       <c r="I83" s="3">
-        <v>2410400</v>
+        <v>2378200</v>
       </c>
       <c r="J83" s="3">
-        <v>2413700</v>
+        <v>2381500</v>
       </c>
       <c r="K83" s="3">
         <v>2720400</v>
@@ -3532,25 +3532,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4779200</v>
+        <v>4715500</v>
       </c>
       <c r="E89" s="3">
-        <v>6442800</v>
+        <v>6356900</v>
       </c>
       <c r="F89" s="3">
-        <v>4549800</v>
+        <v>4489100</v>
       </c>
       <c r="G89" s="3">
-        <v>4405800</v>
+        <v>4347000</v>
       </c>
       <c r="H89" s="3">
-        <v>4161200</v>
+        <v>4105800</v>
       </c>
       <c r="I89" s="3">
-        <v>3961500</v>
+        <v>3908700</v>
       </c>
       <c r="J89" s="3">
-        <v>5719000</v>
+        <v>5642700</v>
       </c>
       <c r="K89" s="3">
         <v>2875900</v>
@@ -3588,25 +3588,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2309800</v>
+        <v>-2279000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2397700</v>
+        <v>-2365700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1889400</v>
+        <v>-1864200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1601700</v>
+        <v>-1580300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1715700</v>
+        <v>-1692800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1743100</v>
+        <v>-1719800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1920200</v>
+        <v>-1894600</v>
       </c>
       <c r="K91" s="3">
         <v>-2944700</v>
@@ -3705,25 +3705,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-4187600</v>
+        <v>-4131800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4694400</v>
+        <v>-4631900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2762100</v>
+        <v>-2725300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1986000</v>
+        <v>-1959500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2863400</v>
+        <v>-2825200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2816000</v>
+        <v>-2778400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3401000</v>
+        <v>-3355700</v>
       </c>
       <c r="K94" s="3">
         <v>-3146000</v>
@@ -3761,25 +3761,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-983200</v>
+        <v>-970100</v>
       </c>
       <c r="E96" s="3">
-        <v>-494400</v>
+        <v>-487800</v>
       </c>
       <c r="F96" s="3">
-        <v>-664500</v>
+        <v>-655600</v>
       </c>
       <c r="G96" s="3">
-        <v>-502300</v>
+        <v>-495600</v>
       </c>
       <c r="H96" s="3">
-        <v>-615400</v>
+        <v>-607200</v>
       </c>
       <c r="I96" s="3">
-        <v>-531700</v>
+        <v>-524600</v>
       </c>
       <c r="J96" s="3">
-        <v>-616900</v>
+        <v>-608700</v>
       </c>
       <c r="K96" s="3">
         <v>-568700</v>
@@ -3917,25 +3917,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-576500</v>
+        <v>-568800</v>
       </c>
       <c r="E100" s="3">
-        <v>-818200</v>
+        <v>-807200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1134100</v>
+        <v>-1119000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2396300</v>
+        <v>-2364300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1174100</v>
+        <v>-1158500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2963200</v>
+        <v>-2923700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1681200</v>
+        <v>-1658800</v>
       </c>
       <c r="K100" s="3">
         <v>113500</v>
@@ -3995,25 +3995,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="E102" s="3">
-        <v>930200</v>
+        <v>917800</v>
       </c>
       <c r="F102" s="3">
-        <v>653500</v>
+        <v>644800</v>
       </c>
       <c r="G102" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="H102" s="3">
-        <v>123700</v>
+        <v>122000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1817700</v>
+        <v>-1793400</v>
       </c>
       <c r="J102" s="3">
-        <v>636800</v>
+        <v>628300</v>
       </c>
       <c r="K102" s="3">
         <v>-156600</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,177 +662,189 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56485900</v>
+        <v>63562700</v>
       </c>
       <c r="E8" s="3">
-        <v>42766700</v>
+        <v>57249300</v>
       </c>
       <c r="F8" s="3">
-        <v>47631500</v>
+        <v>43344600</v>
       </c>
       <c r="G8" s="3">
-        <v>48083600</v>
+        <v>48275100</v>
       </c>
       <c r="H8" s="3">
-        <v>44884800</v>
+        <v>48733300</v>
       </c>
       <c r="I8" s="3">
-        <v>39281800</v>
+        <v>45491300</v>
       </c>
       <c r="J8" s="3">
+        <v>39812600</v>
+      </c>
+      <c r="K8" s="3">
         <v>43062300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54397200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56206800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53427500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>62044900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47693900</v>
+        <v>57825700</v>
       </c>
       <c r="E9" s="3">
-        <v>39273600</v>
+        <v>48338400</v>
       </c>
       <c r="F9" s="3">
-        <v>43006200</v>
+        <v>39804300</v>
       </c>
       <c r="G9" s="3">
-        <v>42184000</v>
+        <v>43587400</v>
       </c>
       <c r="H9" s="3">
-        <v>38701400</v>
+        <v>42754000</v>
       </c>
       <c r="I9" s="3">
-        <v>34331500</v>
+        <v>39224400</v>
       </c>
       <c r="J9" s="3">
+        <v>34795500</v>
+      </c>
+      <c r="K9" s="3">
         <v>38227000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48271000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49971600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47160000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53841500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8792000</v>
+        <v>5737000</v>
       </c>
       <c r="E10" s="3">
-        <v>3493100</v>
+        <v>8910800</v>
       </c>
       <c r="F10" s="3">
-        <v>4625300</v>
+        <v>3540300</v>
       </c>
       <c r="G10" s="3">
-        <v>5899600</v>
+        <v>4687800</v>
       </c>
       <c r="H10" s="3">
-        <v>6183400</v>
+        <v>5979300</v>
       </c>
       <c r="I10" s="3">
-        <v>4950300</v>
+        <v>6266900</v>
       </c>
       <c r="J10" s="3">
+        <v>5017200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4835300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6126200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6235300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6267500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8203400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,47 +860,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>91100</v>
+        <v>134800</v>
       </c>
       <c r="E12" s="3">
-        <v>86000</v>
+        <v>92300</v>
       </c>
       <c r="F12" s="3">
-        <v>81600</v>
+        <v>87200</v>
       </c>
       <c r="G12" s="3">
-        <v>80200</v>
+        <v>82700</v>
       </c>
       <c r="H12" s="3">
-        <v>93100</v>
+        <v>81300</v>
       </c>
       <c r="I12" s="3">
-        <v>89200</v>
+        <v>94300</v>
       </c>
       <c r="J12" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K12" s="3">
         <v>100300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>147200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>175500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>161500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>191200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,87 +941,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>342400</v>
+        <v>436800</v>
       </c>
       <c r="E14" s="3">
-        <v>115200</v>
+        <v>347100</v>
       </c>
       <c r="F14" s="3">
-        <v>505700</v>
+        <v>116700</v>
       </c>
       <c r="G14" s="3">
-        <v>1039300</v>
+        <v>512500</v>
       </c>
       <c r="H14" s="3">
-        <v>256500</v>
+        <v>1053400</v>
       </c>
       <c r="I14" s="3">
-        <v>449300</v>
+        <v>260000</v>
       </c>
       <c r="J14" s="3">
+        <v>455400</v>
+      </c>
+      <c r="K14" s="3">
         <v>382200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>457900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>387800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>494200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>171100</v>
+        <v>179000</v>
       </c>
       <c r="E15" s="3">
-        <v>193700</v>
+        <v>173500</v>
       </c>
       <c r="F15" s="3">
-        <v>180200</v>
+        <v>196300</v>
       </c>
       <c r="G15" s="3">
-        <v>158100</v>
+        <v>182600</v>
       </c>
       <c r="H15" s="3">
-        <v>180200</v>
+        <v>160300</v>
       </c>
       <c r="I15" s="3">
-        <v>179800</v>
+        <v>182700</v>
       </c>
       <c r="J15" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K15" s="3">
         <v>202800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>229500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>207900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>183700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>155500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,86 +1043,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>49992200</v>
+        <v>60361900</v>
       </c>
       <c r="E17" s="3">
-        <v>41103600</v>
+        <v>50667800</v>
       </c>
       <c r="F17" s="3">
-        <v>45274200</v>
+        <v>41659100</v>
       </c>
       <c r="G17" s="3">
-        <v>45021400</v>
+        <v>45886000</v>
       </c>
       <c r="H17" s="3">
-        <v>41721100</v>
+        <v>45629800</v>
       </c>
       <c r="I17" s="3">
-        <v>37626300</v>
+        <v>42284900</v>
       </c>
       <c r="J17" s="3">
+        <v>38134700</v>
+      </c>
+      <c r="K17" s="3">
         <v>41661200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52147600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53875500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50813200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57177600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6493800</v>
+        <v>3200800</v>
       </c>
       <c r="E18" s="3">
-        <v>1663100</v>
+        <v>6581500</v>
       </c>
       <c r="F18" s="3">
-        <v>2357200</v>
+        <v>1685500</v>
       </c>
       <c r="G18" s="3">
-        <v>3062200</v>
+        <v>2389100</v>
       </c>
       <c r="H18" s="3">
-        <v>3163600</v>
+        <v>3103600</v>
       </c>
       <c r="I18" s="3">
-        <v>1655500</v>
+        <v>3206400</v>
       </c>
       <c r="J18" s="3">
+        <v>1677900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1401200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2249600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2331300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2614300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4867300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1113,203 +1145,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>799600</v>
+        <v>265600</v>
       </c>
       <c r="E20" s="3">
-        <v>308200</v>
+        <v>810400</v>
       </c>
       <c r="F20" s="3">
-        <v>461400</v>
+        <v>312400</v>
       </c>
       <c r="G20" s="3">
-        <v>122900</v>
+        <v>467600</v>
       </c>
       <c r="H20" s="3">
-        <v>412600</v>
+        <v>124500</v>
       </c>
       <c r="I20" s="3">
-        <v>-107700</v>
+        <v>418200</v>
       </c>
       <c r="J20" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-683700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-415500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>947300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>146400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9906400</v>
+        <v>6273500</v>
       </c>
       <c r="E21" s="3">
-        <v>4615100</v>
+        <v>10112300</v>
       </c>
       <c r="F21" s="3">
-        <v>5345300</v>
+        <v>4750400</v>
       </c>
       <c r="G21" s="3">
-        <v>5570400</v>
+        <v>5487200</v>
       </c>
       <c r="H21" s="3">
-        <v>5983400</v>
+        <v>5711500</v>
       </c>
       <c r="I21" s="3">
-        <v>3893900</v>
+        <v>6130600</v>
       </c>
       <c r="J21" s="3">
+        <v>4011200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3066800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4554500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4779100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5740700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7030700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>325500</v>
+        <v>455600</v>
       </c>
       <c r="E22" s="3">
-        <v>472700</v>
+        <v>329900</v>
       </c>
       <c r="F22" s="3">
-        <v>559200</v>
+        <v>479100</v>
       </c>
       <c r="G22" s="3">
-        <v>548600</v>
+        <v>566800</v>
       </c>
       <c r="H22" s="3">
-        <v>483300</v>
+        <v>556000</v>
       </c>
       <c r="I22" s="3">
-        <v>487500</v>
+        <v>489800</v>
       </c>
       <c r="J22" s="3">
+        <v>494000</v>
+      </c>
+      <c r="K22" s="3">
         <v>583700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>668300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>598500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>732000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>709500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6967900</v>
+        <v>3010800</v>
       </c>
       <c r="E23" s="3">
-        <v>1498600</v>
+        <v>7062100</v>
       </c>
       <c r="F23" s="3">
-        <v>2259400</v>
+        <v>1518800</v>
       </c>
       <c r="G23" s="3">
-        <v>2636500</v>
+        <v>2290000</v>
       </c>
       <c r="H23" s="3">
-        <v>3093000</v>
+        <v>2672100</v>
       </c>
       <c r="I23" s="3">
-        <v>1060300</v>
+        <v>3134800</v>
       </c>
       <c r="J23" s="3">
+        <v>1074600</v>
+      </c>
+      <c r="K23" s="3">
         <v>133800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1165800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1763600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2829500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4304200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1642900</v>
+        <v>340400</v>
       </c>
       <c r="E24" s="3">
-        <v>175300</v>
+        <v>1665100</v>
       </c>
       <c r="F24" s="3">
-        <v>792300</v>
+        <v>177700</v>
       </c>
       <c r="G24" s="3">
-        <v>1236400</v>
+        <v>803000</v>
       </c>
       <c r="H24" s="3">
-        <v>892600</v>
+        <v>1253100</v>
       </c>
       <c r="I24" s="3">
-        <v>284700</v>
+        <v>904700</v>
       </c>
       <c r="J24" s="3">
+        <v>288500</v>
+      </c>
+      <c r="K24" s="3">
         <v>204900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>692000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>536000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>825600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>961300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1346,87 +1394,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>5325000</v>
+        <v>2670400</v>
       </c>
       <c r="E26" s="3">
-        <v>1323200</v>
+        <v>5396900</v>
       </c>
       <c r="F26" s="3">
-        <v>1467200</v>
+        <v>1341100</v>
       </c>
       <c r="G26" s="3">
-        <v>1400100</v>
+        <v>1487000</v>
       </c>
       <c r="H26" s="3">
-        <v>2200400</v>
+        <v>1419000</v>
       </c>
       <c r="I26" s="3">
-        <v>775600</v>
+        <v>2230100</v>
       </c>
       <c r="J26" s="3">
+        <v>786100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-71200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>473800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1227600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2003900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3342900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4891800</v>
+        <v>2357300</v>
       </c>
       <c r="E27" s="3">
-        <v>1180600</v>
+        <v>4957900</v>
       </c>
       <c r="F27" s="3">
-        <v>1353000</v>
+        <v>1196600</v>
       </c>
       <c r="G27" s="3">
-        <v>1237900</v>
+        <v>1371300</v>
       </c>
       <c r="H27" s="3">
-        <v>2040200</v>
+        <v>1254700</v>
       </c>
       <c r="I27" s="3">
-        <v>984300</v>
+        <v>2067800</v>
       </c>
       <c r="J27" s="3">
+        <v>997600</v>
+      </c>
+      <c r="K27" s="3">
         <v>109200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>503700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1230800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2068100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3283300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1463,9 +1520,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1502,9 +1562,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1541,9 +1604,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1580,87 +1646,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-799600</v>
+        <v>-265600</v>
       </c>
       <c r="E32" s="3">
-        <v>-308200</v>
+        <v>-810400</v>
       </c>
       <c r="F32" s="3">
-        <v>-461400</v>
+        <v>-312400</v>
       </c>
       <c r="G32" s="3">
-        <v>-122900</v>
+        <v>-467600</v>
       </c>
       <c r="H32" s="3">
-        <v>-412600</v>
+        <v>-124500</v>
       </c>
       <c r="I32" s="3">
-        <v>107700</v>
+        <v>-418200</v>
       </c>
       <c r="J32" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K32" s="3">
         <v>683700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>415500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-947300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-146400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4891800</v>
+        <v>2357300</v>
       </c>
       <c r="E33" s="3">
-        <v>1180600</v>
+        <v>4957900</v>
       </c>
       <c r="F33" s="3">
-        <v>1353000</v>
+        <v>1196600</v>
       </c>
       <c r="G33" s="3">
-        <v>1237900</v>
+        <v>1371300</v>
       </c>
       <c r="H33" s="3">
-        <v>2040200</v>
+        <v>1254700</v>
       </c>
       <c r="I33" s="3">
-        <v>984300</v>
+        <v>2067800</v>
       </c>
       <c r="J33" s="3">
+        <v>997600</v>
+      </c>
+      <c r="K33" s="3">
         <v>109200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>503700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1230800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2068100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3283300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1697,92 +1772,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4891800</v>
+        <v>2357300</v>
       </c>
       <c r="E35" s="3">
-        <v>1180600</v>
+        <v>4957900</v>
       </c>
       <c r="F35" s="3">
-        <v>1353000</v>
+        <v>1196600</v>
       </c>
       <c r="G35" s="3">
-        <v>1237900</v>
+        <v>1371300</v>
       </c>
       <c r="H35" s="3">
-        <v>2040200</v>
+        <v>1254700</v>
       </c>
       <c r="I35" s="3">
-        <v>984300</v>
+        <v>2067800</v>
       </c>
       <c r="J35" s="3">
+        <v>997600</v>
+      </c>
+      <c r="K35" s="3">
         <v>109200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>503700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1230800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2068100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3283300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1798,8 +1882,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1815,359 +1900,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3533600</v>
+        <v>6039800</v>
       </c>
       <c r="E41" s="3">
-        <v>3518400</v>
+        <v>3581400</v>
       </c>
       <c r="F41" s="3">
-        <v>2601000</v>
+        <v>3566000</v>
       </c>
       <c r="G41" s="3">
-        <v>1956500</v>
+        <v>2636200</v>
       </c>
       <c r="H41" s="3">
-        <v>1933300</v>
+        <v>1982900</v>
       </c>
       <c r="I41" s="3">
-        <v>1811200</v>
+        <v>1959400</v>
       </c>
       <c r="J41" s="3">
+        <v>1835700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3603900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3201400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7659600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>9902100</v>
+        <v>8014600</v>
       </c>
       <c r="E42" s="3">
-        <v>8591300</v>
+        <v>10035900</v>
       </c>
       <c r="F42" s="3">
-        <v>6621900</v>
+        <v>8707400</v>
       </c>
       <c r="G42" s="3">
-        <v>5945000</v>
+        <v>6711400</v>
       </c>
       <c r="H42" s="3">
-        <v>5214000</v>
+        <v>6025400</v>
       </c>
       <c r="I42" s="3">
-        <v>3861400</v>
+        <v>5284400</v>
       </c>
       <c r="J42" s="3">
+        <v>3913600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2893700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1228900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2703300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4017800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4226100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9020500</v>
+        <v>9094600</v>
       </c>
       <c r="E43" s="3">
-        <v>7151600</v>
+        <v>9142400</v>
       </c>
       <c r="F43" s="3">
-        <v>7922300</v>
+        <v>7248300</v>
       </c>
       <c r="G43" s="3">
-        <v>7932600</v>
+        <v>8029300</v>
       </c>
       <c r="H43" s="3">
-        <v>7862500</v>
+        <v>8039800</v>
       </c>
       <c r="I43" s="3">
-        <v>8416100</v>
+        <v>7968800</v>
       </c>
       <c r="J43" s="3">
+        <v>8529900</v>
+      </c>
+      <c r="K43" s="3">
         <v>8369100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11473000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12227600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12164100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13322600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11259200</v>
+        <v>11604300</v>
       </c>
       <c r="E44" s="3">
-        <v>6698300</v>
+        <v>11411300</v>
       </c>
       <c r="F44" s="3">
-        <v>8081000</v>
+        <v>6788800</v>
       </c>
       <c r="G44" s="3">
-        <v>8509900</v>
+        <v>8190200</v>
       </c>
       <c r="H44" s="3">
-        <v>7363700</v>
+        <v>8624900</v>
       </c>
       <c r="I44" s="3">
-        <v>6698300</v>
+        <v>7463200</v>
       </c>
       <c r="J44" s="3">
+        <v>6788800</v>
+      </c>
+      <c r="K44" s="3">
         <v>6086700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9385600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9237300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8891100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11055300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>784700</v>
+        <v>983800</v>
       </c>
       <c r="E45" s="3">
-        <v>555100</v>
+        <v>795300</v>
       </c>
       <c r="F45" s="3">
-        <v>557100</v>
+        <v>562600</v>
       </c>
       <c r="G45" s="3">
-        <v>557700</v>
+        <v>564700</v>
       </c>
       <c r="H45" s="3">
-        <v>660800</v>
+        <v>565200</v>
       </c>
       <c r="I45" s="3">
-        <v>897800</v>
+        <v>669800</v>
       </c>
       <c r="J45" s="3">
+        <v>909900</v>
+      </c>
+      <c r="K45" s="3">
         <v>640500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2605800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1157300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1337500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1543300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>34500000</v>
+        <v>35737100</v>
       </c>
       <c r="E46" s="3">
-        <v>26514800</v>
+        <v>34966200</v>
       </c>
       <c r="F46" s="3">
-        <v>25783400</v>
+        <v>26873100</v>
       </c>
       <c r="G46" s="3">
-        <v>24901700</v>
+        <v>26131800</v>
       </c>
       <c r="H46" s="3">
-        <v>23034300</v>
+        <v>25238300</v>
       </c>
       <c r="I46" s="3">
-        <v>21684800</v>
+        <v>23345600</v>
       </c>
       <c r="J46" s="3">
+        <v>21977900</v>
+      </c>
+      <c r="K46" s="3">
         <v>21593900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27894700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29155200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26515500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30201200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5868300</v>
+        <v>6552900</v>
       </c>
       <c r="E47" s="3">
-        <v>4959400</v>
+        <v>5947600</v>
       </c>
       <c r="F47" s="3">
-        <v>5085300</v>
+        <v>5026400</v>
       </c>
       <c r="G47" s="3">
-        <v>4874000</v>
+        <v>5154100</v>
       </c>
       <c r="H47" s="3">
-        <v>5239500</v>
+        <v>4939900</v>
       </c>
       <c r="I47" s="3">
-        <v>5442000</v>
+        <v>5310300</v>
       </c>
       <c r="J47" s="3">
+        <v>5515600</v>
+      </c>
+      <c r="K47" s="3">
         <v>5380100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6501500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8343700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6536000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8160100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>22705300</v>
+        <v>24641400</v>
       </c>
       <c r="E48" s="3">
-        <v>22492200</v>
+        <v>23012100</v>
       </c>
       <c r="F48" s="3">
-        <v>22795100</v>
+        <v>22796200</v>
       </c>
       <c r="G48" s="3">
-        <v>22900700</v>
+        <v>23103200</v>
       </c>
       <c r="H48" s="3">
-        <v>24381900</v>
+        <v>23210200</v>
       </c>
       <c r="I48" s="3">
-        <v>25817200</v>
+        <v>24711300</v>
       </c>
       <c r="J48" s="3">
+        <v>26166000</v>
+      </c>
+      <c r="K48" s="3">
         <v>26349300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30489300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32928700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27550000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>72571100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3083100</v>
+        <v>3628800</v>
       </c>
       <c r="E49" s="3">
-        <v>3292600</v>
+        <v>3124700</v>
       </c>
       <c r="F49" s="3">
-        <v>3632300</v>
+        <v>3337100</v>
       </c>
       <c r="G49" s="3">
-        <v>3826400</v>
+        <v>3681400</v>
       </c>
       <c r="H49" s="3">
-        <v>4404700</v>
+        <v>3878100</v>
       </c>
       <c r="I49" s="3">
-        <v>4505700</v>
+        <v>4464200</v>
       </c>
       <c r="J49" s="3">
+        <v>4566500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4740300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5783400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5396200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4756400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4720400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2204,9 +2317,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2243,48 +2359,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1532400</v>
+        <v>3244800</v>
       </c>
       <c r="E52" s="3">
-        <v>1265300</v>
+        <v>1553100</v>
       </c>
       <c r="F52" s="3">
-        <v>1207300</v>
+        <v>1282400</v>
       </c>
       <c r="G52" s="3">
-        <v>1400900</v>
+        <v>1223700</v>
       </c>
       <c r="H52" s="3">
-        <v>1418200</v>
+        <v>1419800</v>
       </c>
       <c r="I52" s="3">
-        <v>1574900</v>
+        <v>1437300</v>
       </c>
       <c r="J52" s="3">
+        <v>1596200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1439000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1439700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1381700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1225400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1404100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2321,48 +2443,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>67689000</v>
+        <v>73805100</v>
       </c>
       <c r="E54" s="3">
-        <v>58524400</v>
+        <v>68603700</v>
       </c>
       <c r="F54" s="3">
-        <v>58503400</v>
+        <v>59315200</v>
       </c>
       <c r="G54" s="3">
-        <v>57903700</v>
+        <v>59294000</v>
       </c>
       <c r="H54" s="3">
-        <v>58478500</v>
+        <v>58686200</v>
       </c>
       <c r="I54" s="3">
-        <v>59024600</v>
+        <v>59268700</v>
       </c>
       <c r="J54" s="3">
+        <v>59822200</v>
+      </c>
+      <c r="K54" s="3">
         <v>59502500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72108600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77205400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66583300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70568000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2378,8 +2506,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2395,242 +2524,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>4046400</v>
+        <v>4140600</v>
       </c>
       <c r="E57" s="3">
-        <v>2779100</v>
+        <v>4101100</v>
       </c>
       <c r="F57" s="3">
-        <v>2533000</v>
+        <v>2816600</v>
       </c>
       <c r="G57" s="3">
-        <v>2964500</v>
+        <v>2567200</v>
       </c>
       <c r="H57" s="3">
-        <v>2564200</v>
+        <v>3004600</v>
       </c>
       <c r="I57" s="3">
-        <v>3014200</v>
+        <v>2598900</v>
       </c>
       <c r="J57" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2312800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3318700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3850500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4306700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4901600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6668800</v>
+        <v>9049000</v>
       </c>
       <c r="E58" s="3">
-        <v>6602300</v>
+        <v>6758900</v>
       </c>
       <c r="F58" s="3">
-        <v>6436100</v>
+        <v>6691600</v>
       </c>
       <c r="G58" s="3">
-        <v>7621800</v>
+        <v>6523000</v>
       </c>
       <c r="H58" s="3">
-        <v>8356300</v>
+        <v>7724800</v>
       </c>
       <c r="I58" s="3">
-        <v>7562300</v>
+        <v>8469200</v>
       </c>
       <c r="J58" s="3">
+        <v>7664500</v>
+      </c>
+      <c r="K58" s="3">
         <v>9174500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10262600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9762400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8827900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9712400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4886700</v>
+        <v>4201500</v>
       </c>
       <c r="E59" s="3">
-        <v>3091300</v>
+        <v>4952700</v>
       </c>
       <c r="F59" s="3">
-        <v>3110500</v>
+        <v>3133000</v>
       </c>
       <c r="G59" s="3">
-        <v>3427700</v>
+        <v>3152500</v>
       </c>
       <c r="H59" s="3">
-        <v>3099600</v>
+        <v>3474100</v>
       </c>
       <c r="I59" s="3">
-        <v>3420900</v>
+        <v>3141400</v>
       </c>
       <c r="J59" s="3">
+        <v>3467100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3409700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5213800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4912500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3476500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3030900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>15601900</v>
+        <v>17391100</v>
       </c>
       <c r="E60" s="3">
-        <v>12472700</v>
+        <v>15812700</v>
       </c>
       <c r="F60" s="3">
-        <v>12079500</v>
+        <v>12641200</v>
       </c>
       <c r="G60" s="3">
-        <v>14014100</v>
+        <v>12242800</v>
       </c>
       <c r="H60" s="3">
-        <v>14020100</v>
+        <v>14203500</v>
       </c>
       <c r="I60" s="3">
-        <v>13997400</v>
+        <v>14209500</v>
       </c>
       <c r="J60" s="3">
+        <v>14186500</v>
+      </c>
+      <c r="K60" s="3">
         <v>14896900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18795000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18525400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16611000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17644800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9995500</v>
+        <v>9797800</v>
       </c>
       <c r="E61" s="3">
-        <v>9113300</v>
+        <v>10130500</v>
       </c>
       <c r="F61" s="3">
-        <v>9190600</v>
+        <v>9236400</v>
       </c>
       <c r="G61" s="3">
-        <v>7403100</v>
+        <v>9314800</v>
       </c>
       <c r="H61" s="3">
-        <v>7299700</v>
+        <v>7503200</v>
       </c>
       <c r="I61" s="3">
-        <v>9324100</v>
+        <v>7398300</v>
       </c>
       <c r="J61" s="3">
+        <v>9450100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9519100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12816400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14170700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12106200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14418200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1536000</v>
+        <v>2923100</v>
       </c>
       <c r="E62" s="3">
-        <v>1659200</v>
+        <v>1556700</v>
       </c>
       <c r="F62" s="3">
-        <v>1865200</v>
+        <v>1681700</v>
       </c>
       <c r="G62" s="3">
-        <v>1884400</v>
+        <v>1890400</v>
       </c>
       <c r="H62" s="3">
-        <v>2035400</v>
+        <v>1909900</v>
       </c>
       <c r="I62" s="3">
-        <v>1782800</v>
+        <v>2062900</v>
       </c>
       <c r="J62" s="3">
+        <v>1806800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1734600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2481000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2848900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2225500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1848000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2667,9 +2815,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2706,9 +2857,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2745,48 +2899,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>30372800</v>
+        <v>34421000</v>
       </c>
       <c r="E66" s="3">
-        <v>25719200</v>
+        <v>30783200</v>
       </c>
       <c r="F66" s="3">
-        <v>25594200</v>
+        <v>26066700</v>
       </c>
       <c r="G66" s="3">
-        <v>25809000</v>
+        <v>25940100</v>
       </c>
       <c r="H66" s="3">
-        <v>26116100</v>
+        <v>26157800</v>
       </c>
       <c r="I66" s="3">
-        <v>27668300</v>
+        <v>26469100</v>
       </c>
       <c r="J66" s="3">
+        <v>28042200</v>
+      </c>
+      <c r="K66" s="3">
         <v>28988300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37200700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38977200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33441800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36047200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2802,8 +2962,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2840,9 +3001,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2879,9 +3043,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2918,9 +3085,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2957,48 +3127,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>38134300</v>
+        <v>39723900</v>
       </c>
       <c r="E72" s="3">
-        <v>34122500</v>
+        <v>38649700</v>
       </c>
       <c r="F72" s="3">
-        <v>33359300</v>
+        <v>34583600</v>
       </c>
       <c r="G72" s="3">
-        <v>32719900</v>
+        <v>33810100</v>
       </c>
       <c r="H72" s="3">
-        <v>31861900</v>
+        <v>33162000</v>
       </c>
       <c r="I72" s="3">
-        <v>30468600</v>
+        <v>32292500</v>
       </c>
       <c r="J72" s="3">
+        <v>30880300</v>
+      </c>
+      <c r="K72" s="3">
         <v>29970800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34387200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37358800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33875600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34823700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3035,9 +3211,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3074,9 +3253,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3113,48 +3295,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37316200</v>
+        <v>39384100</v>
       </c>
       <c r="E76" s="3">
-        <v>32805200</v>
+        <v>37820500</v>
       </c>
       <c r="F76" s="3">
-        <v>32909200</v>
+        <v>33248500</v>
       </c>
       <c r="G76" s="3">
-        <v>32094700</v>
+        <v>33353900</v>
       </c>
       <c r="H76" s="3">
-        <v>32362300</v>
+        <v>32528400</v>
       </c>
       <c r="I76" s="3">
-        <v>31356300</v>
+        <v>32799700</v>
       </c>
       <c r="J76" s="3">
+        <v>31780100</v>
+      </c>
+      <c r="K76" s="3">
         <v>30514200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34907800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38228200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33141500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34520700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3191,92 +3379,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4891800</v>
+        <v>2357300</v>
       </c>
       <c r="E81" s="3">
-        <v>1180600</v>
+        <v>4957900</v>
       </c>
       <c r="F81" s="3">
-        <v>1353000</v>
+        <v>1196600</v>
       </c>
       <c r="G81" s="3">
-        <v>1237900</v>
+        <v>1371300</v>
       </c>
       <c r="H81" s="3">
-        <v>2040200</v>
+        <v>1254700</v>
       </c>
       <c r="I81" s="3">
-        <v>984300</v>
+        <v>2067800</v>
       </c>
       <c r="J81" s="3">
+        <v>997600</v>
+      </c>
+      <c r="K81" s="3">
         <v>109200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>503700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1230800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2068100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3283300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3292,47 +3489,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2648800</v>
+        <v>2770200</v>
       </c>
       <c r="E83" s="3">
-        <v>2680100</v>
+        <v>2684600</v>
       </c>
       <c r="F83" s="3">
-        <v>2561200</v>
+        <v>2716300</v>
       </c>
       <c r="G83" s="3">
-        <v>2418000</v>
+        <v>2595800</v>
       </c>
       <c r="H83" s="3">
-        <v>2440100</v>
+        <v>2450700</v>
       </c>
       <c r="I83" s="3">
-        <v>2378200</v>
+        <v>2473100</v>
       </c>
       <c r="J83" s="3">
+        <v>2410400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2381500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2720400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2443900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2153600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2039700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3369,9 +3570,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3408,9 +3612,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3447,9 +3654,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3486,9 +3696,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3525,48 +3738,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4715500</v>
+        <v>4633500</v>
       </c>
       <c r="E89" s="3">
-        <v>6356900</v>
+        <v>4779200</v>
       </c>
       <c r="F89" s="3">
-        <v>4489100</v>
+        <v>6442800</v>
       </c>
       <c r="G89" s="3">
-        <v>4347000</v>
+        <v>4549800</v>
       </c>
       <c r="H89" s="3">
-        <v>4105800</v>
+        <v>4405800</v>
       </c>
       <c r="I89" s="3">
-        <v>3908700</v>
+        <v>4161200</v>
       </c>
       <c r="J89" s="3">
+        <v>3961500</v>
+      </c>
+      <c r="K89" s="3">
         <v>5642700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2875900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4420900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6148300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1522400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3582,47 +3801,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2279000</v>
+        <v>-3695700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2365700</v>
+        <v>-2309800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1864200</v>
+        <v>-2397700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1580300</v>
+        <v>-1889400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1692800</v>
+        <v>-1601700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1719800</v>
+        <v>-1715700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1743100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1894600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2944700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5978300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5925800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5315100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3659,9 +3882,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3698,48 +3924,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-4131800</v>
+        <v>-3164900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4631900</v>
+        <v>-4187600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2725300</v>
+        <v>-4694400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1959500</v>
+        <v>-2762100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2825200</v>
+        <v>-1986000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2778400</v>
+        <v>-2863400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2816000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3355700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3146000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7964000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5182000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4965200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3755,47 +3987,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-970100</v>
+        <v>-913800</v>
       </c>
       <c r="E96" s="3">
-        <v>-487800</v>
+        <v>-983200</v>
       </c>
       <c r="F96" s="3">
-        <v>-655600</v>
+        <v>-494400</v>
       </c>
       <c r="G96" s="3">
-        <v>-495600</v>
+        <v>-664500</v>
       </c>
       <c r="H96" s="3">
-        <v>-607200</v>
+        <v>-502300</v>
       </c>
       <c r="I96" s="3">
-        <v>-524600</v>
+        <v>-615400</v>
       </c>
       <c r="J96" s="3">
+        <v>-531700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-608700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-568700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-590200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-631600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-693800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3832,9 +4068,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3871,9 +4110,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3910,48 +4152,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-568800</v>
+        <v>989600</v>
       </c>
       <c r="E100" s="3">
-        <v>-807200</v>
+        <v>-576500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1119000</v>
+        <v>-818200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2364300</v>
+        <v>-1134100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1158500</v>
+        <v>-2396300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2923700</v>
+        <v>-1174100</v>
       </c>
       <c r="J100" s="3">
+        <v>-2963200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1658800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>113500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3214400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-762400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4409900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3980,54 +4228,60 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-135200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>14900</v>
+        <v>2458200</v>
       </c>
       <c r="E102" s="3">
-        <v>917800</v>
+        <v>15100</v>
       </c>
       <c r="F102" s="3">
-        <v>644800</v>
+        <v>930200</v>
       </c>
       <c r="G102" s="3">
-        <v>23200</v>
+        <v>653500</v>
       </c>
       <c r="H102" s="3">
-        <v>122000</v>
+        <v>23500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1793400</v>
+        <v>123700</v>
       </c>
       <c r="J102" s="3">
+        <v>-1817700</v>
+      </c>
+      <c r="K102" s="3">
         <v>628300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-156600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-429500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>969900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -1194,25 +1194,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6273500</v>
+        <v>6236600</v>
       </c>
       <c r="E21" s="3">
-        <v>10112300</v>
+        <v>10076500</v>
       </c>
       <c r="F21" s="3">
-        <v>4750400</v>
+        <v>4714200</v>
       </c>
       <c r="G21" s="3">
-        <v>5487200</v>
+        <v>5452600</v>
       </c>
       <c r="H21" s="3">
-        <v>5711500</v>
+        <v>5678800</v>
       </c>
       <c r="I21" s="3">
-        <v>6130600</v>
+        <v>6097700</v>
       </c>
       <c r="J21" s="3">
-        <v>4011200</v>
+        <v>3979100</v>
       </c>
       <c r="K21" s="3">
         <v>3066800</v>

--- a/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PKX_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>63562700</v>
+        <v>65257700</v>
       </c>
       <c r="E8" s="3">
-        <v>57249300</v>
+        <v>58775900</v>
       </c>
       <c r="F8" s="3">
-        <v>43344600</v>
+        <v>44500500</v>
       </c>
       <c r="G8" s="3">
-        <v>48275100</v>
+        <v>49562500</v>
       </c>
       <c r="H8" s="3">
-        <v>48733300</v>
+        <v>50032900</v>
       </c>
       <c r="I8" s="3">
-        <v>45491300</v>
+        <v>46704400</v>
       </c>
       <c r="J8" s="3">
-        <v>39812600</v>
+        <v>40874300</v>
       </c>
       <c r="K8" s="3">
         <v>43062300</v>
@@ -765,25 +765,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57825700</v>
+        <v>59367700</v>
       </c>
       <c r="E9" s="3">
-        <v>48338400</v>
+        <v>49627400</v>
       </c>
       <c r="F9" s="3">
-        <v>39804300</v>
+        <v>40865700</v>
       </c>
       <c r="G9" s="3">
-        <v>43587400</v>
+        <v>44749700</v>
       </c>
       <c r="H9" s="3">
-        <v>42754000</v>
+        <v>43894200</v>
       </c>
       <c r="I9" s="3">
-        <v>39224400</v>
+        <v>40270400</v>
       </c>
       <c r="J9" s="3">
-        <v>34795500</v>
+        <v>35723400</v>
       </c>
       <c r="K9" s="3">
         <v>38227000</v>
@@ -807,25 +807,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5737000</v>
+        <v>5890000</v>
       </c>
       <c r="E10" s="3">
-        <v>8910800</v>
+        <v>9148500</v>
       </c>
       <c r="F10" s="3">
-        <v>3540300</v>
+        <v>3634700</v>
       </c>
       <c r="G10" s="3">
-        <v>4687800</v>
+        <v>4812800</v>
       </c>
       <c r="H10" s="3">
-        <v>5979300</v>
+        <v>6138700</v>
       </c>
       <c r="I10" s="3">
-        <v>6266900</v>
+        <v>6434100</v>
       </c>
       <c r="J10" s="3">
-        <v>5017200</v>
+        <v>5151000</v>
       </c>
       <c r="K10" s="3">
         <v>4835300</v>
@@ -867,25 +867,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>134800</v>
+        <v>138400</v>
       </c>
       <c r="E12" s="3">
-        <v>92300</v>
+        <v>94800</v>
       </c>
       <c r="F12" s="3">
-        <v>87200</v>
+        <v>89500</v>
       </c>
       <c r="G12" s="3">
-        <v>82700</v>
+        <v>84900</v>
       </c>
       <c r="H12" s="3">
-        <v>81300</v>
+        <v>83400</v>
       </c>
       <c r="I12" s="3">
-        <v>94300</v>
+        <v>96900</v>
       </c>
       <c r="J12" s="3">
-        <v>90500</v>
+        <v>92900</v>
       </c>
       <c r="K12" s="3">
         <v>100300</v>
@@ -951,25 +951,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>436800</v>
+        <v>448400</v>
       </c>
       <c r="E14" s="3">
-        <v>347100</v>
+        <v>356300</v>
       </c>
       <c r="F14" s="3">
-        <v>116700</v>
+        <v>116000</v>
       </c>
       <c r="G14" s="3">
-        <v>512500</v>
+        <v>496700</v>
       </c>
       <c r="H14" s="3">
-        <v>1053400</v>
+        <v>1081500</v>
       </c>
       <c r="I14" s="3">
-        <v>260000</v>
+        <v>266900</v>
       </c>
       <c r="J14" s="3">
-        <v>455400</v>
+        <v>467500</v>
       </c>
       <c r="K14" s="3">
         <v>382200</v>
@@ -993,25 +993,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>179000</v>
+        <v>183800</v>
       </c>
       <c r="E15" s="3">
-        <v>173500</v>
+        <v>178100</v>
       </c>
       <c r="F15" s="3">
-        <v>196300</v>
+        <v>201500</v>
       </c>
       <c r="G15" s="3">
-        <v>182600</v>
+        <v>187500</v>
       </c>
       <c r="H15" s="3">
-        <v>160300</v>
+        <v>164500</v>
       </c>
       <c r="I15" s="3">
-        <v>182700</v>
+        <v>187600</v>
       </c>
       <c r="J15" s="3">
-        <v>182300</v>
+        <v>187100</v>
       </c>
       <c r="K15" s="3">
         <v>202800</v>
@@ -1050,25 +1050,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>60361900</v>
+        <v>61971500</v>
       </c>
       <c r="E17" s="3">
-        <v>50667800</v>
+        <v>52018900</v>
       </c>
       <c r="F17" s="3">
-        <v>41659100</v>
+        <v>42766100</v>
       </c>
       <c r="G17" s="3">
-        <v>45886000</v>
+        <v>47080200</v>
       </c>
       <c r="H17" s="3">
-        <v>45629800</v>
+        <v>46846600</v>
       </c>
       <c r="I17" s="3">
-        <v>42284900</v>
+        <v>43412500</v>
       </c>
       <c r="J17" s="3">
-        <v>38134700</v>
+        <v>39151700</v>
       </c>
       <c r="K17" s="3">
         <v>41661200</v>
@@ -1092,25 +1092,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3200800</v>
+        <v>3286100</v>
       </c>
       <c r="E18" s="3">
-        <v>6581500</v>
+        <v>6757000</v>
       </c>
       <c r="F18" s="3">
-        <v>1685500</v>
+        <v>1734400</v>
       </c>
       <c r="G18" s="3">
-        <v>2389100</v>
+        <v>2482300</v>
       </c>
       <c r="H18" s="3">
-        <v>3103600</v>
+        <v>3186300</v>
       </c>
       <c r="I18" s="3">
-        <v>3206400</v>
+        <v>3291900</v>
       </c>
       <c r="J18" s="3">
-        <v>1677900</v>
+        <v>1722600</v>
       </c>
       <c r="K18" s="3">
         <v>1401200</v>
@@ -1152,25 +1152,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>265600</v>
+        <v>272700</v>
       </c>
       <c r="E20" s="3">
-        <v>810400</v>
+        <v>832000</v>
       </c>
       <c r="F20" s="3">
-        <v>312400</v>
+        <v>316800</v>
       </c>
       <c r="G20" s="3">
-        <v>467600</v>
+        <v>450600</v>
       </c>
       <c r="H20" s="3">
-        <v>124500</v>
+        <v>127800</v>
       </c>
       <c r="I20" s="3">
-        <v>418200</v>
+        <v>429400</v>
       </c>
       <c r="J20" s="3">
-        <v>-109200</v>
+        <v>-112100</v>
       </c>
       <c r="K20" s="3">
         <v>-683700</v>
@@ -1194,25 +1194,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6236600</v>
+        <v>6402900</v>
       </c>
       <c r="E21" s="3">
-        <v>10076500</v>
+        <v>10345200</v>
       </c>
       <c r="F21" s="3">
-        <v>4714200</v>
+        <v>4839900</v>
       </c>
       <c r="G21" s="3">
-        <v>5452600</v>
+        <v>5598000</v>
       </c>
       <c r="H21" s="3">
-        <v>5678800</v>
+        <v>5830200</v>
       </c>
       <c r="I21" s="3">
-        <v>6097700</v>
+        <v>6260300</v>
       </c>
       <c r="J21" s="3">
-        <v>3979100</v>
+        <v>4085200</v>
       </c>
       <c r="K21" s="3">
         <v>3066800</v>
@@ -1236,25 +1236,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>455600</v>
+        <v>467700</v>
       </c>
       <c r="E22" s="3">
-        <v>329900</v>
+        <v>338700</v>
       </c>
       <c r="F22" s="3">
-        <v>479100</v>
+        <v>491900</v>
       </c>
       <c r="G22" s="3">
-        <v>566800</v>
+        <v>581900</v>
       </c>
       <c r="H22" s="3">
-        <v>556000</v>
+        <v>570800</v>
       </c>
       <c r="I22" s="3">
-        <v>489800</v>
+        <v>502900</v>
       </c>
       <c r="J22" s="3">
-        <v>494000</v>
+        <v>507200</v>
       </c>
       <c r="K22" s="3">
         <v>583700</v>
@@ -1278,25 +1278,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3010800</v>
+        <v>3091100</v>
       </c>
       <c r="E23" s="3">
-        <v>7062100</v>
+        <v>7250400</v>
       </c>
       <c r="F23" s="3">
-        <v>1518800</v>
+        <v>1559300</v>
       </c>
       <c r="G23" s="3">
-        <v>2290000</v>
+        <v>2351000</v>
       </c>
       <c r="H23" s="3">
-        <v>2672100</v>
+        <v>2743400</v>
       </c>
       <c r="I23" s="3">
-        <v>3134800</v>
+        <v>3218400</v>
       </c>
       <c r="J23" s="3">
-        <v>1074600</v>
+        <v>1103300</v>
       </c>
       <c r="K23" s="3">
         <v>133800</v>
@@ -1320,25 +1320,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>340400</v>
+        <v>349500</v>
       </c>
       <c r="E24" s="3">
-        <v>1665100</v>
+        <v>1709500</v>
       </c>
       <c r="F24" s="3">
-        <v>177700</v>
+        <v>182400</v>
       </c>
       <c r="G24" s="3">
-        <v>803000</v>
+        <v>824400</v>
       </c>
       <c r="H24" s="3">
-        <v>1253100</v>
+        <v>1286500</v>
       </c>
       <c r="I24" s="3">
-        <v>904700</v>
+        <v>928800</v>
       </c>
       <c r="J24" s="3">
-        <v>288500</v>
+        <v>296200</v>
       </c>
       <c r="K24" s="3">
         <v>204900</v>
@@ -1404,25 +1404,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2670400</v>
+        <v>2741600</v>
       </c>
       <c r="E26" s="3">
-        <v>5396900</v>
+        <v>5540800</v>
       </c>
       <c r="F26" s="3">
-        <v>1341100</v>
+        <v>1376900</v>
       </c>
       <c r="G26" s="3">
-        <v>1487000</v>
+        <v>1526600</v>
       </c>
       <c r="H26" s="3">
-        <v>1419000</v>
+        <v>1456900</v>
       </c>
       <c r="I26" s="3">
-        <v>2230100</v>
+        <v>2289600</v>
       </c>
       <c r="J26" s="3">
-        <v>786100</v>
+        <v>807100</v>
       </c>
       <c r="K26" s="3">
         <v>-71200</v>
@@ -1446,25 +1446,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2357300</v>
+        <v>2420100</v>
       </c>
       <c r="E27" s="3">
-        <v>4957900</v>
+        <v>5090100</v>
       </c>
       <c r="F27" s="3">
-        <v>1196600</v>
+        <v>1228500</v>
       </c>
       <c r="G27" s="3">
-        <v>1371300</v>
+        <v>1407900</v>
       </c>
       <c r="H27" s="3">
-        <v>1254700</v>
+        <v>1288100</v>
       </c>
       <c r="I27" s="3">
-        <v>2067800</v>
+        <v>2122900</v>
       </c>
       <c r="J27" s="3">
-        <v>997600</v>
+        <v>1024200</v>
       </c>
       <c r="K27" s="3">
         <v>109200</v>
@@ -1656,25 +1656,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-265600</v>
+        <v>-272700</v>
       </c>
       <c r="E32" s="3">
-        <v>-810400</v>
+        <v>-832000</v>
       </c>
       <c r="F32" s="3">
-        <v>-312400</v>
+        <v>-316800</v>
       </c>
       <c r="G32" s="3">
-        <v>-467600</v>
+        <v>-450600</v>
       </c>
       <c r="H32" s="3">
-        <v>-124500</v>
+        <v>-127800</v>
       </c>
       <c r="I32" s="3">
-        <v>-418200</v>
+        <v>-429400</v>
       </c>
       <c r="J32" s="3">
-        <v>109200</v>
+        <v>112100</v>
       </c>
       <c r="K32" s="3">
         <v>683700</v>
@@ -1698,25 +1698,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2357300</v>
+        <v>2420100</v>
       </c>
       <c r="E33" s="3">
-        <v>4957900</v>
+        <v>5090100</v>
       </c>
       <c r="F33" s="3">
-        <v>1196600</v>
+        <v>1228500</v>
       </c>
       <c r="G33" s="3">
-        <v>1371300</v>
+        <v>1407900</v>
       </c>
       <c r="H33" s="3">
-        <v>1254700</v>
+        <v>1288100</v>
       </c>
       <c r="I33" s="3">
-        <v>2067800</v>
+        <v>2122900</v>
       </c>
       <c r="J33" s="3">
-        <v>997600</v>
+        <v>1024200</v>
       </c>
       <c r="K33" s="3">
         <v>109200</v>
@@ -1782,25 +1782,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2357300</v>
+        <v>2420100</v>
       </c>
       <c r="E35" s="3">
-        <v>4957900</v>
+        <v>5090100</v>
       </c>
       <c r="F35" s="3">
-        <v>1196600</v>
+        <v>1228500</v>
       </c>
       <c r="G35" s="3">
-        <v>1371300</v>
+        <v>1407900</v>
       </c>
       <c r="H35" s="3">
-        <v>1254700</v>
+        <v>1288100</v>
       </c>
       <c r="I35" s="3">
-        <v>2067800</v>
+        <v>2122900</v>
       </c>
       <c r="J35" s="3">
-        <v>997600</v>
+        <v>1024200</v>
       </c>
       <c r="K35" s="3">
         <v>109200</v>
@@ -1907,25 +1907,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>6039800</v>
+        <v>6200900</v>
       </c>
       <c r="E41" s="3">
-        <v>3581400</v>
+        <v>3676900</v>
       </c>
       <c r="F41" s="3">
-        <v>3566000</v>
+        <v>3661100</v>
       </c>
       <c r="G41" s="3">
-        <v>2636200</v>
+        <v>2706500</v>
       </c>
       <c r="H41" s="3">
-        <v>1982900</v>
+        <v>2035800</v>
       </c>
       <c r="I41" s="3">
-        <v>1959400</v>
+        <v>2011600</v>
       </c>
       <c r="J41" s="3">
-        <v>1835700</v>
+        <v>1884700</v>
       </c>
       <c r="K41" s="3">
         <v>3603900</v>
@@ -1949,25 +1949,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>8014600</v>
+        <v>8228300</v>
       </c>
       <c r="E42" s="3">
-        <v>10035900</v>
+        <v>10303500</v>
       </c>
       <c r="F42" s="3">
-        <v>8707400</v>
+        <v>8939600</v>
       </c>
       <c r="G42" s="3">
-        <v>6711400</v>
+        <v>6890400</v>
       </c>
       <c r="H42" s="3">
-        <v>6025400</v>
+        <v>6186000</v>
       </c>
       <c r="I42" s="3">
-        <v>5284400</v>
+        <v>5425300</v>
       </c>
       <c r="J42" s="3">
-        <v>3913600</v>
+        <v>4017900</v>
       </c>
       <c r="K42" s="3">
         <v>2893700</v>
@@ -1991,25 +1991,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9094600</v>
+        <v>9337100</v>
       </c>
       <c r="E43" s="3">
-        <v>9142400</v>
+        <v>9386200</v>
       </c>
       <c r="F43" s="3">
-        <v>7248300</v>
+        <v>7441500</v>
       </c>
       <c r="G43" s="3">
-        <v>8029300</v>
+        <v>8243500</v>
       </c>
       <c r="H43" s="3">
-        <v>8039800</v>
+        <v>8254200</v>
       </c>
       <c r="I43" s="3">
-        <v>7968800</v>
+        <v>8181300</v>
       </c>
       <c r="J43" s="3">
-        <v>8529900</v>
+        <v>8757300</v>
       </c>
       <c r="K43" s="3">
         <v>8369100</v>
@@ -2033,25 +2033,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11604300</v>
+        <v>11913800</v>
       </c>
       <c r="E44" s="3">
-        <v>11411300</v>
+        <v>11715600</v>
       </c>
       <c r="F44" s="3">
-        <v>6788800</v>
+        <v>6969900</v>
       </c>
       <c r="G44" s="3">
-        <v>8190200</v>
+        <v>8408600</v>
       </c>
       <c r="H44" s="3">
-        <v>8624900</v>
+        <v>8854900</v>
       </c>
       <c r="I44" s="3">
-        <v>7463200</v>
+        <v>7662200</v>
       </c>
       <c r="J44" s="3">
-        <v>6788800</v>
+        <v>6969800</v>
       </c>
       <c r="K44" s="3">
         <v>6086700</v>
@@ -2075,25 +2075,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>983800</v>
+        <v>1010000</v>
       </c>
       <c r="E45" s="3">
-        <v>795300</v>
+        <v>816500</v>
       </c>
       <c r="F45" s="3">
-        <v>562600</v>
+        <v>577600</v>
       </c>
       <c r="G45" s="3">
-        <v>564700</v>
+        <v>579700</v>
       </c>
       <c r="H45" s="3">
-        <v>565200</v>
+        <v>580300</v>
       </c>
       <c r="I45" s="3">
-        <v>669800</v>
+        <v>687600</v>
       </c>
       <c r="J45" s="3">
-        <v>909900</v>
+        <v>934200</v>
       </c>
       <c r="K45" s="3">
         <v>640500</v>
@@ -2117,25 +2117,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>35737100</v>
+        <v>36690100</v>
       </c>
       <c r="E46" s="3">
-        <v>34966200</v>
+        <v>35898700</v>
       </c>
       <c r="F46" s="3">
-        <v>26873100</v>
+        <v>27589700</v>
       </c>
       <c r="G46" s="3">
-        <v>26131800</v>
+        <v>26828600</v>
       </c>
       <c r="H46" s="3">
-        <v>25238300</v>
+        <v>25911300</v>
       </c>
       <c r="I46" s="3">
-        <v>23345600</v>
+        <v>23968100</v>
       </c>
       <c r="J46" s="3">
-        <v>21977900</v>
+        <v>22564000</v>
       </c>
       <c r="K46" s="3">
         <v>21593900</v>
@@ -2159,25 +2159,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>6552900</v>
+        <v>6727700</v>
       </c>
       <c r="E47" s="3">
-        <v>5947600</v>
+        <v>6106200</v>
       </c>
       <c r="F47" s="3">
-        <v>5026400</v>
+        <v>5160500</v>
       </c>
       <c r="G47" s="3">
-        <v>5154100</v>
+        <v>5291500</v>
       </c>
       <c r="H47" s="3">
-        <v>4939900</v>
+        <v>5071600</v>
       </c>
       <c r="I47" s="3">
-        <v>5310300</v>
+        <v>5451900</v>
       </c>
       <c r="J47" s="3">
-        <v>5515600</v>
+        <v>5662700</v>
       </c>
       <c r="K47" s="3">
         <v>5380100</v>
@@ -2201,25 +2201,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>24641400</v>
+        <v>25298500</v>
       </c>
       <c r="E48" s="3">
-        <v>23012100</v>
+        <v>23625700</v>
       </c>
       <c r="F48" s="3">
-        <v>22796200</v>
+        <v>23404100</v>
       </c>
       <c r="G48" s="3">
-        <v>23103200</v>
+        <v>23719200</v>
       </c>
       <c r="H48" s="3">
-        <v>23210200</v>
+        <v>23829100</v>
       </c>
       <c r="I48" s="3">
-        <v>24711300</v>
+        <v>25370300</v>
       </c>
       <c r="J48" s="3">
-        <v>26166000</v>
+        <v>26863800</v>
       </c>
       <c r="K48" s="3">
         <v>26349300</v>
@@ -2243,25 +2243,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3628800</v>
+        <v>3725600</v>
       </c>
       <c r="E49" s="3">
-        <v>3124700</v>
+        <v>3208100</v>
       </c>
       <c r="F49" s="3">
-        <v>3337100</v>
+        <v>3426100</v>
       </c>
       <c r="G49" s="3">
-        <v>3681400</v>
+        <v>3779500</v>
       </c>
       <c r="H49" s="3">
-        <v>3878100</v>
+        <v>3981500</v>
       </c>
       <c r="I49" s="3">
-        <v>4464200</v>
+        <v>4583200</v>
       </c>
       <c r="J49" s="3">
-        <v>4566500</v>
+        <v>4688300</v>
       </c>
       <c r="K49" s="3">
         <v>4740300</v>
@@ -2369,25 +2369,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3244800</v>
+        <v>3331300</v>
       </c>
       <c r="E52" s="3">
-        <v>1553100</v>
+        <v>1594500</v>
       </c>
       <c r="F52" s="3">
-        <v>1282400</v>
+        <v>1316600</v>
       </c>
       <c r="G52" s="3">
-        <v>1223700</v>
+        <v>1256300</v>
       </c>
       <c r="H52" s="3">
-        <v>1419800</v>
+        <v>1457700</v>
       </c>
       <c r="I52" s="3">
-        <v>1437300</v>
+        <v>1475700</v>
       </c>
       <c r="J52" s="3">
-        <v>1596200</v>
+        <v>1638800</v>
       </c>
       <c r="K52" s="3">
         <v>1439000</v>
@@ -2453,25 +2453,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>73805100</v>
+        <v>75773200</v>
       </c>
       <c r="E54" s="3">
-        <v>68603700</v>
+        <v>70433100</v>
       </c>
       <c r="F54" s="3">
-        <v>59315200</v>
+        <v>60897000</v>
       </c>
       <c r="G54" s="3">
-        <v>59294000</v>
+        <v>60875200</v>
       </c>
       <c r="H54" s="3">
-        <v>58686200</v>
+        <v>60251200</v>
       </c>
       <c r="I54" s="3">
-        <v>59268700</v>
+        <v>60849200</v>
       </c>
       <c r="J54" s="3">
-        <v>59822200</v>
+        <v>61417500</v>
       </c>
       <c r="K54" s="3">
         <v>59502500</v>
@@ -2531,25 +2531,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>4140600</v>
+        <v>4251000</v>
       </c>
       <c r="E57" s="3">
-        <v>4101100</v>
+        <v>4210500</v>
       </c>
       <c r="F57" s="3">
-        <v>2816600</v>
+        <v>2891700</v>
       </c>
       <c r="G57" s="3">
-        <v>2567200</v>
+        <v>2635700</v>
       </c>
       <c r="H57" s="3">
-        <v>3004600</v>
+        <v>3084700</v>
       </c>
       <c r="I57" s="3">
-        <v>2598900</v>
+        <v>2668200</v>
       </c>
       <c r="J57" s="3">
-        <v>3055000</v>
+        <v>3136400</v>
       </c>
       <c r="K57" s="3">
         <v>2312800</v>
@@ -2573,25 +2573,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9049000</v>
+        <v>9290300</v>
       </c>
       <c r="E58" s="3">
-        <v>6758900</v>
+        <v>6939100</v>
       </c>
       <c r="F58" s="3">
-        <v>6691600</v>
+        <v>6870000</v>
       </c>
       <c r="G58" s="3">
-        <v>6523000</v>
+        <v>6697000</v>
       </c>
       <c r="H58" s="3">
-        <v>7724800</v>
+        <v>7930800</v>
       </c>
       <c r="I58" s="3">
-        <v>8469200</v>
+        <v>8695100</v>
       </c>
       <c r="J58" s="3">
-        <v>7664500</v>
+        <v>7868900</v>
       </c>
       <c r="K58" s="3">
         <v>9174500</v>
@@ -2615,25 +2615,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4201500</v>
+        <v>4313500</v>
       </c>
       <c r="E59" s="3">
-        <v>4952700</v>
+        <v>5084800</v>
       </c>
       <c r="F59" s="3">
-        <v>3133000</v>
+        <v>3216600</v>
       </c>
       <c r="G59" s="3">
-        <v>3152500</v>
+        <v>3236600</v>
       </c>
       <c r="H59" s="3">
-        <v>3474100</v>
+        <v>3566700</v>
       </c>
       <c r="I59" s="3">
-        <v>3141400</v>
+        <v>3225200</v>
       </c>
       <c r="J59" s="3">
-        <v>3467100</v>
+        <v>3559500</v>
       </c>
       <c r="K59" s="3">
         <v>3409700</v>
@@ -2657,25 +2657,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>17391100</v>
+        <v>17854900</v>
       </c>
       <c r="E60" s="3">
-        <v>15812700</v>
+        <v>16234400</v>
       </c>
       <c r="F60" s="3">
-        <v>12641200</v>
+        <v>12978300</v>
       </c>
       <c r="G60" s="3">
-        <v>12242800</v>
+        <v>12569200</v>
       </c>
       <c r="H60" s="3">
-        <v>14203500</v>
+        <v>14582200</v>
       </c>
       <c r="I60" s="3">
-        <v>14209500</v>
+        <v>14588400</v>
       </c>
       <c r="J60" s="3">
-        <v>14186500</v>
+        <v>14564900</v>
       </c>
       <c r="K60" s="3">
         <v>14896900</v>
@@ -2699,25 +2699,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>9797800</v>
+        <v>10059100</v>
       </c>
       <c r="E61" s="3">
-        <v>10130500</v>
+        <v>10400700</v>
       </c>
       <c r="F61" s="3">
-        <v>9236400</v>
+        <v>9482700</v>
       </c>
       <c r="G61" s="3">
-        <v>9314800</v>
+        <v>9563200</v>
       </c>
       <c r="H61" s="3">
-        <v>7503200</v>
+        <v>7703300</v>
       </c>
       <c r="I61" s="3">
-        <v>7398300</v>
+        <v>7595600</v>
       </c>
       <c r="J61" s="3">
-        <v>9450100</v>
+        <v>9702100</v>
       </c>
       <c r="K61" s="3">
         <v>9519100</v>
@@ -2741,25 +2741,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2923100</v>
+        <v>3001000</v>
       </c>
       <c r="E62" s="3">
-        <v>1556700</v>
+        <v>1598300</v>
       </c>
       <c r="F62" s="3">
-        <v>1681700</v>
+        <v>1726500</v>
       </c>
       <c r="G62" s="3">
-        <v>1890400</v>
+        <v>1940800</v>
       </c>
       <c r="H62" s="3">
-        <v>1909900</v>
+        <v>1960800</v>
       </c>
       <c r="I62" s="3">
-        <v>2062900</v>
+        <v>2117900</v>
       </c>
       <c r="J62" s="3">
-        <v>1806800</v>
+        <v>1855000</v>
       </c>
       <c r="K62" s="3">
         <v>1734600</v>
@@ -2909,25 +2909,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>34421000</v>
+        <v>35338900</v>
       </c>
       <c r="E66" s="3">
-        <v>30783200</v>
+        <v>31604100</v>
       </c>
       <c r="F66" s="3">
-        <v>26066700</v>
+        <v>26761800</v>
       </c>
       <c r="G66" s="3">
-        <v>25940100</v>
+        <v>26631800</v>
       </c>
       <c r="H66" s="3">
-        <v>26157800</v>
+        <v>26855300</v>
       </c>
       <c r="I66" s="3">
-        <v>26469100</v>
+        <v>27174900</v>
       </c>
       <c r="J66" s="3">
-        <v>28042200</v>
+        <v>28790000</v>
       </c>
       <c r="K66" s="3">
         <v>28988300</v>
@@ -3137,25 +3137,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>39723900</v>
+        <v>40783200</v>
       </c>
       <c r="E72" s="3">
-        <v>38649700</v>
+        <v>39680300</v>
       </c>
       <c r="F72" s="3">
-        <v>34583600</v>
+        <v>35505800</v>
       </c>
       <c r="G72" s="3">
-        <v>33810100</v>
+        <v>34711700</v>
       </c>
       <c r="H72" s="3">
-        <v>33162000</v>
+        <v>34046300</v>
       </c>
       <c r="I72" s="3">
-        <v>32292500</v>
+        <v>33153600</v>
       </c>
       <c r="J72" s="3">
-        <v>30880300</v>
+        <v>31703800</v>
       </c>
       <c r="K72" s="3">
         <v>29970800</v>
@@ -3305,25 +3305,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>39384100</v>
+        <v>40434300</v>
       </c>
       <c r="E76" s="3">
-        <v>37820500</v>
+        <v>38829100</v>
       </c>
       <c r="F76" s="3">
-        <v>33248500</v>
+        <v>34135100</v>
       </c>
       <c r="G76" s="3">
-        <v>33353900</v>
+        <v>34243300</v>
       </c>
       <c r="H76" s="3">
-        <v>32528400</v>
+        <v>33395900</v>
       </c>
       <c r="I76" s="3">
-        <v>32799700</v>
+        <v>33674300</v>
       </c>
       <c r="J76" s="3">
-        <v>31780100</v>
+        <v>32627500</v>
       </c>
       <c r="K76" s="3">
         <v>30514200</v>
@@ -3436,25 +3436,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2357300</v>
+        <v>2420100</v>
       </c>
       <c r="E81" s="3">
-        <v>4957900</v>
+        <v>5090100</v>
       </c>
       <c r="F81" s="3">
-        <v>1196600</v>
+        <v>1228500</v>
       </c>
       <c r="G81" s="3">
-        <v>1371300</v>
+        <v>1407900</v>
       </c>
       <c r="H81" s="3">
-        <v>1254700</v>
+        <v>1288100</v>
       </c>
       <c r="I81" s="3">
-        <v>2067800</v>
+        <v>2122900</v>
       </c>
       <c r="J81" s="3">
-        <v>997600</v>
+        <v>1024200</v>
       </c>
       <c r="K81" s="3">
         <v>109200</v>
@@ -3496,25 +3496,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2770200</v>
+        <v>2844100</v>
       </c>
       <c r="E83" s="3">
-        <v>2684600</v>
+        <v>2756200</v>
       </c>
       <c r="F83" s="3">
-        <v>2716300</v>
+        <v>2788700</v>
       </c>
       <c r="G83" s="3">
-        <v>2595800</v>
+        <v>2665100</v>
       </c>
       <c r="H83" s="3">
-        <v>2450700</v>
+        <v>2516100</v>
       </c>
       <c r="I83" s="3">
-        <v>2473100</v>
+        <v>2539000</v>
       </c>
       <c r="J83" s="3">
-        <v>2410400</v>
+        <v>2474700</v>
       </c>
       <c r="K83" s="3">
         <v>2381500</v>
@@ -3748,25 +3748,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4633500</v>
+        <v>4757100</v>
       </c>
       <c r="E89" s="3">
-        <v>4779200</v>
+        <v>4906700</v>
       </c>
       <c r="F89" s="3">
-        <v>6442800</v>
+        <v>6614700</v>
       </c>
       <c r="G89" s="3">
-        <v>4549800</v>
+        <v>4671100</v>
       </c>
       <c r="H89" s="3">
-        <v>4405800</v>
+        <v>4523300</v>
       </c>
       <c r="I89" s="3">
-        <v>4161200</v>
+        <v>4272200</v>
       </c>
       <c r="J89" s="3">
-        <v>3961500</v>
+        <v>4067200</v>
       </c>
       <c r="K89" s="3">
         <v>5642700</v>
@@ -3808,25 +3808,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-3695700</v>
+        <v>-3794200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2309800</v>
+        <v>-2371400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2397700</v>
+        <v>-2461600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1889400</v>
+        <v>-1939800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1601700</v>
+        <v>-1644400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1715700</v>
+        <v>-1761400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1743100</v>
+        <v>-1789600</v>
       </c>
       <c r="K91" s="3">
         <v>-1894600</v>
@@ -3934,25 +3934,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3164900</v>
+        <v>-3249300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4187600</v>
+        <v>-4299300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4694400</v>
+        <v>-4819600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2762100</v>
+        <v>-2835800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1986000</v>
+        <v>-2038900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2863400</v>
+        <v>-2939800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2816000</v>
+        <v>-2891100</v>
       </c>
       <c r="K94" s="3">
         <v>-3355700</v>
@@ -3994,25 +3994,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-913800</v>
+        <v>-938200</v>
       </c>
       <c r="E96" s="3">
-        <v>-983200</v>
+        <v>-1009400</v>
       </c>
       <c r="F96" s="3">
-        <v>-494400</v>
+        <v>-507500</v>
       </c>
       <c r="G96" s="3">
-        <v>-664500</v>
+        <v>-682200</v>
       </c>
       <c r="H96" s="3">
-        <v>-502300</v>
+        <v>-515700</v>
       </c>
       <c r="I96" s="3">
-        <v>-615400</v>
+        <v>-631800</v>
       </c>
       <c r="J96" s="3">
-        <v>-531700</v>
+        <v>-545900</v>
       </c>
       <c r="K96" s="3">
         <v>-608700</v>
@@ -4162,25 +4162,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>989600</v>
+        <v>1015900</v>
       </c>
       <c r="E100" s="3">
-        <v>-576500</v>
+        <v>-591900</v>
       </c>
       <c r="F100" s="3">
-        <v>-818200</v>
+        <v>-840000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1134100</v>
+        <v>-1164400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2396300</v>
+        <v>-2460200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1174100</v>
+        <v>-1205500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2963200</v>
+        <v>-3042200</v>
       </c>
       <c r="K100" s="3">
         <v>-1658800</v>
@@ -4246,25 +4246,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>2458200</v>
+        <v>2523700</v>
       </c>
       <c r="E102" s="3">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="F102" s="3">
-        <v>930200</v>
+        <v>955100</v>
       </c>
       <c r="G102" s="3">
-        <v>653500</v>
+        <v>671000</v>
       </c>
       <c r="H102" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="I102" s="3">
-        <v>123700</v>
+        <v>127000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1817700</v>
+        <v>-1866100</v>
       </c>
       <c r="K102" s="3">
         <v>628300</v>
